--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E20B5C-50C3-40BD-B530-493A6F1E743B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EF7B8-3C9F-6F4F-B57B-1B9EA86093AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-740" yWindow="-21140" windowWidth="25440" windowHeight="15400" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$94</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="529">
   <si>
     <t>Element</t>
   </si>
@@ -975,21 +975,9 @@
     <t>support searching location by ZIP code</t>
   </si>
   <si>
-    <t>GET [base]/Location?name=Health</t>
-  </si>
-  <si>
-    <t>GET [base]/Location?address=Arbor</t>
-  </si>
-  <si>
-    <t>GET [base]/Location?address-postalcode=48104</t>
-  </si>
-  <si>
     <t>GET [base]/Location?address-state=MI</t>
   </si>
   <si>
-    <t>GET [base]/Location?address-city=Ann Arbor</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -1017,9 +1005,6 @@
     <t>support searching for a practitioner by a string match of any part of name</t>
   </si>
   <si>
-    <t>GET [base]/Practitioner?name=Smith</t>
-  </si>
-  <si>
     <t>PractitionerRole</t>
   </si>
   <si>
@@ -1234,15 +1219,6 @@
   </si>
   <si>
     <t>GET [base]/MedicationStatement?patient=14676~GET [base]/MedicationStatement?patient=14676&amp;_include=MedicationStatement:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/PractitionerRole?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint</t>
-  </si>
-  <si>
-    <t>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</t>
-  </si>
-  <si>
-    <t>GET [base]/Practitioner?identifier=http://hl7.org/fhir/sid/us-npi\|97860456</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</t>
@@ -1771,7 +1747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2243,13 +2219,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2257,60 +2233,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -2326,22 +2302,22 @@
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -2361,7 +2337,7 @@
         <v>103</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -2373,7 +2349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2398,7 +2374,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2423,7 +2399,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2448,7 +2424,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2473,7 +2449,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2494,17 +2470,17 @@
         <v>111</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2529,7 +2505,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2554,7 +2530,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2580,7 +2556,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2607,7 +2583,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2633,7 +2609,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2658,7 +2634,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2679,17 +2655,17 @@
         <v>118</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2714,7 +2690,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2739,7 +2715,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2760,17 +2736,17 @@
         <v>111</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2796,7 +2772,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2817,17 +2793,17 @@
         <v>111</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2854,7 +2830,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -2880,7 +2856,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -2905,7 +2881,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -2931,7 +2907,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -2958,7 +2934,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -2985,7 +2961,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -3012,7 +2988,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -3037,7 +3013,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -3062,7 +3038,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -3087,7 +3063,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -3118,7 +3094,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -3149,7 +3125,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -3180,7 +3156,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -3211,7 +3187,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -3232,19 +3208,19 @@
         <v>111</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>161</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -3268,13 +3244,13 @@
         <v>155</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -3298,13 +3274,13 @@
         <v>156</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -3334,7 +3310,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -3358,13 +3334,13 @@
         <v>168</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -3395,7 +3371,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -3416,7 +3392,7 @@
         <v>154</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>169</v>
@@ -3426,7 +3402,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -3456,7 +3432,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -3476,7 +3452,7 @@
         <v>111</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>202</v>
@@ -3489,7 +3465,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -3519,7 +3495,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>52</v>
       </c>
@@ -3539,7 +3515,7 @@
         <v>229</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>204</v>
@@ -3552,7 +3528,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>53</v>
       </c>
@@ -3582,7 +3558,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -3602,7 +3578,7 @@
         <v>111</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>193</v>
@@ -3612,7 +3588,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -3642,7 +3618,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -3672,7 +3648,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>59</v>
       </c>
@@ -3702,7 +3678,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -3732,7 +3708,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -3744,7 +3720,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>73</v>
@@ -3756,14 +3732,14 @@
         <v>195</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -3775,7 +3751,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>73</v>
@@ -3787,14 +3763,14 @@
         <v>218</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -3806,7 +3782,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>73</v>
@@ -3815,19 +3791,19 @@
         <v>111</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -3839,7 +3815,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>73</v>
@@ -3848,19 +3824,19 @@
         <v>111</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -3872,7 +3848,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>73</v>
@@ -3881,19 +3857,19 @@
         <v>111</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -3905,7 +3881,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>73</v>
@@ -3914,24 +3890,24 @@
         <v>229</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>244</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3950,19 +3926,19 @@
         <v>196</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3981,13 +3957,13 @@
         <v>245</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>75</v>
       </c>
@@ -4018,7 +3994,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -4049,7 +4025,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>77</v>
       </c>
@@ -4080,7 +4056,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>80</v>
       </c>
@@ -4088,7 +4064,7 @@
         <v>191</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>251</v>
@@ -4100,19 +4076,19 @@
         <v>111</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>81</v>
       </c>
@@ -4120,7 +4096,7 @@
         <v>191</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>150</v>
@@ -4132,20 +4108,20 @@
         <v>111</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>233</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>82</v>
       </c>
@@ -4153,7 +4129,7 @@
         <v>191</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>152</v>
@@ -4168,14 +4144,14 @@
         <v>237</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -4183,7 +4159,7 @@
         <v>191</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>203</v>
@@ -4195,20 +4171,20 @@
         <v>229</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>84</v>
       </c>
@@ -4216,7 +4192,7 @@
         <v>191</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>230</v>
@@ -4238,15 +4214,15 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>121</v>
@@ -4268,7 +4244,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -4288,7 +4264,7 @@
         <v>111</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>256</v>
@@ -4301,7 +4277,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -4321,19 +4297,19 @@
         <v>229</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>255</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -4353,7 +4329,7 @@
         <v>111</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>253</v>
@@ -4365,7 +4341,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -4385,19 +4361,19 @@
         <v>229</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>254</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>94</v>
       </c>
@@ -4418,7 +4394,7 @@
         <v>111</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>263</v>
@@ -4430,7 +4406,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75">
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -4438,7 +4414,7 @@
         <v>191</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>152</v>
@@ -4450,20 +4426,20 @@
         <v>111</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -4471,7 +4447,7 @@
         <v>191</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>251</v>
@@ -4483,20 +4459,20 @@
         <v>111</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>101</v>
       </c>
@@ -4504,7 +4480,7 @@
         <v>191</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>150</v>
@@ -4516,20 +4492,20 @@
         <v>111</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -4537,7 +4513,7 @@
         <v>191</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>152</v>
@@ -4549,20 +4525,20 @@
         <v>111</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J75" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>103</v>
       </c>
@@ -4570,7 +4546,7 @@
         <v>191</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>203</v>
@@ -4582,20 +4558,20 @@
         <v>229</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>104</v>
       </c>
@@ -4603,7 +4579,7 @@
         <v>191</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>230</v>
@@ -4615,17 +4591,17 @@
         <v>229</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>107</v>
       </c>
@@ -4646,29 +4622,29 @@
         <v>111</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J78" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="20.25" customHeight="1">
+    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>73</v>
@@ -4677,7 +4653,7 @@
         <v>154</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5" t="str">
@@ -4685,7 +4661,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -4706,19 +4682,19 @@
         <v>111</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="20.25" customHeight="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>110</v>
       </c>
@@ -4739,19 +4715,19 @@
         <v>229</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>111</v>
       </c>
@@ -4772,16 +4748,16 @@
         <v>111</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="20.25" customHeight="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>112</v>
       </c>
@@ -4793,7 +4769,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>73</v>
@@ -4802,17 +4778,17 @@
         <v>229</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>115</v>
       </c>
@@ -4820,7 +4796,7 @@
         <v>266</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>123</v>
@@ -4832,13 +4808,13 @@
         <v>111</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4858,13 +4834,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4872,68 +4848,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="141" customHeight="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4949,9 +4925,9 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -4972,15 +4948,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4994,12 +4970,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -5009,12 +4985,12 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -5024,12 +5000,12 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -5039,27 +5015,27 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -5069,12 +5045,12 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -5084,12 +5060,12 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -5099,12 +5075,12 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -5114,12 +5090,12 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -5129,12 +5105,12 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -5144,12 +5120,12 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -5159,27 +5135,27 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -5189,12 +5165,12 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -5204,27 +5180,27 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -5234,12 +5210,12 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -5249,27 +5225,27 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -5279,12 +5255,12 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -5294,12 +5270,12 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -5309,12 +5285,12 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -5324,12 +5300,12 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -5338,12 +5314,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -5352,12 +5328,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1">
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -5366,26 +5342,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -5412,22 +5388,22 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5441,67 +5417,67 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="R1" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="X1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="17.25" customHeight="1" thickTop="1">
+    <row r="2" spans="1:24" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -5514,13 +5490,13 @@
       <c r="R2"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="X2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>248</v>
       </c>
@@ -5529,10 +5505,10 @@
       </c>
       <c r="V3" s="17"/>
       <c r="W3" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>262</v>
       </c>
@@ -5541,10 +5517,10 @@
       </c>
       <c r="V4" s="17"/>
       <c r="W4" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -5553,13 +5529,13 @@
       </c>
       <c r="V5" s="17"/>
       <c r="W5" s="17" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="X5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17.25" customHeight="1">
+    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>266</v>
       </c>
@@ -5568,10 +5544,10 @@
       </c>
       <c r="V6" s="17"/>
       <c r="W6" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>187</v>
       </c>
@@ -5580,10 +5556,10 @@
       </c>
       <c r="V7" s="17"/>
       <c r="W7" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -5591,14 +5567,14 @@
         <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="V8" s="17"/>
       <c r="W8" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -5607,10 +5583,10 @@
       </c>
       <c r="V9" s="17"/>
       <c r="W9" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
@@ -5619,10 +5595,10 @@
       </c>
       <c r="V10" s="17"/>
       <c r="W10" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>167</v>
       </c>
@@ -5631,10 +5607,10 @@
       </c>
       <c r="V11" s="17"/>
       <c r="W11" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>267</v>
       </c>
@@ -5644,20 +5620,20 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
     </row>
-    <row r="13" spans="1:24" ht="17.25" customHeight="1">
+    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
     </row>
-    <row r="14" spans="1:24" ht="17.25" customHeight="1">
+    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
@@ -5665,35 +5641,35 @@
         <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>219</v>
       </c>
       <c r="V14" s="17"/>
       <c r="W14" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="V15" s="17"/>
       <c r="W15" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
@@ -5702,12 +5678,12 @@
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>73</v>
@@ -5715,7 +5691,7 @@
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
     </row>
-    <row r="18" spans="1:23" ht="17.25" customHeight="1">
+    <row r="18" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -5724,12 +5700,12 @@
       </c>
       <c r="V18" s="17"/>
       <c r="W18" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="17.25" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>73</v>
@@ -5737,20 +5713,20 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
     </row>
-    <row r="20" spans="1:23" ht="17.25" customHeight="1">
+    <row r="20" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
     </row>
-    <row r="21" spans="1:23" ht="17.25" customHeight="1">
+    <row r="21" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
@@ -5759,39 +5735,39 @@
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="15">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="15">
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="17.25" customHeight="1">
+    <row r="24" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23" ht="17.25" customHeight="1">
+    <row r="25" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="17.25" customHeight="1">
+    <row r="56" spans="20:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="17.25" customHeight="1">
+    <row r="59" spans="20:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
@@ -5812,15 +5788,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -5837,12 +5813,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90.75" thickBot="1">
+    <row r="2" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>186</v>
@@ -5851,27 +5827,27 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -5887,95 +5863,95 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="1"/>
-    <col min="24" max="24" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="1"/>
+    <col min="24" max="24" width="16.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" t="s">
         <v>412</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="W1" t="s">
-        <v>420</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5995,7 +5971,7 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -6046,7 +6022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -6116,7 +6092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6184,7 +6160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6252,7 +6228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6321,7 +6297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6389,7 +6365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -6457,7 +6433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -6525,7 +6501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6606,9 +6582,9 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6616,39 +6592,39 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -6665,44 +6641,44 @@
   <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Z68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="Z88" sqref="Z88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -6746,28 +6722,28 @@
         <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>52</v>
@@ -6788,7 +6764,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6838,7 +6814,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6885,7 +6861,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6939,7 +6915,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6998,7 +6974,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7048,7 +7024,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7099,7 +7075,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7150,7 +7126,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7196,7 +7172,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7251,7 +7227,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7301,7 +7277,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7349,7 +7325,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7407,7 +7383,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7450,7 +7426,7 @@
         <v>222</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>178</v>
@@ -7460,7 +7436,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7510,7 +7486,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7564,7 +7540,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.95" customHeight="1">
+    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7618,7 +7594,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.95" customHeight="1">
+    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7676,7 +7652,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.95" customHeight="1">
+    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7726,7 +7702,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.95" customHeight="1">
+    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7773,7 +7749,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.95" customHeight="1">
+    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7816,14 +7792,14 @@
         <v>79</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AB21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.95" customHeight="1">
+    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7870,7 +7846,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.95" customHeight="1">
+    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7913,7 +7889,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.95" customHeight="1">
+    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7961,7 +7937,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18.95" customHeight="1">
+    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8005,7 +7981,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.95" customHeight="1">
+    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8059,7 +8035,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.95" customHeight="1">
+    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8116,7 +8092,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.95" customHeight="1">
+    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8159,7 +8135,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18.95" customHeight="1">
+    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8203,7 +8179,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="18.95" customHeight="1">
+    <row r="30" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8253,7 +8229,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="18.95" customHeight="1">
+    <row r="31" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8300,7 +8276,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="18.95" customHeight="1">
+    <row r="32" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8359,7 +8335,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="18.95" customHeight="1">
+    <row r="33" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8403,7 +8379,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="18.95" customHeight="1">
+    <row r="34" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8447,7 +8423,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="18.95" customHeight="1">
+    <row r="35" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8498,7 +8474,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="18.95" customHeight="1">
+    <row r="36" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8545,7 +8521,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="18.95" customHeight="1">
+    <row r="37" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8604,7 +8580,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="18.95" customHeight="1">
+    <row r="38" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8654,7 +8630,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="18.95" customHeight="1">
+    <row r="39" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8708,7 +8684,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="18.95" customHeight="1">
+    <row r="40" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8748,20 +8724,20 @@
         <v>57</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AB40" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="18.95" customHeight="1">
+    <row r="41" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8814,7 +8790,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="18.95" customHeight="1">
+    <row r="42" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8873,7 +8849,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="18.95" customHeight="1">
+    <row r="43" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8923,7 +8899,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="18.95" customHeight="1">
+    <row r="44" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8970,7 +8946,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="18.95" customHeight="1">
+    <row r="45" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9024,7 +9000,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="18.95" customHeight="1">
+    <row r="46" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9032,7 +9008,7 @@
         <v>186</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>73</v>
@@ -9054,7 +9030,7 @@
         <v>83</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>57</v>
@@ -9077,7 +9053,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="18.95" customHeight="1">
+    <row r="47" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9130,7 +9106,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="18.95" customHeight="1">
+    <row r="48" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9189,7 +9165,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="18.95" customHeight="1">
+    <row r="49" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9239,7 +9215,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="18.95" customHeight="1">
+    <row r="50" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9289,7 +9265,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="18.95" customHeight="1">
+    <row r="51" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9343,7 +9319,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="18.95" customHeight="1">
+    <row r="52" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9351,7 +9327,7 @@
         <v>188</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>73</v>
@@ -9393,7 +9369,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="18.95" customHeight="1">
+    <row r="53" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9452,7 +9428,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="18.95" customHeight="1">
+    <row r="54" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9460,7 +9436,7 @@
         <v>188</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>73</v>
@@ -9506,7 +9482,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="18.95" customHeight="1">
+    <row r="55" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9559,7 +9535,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="18.95" customHeight="1">
+    <row r="56" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -9567,7 +9543,7 @@
         <v>189</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>73</v>
@@ -9612,7 +9588,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="18.95" customHeight="1">
+    <row r="57" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -9663,7 +9639,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="18.95" customHeight="1">
+    <row r="58" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -9671,7 +9647,7 @@
         <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>73</v>
@@ -9714,7 +9690,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="18.95" customHeight="1">
+    <row r="59" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -9768,12 +9744,12 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="18.95" customHeight="1">
+    <row r="60" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
@@ -9821,12 +9797,12 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="18.95" customHeight="1">
+    <row r="61" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>94</v>
@@ -9868,7 +9844,7 @@
         <v>225</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AA61" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -9879,12 +9855,12 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="18.95" customHeight="1">
+    <row r="62" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>242</v>
@@ -9933,7 +9909,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="18.95" customHeight="1">
+    <row r="63" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -9986,7 +9962,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="18.95" customHeight="1">
+    <row r="64" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -10044,7 +10020,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="18.95" customHeight="1">
+    <row r="65" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -10098,7 +10074,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="18.95" customHeight="1">
+    <row r="66" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -10148,7 +10124,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="18.95" customHeight="1">
+    <row r="67" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -10201,7 +10177,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="18.95" customHeight="1">
+    <row r="68" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -10251,7 +10227,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="18.95" customHeight="1">
+    <row r="69" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -10301,7 +10277,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="18.95" customHeight="1">
+    <row r="70" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -10355,7 +10331,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="18.95" customHeight="1">
+    <row r="71" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -10414,7 +10390,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="18.95" customHeight="1">
+    <row r="72" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -10464,12 +10440,12 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="18.95" customHeight="1">
+    <row r="73" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>28</v>
@@ -10511,7 +10487,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="18.95" customHeight="1">
+    <row r="74" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -10565,7 +10541,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="18.95" customHeight="1">
+    <row r="75" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -10624,7 +10600,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="18.95" customHeight="1">
+    <row r="76" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -10677,7 +10653,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="18.95" customHeight="1">
+    <row r="77" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -10736,7 +10712,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="18.95" customHeight="1">
+    <row r="78" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -10789,7 +10765,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="18.95" customHeight="1">
+    <row r="79" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -10848,7 +10824,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="18.95" customHeight="1">
+    <row r="80" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -10894,7 +10870,7 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="18.95" customHeight="1">
+    <row r="81" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -10936,8 +10912,9 @@
       <c r="Y81" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="Z81" s="7" t="s">
-        <v>276</v>
+      <c r="Z81" s="5" t="str">
+        <f>"GET [base]/"&amp;B81&amp;"?name=Health"</f>
+        <v>GET [base]/Location?name=Health</v>
       </c>
       <c r="AA81" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B81&amp; " resources that match the name"</f>
@@ -10948,7 +10925,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="18.95" customHeight="1">
+    <row r="82" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -10990,8 +10967,9 @@
       <c r="Y82" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="Z82" s="7" t="s">
-        <v>277</v>
+      <c r="Z82" s="5" t="str">
+        <f>"GET [base]/"&amp;B82&amp;"?address=Arbor"</f>
+        <v>GET [base]/Location?address=Arbor</v>
       </c>
       <c r="AA82" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp; " resources that match the address string"</f>
@@ -11002,7 +10980,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="18.95" customHeight="1">
+    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -11044,8 +11022,9 @@
       <c r="Y83" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Z83" s="7" t="s">
-        <v>280</v>
+      <c r="Z83" s="5" t="str">
+        <f>"GET [base]/"&amp;B83&amp;"?address-city=Ann Arbor"</f>
+        <v>GET [base]/Location?address-city=Ann Arbor</v>
       </c>
       <c r="AA83" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the city"</f>
@@ -11056,7 +11035,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="18.95" customHeight="1">
+    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -11064,7 +11043,7 @@
         <v>267</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
@@ -11098,8 +11077,8 @@
       <c r="Y84" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Z84" s="7" t="s">
-        <v>279</v>
+      <c r="Z84" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="AA84" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp; " resources for the state"</f>
@@ -11110,7 +11089,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="18.95" customHeight="1">
+    <row r="85" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -11152,8 +11131,9 @@
       <c r="Y85" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="Z85" s="7" t="s">
-        <v>278</v>
+      <c r="Z85" s="5" t="str">
+        <f>"GET [base]/"&amp;B85&amp;"?address-postalcode=48104"</f>
+        <v>GET [base]/Location?address-postalcode=48104</v>
       </c>
       <c r="AA85" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B85&amp; " resources for the ZIP code"</f>
@@ -11164,12 +11144,12 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="18.95" customHeight="1">
+    <row r="86" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>25</v>
@@ -11204,10 +11184,11 @@
         <v>57</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z86" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="Z86" s="5" t="str">
+        <f>"GET [base]/"&amp;B86&amp;"?name=Health"</f>
+        <v>GET [base]/Organization?name=Health</v>
       </c>
       <c r="AA86" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B86&amp; " resources that match the name"</f>
@@ -11218,12 +11199,12 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="18.95" customHeight="1">
+    <row r="87" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>90</v>
@@ -11258,10 +11239,11 @@
         <v>57</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z87" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="Z87" s="5" t="str">
+        <f>"GET [base]/"&amp;B87&amp;"?address=Arbor"</f>
+        <v>GET [base]/Organization?address=Arbor</v>
       </c>
       <c r="AA87" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B87&amp; " resources that match the address string"</f>
@@ -11272,12 +11254,12 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="18.95" customHeight="1">
+    <row r="88" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>268</v>
@@ -11312,10 +11294,11 @@
         <v>57</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z88" s="7" t="s">
         <v>280</v>
+      </c>
+      <c r="Z88" s="5" t="str">
+        <f>"GET [base]/"&amp;B88&amp;"?address-city=Ann Arbor"</f>
+        <v>GET [base]/!Organization?address-city=Ann Arbor</v>
       </c>
       <c r="AA88" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the city"</f>
@@ -11326,12 +11309,12 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="18.95" customHeight="1">
+    <row r="89" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>269</v>
@@ -11366,10 +11349,11 @@
         <v>57</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z89" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="Z89" s="5" t="str">
+        <f>"GET [base]/"&amp;B89&amp;"?address-state=MI"</f>
+        <v>GET [base]/!Organization?address-state=MI</v>
       </c>
       <c r="AA89" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the state"</f>
@@ -11380,12 +11364,12 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="18.95" customHeight="1">
+    <row r="90" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>270</v>
@@ -11420,10 +11404,11 @@
         <v>57</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z90" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
+      </c>
+      <c r="Z90" s="5" t="str">
+        <f>"GET [base]/"&amp;B90&amp;"?address-postalcode=48104"</f>
+        <v>GET [base]/!Organization?address-postalcode=48104</v>
       </c>
       <c r="AA90" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B90&amp; " resources for the ZIP code"</f>
@@ -11434,12 +11419,12 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="18.95" customHeight="1">
+    <row r="91" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>25</v>
@@ -11477,10 +11462,11 @@
         <v>81</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z91" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="Z91" s="5" t="str">
+        <f>"GET [base]/"&amp;B91&amp;"?name=Smith"</f>
+        <v>GET [base]/Practitioner?name=Smith</v>
       </c>
       <c r="AA91" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B91&amp;" resources matching the name"</f>
@@ -11491,12 +11477,12 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="18.95" customHeight="1">
+    <row r="92" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>80</v>
@@ -11531,10 +11517,11 @@
         <v>57</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="Z92" s="7" t="s">
-        <v>365</v>
+        <v>344</v>
+      </c>
+      <c r="Z92" s="5" t="str">
+        <f>"GET [base]/"&amp;B92&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
+        <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
       </c>
       <c r="AA92" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B92&amp;" resources matching the identifier"</f>
@@ -11545,15 +11532,15 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="18.95" customHeight="1">
+    <row r="93" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>73</v>
@@ -11585,13 +11572,14 @@
         <v>57</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z93" s="7" t="s">
-        <v>364</v>
+        <v>345</v>
+      </c>
+      <c r="Z93" s="5" t="str">
+        <f>"GET [base]/"&amp;B93&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
+        <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
       </c>
       <c r="AA93" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B93&amp;" resources matching the specialty"</f>
@@ -11602,15 +11590,15 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="18.95" customHeight="1">
+    <row r="94" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>73</v>
@@ -11642,16 +11630,17 @@
         <v>57</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z94" s="7" t="s">
-        <v>363</v>
+        <v>291</v>
+      </c>
+      <c r="Z94" s="5" t="str">
+        <f>_xlfn.CONCAT("GET [base]/",B94,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
+        <v>GET [base]/PractitionerRole?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint</v>
       </c>
       <c r="AA94" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B94&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EF7B8-3C9F-6F4F-B57B-1B9EA86093AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AF8AC3-45BC-41AE-85E9-E86F0B7D929C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-740" yWindow="-21140" windowWidth="25440" windowHeight="15400" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23940" yWindow="420" windowWidth="28005" windowHeight="15795" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1747,7 +1747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2219,13 +2219,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>512</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>514</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>516</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>518</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>521</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>522</v>
       </c>
@@ -2302,22 +2302,22 @@
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="1">
         <v>52</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>53</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>59</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>73</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>74</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>75</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>77</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>80</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>81</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>82</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>84</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>85</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>94</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="15.75">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>101</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>103</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>104</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>107</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="20.25" customHeight="1">
       <c r="A79" s="1">
         <v>108</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="20.25" customHeight="1">
       <c r="A81" s="1">
         <v>110</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>111</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="20.25" customHeight="1">
       <c r="A83" s="1">
         <v>112</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>115</v>
       </c>
@@ -4834,13 +4834,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>500</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="105" customHeight="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="141" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="103.5" customHeight="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4925,9 +4925,9 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -4948,15 +4948,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>358</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>527</v>
       </c>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>462</v>
       </c>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>361</v>
       </c>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>363</v>
       </c>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>292</v>
       </c>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>366</v>
       </c>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>368</v>
       </c>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>370</v>
       </c>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>372</v>
       </c>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>373</v>
       </c>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>453</v>
       </c>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>375</v>
       </c>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>377</v>
       </c>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>440</v>
       </c>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>198</v>
       </c>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>381</v>
       </c>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>384</v>
       </c>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>386</v>
       </c>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>455</v>
       </c>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
         <v>469</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>197</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>471</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
         <v>525</v>
       </c>
@@ -5388,22 +5388,22 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="17.25" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>248</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="17.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>262</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="17.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>266</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>187</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>167</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>267</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
     </row>
-    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>379</v>
       </c>
@@ -5633,7 +5633,7 @@
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
     </row>
-    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>480</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>277</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
     </row>
-    <row r="18" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>284</v>
       </c>
@@ -5713,7 +5713,7 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
     </row>
-    <row r="20" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>286</v>
       </c>
@@ -5726,7 +5726,7 @@
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
     </row>
-    <row r="21" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="15">
       <c r="A22" s="1" t="s">
         <v>473</v>
       </c>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="15">
       <c r="A23" s="1" t="s">
         <v>492</v>
       </c>
@@ -5756,18 +5756,18 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="17.25" customHeight="1">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="17.25" customHeight="1">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="20:23" ht="17.25" customHeight="1">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="20:23" ht="17.25" customHeight="1">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
@@ -5788,15 +5788,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="90.75" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>392</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>494</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -5863,18 +5863,18 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="1"/>
-    <col min="24" max="24" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="1"/>
+    <col min="24" max="24" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6582,9 +6582,9 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>464</v>
       </c>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>465</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>466</v>
       </c>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>467</v>
       </c>
@@ -6641,44 +6641,44 @@
   <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="Z68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z88" sqref="Z88"/>
+      <selection pane="bottomRight" activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.1640625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.83203125" style="1"/>
+    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="18.95" customHeight="1" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="18.95" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="18.95" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="18.95" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="18.95" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="18.95" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="18.95" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="18.95" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="18.95" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="18.95" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="18.95" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="18.95" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="18.95" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="18.95" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="18.95" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="18.95" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="18.95" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="18.95" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="18.95" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="18.95" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="18.95" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="18.95" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="18.95" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="18.95" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="18.95" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="18.95" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="18.95" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="18.95" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="18.95" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="18.95" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="18.95" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="18.95" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="18.95" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="18.95" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="18.95" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="18.95" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="18.95" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="18.95" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="18.95" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="18.95" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="18.95" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="18.95" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="18.95" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="18.95" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="18.95" customHeight="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="18.95" customHeight="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="18.95" customHeight="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="18.95" customHeight="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="18.95" customHeight="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="18.95" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="18.95" customHeight="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="18.95" customHeight="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="18.95" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="18.95" customHeight="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="18.95" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="18.95" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="18.95" customHeight="1">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="18.95" customHeight="1">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="18.95" customHeight="1">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="18.95" customHeight="1">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="18.95" customHeight="1">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="18.95" customHeight="1">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="18.95" customHeight="1">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="18.95" customHeight="1">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="18.95" customHeight="1">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="18.95" customHeight="1">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="18.95" customHeight="1">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="18.95" customHeight="1">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="18.95" customHeight="1">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="18.95" customHeight="1">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="18.95" customHeight="1">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="18.95" customHeight="1">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="18.95" customHeight="1">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="18.95" customHeight="1">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="18.95" customHeight="1">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="18.95" customHeight="1">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="18.95" customHeight="1">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="18.95" customHeight="1">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="18.95" customHeight="1">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="18.95" customHeight="1">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="18.95" customHeight="1">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="18.95" customHeight="1">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="18.95" customHeight="1">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="18.95" customHeight="1">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="18.95" customHeight="1">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="18.95" customHeight="1">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="18.95" customHeight="1">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="18.95" customHeight="1">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="18.95" customHeight="1">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="18.95" customHeight="1">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="18.95" customHeight="1">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="18.95" customHeight="1">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="18.95" customHeight="1">
       <c r="A94" s="1">
         <v>90</v>
       </c>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AF8AC3-45BC-41AE-85E9-E86F0B7D929C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A46008-E3C3-46E4-AB8B-7E3397EA01CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23940" yWindow="420" windowWidth="28005" windowHeight="15795" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="38355" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{CAFAF164-B5B4-4280-B703-1E7EE7F64AEA}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{CAFAF164-B5B4-4280-B703-1E7EE7F64AEA}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="530">
   <si>
     <t>Element</t>
   </si>
@@ -1695,9 +1695,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/source/</t>
-  </si>
-  <si>
     <t>packagepath</t>
   </si>
   <si>
@@ -1741,6 +1738,12 @@
   </si>
   <si>
     <t>The MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationRequest, then the READ **SHALL**  be supported.</t>
+  </si>
+  <si>
+    <t>profile_conf</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/input/</t>
   </si>
 </sst>
 </file>
@@ -2215,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F68824-E615-4729-AAE0-A6F75FBDE06B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2238,31 +2241,31 @@
         <v>512</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2270,12 +2273,12 @@
         <v>70</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>61</v>
@@ -2283,10 +2286,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -4885,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4987,7 +4990,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>360</v>
@@ -5358,10 +5361,10 @@
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -5379,13 +5382,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1"/>
@@ -5393,17 +5396,19 @@
     <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26" ht="17.25" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5413,71 +5418,77 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="17.25" customHeight="1" thickTop="1">
+    <row r="2" spans="1:26" ht="17.25" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -5485,81 +5496,83 @@
         <v>73</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2"/>
-      <c r="R2"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17" t="s">
+      <c r="H2"/>
+      <c r="T2"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1">
+    <row r="3" spans="1:26" ht="17.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17" t="s">
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="17.25" customHeight="1">
+    <row r="4" spans="1:26" ht="17.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="17.25" customHeight="1">
+    <row r="5" spans="1:26" ht="17.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17" t="s">
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17.25" customHeight="1">
+    <row r="6" spans="1:26" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17" t="s">
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17.25" customHeight="1">
+    <row r="7" spans="1:26" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17" t="s">
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17.25" customHeight="1">
+    <row r="8" spans="1:26" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -5569,58 +5582,58 @@
       <c r="C8" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17" t="s">
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17.25" customHeight="1">
+    <row r="9" spans="1:26" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17" t="s">
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17.25" customHeight="1">
+    <row r="10" spans="1:26" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17" t="s">
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="17.25" customHeight="1">
+    <row r="11" spans="1:26" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17" t="s">
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17.25" customHeight="1">
+    <row r="12" spans="1:26" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-    </row>
-    <row r="13" spans="1:24" ht="17.25" customHeight="1">
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+    </row>
+    <row r="13" spans="1:26" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>379</v>
       </c>
@@ -5628,12 +5641,12 @@
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-    </row>
-    <row r="14" spans="1:24" ht="17.25" customHeight="1">
+        <v>527</v>
+      </c>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+    </row>
+    <row r="14" spans="1:26" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
@@ -5643,15 +5656,15 @@
       <c r="C14" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="W14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17" t="s">
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1">
+    <row r="15" spans="1:26" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>480</v>
       </c>
@@ -5661,84 +5674,84 @@
       <c r="C15" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="W15" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17" t="s">
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17.25" customHeight="1">
+    <row r="16" spans="1:26" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17" t="s">
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="17.25" customHeight="1">
+    <row r="17" spans="1:25" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-    </row>
-    <row r="18" spans="1:23" ht="17.25" customHeight="1">
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+    </row>
+    <row r="18" spans="1:25" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17" t="s">
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="17.25" customHeight="1">
+    <row r="19" spans="1:25" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-    </row>
-    <row r="20" spans="1:23" ht="17.25" customHeight="1">
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+    </row>
+    <row r="20" spans="1:25" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-    </row>
-    <row r="21" spans="1:23" ht="17.25" customHeight="1">
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+    </row>
+    <row r="21" spans="1:25" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17" t="s">
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="15">
+    <row r="22" spans="1:25" s="1" customFormat="1" ht="15">
       <c r="A22" s="1" t="s">
         <v>473</v>
       </c>
@@ -5746,8 +5759,10 @@
         <v>73</v>
       </c>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="15">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" s="1" customFormat="1" ht="15">
       <c r="A23" s="1" t="s">
         <v>492</v>
       </c>
@@ -5755,20 +5770,22 @@
         <v>73</v>
       </c>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:23" ht="17.25" customHeight="1">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:25" ht="17.25" customHeight="1">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23" ht="17.25" customHeight="1">
+    <row r="25" spans="1:25" ht="17.25" customHeight="1">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="17.25" customHeight="1">
-      <c r="T56" s="7"/>
+    <row r="56" spans="22:25" ht="17.25" customHeight="1">
       <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-    </row>
-    <row r="59" spans="20:23" ht="17.25" customHeight="1">
-      <c r="W59" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+    </row>
+    <row r="59" spans="22:25" ht="17.25" customHeight="1">
+      <c r="Y59" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
@@ -6640,7 +6657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A46008-E3C3-46E4-AB8B-7E3397EA01CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F53F5-88C9-4890-818C-9FA18C3D5AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="38355" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38355" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="531">
   <si>
     <t>Element</t>
   </si>
@@ -1744,6 +1744,13 @@
   </si>
   <si>
     <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/input/</t>
+  </si>
+  <si>
+    <t>* The Encounter resource can represent a reason using either a code with `Encounter.reasonCode`, or a reference with `Encounter.reasonReference` to  Condition or other resource.
+   * Although both are marked as must support, the server systems are not required to support both a code and a reference, but they **SHALL** support *at least one* of these elements.
+   * The client application **SHALL** support both elements.
+   * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
+* The base FHIR Location resource is being referenced by `Encounter.location`.  However, it **SHOULD** conform to US Core Location.</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F68824-E615-4729-AAE0-A6F75FBDE06B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5384,11 +5391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1"/>
@@ -5593,6 +5600,9 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F53F5-88C9-4890-818C-9FA18C3D5AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BC494A-7D45-4FDB-886A-EBB0229E3A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38355" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,12 +1557,6 @@
     <t>history-system</t>
   </si>
   <si>
-    <t>The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
- For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
- `GET /MedicationRequest?patient=[id]`
- `GET /MedicationRequest?patient=[id]&amp;_include=MedicationRequest:medication`</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pulse-oximetry</t>
   </si>
   <si>
@@ -1751,6 +1745,15 @@
    * The client application **SHALL** support both elements.
    * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
 * The base FHIR Location resource is being referenced by `Encounter.location`.  However, it **SHOULD** conform to US Core Location.</t>
+  </si>
+  <si>
+    <t>The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+ For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
+ `GET /MedicationRequest?patient=[id]`
+ `GET /MedicationRequest?patient=[id]&amp;_include=MedicationRequest:medication`
+* The MedicationRequest resource can represent that information is from a secondary source using either a boolean flag or reference in `MedicationRequest.reportedBoolean`, or a reference using `MedicationRequest.reportedReference` to Practitioner or other resource.
+   *   Although both are marked as must support, the server systems are not required to support both a boolean and a reference, but **SHALL** choose to support at least one of these elements.
+   *  The client application **SHALL** support both elements.</t>
   </si>
 </sst>
 </file>
@@ -2245,34 +2248,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2280,12 +2283,12 @@
         <v>70</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>61</v>
@@ -2293,10 +2296,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -3254,7 +3257,7 @@
         <v>155</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>151</v>
@@ -3347,7 +3350,7 @@
         <v>346</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3792,7 +3795,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>73</v>
@@ -3801,16 +3804,16 @@
         <v>111</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="I52" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3825,7 +3828,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>73</v>
@@ -3834,16 +3837,16 @@
         <v>111</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I53" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3858,7 +3861,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>73</v>
@@ -3867,16 +3870,16 @@
         <v>111</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I54" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3891,7 +3894,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>73</v>
@@ -3900,16 +3903,16 @@
         <v>229</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>244</v>
       </c>
       <c r="I55" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3917,7 +3920,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3948,7 +3951,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4086,13 +4089,13 @@
         <v>111</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>297</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>342</v>
@@ -4118,13 +4121,13 @@
         <v>111</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>233</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -4181,13 +4184,13 @@
         <v>229</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -4469,13 +4472,13 @@
         <v>111</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>296</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
@@ -4502,13 +4505,13 @@
         <v>111</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>295</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -4535,7 +4538,7 @@
         <v>111</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>298</v>
@@ -4568,13 +4571,13 @@
         <v>229</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>301</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -4863,15 +4866,15 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4895,7 +4898,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4997,7 +5000,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>360</v>
@@ -5312,10 +5315,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -5354,24 +5357,24 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -5395,7 +5398,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1"/>
@@ -5429,7 +5432,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -5510,7 +5513,7 @@
       <c r="T2"/>
       <c r="X2" s="17"/>
       <c r="Y2" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z2" t="s">
         <v>20</v>
@@ -5525,7 +5528,7 @@
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17.25" customHeight="1">
@@ -5537,7 +5540,7 @@
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="17.25" customHeight="1">
@@ -5549,7 +5552,7 @@
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z5" t="s">
         <v>24</v>
@@ -5564,7 +5567,7 @@
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="17.25" customHeight="1">
@@ -5576,7 +5579,7 @@
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="17.25" customHeight="1">
@@ -5591,7 +5594,7 @@
       </c>
       <c r="X8" s="17"/>
       <c r="Y8" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17.25" customHeight="1">
@@ -5602,11 +5605,11 @@
         <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17.25" customHeight="1">
@@ -5618,7 +5621,7 @@
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
@@ -5630,7 +5633,7 @@
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1">
@@ -5651,7 +5654,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -5664,19 +5667,19 @@
         <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>219</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>73</v>
@@ -5689,7 +5692,7 @@
       </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
@@ -5701,7 +5704,7 @@
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="17.25" customHeight="1">
@@ -5723,7 +5726,7 @@
       </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="17.25" customHeight="1">
@@ -5758,12 +5761,12 @@
       </c>
       <c r="X21" s="17"/>
       <c r="Y21" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="1" customFormat="1" ht="15">
       <c r="A22" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>73</v>
@@ -5774,7 +5777,7 @@
     </row>
     <row r="23" spans="1:25" s="1" customFormat="1" ht="15">
       <c r="A23" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>73</v>
@@ -5859,19 +5862,19 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5954,7 +5957,7 @@
         <v>407</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>408</v>
@@ -5972,10 +5975,10 @@
         <v>412</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -9570,7 +9573,7 @@
         <v>189</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>73</v>
@@ -9674,7 +9677,7 @@
         <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>73</v>
@@ -9776,7 +9779,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
@@ -9829,7 +9832,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>94</v>
@@ -9887,7 +9890,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>242</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BC494A-7D45-4FDB-886A-EBB0229E3A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E563653-E32C-4BBB-B3E5-24F934AA064F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38355" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1170" windowWidth="38355" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{5BD04D3A-61B4-4353-A042-87021061D1BC}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{1602FA8F-AF8A-4828-872F-93D3D42FD6D9}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="557">
   <si>
     <t>Element</t>
   </si>
@@ -1508,18 +1508,6 @@
     <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018&amp;date=le2019</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
-  </si>
-  <si>
-    <t>US Core Pediatric Weight  for Height Observation Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
-  </si>
-  <si>
-    <t>US Core Pediatric BMI for Age Observation Profile</t>
-  </si>
-  <si>
     <t>A client **SHOULD** be capable of transacting a $docref operation and capable of receiving at least a reference to a generated CCD document, and  **MAY** be able to receive other document types, if available.   **SHOULD**  be capable of receiving documents as included resources in response to the operation.
 `GET [base]/DocumentReference/$docref?patient=[id]`</t>
   </si>
@@ -1530,12 +1518,6 @@
     <t>This conformance expectation applies **only**  to the *US Core DiagnosticReport Profile for Report and Note exchange* profile.  The conformance expectation for the *US Core DiagnosticReport Profile for Laboratory Results Reporting* is  **MAY**.</t>
   </si>
   <si>
-    <t>The MedicationStatement resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
- For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
- `GET /MedicationStatement?patient=[id]`
- `GET /MedicationStatement?patient=[id]&amp;_include=MedicationStatement:medication`</t>
-  </si>
-  <si>
     <t>US Core Implantable Device Profile</t>
   </si>
   <si>
@@ -1692,9 +1674,6 @@
     <t>packagepath</t>
   </si>
   <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/output</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
@@ -1722,38 +1701,171 @@
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
-  </si>
-  <si>
-    <t>US Core Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
-  </si>
-  <si>
     <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
   </si>
   <si>
-    <t>The MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationRequest, then the READ **SHALL**  be supported.</t>
-  </si>
-  <si>
     <t>profile_conf</t>
   </si>
   <si>
     <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/input/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-vital-signs</t>
+  </si>
+  <si>
+    <t>US Core Vital Signs Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-blood-pressure</t>
+  </si>
+  <si>
+    <t>US Core Blood Pressure Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-bmi</t>
+  </si>
+  <si>
+    <t>US Core BMI Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-head-circumference</t>
+  </si>
+  <si>
+    <t>US Core Head Circumference Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-body-height</t>
+  </si>
+  <si>
+    <t>US Core Body Height Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-body-weight</t>
+  </si>
+  <si>
+    <t>US Core Body Weight Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-body-temperature</t>
+  </si>
+  <si>
+    <t>US Core Body Temperature Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-heart-rate</t>
+  </si>
+  <si>
+    <t>US Core Heart Rate Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age-observation</t>
+  </si>
+  <si>
+    <t>Pediatric BMI for Age Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-head-occipital-frontal-circumference-percentile</t>
+  </si>
+  <si>
+    <t>Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height-observation</t>
+  </si>
+  <si>
+    <t>Pediatric Weight for Height Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-respiratory-rate</t>
+  </si>
+  <si>
+    <t>US Core Respiratory Rate Profile</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/US-Core/package.tgz</t>
+  </si>
+  <si>
+    <t>* Additional considerations for systems aligning with [HL7 Consolidated (C-CDA)](http://www.hl7.org/implement/standards/product_brief.cfm?product_id=492) Care Plan requirements:
+    - US Core Goal **SHOULD** be present in CarePlan.goal
+    - US Core Condition **SHOULD** be present in CarePlan.addresses
+    - Assement and Plan **MAY** be included as narrative text</t>
   </si>
   <si>
     <t>* The Encounter resource can represent a reason using either a code with `Encounter.reasonCode`, or a reference with `Encounter.reasonReference` to  Condition or other resource.
    * Although both are marked as must support, the server systems are not required to support both a code and a reference, but they **SHALL** support *at least one* of these elements.
    * The client application **SHALL** support both elements.
    * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
-* The base FHIR Location resource is being referenced by `Encounter.location`.  However, it **SHOULD** conform to US Core Location.</t>
-  </si>
-  <si>
-    <t>The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+* The intent of this profile is to support *where the encounter occurred*.  The location address can be represented by either by the Location referenced by `Encounter.location.location` or indirectly through the Organization referenced by `Encounter.serviceProvider`.
+  * Although both are marked as must support, the server systems are not required to support both `Encounter.location.location` and `Encounter.serviceProvider`, but they **SHALL** support *at least one* of these elements.
+  * The client application **SHALL** support both elements.
+  * if using `Encounter.locatison.location` it **SHOULD** conform to US Core Location.  However, as a result of implementation feedback, it **MAY**  reference the base FHIR Location resource.  See this guidance on [Referencing US Core Profiles]</t>
+  </si>
+  <si>
+    <t>* Based upon the ONC U.S. Core Data for Interoperability (USCDI) v1 requirements, CVX vaccine codes are required and the NDC vaccine codes **SHOULD** be supported as translations to them.</t>
+  </si>
+  <si>
+    <t>* The US Core Location  and PractitionerRole Profiles are not explicitly referenced in any US Core Profile. However they **SHOULD** be used as the default profile if referenced by another US Core profile.</t>
+  </si>
+  <si>
+    <t>* The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationRequest, then the READ  **SHALL**  be supported.</t>
+  </si>
+  <si>
+    <t>* The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
  For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
  `GET /MedicationRequest?patient=[id]`
  `GET /MedicationRequest?patient=[id]&amp;_include=MedicationRequest:medication`
 * The MedicationRequest resource can represent that information is from a secondary source using either a boolean flag or reference in `MedicationRequest.reportedBoolean`, or a reference using `MedicationRequest.reportedReference` to Practitioner or other resource.
    *   Although both are marked as must support, the server systems are not required to support both a boolean and a reference, but **SHALL** choose to support at least one of these elements.
    *  The client application **SHALL** support both elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MedicationStatement resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+ For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
+ `GET /MedicationStatement?patient=[id]`
+ `GET /MedicationStatement?patient=[id]&amp;_include=MedicationStatement:medication`
+</t>
+  </si>
+  <si>
+    <t>* Systems **SHOULD** support `Observation.effectivePeriod` to accurately represent laboratory tests that are collected over a period of time (for example, a 24-Hour Urine Collection test).
+* An Observation without a value, **SHALL** include a reason why the data is absent unless there are component observations, or references to other Observations that are grouped within it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* For ONC's USCDI requirements, each Patient must support the following additional elements. These elements are included in the formal definition of the profile. The patient examples include all of these elements.
+1. contact detail (e.g. a telephone number or an email address)
+1. a communication language
+1. a race
+1. an ethnicity
+1. a birth sex*
+1. previous name
+   - Previous name is represented by providing an end date in the `Patient.name.period` element for a previous name.
+1. suffix
+   - Suffix is represented using the `Patient.name.suffix` element.
+</t>
+  </si>
+  <si>
+    <t>*  A procedure including an implantable device **SHOULD** use `Procedure.focalDevice` with a reference to the [US Core Implantable Device Profile].</t>
+  </si>
+  <si>
+    <t>* If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.
+* Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
+  </si>
+  <si>
+    <t>*  Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
+     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants.
+     - Servers are not required to support both `carrierAIDC` and `carrierHR`.
+* For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
+* Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
+* In the [Quick Start] section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
+    - UDI HRF string (`udi-carrier`)
+    - UDI Device Identifier (`udi-di`)
+    - Manufacturer (`manufacturer`)
+    - Model number (`model`)
+* Implementers **MAY** also adopt custom SearchParameters for searching by:
+    - lot numbers
+    - serial number
+    - expiration date
+    - manufacture date
+    - distinct identifier</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2341,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2248,34 +2360,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2283,12 +2395,12 @@
         <v>70</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>61</v>
@@ -2296,10 +2408,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3257,7 +3369,7 @@
         <v>155</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>151</v>
@@ -3350,7 +3462,7 @@
         <v>346</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3795,7 +3907,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>73</v>
@@ -3804,16 +3916,16 @@
         <v>111</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3828,7 +3940,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>73</v>
@@ -3837,16 +3949,16 @@
         <v>111</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3861,7 +3973,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>73</v>
@@ -3870,16 +3982,16 @@
         <v>111</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3894,7 +4006,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>73</v>
@@ -3903,16 +4015,16 @@
         <v>229</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>244</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3920,7 +4032,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3951,7 +4063,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4089,13 +4201,13 @@
         <v>111</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>297</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>342</v>
@@ -4121,13 +4233,13 @@
         <v>111</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>233</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -4184,13 +4296,13 @@
         <v>229</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -4472,13 +4584,13 @@
         <v>111</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>296</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
@@ -4505,13 +4617,13 @@
         <v>111</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>295</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -4538,7 +4650,7 @@
         <v>111</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>298</v>
@@ -4571,13 +4683,13 @@
         <v>229</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>301</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -4809,7 +4921,7 @@
         <v>266</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>123</v>
@@ -4866,15 +4978,15 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4898,7 +5010,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4955,10 +5067,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4976,115 +5088,115 @@
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>262</v>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>525</v>
+        <v>250</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>192</v>
+      <c r="D3" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>462</v>
+        <v>358</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>461</v>
+        <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>457</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>363</v>
+        <v>197</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -5105,106 +5217,106 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>453</v>
+        <v>377</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>454</v>
+        <v>378</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>191</v>
+        <v>379</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>377</v>
+        <v>517</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>379</v>
+        <v>192</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -5225,85 +5337,85 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>198</v>
+        <v>520</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>380</v>
+        <v>521</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>381</v>
+        <v>522</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>382</v>
+        <v>523</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>250</v>
+        <v>524</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>383</v>
+        <v>525</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>384</v>
+        <v>526</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>385</v>
+        <v>527</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>386</v>
+        <v>528</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>387</v>
+        <v>529</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>455</v>
+        <v>530</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -5314,11 +5426,11 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
-      <c r="A24" s="11" t="s">
-        <v>468</v>
+      <c r="A24" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>469</v>
+        <v>533</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -5329,58 +5441,184 @@
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>197</v>
+        <v>534</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>388</v>
+        <v>535</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>536</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>391</v>
+        <v>537</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>472</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -5398,14 +5636,14 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
@@ -5432,7 +5670,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -5513,7 +5751,7 @@
       <c r="T2"/>
       <c r="X2" s="17"/>
       <c r="Y2" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Z2" t="s">
         <v>20</v>
@@ -5526,9 +5764,12 @@
       <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17.25" customHeight="1">
@@ -5540,7 +5781,7 @@
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="17.25" customHeight="1">
@@ -5552,7 +5793,7 @@
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Z5" t="s">
         <v>24</v>
@@ -5565,9 +5806,12 @@
       <c r="B6" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>556</v>
+      </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="17.25" customHeight="1">
@@ -5579,7 +5823,7 @@
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="17.25" customHeight="1">
@@ -5594,7 +5838,7 @@
       </c>
       <c r="X8" s="17"/>
       <c r="Y8" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17.25" customHeight="1">
@@ -5605,11 +5849,11 @@
         <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17.25" customHeight="1">
@@ -5621,7 +5865,7 @@
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
@@ -5631,9 +5875,12 @@
       <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>547</v>
+      </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1">
@@ -5643,6 +5890,9 @@
       <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>548</v>
+      </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
     </row>
@@ -5654,7 +5904,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -5667,32 +5917,32 @@
         <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>219</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>460</v>
+        <v>551</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>423</v>
       </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
@@ -5702,9 +5952,12 @@
       <c r="B16" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="17.25" customHeight="1">
@@ -5724,9 +5977,12 @@
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="17.25" customHeight="1">
@@ -5746,6 +6002,9 @@
       <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>548</v>
+      </c>
       <c r="W20" s="1" t="s">
         <v>290</v>
       </c>
@@ -5759,25 +6018,30 @@
       <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="X21" s="17"/>
       <c r="Y21" s="17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" ht="15">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="1" customFormat="1" ht="120">
       <c r="A22" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:25" s="1" customFormat="1" ht="15">
       <c r="A23" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>73</v>
@@ -5857,24 +6121,24 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5924,7 +6188,7 @@
         <v>397</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>398</v>
@@ -5957,7 +6221,7 @@
         <v>407</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>408</v>
@@ -5975,10 +6239,10 @@
         <v>412</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -6001,7 +6265,7 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -6622,12 +6886,12 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -6636,7 +6900,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -6645,7 +6909,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
@@ -6654,7 +6918,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -9573,7 +9837,7 @@
         <v>189</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>73</v>
@@ -9677,7 +9941,7 @@
         <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>73</v>
@@ -9779,7 +10043,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
@@ -9832,7 +10096,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>94</v>
@@ -9890,7 +10154,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>242</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E563653-E32C-4BBB-B3E5-24F934AA064F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FCB426-90EB-4E0C-BF83-F5DD03AB89FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1170" windowWidth="38355" windowHeight="15795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="825" windowWidth="38355" windowHeight="15795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1758,19 +1758,10 @@
     <t>US Core Heart Rate Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age-observation</t>
-  </si>
-  <si>
     <t>Pediatric BMI for Age Observation Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-head-occipital-frontal-circumference-percentile</t>
-  </si>
-  <si>
     <t>Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height-observation</t>
   </si>
   <si>
     <t>Pediatric Weight for Height Observation Profile</t>
@@ -1866,6 +1857,15 @@
     - expiration date
     - manufacture date
     - distinct identifier</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/bmi-for-age-observation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/weight-for-height-observation</t>
   </si>
 </sst>
 </file>
@@ -2371,7 +2371,7 @@
         <v>507</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5069,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -5483,10 +5483,10 @@
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -5632,7 +5632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5765,7 +5765,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
@@ -5807,7 +5807,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
@@ -5849,7 +5849,7 @@
         <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
@@ -5876,7 +5876,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17" t="s">
@@ -5891,7 +5891,7 @@
         <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -5904,7 +5904,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -5917,7 +5917,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>219</v>
@@ -5935,7 +5935,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>423</v>
@@ -5953,7 +5953,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17" t="s">
@@ -5978,7 +5978,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17" t="s">
@@ -6003,7 +6003,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>290</v>
@@ -6019,7 +6019,7 @@
         <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="X21" s="17"/>
       <c r="Y21" s="17" t="s">
@@ -6034,7 +6034,7 @@
         <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FCB426-90EB-4E0C-BF83-F5DD03AB89FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9428CA-B050-438B-BD95-CC897D1A898E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="825" windowWidth="38355" windowHeight="15795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1170" windowWidth="38355" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1449,9 +1449,6 @@
     <t>referencePolicy_conf</t>
   </si>
   <si>
-    <t>​The Section describes the expected capabilities of the US Core Client which is responsible for creating and initiating the queries for information about an individual patient. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined in the [Conformance Requirements for Server](CapabilityStatement-us-core-server.html). US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
     <t>client</t>
   </si>
   <si>
@@ -1866,6 +1863,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/weight-for-height-observation</t>
+  </si>
+  <si>
+    <t>This Section describes the expected capabilities of the US Core Client which is responsible for creating and initiating the queries for information about an individual patient. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined in the [Conformance Requirements for Server](CapabilityStatement-us-core-server.html). US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
   </si>
 </sst>
 </file>
@@ -2360,34 +2360,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2395,12 +2395,12 @@
         <v>70</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>61</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3333,7 +3333,7 @@
         <v>111</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>161</v>
@@ -3369,7 +3369,7 @@
         <v>155</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>151</v>
@@ -3462,7 +3462,7 @@
         <v>346</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3876,7 +3876,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>73</v>
@@ -3888,7 +3888,7 @@
         <v>218</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
@@ -3907,7 +3907,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>73</v>
@@ -3916,16 +3916,16 @@
         <v>111</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="I52" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3940,7 +3940,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>73</v>
@@ -3949,16 +3949,16 @@
         <v>111</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I53" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3973,7 +3973,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>73</v>
@@ -3982,16 +3982,16 @@
         <v>111</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I54" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4006,7 +4006,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>73</v>
@@ -4015,16 +4015,16 @@
         <v>229</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>244</v>
       </c>
       <c r="I55" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4032,7 +4032,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4051,7 +4051,7 @@
         <v>196</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
@@ -4063,7 +4063,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4082,7 +4082,7 @@
         <v>245</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>247</v>
@@ -4189,7 +4189,7 @@
         <v>191</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>251</v>
@@ -4201,13 +4201,13 @@
         <v>111</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>297</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>342</v>
@@ -4221,7 +4221,7 @@
         <v>191</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>150</v>
@@ -4233,13 +4233,13 @@
         <v>111</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>233</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -4254,7 +4254,7 @@
         <v>191</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>152</v>
@@ -4284,7 +4284,7 @@
         <v>191</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>203</v>
@@ -4296,13 +4296,13 @@
         <v>229</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -4317,7 +4317,7 @@
         <v>191</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>230</v>
@@ -4347,7 +4347,7 @@
         <v>341</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>121</v>
@@ -4428,7 +4428,7 @@
         <v>255</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>259</v>
@@ -4492,7 +4492,7 @@
         <v>254</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>261</v>
@@ -4584,13 +4584,13 @@
         <v>111</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>296</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
@@ -4617,13 +4617,13 @@
         <v>111</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>295</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -4650,7 +4650,7 @@
         <v>111</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>298</v>
@@ -4683,13 +4683,13 @@
         <v>229</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>301</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -4921,7 +4921,7 @@
         <v>266</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>123</v>
@@ -4955,8 +4955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4978,15 +4978,15 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -5002,7 +5002,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>434</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="141" customHeight="1">
@@ -5026,7 +5026,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -5034,7 +5034,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +5069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A5" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -5157,10 +5157,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>360</v>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -5352,10 +5352,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -5367,10 +5367,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -5382,10 +5382,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -5412,10 +5412,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -5427,10 +5427,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -5441,10 +5441,10 @@
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -5483,10 +5483,10 @@
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -5497,10 +5497,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -5609,16 +5609,16 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -5670,7 +5670,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -5751,7 +5751,7 @@
       <c r="T2"/>
       <c r="X2" s="17"/>
       <c r="Y2" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Z2" t="s">
         <v>20</v>
@@ -5765,11 +5765,11 @@
         <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17.25" customHeight="1">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="17.25" customHeight="1">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Z5" t="s">
         <v>24</v>
@@ -5807,11 +5807,11 @@
         <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="17.25" customHeight="1">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="17.25" customHeight="1">
@@ -5834,11 +5834,11 @@
         <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="X8" s="17"/>
       <c r="Y8" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17.25" customHeight="1">
@@ -5849,11 +5849,11 @@
         <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17.25" customHeight="1">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
@@ -5876,11 +5876,11 @@
         <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1">
@@ -5891,7 +5891,7 @@
         <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -5904,7 +5904,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -5917,32 +5917,32 @@
         <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>219</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>423</v>
       </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
@@ -5953,11 +5953,11 @@
         <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="17.25" customHeight="1">
@@ -5978,11 +5978,11 @@
         <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="17.25" customHeight="1">
@@ -6003,7 +6003,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>290</v>
@@ -6019,29 +6019,29 @@
         <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="X21" s="17"/>
       <c r="Y21" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="1" customFormat="1" ht="120">
       <c r="A22" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:25" s="1" customFormat="1" ht="15">
       <c r="A23" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>73</v>
@@ -6121,24 +6121,24 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6188,7 +6188,7 @@
         <v>397</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>398</v>
@@ -6221,7 +6221,7 @@
         <v>407</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>408</v>
@@ -6239,10 +6239,10 @@
         <v>412</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -6265,7 +6265,7 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -6886,12 +6886,12 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -7016,19 +7016,19 @@
         <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>51</v>
@@ -9730,7 +9730,7 @@
         <v>188</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>73</v>
@@ -9837,7 +9837,7 @@
         <v>189</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>73</v>
@@ -9941,7 +9941,7 @@
         <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>73</v>
@@ -10043,7 +10043,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
@@ -10096,7 +10096,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>94</v>
@@ -10154,7 +10154,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>242</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9428CA-B050-438B-BD95-CC897D1A898E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E1ED33-5A50-4FE6-A861-4119255B20FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1170" windowWidth="38355" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1170" windowWidth="38355" windowHeight="15795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1755,15 +1755,6 @@
     <t>US Core Heart Rate Profile</t>
   </si>
   <si>
-    <t>Pediatric BMI for Age Observation Profile</t>
-  </si>
-  <si>
-    <t>Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
-  </si>
-  <si>
-    <t>Pediatric Weight for Height Observation Profile</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-respiratory-rate</t>
   </si>
   <si>
@@ -1856,16 +1847,25 @@
     - distinct identifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/bmi-for-age-observation</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/weight-for-height-observation</t>
-  </si>
-  <si>
     <t>This Section describes the expected capabilities of the US Core Client which is responsible for creating and initiating the queries for information about an individual patient. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined in the [Conformance Requirements for Server](CapabilityStatement-us-core-server.html). US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
+  </si>
+  <si>
+    <t>US Core Pediatric BMI for Age Observation Profile</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Weight for Height Observation Profile</t>
   </si>
 </sst>
 </file>
@@ -2371,7 +2371,7 @@
         <v>506</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4955,7 +4955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5002,7 +5002,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5069,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -5486,7 +5486,7 @@
         <v>555</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -5765,7 +5765,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
@@ -5807,7 +5807,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
@@ -5849,7 +5849,7 @@
         <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
@@ -5876,7 +5876,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17" t="s">
@@ -5891,7 +5891,7 @@
         <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -5904,7 +5904,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -5917,7 +5917,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>219</v>
@@ -5935,7 +5935,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>423</v>
@@ -5953,7 +5953,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17" t="s">
@@ -5978,7 +5978,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17" t="s">
@@ -6003,7 +6003,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>290</v>
@@ -6019,7 +6019,7 @@
         <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="X21" s="17"/>
       <c r="Y21" s="17" t="s">
@@ -6034,7 +6034,7 @@
         <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E1ED33-5A50-4FE6-A861-4119255B20FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4ABAAB-7046-45D3-A805-D34F0A693EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1170" windowWidth="38355" windowHeight="15795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="1515" windowWidth="38355" windowHeight="15795" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AC$94</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -116,7 +116,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{962D54F5-C20E-4D7A-AF1F-9219D454B8FD}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{962D54F5-C20E-4D7A-AF1F-9219D454B8FD}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="561">
   <si>
     <t>Element</t>
   </si>
@@ -1693,9 +1693,6 @@
   </si>
   <si>
     <t>http://www.hl7.org/Special/committees/usrealm/index.cfm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
   </si>
   <si>
     <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
@@ -1866,6 +1863,25 @@
   </si>
   <si>
     <t>US Core Pediatric Weight for Height Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.2.1</t>
+  </si>
+  <si>
+    <t>The client **SHALL** provide at least a id value and **MAY** provide both the Type and id values.
+The server **SHALL** support both.</t>
+  </si>
+  <si>
+    <t>The client **SHALL** provide at least a code value and **MAY** provide both the system and code values.
+The server **SHALL** support both.</t>
+  </si>
+  <si>
+    <t>A client **SHALL** provide a value precise to the *second + time offset*.
+A server **SHALL** support a value precise to the *second + time offset*.</t>
+  </si>
+  <si>
+    <t>A client **SHALL** provide a value precise to the *day*.
+A server **SHALL** support a value a value precise to the *day*.</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2379,7 @@
         <v>505</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2371,7 +2387,7 @@
         <v>506</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4956,7 +4972,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5002,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5010,7 +5026,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5069,7 +5085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -5307,7 +5323,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>360</v>
@@ -5337,10 +5353,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -5352,10 +5368,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -5367,10 +5383,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -5382,10 +5398,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -5397,10 +5413,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -5412,10 +5428,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -5427,10 +5443,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -5441,10 +5457,10 @@
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -5455,10 +5471,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -5469,10 +5485,10 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -5483,10 +5499,10 @@
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -5511,10 +5527,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -5670,7 +5686,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -5765,7 +5781,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
@@ -5807,7 +5823,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
@@ -5849,7 +5865,7 @@
         <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
@@ -5876,7 +5892,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17" t="s">
@@ -5891,7 +5907,7 @@
         <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -5904,7 +5920,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -5917,7 +5933,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>219</v>
@@ -5935,7 +5951,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>423</v>
@@ -5953,7 +5969,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17" t="s">
@@ -5978,7 +5994,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17" t="s">
@@ -6003,7 +6019,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>290</v>
@@ -6019,7 +6035,7 @@
         <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="X21" s="17"/>
       <c r="Y21" s="17" t="s">
@@ -6034,7 +6050,7 @@
         <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -6932,47 +6948,48 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB94"/>
+  <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y27" sqref="Y27"/>
+      <selection pane="bottomRight" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="45.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="68.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="49.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" style="1" customWidth="1"/>
+    <col min="25" max="25" width="50.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="90.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.140625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:29" ht="45.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -6989,76 +7006,79 @@
         <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:29" ht="45.75" customHeight="1" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7074,41 +7094,41 @@
       <c r="E2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="G2" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example category search</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="K2" s="1" t="str">
         <f>B2&amp;"."&amp;C2</f>
         <v>!EXAMPLE CATEGORY SEARCH.category</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="1" t="str">
-        <f t="shared" ref="AB2:AB4" si="0">"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="1" t="str">
+        <f t="shared" ref="AC2:AC4" si="0">"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="18.95" customHeight="1">
+    <row r="3" spans="1:29" ht="45.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7124,38 +7144,38 @@
       <c r="E3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F66" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G66" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example code search</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="1" t="str">
+      <c r="K3" s="1" t="str">
         <f>B3&amp;"."&amp;C3</f>
         <v>!EXAMPLE CODE SEARCH.code</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="5"/>
+      <c r="L3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="1" t="str">
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="18.95" customHeight="1">
+    <row r="4" spans="1:29" ht="45.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7171,45 +7191,45 @@
       <c r="E4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="G4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example date search</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="1" t="str">
+      <c r="K4" s="1" t="str">
         <f>B4&amp;"."&amp;C4</f>
         <v>!EXAMPLE DATE SEARCH.date</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="1" t="str">
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="18.95" customHeight="1">
+    <row r="5" spans="1:29" ht="45.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7225,50 +7245,53 @@
       <c r="E5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example patient search</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="K5" s="1" t="str">
         <f>B5&amp;"."&amp;C5</f>
         <v>!EXAMPLE PATIENT SEARCH.patient</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="1" t="str">
+      <c r="Z5" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B5)&amp;"s for a patient"</f>
         <v>support searching for all !example patient searchs for a patient</v>
       </c>
-      <c r="Z5" s="5" t="str">
+      <c r="AA5" s="5" t="str">
         <f>"GET [base]/"&amp;B5&amp;"?patient=1137192"</f>
         <v>GET [base]/!EXAMPLE PATIENT SEARCH?patient=1137192</v>
       </c>
-      <c r="AA5" s="12" t="str">
+      <c r="AB5" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B5&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all !EXAMPLE PATIENT SEARCH resources for the specified patient</v>
       </c>
-      <c r="AB5" s="1" t="str">
+      <c r="AC5" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B5)&amp;"-"&amp;C5&amp;".html")</f>
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="18.95" customHeight="1">
+    <row r="6" spans="1:29" ht="45.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7284,41 +7307,41 @@
       <c r="E6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example status search</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J22" si="2">B6&amp;"."&amp;C6</f>
+      <c r="K6" s="1" t="str">
+        <f t="shared" ref="K6:K22" si="2">B6&amp;"."&amp;C6</f>
         <v>!EXAMPLE STATUS SEARCH.status</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="1" t="str">
-        <f t="shared" ref="AB6" si="3">"SearchParameter-us-core-"&amp;LOWER((B6)&amp;"-"&amp;C6&amp;".html")</f>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="1" t="str">
+        <f t="shared" ref="AC6" si="3">"SearchParameter-us-core-"&amp;LOWER((B6)&amp;"-"&amp;C6&amp;".html")</f>
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:29" ht="45.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7334,42 +7357,42 @@
       <c r="E7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="K7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>!Patient.address</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y7" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="AA7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="1" t="str">
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B7)&amp;"-"&amp;C7&amp;".html")</f>
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:29" ht="45.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7385,42 +7408,42 @@
       <c r="E8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="K8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>!Patient.telecom</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="1" t="str">
-        <f t="shared" ref="AB8:AB70" si="4">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="1" t="str">
+        <f t="shared" ref="AC8:AC70" si="4">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:29" ht="45.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7436,37 +7459,40 @@
       <c r="E9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="K9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>AllergyIntolerance.clinical-status</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="1" t="str">
+      <c r="L9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:29" ht="45.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7482,46 +7508,49 @@
       <c r="E10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="K10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>AllergyIntolerance.patient</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y10" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z10" s="5" t="str">
+      <c r="AA10" s="5" t="str">
         <f>"GET [base]/"&amp;B10&amp;"?patient=1137192"</f>
         <v>GET [base]/AllergyIntolerance?patient=1137192</v>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AB10" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B10&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all AllergyIntolerance resources for the specified patient</v>
       </c>
-      <c r="AB10" s="1" t="str">
+      <c r="AC10" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B10)&amp;"-"&amp;SUBSTITUTE(C10,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:29" ht="45.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7537,41 +7566,44 @@
       <c r="E11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="K11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Condition.category</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X11" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="1" t="str">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:29" ht="45.75" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7587,39 +7619,42 @@
       <c r="E12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F12" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="K12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Condition.clinical-status</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X12" s="1" t="s">
+      <c r="L12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="1" t="str">
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:29" ht="45.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7635,49 +7670,52 @@
       <c r="E13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F13" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="K13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Condition.patient</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Z13" s="5" t="str">
+      <c r="AA13" s="5" t="str">
         <f>"GET [base]/"&amp;B13&amp;"?patient=1137192"</f>
         <v>GET [base]/Condition?patient=1137192</v>
       </c>
-      <c r="AA13" s="12" t="str">
+      <c r="AB13" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B13&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Condition resources for the specified patient</v>
       </c>
-      <c r="AB13" s="1" t="str">
-        <f t="shared" ref="AB13:AB14" si="5">"SearchParameter-us-core-"&amp;LOWER((B13)&amp;"-"&amp;SUBSTITUTE(C13,"_","")&amp;".html")</f>
+      <c r="AC13" s="1" t="str">
+        <f t="shared" ref="AC13:AC14" si="5">"SearchParameter-us-core-"&amp;LOWER((B13)&amp;"-"&amp;SUBSTITUTE(C13,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:29" ht="45.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7693,44 +7731,44 @@
       <c r="E14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="G14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="K14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Encounter._id</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y14" s="5" t="s">
+      <c r="L14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z14" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="AA14" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AB14" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AB14" s="1" t="str">
+      <c r="AC14" s="1" t="str">
         <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="18.95" customHeight="1">
+    <row r="15" spans="1:29" ht="45.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7746,41 +7784,44 @@
       <c r="E15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="K15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Encounter.class</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="1" t="str">
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:29" ht="45.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7796,45 +7837,48 @@
       <c r="E16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F16" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="1" t="str">
+      <c r="K16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Encounter.date</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="1" t="str">
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.95" customHeight="1">
+    <row r="17" spans="1:29" ht="45.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7850,45 +7894,48 @@
       <c r="E17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F17" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="1" t="str">
+      <c r="K17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Encounter.identifier</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y17" s="5" t="s">
+      <c r="L17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z17" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AA17" s="12" t="str">
+      <c r="AB17" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B17&amp;" resources matching the identifier"</f>
         <v>Fetches a bundle containing any Encounter resources matching the identifier</v>
       </c>
-      <c r="AB17" s="1" t="str">
-        <f t="shared" ref="AB17:AB18" si="6">"SearchParameter-us-core-"&amp;LOWER((B17)&amp;"-"&amp;SUBSTITUTE(C17,"_","")&amp;".html")</f>
+      <c r="AC17" s="1" t="str">
+        <f t="shared" ref="AC17:AC18" si="6">"SearchParameter-us-core-"&amp;LOWER((B17)&amp;"-"&amp;SUBSTITUTE(C17,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.95" customHeight="1">
+    <row r="18" spans="1:29" ht="45.75" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7904,49 +7951,52 @@
       <c r="E18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="str">
+      <c r="F18" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="K18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Encounter.patient</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="1" t="s">
+      <c r="L18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z18" s="5" t="str">
+      <c r="AA18" s="5" t="str">
         <f>"GET [base]/"&amp;B18&amp;"?patient=1137192"</f>
         <v>GET [base]/Encounter?patient=1137192</v>
       </c>
-      <c r="AA18" s="12" t="str">
+      <c r="AB18" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B18&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Encounter resources for the specified patient</v>
       </c>
-      <c r="AB18" s="1" t="str">
+      <c r="AC18" s="1" t="str">
         <f t="shared" si="6"/>
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.95" customHeight="1">
+    <row r="19" spans="1:29" ht="45.75" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7962,41 +8012,44 @@
       <c r="E19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="str">
+      <c r="F19" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="1" t="str">
+      <c r="K19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Encounter.status</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="1" t="str">
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.95" customHeight="1">
+    <row r="20" spans="1:29" ht="45.75" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8012,38 +8065,41 @@
       <c r="E20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="str">
+      <c r="F20" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="1" t="str">
+      <c r="K20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Encounter.type</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y20" s="5"/>
+      <c r="L20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="1" t="str">
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.95" customHeight="1">
+    <row r="21" spans="1:29" ht="45.75" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8059,41 +8115,41 @@
       <c r="E21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="str">
+      <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H21" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="1" t="str">
+      <c r="K21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Patient._id</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y21" s="5" t="s">
+      <c r="L21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="AA21" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="AB21" s="1" t="str">
+      <c r="AC21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.95" customHeight="1">
+    <row r="22" spans="1:29" ht="45.75" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8109,38 +8165,41 @@
       <c r="E22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="str">
+      <c r="F22" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="1" t="str">
+      <c r="K22" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Patient.birthdate</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X22" s="1" t="s">
+      <c r="L22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AB22" s="1" t="str">
+      <c r="AC22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.95" customHeight="1">
+    <row r="23" spans="1:29" ht="45.75" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8156,34 +8215,34 @@
       <c r="E23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="str">
+      <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB23" s="1" t="str">
+      <c r="L23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC23" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.95" customHeight="1">
+    <row r="24" spans="1:29" ht="45.75" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8199,39 +8258,42 @@
       <c r="E24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="str">
+      <c r="F24" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="1" t="str">
+      <c r="K24" s="1" t="str">
         <f>B24&amp;"."&amp;C24</f>
         <v>Patient.gender</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X24" s="1" t="s">
+      <c r="L24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="1" t="str">
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18.95" customHeight="1">
+    <row r="25" spans="1:29" ht="45.75" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8247,35 +8309,35 @@
       <c r="E25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="str">
+      <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="1" t="str">
+      <c r="L25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.95" customHeight="1">
+    <row r="26" spans="1:29" ht="45.75" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8291,45 +8353,48 @@
       <c r="E26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="str">
+      <c r="F26" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="1" t="str">
+      <c r="K26" s="1" t="str">
         <f>B26&amp;"."&amp;C26</f>
         <v>Patient.identifier</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y26" s="5" t="s">
+      <c r="L26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z26" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AA26" s="12" t="str">
+      <c r="AB26" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B26&amp;" resources matching the identifier"</f>
         <v>Fetches a bundle containing any Patient resources matching the identifier</v>
       </c>
-      <c r="AB26" s="1" t="str">
-        <f t="shared" ref="AB26:AB27" si="7">"SearchParameter-us-core-"&amp;LOWER((B26)&amp;"-"&amp;SUBSTITUTE(C26,"_","")&amp;".html")</f>
+      <c r="AC26" s="1" t="str">
+        <f t="shared" ref="AC26:AC27" si="7">"SearchParameter-us-core-"&amp;LOWER((B26)&amp;"-"&amp;SUBSTITUTE(C26,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.95" customHeight="1">
+    <row r="27" spans="1:29" ht="45.75" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8345,48 +8410,48 @@
       <c r="E27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="str">
+      <c r="G27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="1" t="str">
+      <c r="K27" s="1" t="str">
         <f>B27&amp;"."&amp;C27</f>
         <v>Patient.name</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" s="1" t="s">
+      <c r="L27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Y27" s="5" t="s">
+      <c r="Z27" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AA27" s="12" t="str">
+      <c r="AB27" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the name"</f>
         <v>Fetches a bundle of all Patient resources matching the name</v>
       </c>
-      <c r="AB27" s="1" t="str">
+      <c r="AC27" s="1" t="str">
         <f t="shared" si="7"/>
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.95" customHeight="1">
+    <row r="28" spans="1:29" ht="45.75" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8402,34 +8467,34 @@
       <c r="E28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="str">
+      <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB28" s="1" t="str">
+      <c r="L28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC28" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18.95" customHeight="1">
+    <row r="29" spans="1:29" ht="45.75" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8445,35 +8510,35 @@
       <c r="E29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J29" s="1" t="str">
-        <f t="shared" ref="J29:J39" si="8">B29&amp;"."&amp;C29</f>
+      <c r="K29" s="1" t="str">
+        <f t="shared" ref="K29:K39" si="8">B29&amp;"."&amp;C29</f>
         <v>!Questionnaire.context-type-value</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB29" s="1" t="str">
+      <c r="L29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC29" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="18.95" customHeight="1">
+    <row r="30" spans="1:29" ht="45.75" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8489,41 +8554,41 @@
       <c r="E30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="str">
+      <c r="G30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="1" t="str">
+      <c r="K30" s="1" t="str">
         <f t="shared" si="8"/>
         <v>!Questionnaire.publisher</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="L30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="Y30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB30" s="1" t="str">
+      <c r="AC30" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="18.95" customHeight="1">
+    <row r="31" spans="1:29" ht="45.75" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8539,38 +8604,38 @@
       <c r="E31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="G31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="1" t="str">
+      <c r="K31" s="1" t="str">
         <f t="shared" si="8"/>
         <v>!Questionnaire.status</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X31" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB31" s="1" t="str">
+      <c r="AC31" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="18.95" customHeight="1">
+    <row r="32" spans="1:29" ht="45.75" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8586,50 +8651,50 @@
       <c r="E32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="G32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="1" t="str">
+      <c r="K32" s="1" t="str">
         <f t="shared" si="8"/>
         <v>!Questionnaire.title</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P32" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="U32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="Y32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AB32" s="1" t="str">
+      <c r="AC32" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="18.95" customHeight="1">
+    <row r="33" spans="1:29" ht="45.75" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8645,35 +8710,35 @@
       <c r="E33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="G33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J33" s="1" t="str">
+      <c r="K33" s="1" t="str">
         <f t="shared" si="8"/>
         <v>!Questionnaire.url</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB33" s="1" t="str">
+      <c r="L33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC33" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="18.95" customHeight="1">
+    <row r="34" spans="1:29" ht="45.75" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8689,35 +8754,35 @@
       <c r="E34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="G34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="1" t="str">
+      <c r="K34" s="1" t="str">
         <f t="shared" si="8"/>
         <v>!Questionnaire.version</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB34" s="1" t="str">
+      <c r="L34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC34" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="18.95" customHeight="1">
+    <row r="35" spans="1:29" ht="45.75" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8733,42 +8798,45 @@
       <c r="E35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="F35" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J35" s="1" t="str">
+      <c r="K35" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Condition.onset-date</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="1" t="str">
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="18.95" customHeight="1">
+    <row r="36" spans="1:29" ht="45.75" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8784,38 +8852,41 @@
       <c r="E36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F36" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H36" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="1" t="str">
+      <c r="K36" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Condition.code</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y36" s="5"/>
+      <c r="L36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="1" t="str">
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="18.95" customHeight="1">
+    <row r="37" spans="1:29" ht="45.75" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8831,50 +8902,53 @@
       <c r="E37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="F37" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="1" t="str">
+      <c r="K37" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Immunization.patient</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X37" s="1" t="s">
+      <c r="L37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y37" s="1" t="str">
+      <c r="Z37" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B37)&amp;"s for a patient"</f>
         <v>support searching for all immunizations for a patient</v>
       </c>
-      <c r="Z37" s="5" t="str">
+      <c r="AA37" s="5" t="str">
         <f>"GET [base]/"&amp;B37&amp;"?patient=1137192"</f>
         <v>GET [base]/Immunization?patient=1137192</v>
       </c>
-      <c r="AA37" s="12" t="str">
+      <c r="AB37" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B37&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient</v>
       </c>
-      <c r="AB37" s="1" t="str">
+      <c r="AC37" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B37)&amp;"-"&amp;SUBSTITUTE(C37,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="18.95" customHeight="1">
+    <row r="38" spans="1:29" ht="45.75" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8890,41 +8964,44 @@
       <c r="E38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="F38" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H38" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J38" s="1" t="str">
+      <c r="K38" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Immunization.status</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X38" s="1" t="s">
+      <c r="L38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="1" t="str">
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="18.95" customHeight="1">
+    <row r="39" spans="1:29" ht="45.75" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8940,45 +9017,48 @@
       <c r="E39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="F39" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H39" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J39" s="1" t="str">
+      <c r="K39" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Immunization.date</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="Y39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="1" t="str">
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="18.95" customHeight="1">
+    <row r="40" spans="1:29" ht="45.75" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8994,44 +9074,44 @@
       <c r="E40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F40" s="1" t="str">
+      <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J40" s="1" t="str">
+      <c r="K40" s="1" t="str">
         <f>B40&amp;".id"</f>
         <v>DocumentReference.id</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y40" s="5" t="s">
+      <c r="L40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z40" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="Z40" s="5" t="s">
+      <c r="AA40" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="AA40" s="2" t="s">
+      <c r="AB40" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AB40" s="1" t="str">
+      <c r="AC40" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="18.95" customHeight="1">
+    <row r="41" spans="1:29" ht="45.75" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9047,44 +9127,47 @@
       <c r="E41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="str">
+      <c r="F41" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J41" s="1" t="str">
-        <f t="shared" ref="J41:J70" si="9">B41&amp;"."&amp;C41</f>
+      <c r="K41" s="1" t="str">
+        <f t="shared" ref="K41:K70" si="9">B41&amp;"."&amp;C41</f>
         <v>DocumentReference.status</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X41" s="1" t="s">
+      <c r="N41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="1" t="str">
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="18.95" customHeight="1">
+    <row r="42" spans="1:29" ht="45.75" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9100,50 +9183,53 @@
       <c r="E42" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F42" s="1" t="str">
+      <c r="F42" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H42" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="1" t="str">
+      <c r="K42" s="1" t="str">
         <f t="shared" si="9"/>
         <v>DocumentReference.patient</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X42" s="1" t="s">
+      <c r="L42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y42" s="1" t="str">
+      <c r="Z42" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B42)&amp;"s for a patient"</f>
         <v>support searching for all documentreferences for a patient</v>
       </c>
-      <c r="Z42" s="5" t="str">
+      <c r="AA42" s="5" t="str">
         <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
         <v>GET [base]/DocumentReference?patient=1137192</v>
       </c>
-      <c r="AA42" s="12" t="str">
+      <c r="AB42" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B42&amp; " resources for the specified patient. See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient. See the implementation notes above for how to access the actual document.</v>
       </c>
-      <c r="AB42" s="1" t="str">
+      <c r="AC42" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="18.95" customHeight="1">
+    <row r="43" spans="1:29" ht="45.75" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9159,41 +9245,44 @@
       <c r="E43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="str">
+      <c r="F43" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J43" s="1" t="str">
+      <c r="K43" s="1" t="str">
         <f t="shared" si="9"/>
         <v>DocumentReference.category</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X43" s="1" t="s">
+      <c r="L43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="1" t="str">
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="18.95" customHeight="1">
+    <row r="44" spans="1:29" ht="45.75" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9209,38 +9298,41 @@
       <c r="E44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="1" t="str">
+      <c r="F44" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H44" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J44" s="1" t="str">
+      <c r="K44" s="1" t="str">
         <f t="shared" si="9"/>
         <v>DocumentReference.type</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y44" s="5"/>
+      <c r="L44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="1" t="str">
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="18.95" customHeight="1">
+    <row r="45" spans="1:29" ht="45.75" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9256,45 +9348,48 @@
       <c r="E45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="1" t="str">
+      <c r="F45" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J45" s="1" t="str">
+      <c r="K45" s="1" t="str">
         <f t="shared" si="9"/>
         <v>DocumentReference.date</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="Y45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="1" t="str">
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="18.95" customHeight="1">
+    <row r="46" spans="1:29" ht="45.75" customHeight="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9310,44 +9405,47 @@
       <c r="E46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="1" t="str">
+      <c r="F46" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="Y46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA46" s="12"/>
-      <c r="AB46" s="1" t="str">
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="18.95" customHeight="1">
+    <row r="47" spans="1:29" ht="45.75" customHeight="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9363,44 +9461,47 @@
       <c r="E47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="1" t="str">
+      <c r="F47" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J47" s="1" t="str">
-        <f t="shared" ref="J47:J51" si="10">B47&amp;"."&amp;C47</f>
+      <c r="K47" s="1" t="str">
+        <f t="shared" ref="K47:K51" si="10">B47&amp;"."&amp;C47</f>
         <v>DiagnosticReport.status</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X47" s="1" t="s">
+      <c r="N47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="12"/>
-      <c r="AB47" s="1" t="str">
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B47)&amp;"-"&amp;C47&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="18.95" customHeight="1">
+    <row r="48" spans="1:29" ht="45.75" customHeight="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9416,50 +9517,53 @@
       <c r="E48" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F48" s="1" t="str">
+      <c r="F48" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J48" s="1" t="str">
+      <c r="K48" s="1" t="str">
         <f t="shared" si="10"/>
         <v>DiagnosticReport.patient</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X48" s="1" t="s">
+      <c r="L48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y48" s="1" t="str">
+      <c r="Z48" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B48)&amp;"s for a patient"</f>
         <v>support searching for all diagnosticreports for a patient</v>
       </c>
-      <c r="Z48" s="5" t="str">
+      <c r="AA48" s="5" t="str">
         <f>"GET [base]/"&amp;B48&amp;"?patient=1137192"</f>
         <v>GET [base]/DiagnosticReport?patient=1137192</v>
       </c>
-      <c r="AA48" s="12" t="str">
+      <c r="AB48" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient</v>
       </c>
-      <c r="AB48" s="1" t="str">
+      <c r="AC48" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B48)&amp;"-"&amp;C48&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="18.95" customHeight="1">
+    <row r="49" spans="1:29" ht="45.75" customHeight="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9475,41 +9579,44 @@
       <c r="E49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="1" t="str">
+      <c r="F49" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J49" s="1" t="str">
+      <c r="K49" s="1" t="str">
         <f t="shared" si="10"/>
         <v>DiagnosticReport.category</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X49" s="1" t="s">
+      <c r="L49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="1" t="str">
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B49)&amp;"-"&amp;C49&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="18.95" customHeight="1">
+    <row r="50" spans="1:29" ht="45.75" customHeight="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9525,41 +9632,44 @@
       <c r="E50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F50" s="1" t="str">
+      <c r="F50" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J50" s="1" t="str">
+      <c r="K50" s="1" t="str">
         <f t="shared" si="10"/>
         <v>DiagnosticReport.code</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L50" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y50" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Z50" s="5"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="1" t="str">
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B50)&amp;"-"&amp;C50&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="18.95" customHeight="1">
+    <row r="51" spans="1:29" ht="45.75" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9575,45 +9685,48 @@
       <c r="E51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F51" s="1" t="str">
+      <c r="F51" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J51" s="1" t="str">
+      <c r="K51" s="1" t="str">
         <f t="shared" si="10"/>
         <v>DiagnosticReport.date</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q51" s="1" t="s">
+      <c r="L51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X51" s="1" t="s">
+      <c r="Y51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="1" t="str">
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B51)&amp;"-"&amp;C51&amp;".html")</f>
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="18.95" customHeight="1">
+    <row r="52" spans="1:29" ht="45.75" customHeight="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9629,41 +9742,44 @@
       <c r="E52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="1" t="str">
+      <c r="F52" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="1" t="str">
+      <c r="K52" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Goal.lifecycle-status</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X52" s="1" t="s">
+      <c r="L52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="1" t="str">
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="18.95" customHeight="1">
+    <row r="53" spans="1:29" ht="45.75" customHeight="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9679,50 +9795,53 @@
       <c r="E53" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="1" t="str">
+      <c r="F53" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J53" s="1" t="str">
+      <c r="K53" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Goal.patient</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X53" s="1" t="s">
+      <c r="L53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y53" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y53" s="1" t="str">
+      <c r="Z53" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B53)&amp;"s for a patient"</f>
         <v>support searching for all goals for a patient</v>
       </c>
-      <c r="Z53" s="5" t="str">
+      <c r="AA53" s="5" t="str">
         <f>"GET [base]/"&amp;B53&amp;"?patient=1137192"</f>
         <v>GET [base]/Goal?patient=1137192</v>
       </c>
-      <c r="AA53" s="12" t="str">
+      <c r="AB53" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B53&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Goal resources for the specified patient</v>
       </c>
-      <c r="AB53" s="1" t="str">
+      <c r="AC53" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="18.95" customHeight="1">
+    <row r="54" spans="1:29" ht="45.75" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9738,45 +9857,48 @@
       <c r="E54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F54" s="1" t="str">
+      <c r="F54" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="1" t="str">
+      <c r="K54" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Goal.target-date</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="Y54" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="1" t="str">
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="18.95" customHeight="1">
+    <row r="55" spans="1:29" ht="45.75" customHeight="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9792,44 +9914,47 @@
       <c r="E55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F55" s="1" t="str">
+      <c r="F55" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J55" s="1" t="str">
+      <c r="K55" s="1" t="str">
         <f t="shared" si="9"/>
         <v>MedicationRequest.status</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X55" s="1" t="s">
+      <c r="N55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-      <c r="AA55" s="12"/>
-      <c r="AB55" s="1" t="str">
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="18.95" customHeight="1">
+    <row r="56" spans="1:29" ht="45.75" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -9845,44 +9970,47 @@
       <c r="E56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F56" s="1" t="str">
+      <c r="F56" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H56" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J56" s="1" t="str">
+      <c r="K56" s="1" t="str">
         <f t="shared" si="9"/>
         <v>MedicationRequest.intent</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X56" s="1" t="s">
+      <c r="N56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
-      <c r="AA56" s="12"/>
-      <c r="AB56" s="1" t="str">
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="18.95" customHeight="1">
+    <row r="57" spans="1:29" ht="45.75" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -9898,42 +10026,45 @@
       <c r="E57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F57" s="1" t="str">
+      <c r="F57" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J57" s="1" t="str">
+      <c r="K57" s="1" t="str">
         <f t="shared" si="9"/>
         <v>MedicationRequest.patient</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U57" s="7"/>
+      <c r="L57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="V57" s="7"/>
-      <c r="X57" s="1" t="s">
+      <c r="W57" s="7"/>
+      <c r="Y57" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="1" t="str">
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="18.95" customHeight="1">
+    <row r="58" spans="1:29" ht="45.75" customHeight="1">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -9949,42 +10080,45 @@
       <c r="E58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F58" s="1" t="str">
+      <c r="F58" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J58" s="1" t="str">
+      <c r="K58" s="1" t="str">
         <f t="shared" si="9"/>
         <v>MedicationRequest.encounter</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U58" s="7"/>
+      <c r="L58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="V58" s="7"/>
-      <c r="X58" s="1" t="s">
+      <c r="W58" s="7"/>
+      <c r="Y58" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
-      <c r="AB58" s="1" t="str">
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="18.95" customHeight="1">
+    <row r="59" spans="1:29" ht="45.75" customHeight="1">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -10000,45 +10134,48 @@
       <c r="E59" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F59" s="1" t="str">
+      <c r="F59" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J59" s="1" t="str">
+      <c r="K59" s="1" t="str">
         <f t="shared" si="9"/>
         <v>MedicationRequest.authoredon</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X59" s="1" t="s">
+      <c r="Y59" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA59" s="12"/>
-      <c r="AB59" s="1" t="str">
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="18.95" customHeight="1">
+    <row r="60" spans="1:29" ht="45.75" customHeight="1">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -10054,44 +10191,47 @@
       <c r="E60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="str">
+      <c r="F60" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H60" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J60" s="1" t="str">
+      <c r="K60" s="1" t="str">
         <f>B60&amp;"."&amp;C60</f>
         <v>!MedicationStatement.status</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X60" s="1" t="s">
+      <c r="N60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y60" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
-      <c r="AA60" s="12"/>
-      <c r="AB60" s="1" t="str">
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="18.95" customHeight="1">
+    <row r="61" spans="1:29" ht="45.75" customHeight="1">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -10107,49 +10247,52 @@
       <c r="E61" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F61" s="1" t="str">
+      <c r="F61" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H61" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J61" s="1" t="str">
+      <c r="K61" s="1" t="str">
         <f t="shared" si="9"/>
         <v>!MedicationStatement.patient</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V61" s="7"/>
-      <c r="X61" s="1" t="s">
+      <c r="L61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W61" s="7"/>
+      <c r="Y61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y61" s="1" t="s">
+      <c r="Z61" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="Z61" s="12" t="s">
+      <c r="AA61" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="AA61" s="12" t="str">
+      <c r="AB61" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
       </c>
-      <c r="AB61" s="1" t="str">
-        <f t="shared" ref="AB61:AB62" si="11">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
+      <c r="AC61" s="1" t="str">
+        <f t="shared" ref="AC61:AC62" si="11">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="18.95" customHeight="1">
+    <row r="62" spans="1:29" ht="45.75" customHeight="1">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -10165,45 +10308,48 @@
       <c r="E62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F62" s="1" t="str">
+      <c r="F62" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H62" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J62" s="1" t="str">
+      <c r="K62" s="1" t="str">
         <f t="shared" si="9"/>
         <v>!MedicationStatement.effective</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N62" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q62" s="1" t="s">
+      <c r="L62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X62" s="1" t="s">
+      <c r="Y62" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA62" s="12"/>
-      <c r="AB62" s="1" t="str">
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="1" t="str">
         <f t="shared" si="11"/>
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="18.95" customHeight="1">
+    <row r="63" spans="1:29" ht="45.75" customHeight="1">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -10219,44 +10365,47 @@
       <c r="E63" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F63" s="1" t="str">
+      <c r="F63" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H63" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J63" s="1" t="str">
+      <c r="K63" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Procedure.status</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X63" s="1" t="s">
+      <c r="N63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="1" t="str">
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="18.95" customHeight="1">
+    <row r="64" spans="1:29" ht="45.75" customHeight="1">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -10272,49 +10421,52 @@
       <c r="E64" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F64" s="1" t="str">
+      <c r="F64" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H64" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J64" s="1" t="str">
+      <c r="K64" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Procedure.patient</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X64" s="1" t="s">
+      <c r="L64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y64" s="1" t="str">
+      <c r="Z64" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B64)&amp;"s for a patient"</f>
         <v>support searching for all procedures for a patient</v>
       </c>
-      <c r="Z64" s="5" t="s">
+      <c r="AA64" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AA64" s="12" t="str">
+      <c r="AB64" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient</v>
       </c>
-      <c r="AB64" s="1" t="str">
+      <c r="AC64" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="18.95" customHeight="1">
+    <row r="65" spans="1:29" ht="45.75" customHeight="1">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -10330,45 +10482,48 @@
       <c r="E65" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F65" s="1" t="str">
+      <c r="F65" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H65" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J65" s="1" t="str">
+      <c r="K65" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Procedure.date</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R65" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X65" s="1" t="s">
+      <c r="Y65" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="1" t="str">
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="18.95" customHeight="1">
+    <row r="66" spans="1:29" ht="45.75" customHeight="1">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -10384,41 +10539,44 @@
       <c r="E66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F66" s="1" t="str">
+      <c r="F66" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J66" s="1" t="str">
+      <c r="K66" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Procedure.code</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L66" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y66" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Z66" s="5"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="1" t="str">
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="18.95" customHeight="1">
+    <row r="67" spans="1:29" ht="45.75" customHeight="1">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -10434,44 +10592,47 @@
       <c r="E67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F94" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
+      <c r="F67" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f t="shared" ref="G67:G94" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H67" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J67" s="1" t="str">
+      <c r="K67" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Observation.status</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X67" s="1" t="s">
+      <c r="N67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y67" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="1" t="str">
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="18.95" customHeight="1">
+    <row r="68" spans="1:29" ht="45.75" customHeight="1">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -10487,41 +10648,44 @@
       <c r="E68" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F68" s="1" t="str">
+      <c r="F68" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G68" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H68" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J68" s="1" t="str">
+      <c r="K68" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Observation.category</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X68" s="1" t="s">
+      <c r="L68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
-      <c r="AA68" s="12"/>
-      <c r="AB68" s="1" t="str">
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="18.95" customHeight="1">
+    <row r="69" spans="1:29" ht="45.75" customHeight="1">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -10537,41 +10701,44 @@
       <c r="E69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F69" s="1" t="str">
+      <c r="F69" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G69" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H69" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J69" s="1" t="str">
+      <c r="K69" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Observation.code</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L69" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y69" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Z69" s="5"/>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="1" t="str">
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="18.95" customHeight="1">
+    <row r="70" spans="1:29" ht="45.75" customHeight="1">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -10587,45 +10754,48 @@
       <c r="E70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F70" s="1" t="str">
+      <c r="F70" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G70" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H70" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J70" s="1" t="str">
+      <c r="K70" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Observation.date</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R70" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X70" s="1" t="s">
+      <c r="Y70" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="1" t="str">
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="1" t="str">
         <f t="shared" si="4"/>
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="18.95" customHeight="1">
+    <row r="71" spans="1:29" ht="45.75" customHeight="1">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -10641,50 +10811,53 @@
       <c r="E71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F71" s="1" t="str">
+      <c r="F71" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G71" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H71" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J71" s="1" t="str">
+      <c r="K71" s="1" t="str">
         <f>B71&amp;"."&amp;C71</f>
         <v>Observation.patient</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X71" s="1" t="s">
+      <c r="L71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y71" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y71" s="1" t="str">
+      <c r="Z71" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B71)&amp;"s for a patient"</f>
         <v>support searching for all observations for a patient</v>
       </c>
-      <c r="Z71" s="5" t="str">
+      <c r="AA71" s="5" t="str">
         <f>"GET [base]/"&amp;B71&amp;"?patient=1137192"</f>
         <v>GET [base]/Observation?patient=1137192</v>
       </c>
-      <c r="AA71" s="12" t="str">
+      <c r="AB71" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B71&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient</v>
       </c>
-      <c r="AB71" s="1" t="str">
+      <c r="AC71" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B71)&amp;"-"&amp;C71&amp;".html")</f>
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="18.95" customHeight="1">
+    <row r="72" spans="1:29" ht="45.75" customHeight="1">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -10700,41 +10873,44 @@
       <c r="E72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F72" s="1" t="str">
+      <c r="F72" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G72" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H72" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J72" s="1" t="str">
-        <f t="shared" ref="J72:J74" si="13">B72&amp;"."&amp;C72</f>
+      <c r="K72" s="1" t="str">
+        <f t="shared" ref="K72:K74" si="13">B72&amp;"."&amp;C72</f>
         <v>CarePlan.category</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X72" s="1" t="s">
+      <c r="L72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="1" t="str">
-        <f t="shared" ref="AB72:AB74" si="14">"SearchParameter-us-core-"&amp;LOWER((B72)&amp;"-"&amp;C72&amp;".html")</f>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="1" t="str">
+        <f t="shared" ref="AC72:AC74" si="14">"SearchParameter-us-core-"&amp;LOWER((B72)&amp;"-"&amp;C72&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="18.95" customHeight="1">
+    <row r="73" spans="1:29" ht="45.75" customHeight="1">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -10750,38 +10926,41 @@
       <c r="E73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F73" s="1" t="str">
+      <c r="F73" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G73" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H73" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J73" s="1" t="str">
+      <c r="K73" s="1" t="str">
         <f t="shared" si="13"/>
         <v>!CarePlan.code</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y73" s="5"/>
+      <c r="L73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Z73" s="5"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="1" t="str">
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="1" t="str">
         <f t="shared" si="14"/>
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="18.95" customHeight="1">
+    <row r="74" spans="1:29" ht="45.75" customHeight="1">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -10797,45 +10976,48 @@
       <c r="E74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F74" s="1" t="str">
+      <c r="F74" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G74" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H74" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J74" s="1" t="str">
+      <c r="K74" s="1" t="str">
         <f t="shared" si="13"/>
         <v>CarePlan.date</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R74" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X74" s="1" t="s">
+      <c r="Y74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="1" t="str">
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="1" t="str">
         <f t="shared" si="14"/>
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="18.95" customHeight="1">
+    <row r="75" spans="1:29" ht="45.75" customHeight="1">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -10851,50 +11033,53 @@
       <c r="E75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F75" s="1" t="str">
+      <c r="F75" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G75" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H75" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J75" s="1" t="str">
+      <c r="K75" s="1" t="str">
         <f>B75&amp;"."&amp;C75</f>
         <v>CarePlan.patient</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X75" s="1" t="s">
+      <c r="L75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y75" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y75" s="1" t="str">
+      <c r="Z75" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B75)&amp;"s for a patient"</f>
         <v>support searching for all careplans for a patient</v>
       </c>
-      <c r="Z75" s="5" t="str">
+      <c r="AA75" s="5" t="str">
         <f>"GET [base]/"&amp;B75&amp;"?patient=1137192"</f>
         <v>GET [base]/CarePlan?patient=1137192</v>
       </c>
-      <c r="AA75" s="12" t="str">
+      <c r="AB75" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all CarePlan resources for the specified patient</v>
       </c>
-      <c r="AB75" s="1" t="str">
+      <c r="AC75" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B75)&amp;"-"&amp;C75&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="18.95" customHeight="1">
+    <row r="76" spans="1:29" ht="45.75" customHeight="1">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -10910,44 +11095,47 @@
       <c r="E76" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F76" s="1" t="str">
+      <c r="F76" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G76" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H76" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J76" s="1" t="str">
-        <f t="shared" ref="J76" si="15">B76&amp;"."&amp;C76</f>
+      <c r="K76" s="1" t="str">
+        <f t="shared" ref="K76" si="15">B76&amp;"."&amp;C76</f>
         <v>CarePlan.status</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M76" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X76" s="1" t="s">
+      <c r="N76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y76" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
-      <c r="AA76" s="12"/>
-      <c r="AB76" s="1" t="str">
-        <f t="shared" ref="AB76" si="16">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="1" t="str">
+        <f t="shared" ref="AC76" si="16">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="18.95" customHeight="1">
+    <row r="77" spans="1:29" ht="45.75" customHeight="1">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -10963,50 +11151,53 @@
       <c r="E77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F77" s="1" t="str">
+      <c r="F77" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G77" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H77" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J77" s="1" t="str">
+      <c r="K77" s="1" t="str">
         <f>B77&amp;"."&amp;C77</f>
         <v>CareTeam.patient</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X77" s="1" t="s">
+      <c r="L77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y77" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y77" s="1" t="str">
+      <c r="Z77" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B77)&amp;"s for a patient"</f>
         <v>support searching for all careteams for a patient</v>
       </c>
-      <c r="Z77" s="5" t="str">
+      <c r="AA77" s="5" t="str">
         <f>"GET [base]/"&amp;B77&amp;"?patient=1137192"</f>
         <v>GET [base]/CareTeam?patient=1137192</v>
       </c>
-      <c r="AA77" s="12" t="str">
+      <c r="AB77" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all CareTeam resources for the specified patient</v>
       </c>
-      <c r="AB77" s="1" t="str">
+      <c r="AC77" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B77)&amp;"-"&amp;C77&amp;".html")</f>
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="18.95" customHeight="1">
+    <row r="78" spans="1:29" ht="45.75" customHeight="1">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -11022,44 +11213,47 @@
       <c r="E78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F78" s="1" t="str">
+      <c r="F78" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G78" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H78" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J78" s="1" t="str">
-        <f t="shared" ref="J78:J94" si="17">B78&amp;"."&amp;C78</f>
+      <c r="K78" s="1" t="str">
+        <f t="shared" ref="K78:K94" si="17">B78&amp;"."&amp;C78</f>
         <v>CareTeam.status</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X78" s="1" t="s">
+      <c r="N78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y78" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
-      <c r="AA78" s="12"/>
-      <c r="AB78" s="1" t="str">
-        <f t="shared" ref="AB78:AB90" si="18">"SearchParameter-us-core-"&amp;LOWER((B78)&amp;"-"&amp;C78&amp;".html")</f>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="1" t="str">
+        <f t="shared" ref="AC78:AC90" si="18">"SearchParameter-us-core-"&amp;LOWER((B78)&amp;"-"&amp;C78&amp;".html")</f>
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="18.95" customHeight="1">
+    <row r="79" spans="1:29" ht="45.75" customHeight="1">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -11075,50 +11269,53 @@
       <c r="E79" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F79" s="1" t="str">
+      <c r="F79" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G79" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B79)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H79" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J79" s="1" t="str">
+      <c r="K79" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Device.patient</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X79" s="1" t="s">
+      <c r="L79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y79" s="1" t="str">
+      <c r="Z79" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B79)&amp;"s for a patient, including implantable devices"</f>
         <v>support searching for all devices for a patient, including implantable devices</v>
       </c>
-      <c r="Z79" s="5" t="str">
+      <c r="AA79" s="5" t="str">
         <f>"GET [base]/"&amp;B79&amp;"?patient=1137192"</f>
         <v>GET [base]/Device?patient=1137192</v>
       </c>
-      <c r="AA79" s="12" t="str">
+      <c r="AB79" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B79&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Device resources for the specified patient</v>
       </c>
-      <c r="AB79" s="1" t="str">
+      <c r="AC79" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="18.95" customHeight="1">
+    <row r="80" spans="1:29" ht="45.75" customHeight="1">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -11134,37 +11331,40 @@
       <c r="E80" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F80" s="1" t="str">
+      <c r="F80" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G80" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B80)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H80" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J80" s="1" t="str">
+      <c r="K80" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Device.type</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="12"/>
-      <c r="AB80" s="1" t="str">
+      <c r="L80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="18.95" customHeight="1">
+    <row r="81" spans="1:29" ht="45.75" customHeight="1">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -11180,46 +11380,46 @@
       <c r="E81" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F81" s="1" t="str">
+      <c r="G81" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H81" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J81" s="1" t="str">
+      <c r="K81" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Location.name</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y81" s="1" t="s">
+      <c r="L81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z81" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="Z81" s="5" t="str">
+      <c r="AA81" s="5" t="str">
         <f>"GET [base]/"&amp;B81&amp;"?name=Health"</f>
         <v>GET [base]/Location?name=Health</v>
       </c>
-      <c r="AA81" s="12" t="str">
+      <c r="AB81" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B81&amp; " resources that match the name"</f>
         <v>Fetches a bundle of all Location resources that match the name</v>
       </c>
-      <c r="AB81" s="1" t="str">
+      <c r="AC81" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="18.95" customHeight="1">
+    <row r="82" spans="1:29" ht="45.75" customHeight="1">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -11235,46 +11435,46 @@
       <c r="E82" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F82" s="1" t="str">
+      <c r="G82" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H82" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J82" s="1" t="str">
+      <c r="K82" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Location.address</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y82" s="1" t="s">
+      <c r="L82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z82" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="Z82" s="5" t="str">
+      <c r="AA82" s="5" t="str">
         <f>"GET [base]/"&amp;B82&amp;"?address=Arbor"</f>
         <v>GET [base]/Location?address=Arbor</v>
       </c>
-      <c r="AA82" s="12" t="str">
+      <c r="AB82" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp; " resources that match the address string"</f>
         <v>Fetches a bundle of all Location resources that match the address string</v>
       </c>
-      <c r="AB82" s="1" t="str">
+      <c r="AC82" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="18.95" customHeight="1">
+    <row r="83" spans="1:29" ht="45.75" customHeight="1">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -11290,46 +11490,46 @@
       <c r="E83" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F83" s="1" t="str">
+      <c r="G83" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H83" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J83" s="1" t="str">
+      <c r="K83" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Location.address-city</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y83" s="1" t="s">
+      <c r="L83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z83" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Z83" s="5" t="str">
+      <c r="AA83" s="5" t="str">
         <f>"GET [base]/"&amp;B83&amp;"?address-city=Ann Arbor"</f>
         <v>GET [base]/Location?address-city=Ann Arbor</v>
       </c>
-      <c r="AA83" s="12" t="str">
+      <c r="AB83" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the city"</f>
         <v>Fetches a bundle of all Location resources for the city</v>
       </c>
-      <c r="AB83" s="1" t="str">
+      <c r="AC83" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="18.95" customHeight="1">
+    <row r="84" spans="1:29" ht="45.75" customHeight="1">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -11345,45 +11545,45 @@
       <c r="E84" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F84" s="1" t="str">
+      <c r="G84" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H84" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J84" s="1" t="str">
+      <c r="K84" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Location.address-state</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y84" s="1" t="s">
+      <c r="L84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z84" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Z84" s="5" t="s">
+      <c r="AA84" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="AA84" s="12" t="str">
+      <c r="AB84" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp; " resources for the state"</f>
         <v>Fetches a bundle of all Location resources for the state</v>
       </c>
-      <c r="AB84" s="1" t="str">
+      <c r="AC84" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="18.95" customHeight="1">
+    <row r="85" spans="1:29" ht="45.75" customHeight="1">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -11399,46 +11599,46 @@
       <c r="E85" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F85" s="1" t="str">
+      <c r="G85" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H85" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J85" s="1" t="str">
+      <c r="K85" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Location.address-postalcode</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y85" s="1" t="s">
+      <c r="L85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z85" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="Z85" s="5" t="str">
+      <c r="AA85" s="5" t="str">
         <f>"GET [base]/"&amp;B85&amp;"?address-postalcode=48104"</f>
         <v>GET [base]/Location?address-postalcode=48104</v>
       </c>
-      <c r="AA85" s="12" t="str">
+      <c r="AB85" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B85&amp; " resources for the ZIP code"</f>
         <v>Fetches a bundle of all Location resources for the ZIP code</v>
       </c>
-      <c r="AB85" s="1" t="str">
+      <c r="AC85" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="18.95" customHeight="1">
+    <row r="86" spans="1:29" ht="45.75" customHeight="1">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -11454,46 +11654,46 @@
       <c r="E86" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F86" s="1" t="str">
+      <c r="G86" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H86" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J86" s="1" t="str">
+      <c r="K86" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Organization.name</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y86" s="1" t="s">
+      <c r="L86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z86" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Z86" s="5" t="str">
+      <c r="AA86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?name=Health"</f>
         <v>GET [base]/Organization?name=Health</v>
       </c>
-      <c r="AA86" s="12" t="str">
+      <c r="AB86" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B86&amp; " resources that match the name"</f>
         <v>Fetches a bundle of all Organization resources that match the name</v>
       </c>
-      <c r="AB86" s="1" t="str">
+      <c r="AC86" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="18.95" customHeight="1">
+    <row r="87" spans="1:29" ht="45.75" customHeight="1">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -11509,46 +11709,46 @@
       <c r="E87" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F87" s="1" t="str">
+      <c r="G87" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H87" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J87" s="1" t="str">
+      <c r="K87" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Organization.address</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y87" s="1" t="s">
+      <c r="L87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z87" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Z87" s="5" t="str">
+      <c r="AA87" s="5" t="str">
         <f>"GET [base]/"&amp;B87&amp;"?address=Arbor"</f>
         <v>GET [base]/Organization?address=Arbor</v>
       </c>
-      <c r="AA87" s="12" t="str">
+      <c r="AB87" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B87&amp; " resources that match the address string"</f>
         <v>Fetches a bundle of all Organization resources that match the address string</v>
       </c>
-      <c r="AB87" s="1" t="str">
+      <c r="AC87" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="18.95" customHeight="1">
+    <row r="88" spans="1:29" ht="45.75" customHeight="1">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -11564,46 +11764,46 @@
       <c r="E88" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F88" s="1" t="str">
+      <c r="G88" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J88" s="1" t="str">
+      <c r="K88" s="1" t="str">
         <f t="shared" si="17"/>
         <v>!Organization.address-city</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y88" s="1" t="s">
+      <c r="L88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z88" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="Z88" s="5" t="str">
+      <c r="AA88" s="5" t="str">
         <f>"GET [base]/"&amp;B88&amp;"?address-city=Ann Arbor"</f>
         <v>GET [base]/!Organization?address-city=Ann Arbor</v>
       </c>
-      <c r="AA88" s="12" t="str">
+      <c r="AB88" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the city"</f>
         <v>Fetches a bundle of all !Organization resources for the city</v>
       </c>
-      <c r="AB88" s="1" t="str">
+      <c r="AC88" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="18.95" customHeight="1">
+    <row r="89" spans="1:29" ht="45.75" customHeight="1">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -11619,46 +11819,46 @@
       <c r="E89" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F89" s="1" t="str">
+      <c r="G89" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H89" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J89" s="1" t="str">
+      <c r="K89" s="1" t="str">
         <f t="shared" si="17"/>
         <v>!Organization.adress-state</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y89" s="1" t="s">
+      <c r="L89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z89" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="Z89" s="5" t="str">
+      <c r="AA89" s="5" t="str">
         <f>"GET [base]/"&amp;B89&amp;"?address-state=MI"</f>
         <v>GET [base]/!Organization?address-state=MI</v>
       </c>
-      <c r="AA89" s="12" t="str">
+      <c r="AB89" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the state"</f>
         <v>Fetches a bundle of all !Organization resources for the state</v>
       </c>
-      <c r="AB89" s="1" t="str">
+      <c r="AC89" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="18.95" customHeight="1">
+    <row r="90" spans="1:29" ht="45.75" customHeight="1">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -11674,46 +11874,46 @@
       <c r="E90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F90" s="1" t="str">
+      <c r="G90" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H90" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J90" s="1" t="str">
+      <c r="K90" s="1" t="str">
         <f t="shared" si="17"/>
         <v>!Organization.address-postalcode</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y90" s="1" t="s">
+      <c r="L90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z90" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="Z90" s="5" t="str">
+      <c r="AA90" s="5" t="str">
         <f>"GET [base]/"&amp;B90&amp;"?address-postalcode=48104"</f>
         <v>GET [base]/!Organization?address-postalcode=48104</v>
       </c>
-      <c r="AA90" s="12" t="str">
+      <c r="AB90" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B90&amp; " resources for the ZIP code"</f>
         <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
       </c>
-      <c r="AB90" s="1" t="str">
+      <c r="AC90" s="1" t="str">
         <f t="shared" si="18"/>
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="18.95" customHeight="1">
+    <row r="91" spans="1:29" ht="45.75" customHeight="1">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -11729,49 +11929,49 @@
       <c r="E91" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F91" s="1" t="str">
+      <c r="G91" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H91" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J91" s="1" t="str">
+      <c r="K91" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Practitioner.name</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X91" s="1" t="s">
+      <c r="L91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Y91" s="5" t="s">
+      <c r="Z91" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="Z91" s="5" t="str">
+      <c r="AA91" s="5" t="str">
         <f>"GET [base]/"&amp;B91&amp;"?name=Smith"</f>
         <v>GET [base]/Practitioner?name=Smith</v>
       </c>
-      <c r="AA91" s="12" t="str">
+      <c r="AB91" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B91&amp;" resources matching the name"</f>
         <v>Fetches a bundle of all Practitioner resources matching the name</v>
       </c>
-      <c r="AB91" s="1" t="str">
-        <f t="shared" ref="AB91:AB93" si="19">"SearchParameter-us-core-"&amp;LOWER((B91)&amp;"-"&amp;SUBSTITUTE(C91,"_","")&amp;".html")</f>
+      <c r="AC91" s="1" t="str">
+        <f t="shared" ref="AC91:AC93" si="19">"SearchParameter-us-core-"&amp;LOWER((B91)&amp;"-"&amp;SUBSTITUTE(C91,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="18.95" customHeight="1">
+    <row r="92" spans="1:29" ht="45.75" customHeight="1">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -11787,46 +11987,49 @@
       <c r="E92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F92" s="1" t="str">
+      <c r="F92" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G92" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H92" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J92" s="1" t="str">
+      <c r="K92" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Practitioner.identifier</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y92" s="5" t="s">
+      <c r="L92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z92" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="Z92" s="5" t="str">
+      <c r="AA92" s="5" t="str">
         <f>"GET [base]/"&amp;B92&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
         <v>GET [base]/Practitioner?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456</v>
       </c>
-      <c r="AA92" s="12" t="str">
+      <c r="AB92" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B92&amp;" resources matching the identifier"</f>
         <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
       </c>
-      <c r="AB92" s="1" t="str">
+      <c r="AC92" s="1" t="str">
         <f t="shared" si="19"/>
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="18.95" customHeight="1">
+    <row r="93" spans="1:29" ht="45.75" customHeight="1">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -11842,49 +12045,52 @@
       <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F93" s="1" t="str">
+      <c r="F93" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G93" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H93" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J93" s="1" t="str">
+      <c r="K93" s="1" t="str">
         <f t="shared" si="17"/>
         <v>PractitionerRole.specialty</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V93" s="1" t="s">
+      <c r="L93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W93" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="Y93" s="5" t="s">
+      <c r="Z93" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="Z93" s="5" t="str">
+      <c r="AA93" s="5" t="str">
         <f>"GET [base]/"&amp;B93&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
         <v>GET [base]/PractitionerRole?specialty=http://nucc.org/provider-taxonomy\|208D0000X</v>
       </c>
-      <c r="AA93" s="12" t="str">
+      <c r="AB93" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B93&amp;" resources matching the specialty"</f>
         <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
       </c>
-      <c r="AB93" s="1" t="str">
+      <c r="AC93" s="1" t="str">
         <f t="shared" si="19"/>
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="18.95" customHeight="1">
+    <row r="94" spans="1:29" ht="45.75" customHeight="1">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -11900,54 +12106,57 @@
       <c r="E94" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F94" s="1" t="str">
+      <c r="F94" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G94" s="1" t="str">
         <f t="shared" si="12"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H94" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J94" s="1" t="str">
+      <c r="K94" s="1" t="str">
         <f t="shared" si="17"/>
         <v>PractitionerRole.practitioner</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S94" s="1" t="s">
+      <c r="L94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T94" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="V94" s="1" t="s">
+      <c r="W94" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="Y94" s="5" t="s">
+      <c r="Z94" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" s="5" t="str">
+      <c r="AA94" s="5" t="str">
         <f>_xlfn.CONCAT("GET [base]/",B94,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
         <v>GET [base]/PractitionerRole?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint</v>
       </c>
-      <c r="AA94" s="12" t="str">
+      <c r="AB94" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B94&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
         <v>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
       </c>
-      <c r="AB94" s="1" t="str">
+      <c r="AC94" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B94)&amp;"-"&amp;SUBSTITUTE(C94,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB94" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA34">
+  <autoFilter ref="A1:AC94" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AB34">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4ABAAB-7046-45D3-A805-D34F0A693EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DDBA53-D4B4-423A-B6D6-90B39D432A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="1515" windowWidth="38355" windowHeight="15795" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="2700" windowWidth="38355" windowHeight="15795" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="560">
   <si>
     <t>Element</t>
   </si>
@@ -657,9 +657,6 @@
     <t>GET [base]/Immunization?patient=1137192&amp;status=completed</t>
   </si>
   <si>
-    <t>GET [base]/Immunization?patient=1137192&amp;date=ge2019-01-14</t>
-  </si>
-  <si>
     <t>patient,date</t>
   </si>
   <si>
@@ -765,9 +762,6 @@
     <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://terminology.hl7.org/CodeSystem/v2-0074\|LAB</t>
   </si>
   <si>
-    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://terminology.hl7.org/CodeSystem/v2-0074\|LAB&amp;date=ge2010-01-14</t>
-  </si>
-  <si>
     <t>GET [base]/DiagnosticReport?patient=1032702&amp;code=http://loinc.org\|24323-8</t>
   </si>
   <si>
@@ -786,9 +780,6 @@
     <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://loinc.org\|LP29684-5</t>
   </si>
   <si>
-    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://loinc.org\|LP29684-5&amp;date=ge2010-01-14</t>
-  </si>
-  <si>
     <t>GET [base]/Procedure?patient=1137192&amp;status=completed</t>
   </si>
   <si>
@@ -843,15 +834,9 @@
     <t>support searching for reports by code and date</t>
   </si>
   <si>
-    <t>GET [base]/DiagnosticReport?patient=f201&amp;code=http://loinc.org\|24323-8&amp;date=ge2019-01-14</t>
-  </si>
-  <si>
     <t>support searching for all laboratory results</t>
   </si>
   <si>
-    <t>GET [base]Observation?patient=555580&amp;code=http://loinc.org\|2339-0&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>support searching for all laboratory reports by code  (for example, search for all metabolic panel reports for a patient, or search for all cbcs, metabolic panels, and urinalysis panels for a patient)</t>
   </si>
   <si>
@@ -870,9 +855,6 @@
     <t xml:space="preserve">support searching for procedures for a patient by code and date </t>
   </si>
   <si>
-    <t>GET [base]/Procedure?patient=1137192&amp;date=ge2019-01-14&amp;code=http://snomed.info/sct\|35637008</t>
-  </si>
-  <si>
     <t>effective</t>
   </si>
   <si>
@@ -1047,9 +1029,6 @@
     <t>GET [base]/Observation?patient=1186747&amp;code=http://loinc.org\|8867-4,http://loinc.org\|9279-1,http://loinc.org\|85354-9</t>
   </si>
   <si>
-    <t>GET [base]/Observation?patient=1186747&amp;code=http://loinc.org\|8867-4,http://loinc.org\|9279-1,http://loinc.org\|85354-9&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>support searching for all vital sign observations by date (for example, find all the vital sign observations for 2019)</t>
   </si>
   <si>
@@ -1089,9 +1068,6 @@
     <t>support searching for all clinical notes for a given patient</t>
   </si>
   <si>
-    <t>GET [base]/DocumentReference?patient=1235541&amp;category=http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category\|clinical-note&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>support searching for all clinical notes for a given patient by date (for example, since 2019)</t>
   </si>
   <si>
@@ -1128,9 +1104,6 @@
     <t>GET [base]/Encounter?patient=example1&amp;class= http://terminology.hl7.org/CodeSystem/v3-ActCode code\|AMB</t>
   </si>
   <si>
-    <t>GET [base]/Encounter?patient=example1&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>GET [base]/Encounter?patient=1137192&amp;type=http://www.ama-assn.org/go/cpt code\|99201</t>
   </si>
   <si>
@@ -1167,9 +1140,6 @@
     <t>should_include</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-vitalsigns</t>
-  </si>
-  <si>
     <t>!Observation</t>
   </si>
   <si>
@@ -1390,9 +1360,6 @@
   </si>
   <si>
     <t>support searching for a specific device type for a patient (for example, implantable devices)</t>
-  </si>
-  <si>
-    <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2019</t>
   </si>
   <si>
     <t>GET [base]/DocumentReference?patient=1316024&amp;type=http://loinc.org\|18842-5</t>
@@ -1499,12 +1466,6 @@
     <t>GET [base]/MedicationStatement?patient=1137192&amp;date=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;date=ge2019&amp;_include=MedicationStatement:medication</t>
   </si>
   <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018&amp;date=le2018</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018&amp;date=le2019</t>
-  </si>
-  <si>
     <t>A client **SHOULD** be capable of transacting a $docref operation and capable of receiving at least a reference to a generated CCD document, and  **MAY** be able to receive other document types, if available.   **SHOULD**  be capable of receiving documents as included resources in response to the operation.
 `GET [base]/DocumentReference/$docref?patient=[id]`</t>
   </si>
@@ -1581,9 +1542,6 @@
     <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory</t>
   </si>
   <si>
-    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14</t>
-  </si>
-  <si>
     <t>category=http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
   </si>
   <si>
@@ -1593,9 +1551,6 @@
     <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs</t>
   </si>
   <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>intent</t>
   </si>
   <si>
@@ -1651,9 +1606,6 @@
   </si>
   <si>
     <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and encounter</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
   </si>
   <si>
     <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and authoredon date</t>
@@ -1882,6 +1834,51 @@
   <si>
     <t>A client **SHALL** provide a value precise to the *day*.
 A server **SHALL** support a value a value precise to the *day*.</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=example1&amp;date=ge2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/Immunization?patient=1137192&amp;date=ge2019-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://terminology.hl7.org/CodeSystem/v2-0074\|LAB&amp;date=ge2010-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DiagnosticReport?patient=f201&amp;code=http://loinc.org\|24323-8&amp;date=ge2019-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://loinc.org\|LP29684-5&amp;date=ge2010-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019-01-01T00:00:00Z~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019-01-01T00:00:00Z&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/Procedure?patient=1137192&amp;date=ge2019-01-14T00:00:00Z&amp;code=http://snomed.info/sct\|35637008</t>
+  </si>
+  <si>
+    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]Observation?patient=555580&amp;code=http://loinc.org\|2339-0&amp;date=ge2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019-01-01T00:00:00Z~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018-01-01T00:00:00Z&amp;date=le2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019-01-01T00:00:00Z~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018-01-01T00:00:00Z&amp;date=le2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1186747&amp;code=http://loinc.org\|8867-4,http://loinc.org\|9279-1,http://loinc.org\|85354-9&amp;date=ge2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=1235541&amp;category=http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category\|clinical-note&amp;date=ge2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2020-01-01T00:00:00Z</t>
   </si>
 </sst>
 </file>
@@ -2376,34 +2373,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2411,12 +2408,12 @@
         <v>70</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>61</v>
@@ -2424,10 +2421,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -2439,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="I39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2453,7 +2450,7 @@
     <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="255.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
@@ -2478,7 +2475,7 @@
         <v>103</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -2611,10 +2608,10 @@
         <v>111</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2796,10 +2793,10 @@
         <v>118</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>327</v>
+        <v>545</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2877,10 +2874,10 @@
         <v>111</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2934,10 +2931,10 @@
         <v>111</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3225,10 +3222,10 @@
         <v>139</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3256,10 +3253,10 @@
         <v>139</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3287,10 +3284,10 @@
         <v>132</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3318,10 +3315,10 @@
         <v>132</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3349,16 +3346,16 @@
         <v>111</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>161</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3385,7 +3382,7 @@
         <v>155</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>151</v>
@@ -3415,7 +3412,7 @@
         <v>156</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>157</v>
@@ -3475,10 +3472,10 @@
         <v>168</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3493,7 +3490,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>73</v>
@@ -3502,10 +3499,10 @@
         <v>118</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>170</v>
+        <v>546</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
@@ -3533,7 +3530,7 @@
         <v>154</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>169</v>
@@ -3548,10 +3545,10 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>121</v>
@@ -3563,10 +3560,10 @@
         <v>111</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J40" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
@@ -3578,10 +3575,10 @@
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>150</v>
@@ -3593,13 +3590,13 @@
         <v>111</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J41" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
@@ -3611,10 +3608,10 @@
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>152</v>
@@ -3626,10 +3623,10 @@
         <v>111</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J42" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -3641,28 +3638,28 @@
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="I43" s="9" t="s">
-        <v>206</v>
+        <v>547</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
@@ -3674,25 +3671,25 @@
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>232</v>
+        <v>548</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -3704,10 +3701,10 @@
         <v>56</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>121</v>
@@ -3719,10 +3716,10 @@
         <v>111</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J45" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
@@ -3734,10 +3731,10 @@
         <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>150</v>
@@ -3749,10 +3746,10 @@
         <v>111</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J46" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -3764,10 +3761,10 @@
         <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>152</v>
@@ -3779,10 +3776,10 @@
         <v>111</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J47" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -3794,25 +3791,25 @@
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>213</v>
+        <v>549</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -3824,25 +3821,25 @@
         <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>232</v>
+        <v>548</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -3854,14 +3851,14 @@
         <v>63</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" ref="C50:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>73</v>
@@ -3870,10 +3867,10 @@
         <v>111</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
@@ -3885,14 +3882,14 @@
         <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>73</v>
@@ -3901,10 +3898,10 @@
         <v>154</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
@@ -3916,14 +3913,14 @@
         <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>73</v>
@@ -3932,16 +3929,16 @@
         <v>111</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3949,14 +3946,14 @@
         <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>73</v>
@@ -3965,16 +3962,16 @@
         <v>111</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3982,14 +3979,14 @@
         <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>73</v>
@@ -3998,16 +3995,16 @@
         <v>111</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4015,32 +4012,32 @@
         <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4048,7 +4045,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4064,10 +4061,10 @@
         <v>111</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
@@ -4079,14 +4076,14 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>73</v>
@@ -4095,13 +4092,13 @@
         <v>154</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4109,7 +4106,7 @@
         <v>75</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4125,10 +4122,10 @@
         <v>111</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified "&amp;SUBSTITUTE(D58,","," and ")</f>
@@ -4140,14 +4137,14 @@
         <v>76</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>73</v>
@@ -4156,10 +4153,10 @@
         <v>111</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J59" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
@@ -4171,26 +4168,26 @@
         <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>241</v>
+        <v>551</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
@@ -4202,13 +4199,13 @@
         <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>73</v>
@@ -4217,16 +4214,16 @@
         <v>111</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4234,10 +4231,10 @@
         <v>81</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>150</v>
@@ -4249,13 +4246,13 @@
         <v>111</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -4267,10 +4264,10 @@
         <v>82</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>152</v>
@@ -4282,10 +4279,10 @@
         <v>111</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
@@ -4297,28 +4294,28 @@
         <v>83</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -4330,25 +4327,25 @@
         <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>234</v>
+        <v>553</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -4360,10 +4357,10 @@
         <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>121</v>
@@ -4375,10 +4372,10 @@
         <v>111</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J66" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
@@ -4390,10 +4387,10 @@
         <v>88</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>150</v>
@@ -4405,13 +4402,13 @@
         <v>111</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J67" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
@@ -4423,31 +4420,31 @@
         <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4455,13 +4452,13 @@
         <v>90</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>73</v>
@@ -4470,16 +4467,16 @@
         <v>111</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4487,31 +4484,31 @@
         <v>91</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="I70" s="5" t="s">
-        <v>451</v>
+        <v>555</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4519,7 +4516,7 @@
         <v>94</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C71" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
@@ -4535,16 +4532,16 @@
         <v>111</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75">
@@ -4552,10 +4549,10 @@
         <v>97</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>152</v>
@@ -4567,13 +4564,13 @@
         <v>111</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
@@ -4585,13 +4582,13 @@
         <v>100</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>340</v>
+        <v>502</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>73</v>
@@ -4600,13 +4597,13 @@
         <v>111</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
@@ -4618,10 +4615,10 @@
         <v>101</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>340</v>
+        <v>502</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>150</v>
@@ -4633,13 +4630,13 @@
         <v>111</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -4651,10 +4648,10 @@
         <v>102</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>340</v>
+        <v>502</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>152</v>
@@ -4666,13 +4663,13 @@
         <v>111</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J75" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
@@ -4684,28 +4681,28 @@
         <v>103</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>340</v>
+        <v>502</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>481</v>
+        <v>556</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -4717,25 +4714,25 @@
         <v>104</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>340</v>
+        <v>502</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>300</v>
+        <v>557</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -4747,7 +4744,7 @@
         <v>107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" ref="C78:C83" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
@@ -4763,10 +4760,10 @@
         <v>111</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J78" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -4778,14 +4775,14 @@
         <v>108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>73</v>
@@ -4794,7 +4791,7 @@
         <v>154</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5" t="str">
@@ -4807,7 +4804,7 @@
         <v>109</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4823,16 +4820,16 @@
         <v>111</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="20.25" customHeight="1">
@@ -4840,32 +4837,32 @@
         <v>110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C81" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>314</v>
+        <v>558</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4873,7 +4870,7 @@
         <v>111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4889,13 +4886,13 @@
         <v>111</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="20.25" customHeight="1">
@@ -4903,26 +4900,26 @@
         <v>112</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -4934,10 +4931,10 @@
         <v>115</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>123</v>
@@ -4949,13 +4946,13 @@
         <v>111</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4994,15 +4991,15 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5010,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -5018,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5026,7 +5023,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5034,7 +5031,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="141" customHeight="1">
@@ -5042,7 +5039,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -5050,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5116,7 +5113,7 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -5128,40 +5125,40 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -5173,70 +5170,70 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -5248,25 +5245,25 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -5278,293 +5275,293 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5572,7 +5569,7 @@
         <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -5583,58 +5580,58 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -5686,67 +5683,67 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="T1" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="Z1" t="s">
         <v>19</v>
@@ -5767,7 +5764,7 @@
       <c r="T2"/>
       <c r="X2" s="17"/>
       <c r="Y2" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="Z2" t="s">
         <v>20</v>
@@ -5775,29 +5772,29 @@
     </row>
     <row r="3" spans="1:26" ht="17.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="17.25" customHeight="1">
@@ -5809,7 +5806,7 @@
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="Z5" t="s">
         <v>24</v>
@@ -5817,44 +5814,44 @@
     </row>
     <row r="6" spans="1:26" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="X8" s="17"/>
       <c r="Y8" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17.25" customHeight="1">
@@ -5865,23 +5862,23 @@
         <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
@@ -5892,93 +5889,93 @@
         <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>73</v>
@@ -5994,16 +5991,16 @@
         <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>73</v>
@@ -6013,51 +6010,51 @@
     </row>
     <row r="20" spans="1:25" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
     </row>
     <row r="21" spans="1:25" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="X21" s="17"/>
       <c r="Y21" s="17" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="1" customFormat="1" ht="120">
       <c r="A22" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:25" s="1" customFormat="1" ht="15">
       <c r="A23" s="1" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>73</v>
@@ -6125,36 +6122,36 @@
     </row>
     <row r="2" spans="1:5" ht="90.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6189,76 +6186,76 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="W1" t="s">
         <v>402</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="W1" t="s">
-        <v>412</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -6281,7 +6278,7 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -6902,12 +6899,12 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -6916,7 +6913,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -6925,7 +6922,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
@@ -6934,7 +6931,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -6950,7 +6947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7036,28 +7033,28 @@
         <v>48</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>52</v>
@@ -7075,7 +7072,7 @@
         <v>55</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="45.75" customHeight="1" thickTop="1">
@@ -7083,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>145</v>
@@ -7133,7 +7130,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -7180,7 +7177,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>83</v>
@@ -7234,7 +7231,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>94</v>
@@ -7246,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7296,7 +7293,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>63</v>
@@ -7381,7 +7378,7 @@
         <v>57</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>91</v>
@@ -7432,7 +7429,7 @@
         <v>57</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>93</v>
@@ -7460,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7509,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7567,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7620,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7671,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7755,13 +7752,13 @@
         <v>57</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7785,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7838,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7895,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7921,7 +7918,7 @@
         <v>57</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>166</v>
@@ -7952,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8013,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8066,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8142,7 +8139,7 @@
         <v>79</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="AC21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
@@ -8166,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8259,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8354,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8380,7 +8377,7 @@
         <v>57</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>165</v>
@@ -8437,10 +8434,10 @@
         <v>81</v>
       </c>
       <c r="Z27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA27" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="AB27" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the name"</f>
@@ -8799,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8853,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8903,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8965,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9018,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9063,7 +9060,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>56</v>
@@ -9098,13 +9095,13 @@
         <v>57</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9116,7 +9113,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>63</v>
@@ -9128,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9172,7 +9169,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>94</v>
@@ -9184,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9234,7 +9231,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>145</v>
@@ -9246,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9287,7 +9284,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -9299,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9337,7 +9334,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>83</v>
@@ -9349,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9394,10 +9391,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>73</v>
@@ -9406,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9422,7 +9419,7 @@
         <v>83</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>57</v>
@@ -9450,7 +9447,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>63</v>
@@ -9462,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9506,7 +9503,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>94</v>
@@ -9518,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9568,7 +9565,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>145</v>
@@ -9580,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9621,7 +9618,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>28</v>
@@ -9633,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9674,7 +9671,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>83</v>
@@ -9686,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9731,10 +9728,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>73</v>
@@ -9743,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9784,7 +9781,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>94</v>
@@ -9796,7 +9793,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9846,10 +9843,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>73</v>
@@ -9858,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9903,7 +9900,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>63</v>
@@ -9915,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9959,10 +9956,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>73</v>
@@ -9971,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10015,7 +10012,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>94</v>
@@ -10027,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10069,10 +10066,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>73</v>
@@ -10081,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10123,10 +10120,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>73</v>
@@ -10135,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10180,7 +10177,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
@@ -10192,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10236,7 +10233,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>94</v>
@@ -10248,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10278,10 +10275,10 @@
         <v>96</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AA61" s="12" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AB61" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -10297,10 +10294,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>73</v>
@@ -10309,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10354,7 +10351,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>63</v>
@@ -10366,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10410,7 +10407,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>94</v>
@@ -10422,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10455,7 +10452,7 @@
         <v>support searching for all procedures for a patient</v>
       </c>
       <c r="AA64" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AB64" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp; " resources for the specified patient"</f>
@@ -10471,7 +10468,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>83</v>
@@ -10483,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10528,7 +10525,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>28</v>
@@ -10540,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10581,7 +10578,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>63</v>
@@ -10593,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" ref="G67:G94" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
@@ -10637,7 +10634,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>145</v>
@@ -10649,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10690,7 +10687,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>28</v>
@@ -10702,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10743,7 +10740,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>83</v>
@@ -10755,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10800,7 +10797,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>94</v>
@@ -10812,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10862,7 +10859,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>145</v>
@@ -10874,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10915,7 +10912,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>28</v>
@@ -10927,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10965,7 +10962,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>83</v>
@@ -10977,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11022,7 +11019,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>94</v>
@@ -11034,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11084,7 +11081,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>63</v>
@@ -11096,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11140,7 +11137,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>94</v>
@@ -11152,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11202,7 +11199,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>63</v>
@@ -11214,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11258,7 +11255,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>94</v>
@@ -11270,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G79" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B79)</f>
@@ -11320,7 +11317,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>13</v>
@@ -11332,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G80" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B80)</f>
@@ -11369,7 +11366,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>25</v>
@@ -11404,7 +11401,7 @@
         <v>57</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AA81" s="5" t="str">
         <f>"GET [base]/"&amp;B81&amp;"?name=Health"</f>
@@ -11424,7 +11421,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>90</v>
@@ -11459,7 +11456,7 @@
         <v>57</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AA82" s="5" t="str">
         <f>"GET [base]/"&amp;B82&amp;"?address=Arbor"</f>
@@ -11479,10 +11476,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>73</v>
@@ -11514,7 +11511,7 @@
         <v>57</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AA83" s="5" t="str">
         <f>"GET [base]/"&amp;B83&amp;"?address-city=Ann Arbor"</f>
@@ -11534,10 +11531,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
@@ -11569,10 +11566,10 @@
         <v>57</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AA84" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AB84" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp; " resources for the state"</f>
@@ -11588,10 +11585,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>73</v>
@@ -11623,7 +11620,7 @@
         <v>57</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AA85" s="5" t="str">
         <f>"GET [base]/"&amp;B85&amp;"?address-postalcode=48104"</f>
@@ -11643,7 +11640,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>25</v>
@@ -11678,7 +11675,7 @@
         <v>57</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AA86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?name=Health"</f>
@@ -11698,7 +11695,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>90</v>
@@ -11733,7 +11730,7 @@
         <v>57</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AA87" s="5" t="str">
         <f>"GET [base]/"&amp;B87&amp;"?address=Arbor"</f>
@@ -11753,10 +11750,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>73</v>
@@ -11788,7 +11785,7 @@
         <v>57</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AA88" s="5" t="str">
         <f>"GET [base]/"&amp;B88&amp;"?address-city=Ann Arbor"</f>
@@ -11808,10 +11805,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>73</v>
@@ -11843,7 +11840,7 @@
         <v>57</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AA89" s="5" t="str">
         <f>"GET [base]/"&amp;B89&amp;"?address-state=MI"</f>
@@ -11863,10 +11860,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>73</v>
@@ -11898,7 +11895,7 @@
         <v>57</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AA90" s="5" t="str">
         <f>"GET [base]/"&amp;B90&amp;"?address-postalcode=48104"</f>
@@ -11918,7 +11915,7 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>25</v>
@@ -11956,7 +11953,7 @@
         <v>81</v>
       </c>
       <c r="Z91" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AA91" s="5" t="str">
         <f>"GET [base]/"&amp;B91&amp;"?name=Smith"</f>
@@ -11976,7 +11973,7 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>80</v>
@@ -11988,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G92" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12014,7 +12011,7 @@
         <v>57</v>
       </c>
       <c r="Z92" s="5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AA92" s="5" t="str">
         <f>"GET [base]/"&amp;B92&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
@@ -12034,10 +12031,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>73</v>
@@ -12046,7 +12043,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="G93" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12072,10 +12069,10 @@
         <v>57</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Z93" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AA93" s="5" t="str">
         <f>"GET [base]/"&amp;B93&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
@@ -12095,10 +12092,10 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>73</v>
@@ -12107,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G94" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12133,13 +12130,13 @@
         <v>57</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Z94" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AA94" s="5" t="str">
         <f>_xlfn.CONCAT("GET [base]/",B94,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\input\resources_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DDBA53-D4B4-423A-B6D6-90B39D432A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19863288-CFFB-D44E-AB6D-B191F80D3D44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="2700" windowWidth="38355" windowHeight="15795" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2200" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1778,12 +1778,98 @@
 * Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
+  </si>
+  <si>
+    <t>This Section describes the expected capabilities of the US Core Client which is responsible for creating and initiating the queries for information about an individual patient. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined in the [Conformance Requirements for Server](CapabilityStatement-us-core-server.html). US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
+  </si>
+  <si>
+    <t>US Core Pediatric BMI for Age Observation Profile</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Weight for Height Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.2.1</t>
+  </si>
+  <si>
+    <t>The client **SHALL** provide at least a id value and **MAY** provide both the Type and id values.
+The server **SHALL** support both.</t>
+  </si>
+  <si>
+    <t>The client **SHALL** provide at least a code value and **MAY** provide both the system and code values.
+The server **SHALL** support both.</t>
+  </si>
+  <si>
+    <t>A client **SHALL** provide a value precise to the *second + time offset*.
+A server **SHALL** support a value precise to the *second + time offset*.</t>
+  </si>
+  <si>
+    <t>A client **SHALL** provide a value precise to the *day*.
+A server **SHALL** support a value a value precise to the *day*.</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=example1&amp;date=ge2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/Immunization?patient=1137192&amp;date=ge2019-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://terminology.hl7.org/CodeSystem/v2-0074\|LAB&amp;date=ge2010-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DiagnosticReport?patient=f201&amp;code=http://loinc.org\|24323-8&amp;date=ge2019-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://loinc.org\|LP29684-5&amp;date=ge2010-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019-01-01T00:00:00Z~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019-01-01T00:00:00Z&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/Procedure?patient=1137192&amp;date=ge2019-01-14T00:00:00Z&amp;code=http://snomed.info/sct\|35637008</t>
+  </si>
+  <si>
+    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]Observation?patient=555580&amp;code=http://loinc.org\|2339-0&amp;date=ge2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019-01-01T00:00:00Z~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018-01-01T00:00:00Z&amp;date=le2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019-01-01T00:00:00Z~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018-01-01T00:00:00Z&amp;date=le2019-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1186747&amp;code=http://loinc.org\|8867-4,http://loinc.org\|9279-1,http://loinc.org\|85354-9&amp;date=ge2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=1235541&amp;category=http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category\|clinical-note&amp;date=ge2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
     <t>*  Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
+     - Although both are marked as must support, the server systems are not required to support both `carrierAIDC` and `carrierHRF`, but **SHALL** support at least one of these elements.
+     - The client application SHALL support both elements.
      - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants.
-     - Servers are not required to support both `carrierAIDC` and `carrierHR`.
 * For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
 * Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
-* In the [Quick Start] section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
+* In the Quick Start section, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
     - UDI HRF string (`udi-carrier`)
     - UDI Device Identifier (`udi-di`)
     - Manufacturer (`manufacturer`)
@@ -1795,97 +1881,12 @@
     - manufacture date
     - distinct identifier</t>
   </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
-  </si>
-  <si>
-    <t>This Section describes the expected capabilities of the US Core Client which is responsible for creating and initiating the queries for information about an individual patient. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined in the [Conformance Requirements for Server](CapabilityStatement-us-core-server.html). US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
-  </si>
-  <si>
-    <t>US Core Pediatric BMI for Age Observation Profile</t>
-  </si>
-  <si>
-    <t>US Core Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
-  </si>
-  <si>
-    <t>US Core Pediatric Weight for Height Observation Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.2.1</t>
-  </si>
-  <si>
-    <t>The client **SHALL** provide at least a id value and **MAY** provide both the Type and id values.
-The server **SHALL** support both.</t>
-  </si>
-  <si>
-    <t>The client **SHALL** provide at least a code value and **MAY** provide both the system and code values.
-The server **SHALL** support both.</t>
-  </si>
-  <si>
-    <t>A client **SHALL** provide a value precise to the *second + time offset*.
-A server **SHALL** support a value precise to the *second + time offset*.</t>
-  </si>
-  <si>
-    <t>A client **SHALL** provide a value precise to the *day*.
-A server **SHALL** support a value a value precise to the *day*.</t>
-  </si>
-  <si>
-    <t>GET [base]/Encounter?patient=example1&amp;date=ge2019-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/Immunization?patient=1137192&amp;date=ge2019-01-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://terminology.hl7.org/CodeSystem/v2-0074\|LAB&amp;date=ge2010-01-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/DiagnosticReport?patient=f201&amp;code=http://loinc.org\|24323-8&amp;date=ge2019-01-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/DiagnosticReport?patient=f201&amp;category=http://loinc.org\|LP29684-5&amp;date=ge2010-01-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019-01-01T00:00:00Z~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019-01-01T00:00:00Z&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/Procedure?patient=1137192&amp;date=ge2019-01-14T00:00:00Z&amp;code=http://snomed.info/sct\|35637008</t>
-  </si>
-  <si>
-    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]Observation?patient=555580&amp;code=http://loinc.org\|2339-0&amp;date=ge2019-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019-01-01T00:00:00Z~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018-01-01T00:00:00Z&amp;date=le2019-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019-01-01T00:00:00Z~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018-01-01T00:00:00Z&amp;date=le2019-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2020-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1186747&amp;code=http://loinc.org\|8867-4,http://loinc.org\|9279-1,http://loinc.org\|85354-9&amp;date=ge2020-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/DocumentReference?patient=1235541&amp;category=http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category\|clinical-note&amp;date=ge2020-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2020-01-01T00:00:00Z</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2357,13 +2358,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>489</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>490</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>491</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>493</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>496</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>497</v>
       </c>
@@ -2436,26 +2437,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="255.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="255.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2796,14 +2797,14 @@
         <v>315</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -3502,14 +3503,14 @@
         <v>173</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>52</v>
       </c>
@@ -3659,14 +3660,14 @@
         <v>203</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>53</v>
       </c>
@@ -3689,14 +3690,14 @@
         <v>234</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -3756,7 +3757,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>59</v>
       </c>
@@ -3809,14 +3810,14 @@
         <v>209</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -3839,14 +3840,14 @@
         <v>228</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -3941,7 +3942,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -4034,13 +4035,13 @@
         <v>238</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>73</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>74</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>75</v>
       </c>
@@ -4132,7 +4133,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>77</v>
       </c>
@@ -4187,14 +4188,14 @@
         <v>235</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>80</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>81</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>82</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -4315,14 +4316,14 @@
         <v>233</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>84</v>
       </c>
@@ -4345,14 +4346,14 @@
         <v>231</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>85</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -4441,13 +4442,13 @@
         <v>249</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -4505,13 +4506,13 @@
         <v>248</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>94</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75">
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>101</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>103</v>
       </c>
@@ -4702,14 +4703,14 @@
         <v>294</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>104</v>
       </c>
@@ -4732,14 +4733,14 @@
         <v>295</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>107</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="20.25" customHeight="1">
+    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>108</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="20.25" customHeight="1">
+    <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>110</v>
       </c>
@@ -4859,13 +4860,13 @@
         <v>307</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>111</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="20.25" customHeight="1">
+    <row r="83" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>112</v>
       </c>
@@ -4919,14 +4920,14 @@
         <v>312</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>115</v>
       </c>
@@ -4972,13 +4973,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>478</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5010,23 +5011,23 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="141" customHeight="1">
+    <row r="8" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5063,9 +5064,9 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -5086,15 +5087,15 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -5108,7 +5109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -5123,7 +5124,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>244</v>
       </c>
@@ -5138,7 +5139,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>348</v>
       </c>
@@ -5153,7 +5154,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>360</v>
       </c>
@@ -5168,7 +5169,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>443</v>
       </c>
@@ -5183,7 +5184,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>196</v>
       </c>
@@ -5198,7 +5199,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -5213,7 +5214,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>356</v>
       </c>
@@ -5228,7 +5229,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>362</v>
       </c>
@@ -5243,7 +5244,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>374</v>
       </c>
@@ -5258,7 +5259,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>353</v>
       </c>
@@ -5273,7 +5274,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>376</v>
       </c>
@@ -5288,7 +5289,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>367</v>
       </c>
@@ -5303,7 +5304,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>358</v>
       </c>
@@ -5318,7 +5319,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>499</v>
       </c>
@@ -5333,7 +5334,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>428</v>
       </c>
@@ -5348,7 +5349,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>502</v>
       </c>
@@ -5363,7 +5364,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>504</v>
       </c>
@@ -5378,7 +5379,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>506</v>
       </c>
@@ -5393,7 +5394,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>508</v>
       </c>
@@ -5408,7 +5409,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>510</v>
       </c>
@@ -5423,7 +5424,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>512</v>
       </c>
@@ -5438,7 +5439,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>514</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>516</v>
       </c>
@@ -5466,12 +5467,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1">
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -5480,12 +5481,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -5494,12 +5495,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1">
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -5508,7 +5509,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>449</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>518</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>286</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>363</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>351</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>371</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>365</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>451</v>
       </c>
@@ -5645,31 +5646,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17.25" customHeight="1" thickTop="1">
+    <row r="2" spans="1:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="17.25" customHeight="1">
+    <row r="3" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>242</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="17.25" customHeight="1">
+    <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>256</v>
       </c>
@@ -5797,7 +5798,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="17.25" customHeight="1">
+    <row r="5" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="17.25" customHeight="1">
+    <row r="6" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>260</v>
       </c>
@@ -5820,14 +5821,14 @@
         <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="17.25" customHeight="1">
+    <row r="7" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>186</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="17.25" customHeight="1">
+    <row r="8" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="17.25" customHeight="1">
+    <row r="9" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="17.25" customHeight="1">
+    <row r="10" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17.25" customHeight="1">
+    <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>167</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="17.25" customHeight="1">
+    <row r="12" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>261</v>
       </c>
@@ -5909,7 +5910,7 @@
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:26" ht="17.25" customHeight="1">
+    <row r="13" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>369</v>
       </c>
@@ -5922,7 +5923,7 @@
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
     </row>
-    <row r="14" spans="1:26" ht="17.25" customHeight="1">
+    <row r="14" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>188</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="17.25" customHeight="1">
+    <row r="15" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="17.25" customHeight="1">
+    <row r="16" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>190</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="17.25" customHeight="1">
+    <row r="17" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>271</v>
       </c>
@@ -5983,7 +5984,7 @@
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
     </row>
-    <row r="18" spans="1:25" ht="17.25" customHeight="1">
+    <row r="18" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="17.25" customHeight="1">
+    <row r="19" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>278</v>
       </c>
@@ -6008,7 +6009,7 @@
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
     </row>
-    <row r="20" spans="1:25" ht="17.25" customHeight="1">
+    <row r="20" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>280</v>
       </c>
@@ -6024,7 +6025,7 @@
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
     </row>
-    <row r="21" spans="1:25" ht="17.25" customHeight="1">
+    <row r="21" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>189</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" ht="120">
+    <row r="22" spans="1:25" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
@@ -6052,7 +6053,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:25" s="1" customFormat="1" ht="15">
+    <row r="23" spans="1:25" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>470</v>
       </c>
@@ -6063,18 +6064,18 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="17.25" customHeight="1">
+    <row r="24" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:25" ht="17.25" customHeight="1">
+    <row r="25" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="56" spans="22:25" ht="17.25" customHeight="1">
+    <row r="56" spans="22:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V56" s="7"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
     </row>
-    <row r="59" spans="22:25" ht="17.25" customHeight="1">
+    <row r="59" spans="22:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y59" s="7"/>
     </row>
   </sheetData>
@@ -6095,15 +6096,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90.75" thickBot="1">
+    <row r="2" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>382</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>472</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -6170,18 +6171,18 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="1"/>
-    <col min="24" max="24" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="1"/>
+    <col min="24" max="24" width="16.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -6399,7 +6400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6889,9 +6890,9 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>445</v>
       </c>
@@ -6911,7 +6912,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>446</v>
       </c>
@@ -6920,7 +6921,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>447</v>
       </c>
@@ -6929,7 +6930,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>448</v>
       </c>
@@ -6954,39 +6955,39 @@
       <selection pane="bottomRight" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="45.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="73.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="49.7109375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="49.6640625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" style="1" customWidth="1"/>
-    <col min="25" max="25" width="50.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="90.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.140625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="25" max="25" width="50.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="90.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.1640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="45.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -7075,7 +7076,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:29" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="45.75" customHeight="1">
+    <row r="3" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7172,7 +7173,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75" customHeight="1">
+    <row r="4" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45.75" customHeight="1">
+    <row r="5" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7288,7 +7289,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75" customHeight="1">
+    <row r="6" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75" customHeight="1">
+    <row r="7" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7389,7 +7390,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75" customHeight="1">
+    <row r="8" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45.75" customHeight="1">
+    <row r="9" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7489,7 +7490,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45.75" customHeight="1">
+    <row r="10" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7547,7 +7548,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45.75" customHeight="1">
+    <row r="11" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7564,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7600,7 +7601,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45.75" customHeight="1">
+    <row r="12" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7617,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7651,7 +7652,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="45.75" customHeight="1">
+    <row r="13" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7712,7 +7713,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="45.75" customHeight="1">
+    <row r="14" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="45.75" customHeight="1">
+    <row r="15" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7818,7 +7819,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="45.75" customHeight="1">
+    <row r="16" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7875,7 +7876,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="45.75" customHeight="1">
+    <row r="17" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7932,7 +7933,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="45.75" customHeight="1">
+    <row r="18" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7949,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7993,7 +7994,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="45.75" customHeight="1">
+    <row r="19" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8046,7 +8047,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="45.75" customHeight="1">
+    <row r="20" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8063,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8096,7 +8097,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="45.75" customHeight="1">
+    <row r="21" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="45.75" customHeight="1">
+    <row r="22" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8196,7 +8197,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="45.75" customHeight="1">
+    <row r="23" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8239,7 +8240,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="45.75" customHeight="1">
+    <row r="24" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8290,7 +8291,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="45.75" customHeight="1">
+    <row r="25" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="45.75" customHeight="1">
+    <row r="26" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8351,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8391,7 +8392,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="45.75" customHeight="1">
+    <row r="27" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8448,7 +8449,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="45.75" customHeight="1">
+    <row r="28" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8491,7 +8492,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="45.75" customHeight="1">
+    <row r="29" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="45.75" customHeight="1">
+    <row r="30" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="45.75" customHeight="1">
+    <row r="31" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="45.75" customHeight="1">
+    <row r="32" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="45.75" customHeight="1">
+    <row r="33" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="45.75" customHeight="1">
+    <row r="34" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="45.75" customHeight="1">
+    <row r="35" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8796,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8833,7 +8834,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="45.75" customHeight="1">
+    <row r="36" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8850,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8883,7 +8884,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="45.75" customHeight="1">
+    <row r="37" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8945,7 +8946,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="45.75" customHeight="1">
+    <row r="38" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8962,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8998,7 +8999,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="45.75" customHeight="1">
+    <row r="39" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9015,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9055,7 +9056,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="45.75" customHeight="1">
+    <row r="40" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9108,7 +9109,7 @@
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="45.75" customHeight="1">
+    <row r="41" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9164,7 +9165,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="45.75" customHeight="1">
+    <row r="42" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9226,7 +9227,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="45.75" customHeight="1">
+    <row r="43" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9243,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9279,7 +9280,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="45.75" customHeight="1">
+    <row r="44" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9296,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9329,7 +9330,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="45.75" customHeight="1">
+    <row r="45" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9346,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9386,7 +9387,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="45.75" customHeight="1">
+    <row r="46" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9403,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9442,7 +9443,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="45.75" customHeight="1">
+    <row r="47" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9459,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9498,7 +9499,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="45.75" customHeight="1">
+    <row r="48" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9560,7 +9561,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="45.75" customHeight="1">
+    <row r="49" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9613,7 +9614,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="45.75" customHeight="1">
+    <row r="50" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9666,7 +9667,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="45.75" customHeight="1">
+    <row r="51" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9683,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9723,7 +9724,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="45.75" customHeight="1">
+    <row r="52" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9776,7 +9777,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="45.75" customHeight="1">
+    <row r="53" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9793,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9838,7 +9839,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="45.75" customHeight="1">
+    <row r="54" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9855,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9895,7 +9896,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="45.75" customHeight="1">
+    <row r="55" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9912,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9951,7 +9952,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="45.75" customHeight="1">
+    <row r="56" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -9968,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10007,7 +10008,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="45.75" customHeight="1">
+    <row r="57" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -10024,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10061,7 +10062,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="45.75" customHeight="1">
+    <row r="58" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -10078,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10115,7 +10116,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="45.75" customHeight="1">
+    <row r="59" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10172,7 +10173,7 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="45.75" customHeight="1">
+    <row r="60" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -10189,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10228,7 +10229,7 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="45.75" customHeight="1">
+    <row r="61" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -10245,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10289,7 +10290,7 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="45.75" customHeight="1">
+    <row r="62" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -10306,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10346,7 +10347,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="45.75" customHeight="1">
+    <row r="63" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10402,7 +10403,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="45.75" customHeight="1">
+    <row r="64" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10463,7 +10464,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="45.75" customHeight="1">
+    <row r="65" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -10480,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10520,7 +10521,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="45.75" customHeight="1">
+    <row r="66" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -10537,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10573,7 +10574,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="45.75" customHeight="1">
+    <row r="67" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -10590,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" ref="G67:G94" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
@@ -10629,7 +10630,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="45.75" customHeight="1">
+    <row r="68" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -10646,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10682,7 +10683,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="45.75" customHeight="1">
+    <row r="69" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10735,7 +10736,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="45.75" customHeight="1">
+    <row r="70" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10792,7 +10793,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="45.75" customHeight="1">
+    <row r="71" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -10809,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10854,7 +10855,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="45.75" customHeight="1">
+    <row r="72" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -10871,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10907,7 +10908,7 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="45.75" customHeight="1">
+    <row r="73" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -10924,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10957,7 +10958,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="45.75" customHeight="1">
+    <row r="74" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11014,7 +11015,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="45.75" customHeight="1">
+    <row r="75" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -11031,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11076,7 +11077,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="45.75" customHeight="1">
+    <row r="76" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -11093,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11132,7 +11133,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="45.75" customHeight="1">
+    <row r="77" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -11149,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11194,7 +11195,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="45.75" customHeight="1">
+    <row r="78" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -11211,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11250,7 +11251,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="45.75" customHeight="1">
+    <row r="79" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G79" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B79)</f>
@@ -11312,7 +11313,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="45.75" customHeight="1">
+    <row r="80" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -11329,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G80" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B80)</f>
@@ -11361,7 +11362,7 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="45.75" customHeight="1">
+    <row r="81" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="45.75" customHeight="1">
+    <row r="82" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -11471,7 +11472,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="45.75" customHeight="1">
+    <row r="83" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -11526,7 +11527,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="45.75" customHeight="1">
+    <row r="84" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -11580,7 +11581,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="45.75" customHeight="1">
+    <row r="85" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -11635,7 +11636,7 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="45.75" customHeight="1">
+    <row r="86" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -11690,7 +11691,7 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="45.75" customHeight="1">
+    <row r="87" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -11745,7 +11746,7 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="45.75" customHeight="1">
+    <row r="88" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -11800,7 +11801,7 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="45.75" customHeight="1">
+    <row r="89" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -11855,7 +11856,7 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="45.75" customHeight="1">
+    <row r="90" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -11910,7 +11911,7 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="45.75" customHeight="1">
+    <row r="91" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -11968,7 +11969,7 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="45.75" customHeight="1">
+    <row r="92" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G92" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12026,7 +12027,7 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="45.75" customHeight="1">
+    <row r="93" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -12043,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G93" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12087,7 +12088,7 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="45.75" customHeight="1">
+    <row r="94" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -12104,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G94" s="1" t="str">
         <f t="shared" si="12"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19863288-CFFB-D44E-AB6D-B191F80D3D44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E6BF7F-C883-644D-BC23-1A1D33B65DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2200" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1865,8 +1865,8 @@
   <si>
     <t>*  Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
      - Although both are marked as must support, the server systems are not required to support both `carrierAIDC` and `carrierHRF`, but **SHALL** support at least one of these elements.
-     - The client application SHALL support both elements.
-     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants.
+     - The client application **SHALL** support both elements.
+     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer (`manufacturer`) and model number (`model`) information is available, it **SHOULD** be included to support historical reports of implantable medical devices
 * For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
 * Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
 * In the Quick Start section, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E6BF7F-C883-644D-BC23-1A1D33B65DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC00218D-CAB2-9548-B0FC-BBB1B43D5E00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2200" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1866,7 +1866,7 @@
     <t>*  Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
      - Although both are marked as must support, the server systems are not required to support both `carrierAIDC` and `carrierHRF`, but **SHALL** support at least one of these elements.
      - The client application **SHALL** support both elements.
-     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer (`manufacturer`) and model number (`model`) information is available, it **SHOULD** be included to support historical reports of implantable medical devices
+     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer (`manufacturer`) and model number (`model`) information is available, they **SHOULD** be included to support historical reports of implantable medical devices
 * For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
 * Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
 * In the Quick Start section, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F25857-A266-824C-8E0F-4F9DC024E77E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B51DC5-9E31-EF4B-9924-71B2DA78E731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="-19100" windowWidth="30580" windowHeight="19040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13000" yWindow="-21140" windowWidth="30580" windowHeight="19040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="575">
   <si>
     <t>Element</t>
   </si>
@@ -10344,15 +10344,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -10360,28 +10364,32 @@
         <v>561</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10392,10 +10400,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B31AD37-8183-744F-9AC6-9E533D1B51F5}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10403,12 +10411,13 @@
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="64.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>566</v>
       </c>
@@ -10422,10 +10431,13 @@
         <v>561</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="20" t="b">
         <v>1</v>
       </c>
@@ -10435,7 +10447,8 @@
       <c r="D2" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10446,21 +10459,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10468,535 +10482,538 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>507</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>527</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>525</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>530</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>511</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>447</v>
       </c>
     </row>
@@ -11011,7 +11028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B51DC5-9E31-EF4B-9924-71B2DA78E731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC131D-F24C-994C-AAA3-7ECBB7C9DC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="-21140" windowWidth="30580" windowHeight="19040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15900" yWindow="-21140" windowWidth="30580" windowHeight="19040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1806,92 +1806,108 @@
     <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2020-01-01T00:00:00Z</t>
   </si>
   <si>
-    <t>*  Implantable medical devices that have UDI information **SHALL** represent this information in either `carrierAIDC` or `carrierHRF`.
-     - Although both are marked as must support, the server systems are not required to support both `carrierAIDC` and `carrierHRF`, but **SHALL** support at least one of these elements.
-     - The client application **SHALL** support both elements.
-     - UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer (`manufacturer`) and model number (`model`) information is available, they **SHOULD** be included to support historical reports of implantable medical devices
-* For Implantable medical devices that have UDI information, at least one of the Production Identifiers (UDI-PI) **SHALL** be present.
+    <t>suppress_may_sps</t>
+  </si>
+  <si>
+    <t>Documents/FHIR/US-Core-R4/input/</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>json,xml</t>
+  </si>
+  <si>
+    <t>format_conf</t>
+  </si>
+  <si>
+    <t>SHALL,SHOULD</t>
+  </si>
+  <si>
+    <t>patchFormat</t>
+  </si>
+  <si>
+    <t>application/json-patch+json</t>
+  </si>
+  <si>
+    <t>patchFormat_conf</t>
+  </si>
+  <si>
+    <t>canonical</t>
+  </si>
+  <si>
+    <t>SMART Application Launch Framework Implementation Guide</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/smart-app-launch</t>
+  </si>
+  <si>
+    <t>Bulk Data Access IG</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>instantiates</t>
+  </si>
+  <si>
+    <t>US Core Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
+  </si>
+  <si>
+    <t>include_conf</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>revinclude</t>
+  </si>
+  <si>
+    <t>revinclude_conf</t>
+  </si>
+  <si>
+    <t>SHOULD,SHOULD</t>
+  </si>
+  <si>
+    <t>* Implantable medical devices that have UDI information **SHALL** represent the UDI code in `Device.udiCarrier.carrierHRF`.
+   - All of the five UDI-PI elements that are present in the UDI code **SHALL** be represented in the corresponding US Core Implantable Device Profile element.
+   UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer and/or model number information is available, they **SHOULD** be included to support historical reports of implantable medical devices as follows:
+    &lt;table&gt;
+    &lt;thead&gt;
+    &lt;tr class="header"&gt;
+    &lt;th&gt;data element&lt;/th&gt;
+    &lt;th&gt;US Core Implantable Device Profile element&lt;/th&gt;
+    &lt;/tr&gt;
+    &lt;/thead&gt;
+    &lt;tbody&gt;
+    &lt;tr class="odd"&gt;
+    &lt;td&gt;manufacturer&lt;/td&gt;
+    &lt;td&gt;Device.manufacturer&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr class="even"&gt;
+    &lt;td&gt;model&lt;/td&gt;
+    &lt;td&gt;Device.model&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;/tbody&gt;
+    &lt;/table&gt;
 * Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
-* In the Quick Start section, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
+* In the Quick Start section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
     - UDI HRF string (`udi-carrier`)
     - UDI Device Identifier (`udi-di`)
     - Manufacturer (`manufacturer`)
     - Model number (`model`)
-* Implementers **MAY** also adopt custom SearchParameters for searching by:
+  Implementers **MAY** also adopt custom SearchParameters for searching by:
     - lot numbers
     - serial number
     - expiration date
     - manufacture date
     - distinct identifier</t>
-  </si>
-  <si>
-    <t>suppress_may_sps</t>
-  </si>
-  <si>
-    <t>Documents/FHIR/US-Core-R4/input/</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>json,xml</t>
-  </si>
-  <si>
-    <t>format_conf</t>
-  </si>
-  <si>
-    <t>SHALL,SHOULD</t>
-  </si>
-  <si>
-    <t>patchFormat</t>
-  </si>
-  <si>
-    <t>application/json-patch+json</t>
-  </si>
-  <si>
-    <t>patchFormat_conf</t>
-  </si>
-  <si>
-    <t>canonical</t>
-  </si>
-  <si>
-    <t>SMART Application Launch Framework Implementation Guide</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/smart-app-launch</t>
-  </si>
-  <si>
-    <t>Bulk Data Access IG</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/bulkdata</t>
-  </si>
-  <si>
-    <t>imports</t>
-  </si>
-  <si>
-    <t>instantiates</t>
-  </si>
-  <si>
-    <t>US Core Client CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client</t>
-  </si>
-  <si>
-    <t>include_conf</t>
-  </si>
-  <si>
-    <t>include</t>
-  </si>
-  <si>
-    <t>revinclude</t>
-  </si>
-  <si>
-    <t>revinclude_conf</t>
-  </si>
-  <si>
-    <t>SHOULD,SHOULD</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2428,7 @@
         <v>483</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2465,7 +2481,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -10307,31 +10323,31 @@
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>558</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>69</v>
@@ -10361,7 +10377,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>57</v>
@@ -10372,10 +10388,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>69</v>
@@ -10383,10 +10399,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>564</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>565</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="1" t="s">
@@ -10419,16 +10435,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
@@ -10442,10 +10458,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>568</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>569</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="1" t="s">
@@ -10461,7 +10477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -11028,11 +11044,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11116,16 +11132,16 @@
         <v>416</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11201,7 +11217,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="X6" s="17" t="s">
         <v>469</v>
@@ -11426,7 +11442,7 @@
         <v>517</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>280</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC131D-F24C-994C-AAA3-7ECBB7C9DC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745C056C-60E2-C04C-941B-6D338680BBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15900" yWindow="-21140" windowWidth="30580" windowHeight="19040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15900" yWindow="-21140" windowWidth="30580" windowHeight="19040" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -2496,11 +2496,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="M71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6783,7 +6783,7 @@
         <v>53</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>53</v>
@@ -11044,7 +11044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745C056C-60E2-C04C-941B-6D338680BBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854AA25-6E78-E140-B0A9-9DCCB9B14E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15900" yWindow="-21140" windowWidth="30580" windowHeight="19040" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="-21140" windowWidth="30580" windowHeight="19040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1839,13 +1839,7 @@
     <t>SMART Application Launch Framework Implementation Guide</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/smart-app-launch</t>
-  </si>
-  <si>
     <t>Bulk Data Access IG</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/bulkdata</t>
   </si>
   <si>
     <t>imports</t>
@@ -1908,6 +1902,12 @@
     - expiration date
     - manufacture date
     - distinct identifier</t>
+  </si>
+  <si>
+    <t>http://fhir-registry.smarthealthit.org</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata.html</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="M71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10362,8 +10362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10391,7 +10391,7 @@
         <v>561</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>69</v>
@@ -10399,10 +10399,10 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="1" t="s">
@@ -10435,10 +10435,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -10458,10 +10458,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="1" t="s">
@@ -11132,16 +11132,16 @@
         <v>416</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11217,7 +11217,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X6" s="17" t="s">
         <v>469</v>
@@ -11442,7 +11442,7 @@
         <v>517</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>280</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854AA25-6E78-E140-B0A9-9DCCB9B14E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79983E1D-9B29-1C45-A306-7FC2FF3BB91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="-21140" windowWidth="30580" windowHeight="19040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1907,7 +1907,7 @@
     <t>http://fhir-registry.smarthealthit.org</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata.html</t>
+    <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata</t>
   </si>
 </sst>
 </file>
@@ -10363,7 +10363,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79983E1D-9B29-1C45-A306-7FC2FF3BB91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2EE9BB-A29B-7D40-A7E2-91542F770A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="-21140" windowWidth="30580" windowHeight="19040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="577">
   <si>
     <t>Element</t>
   </si>
@@ -1908,6 +1908,12 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/smart-app-launch</t>
   </si>
 </sst>
 </file>
@@ -10363,13 +10369,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -10393,6 +10399,9 @@
       <c r="B2" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
@@ -10404,7 +10413,9 @@
       <c r="B3" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>575</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>69</v>
       </c>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2EE9BB-A29B-7D40-A7E2-91542F770A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068B7326-9989-FD4A-AD1D-6E237C660A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="4720" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1907,13 +1907,13 @@
     <t>http://fhir-registry.smarthealthit.org</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/bulkdata/STU1.0.1/ImplementationGuide-hl7.fhir.uv.bulkdata</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/uv/bulkdata</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/smart-app-launch</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata/ImplementationGuide/hl7.fhir.uv.bulkdata</t>
   </si>
 </sst>
 </file>
@@ -10369,7 +10369,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10400,7 +10400,7 @@
         <v>573</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>69</v>
@@ -10411,10 +10411,10 @@
         <v>562</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>574</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>575</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>69</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068B7326-9989-FD4A-AD1D-6E237C660A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF6D7C-01AC-6643-A293-39FB013873B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4720" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="578">
   <si>
     <t>Element</t>
   </si>
@@ -1907,13 +1907,16 @@
     <t>http://fhir-registry.smarthealthit.org</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/bulkdata</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/smart-app-launch</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/uv/bulkdata/ImplementationGuide/hl7.fhir.uv.bulkdata</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/smart-app-launch/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
   </si>
 </sst>
 </file>
@@ -10368,14 +10371,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -10411,10 +10414,10 @@
         <v>562</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>576</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>574</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>69</v>
@@ -10429,8 +10432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B31AD37-8183-744F-9AC6-9E533D1B51F5}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10439,7 +10442,7 @@
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -10474,7 +10477,9 @@
       <c r="D2" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>577</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF6D7C-01AC-6643-A293-39FB013873B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5EA6E2-4AC6-384B-BC72-ECE803AC54DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
     <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-client.html</t>
+    <t>CapabilityStatement-us-core-client.html</t>
   </si>
 </sst>
 </file>
@@ -10433,7 +10433,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5EA6E2-4AC6-384B-BC72-ECE803AC54DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719F7DF4-E467-0A49-8760-1057EA22B537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="577">
   <si>
     <t>Element</t>
   </si>
@@ -1914,9 +1914,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
-  </si>
-  <si>
-    <t>CapabilityStatement-us-core-client.html</t>
   </si>
 </sst>
 </file>
@@ -10433,7 +10430,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10477,9 +10474,7 @@
       <c r="D2" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>577</v>
-      </c>
+      <c r="E2" s="19"/>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719F7DF4-E467-0A49-8760-1057EA22B537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB31D6-9A42-4343-8363-73A9F81E898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="578">
   <si>
     <t>Element</t>
   </si>
@@ -1914,6 +1914,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
+  </si>
+  <si>
+    <t>CapabilityStatement-us-core-client.html</t>
   </si>
 </sst>
 </file>
@@ -10474,7 +10477,9 @@
       <c r="D2" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>577</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\US-Core\input\resources_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB31D6-9A42-4343-8363-73A9F81E898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEFBBC0-4696-44B6-AC67-5E148F521460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="580">
   <si>
     <t>Element</t>
   </si>
@@ -1918,12 +1918,18 @@
   <si>
     <t>CapabilityStatement-us-core-client.html</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sexual-orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	US Core Sexual Orientation Observation Profile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2418,13 +2424,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>483</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>484</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>485</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>487</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,7 +2478,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>490</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>491</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>551</v>
       </c>
@@ -2512,39 +2518,39 @@
       <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="45.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="73.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="49.6640625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="49.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" style="1" customWidth="1"/>
-    <col min="25" max="25" width="50.83203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="90.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.1640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="1"/>
+    <col min="25" max="25" width="50.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="90.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.140625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="45.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -2633,7 +2639,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="45.75" customHeight="1" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="45.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="45.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="45.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="45.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="45.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="45.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="45.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="45.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="45.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="45.75" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="45.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3270,7 +3276,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="45.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="45.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="45.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="45.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="45.75" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="45.75" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="45.75" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="45.75" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="45.75" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3754,7 +3760,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="45.75" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="45.75" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="45.75" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="45.75" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="45.75" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="45.75" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="45.75" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="45.75" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="45.75" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="45.75" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="45.75" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="45.75" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4337,7 +4343,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="45.75" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="45.75" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="45.75" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4503,7 +4509,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="45.75" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4556,7 +4562,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="45.75" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4613,7 +4619,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="45.75" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="45.75" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4722,7 +4728,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="45.75" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4784,7 +4790,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="45.75" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4837,7 +4843,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="45.75" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="45.75" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4944,7 +4950,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="45.75" customHeight="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="45.75" customHeight="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5056,7 +5062,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="45.75" customHeight="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5118,7 +5124,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="45.75" customHeight="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5171,7 +5177,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="45.75" customHeight="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5224,7 +5230,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="45.75" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="45.75" customHeight="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5334,7 +5340,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="45.75" customHeight="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5396,7 +5402,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="45.75" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="45.75" customHeight="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="45.75" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5565,7 +5571,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="45.75" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="45.75" customHeight="1">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -5673,7 +5679,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="45.75" customHeight="1">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -5730,7 +5736,7 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="45.75" customHeight="1">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="45.75" customHeight="1">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -5847,7 +5853,7 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="45.75" customHeight="1">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -5904,7 +5910,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="45.75" customHeight="1">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -5960,7 +5966,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="45.75" customHeight="1">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -6021,7 +6027,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="45.75" customHeight="1">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -6078,7 +6084,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="45.75" customHeight="1">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -6131,7 +6137,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="45.75" customHeight="1">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -6187,7 +6193,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="45.75" customHeight="1">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -6240,7 +6246,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="45.75" customHeight="1">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="45.75" customHeight="1">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -6350,7 +6356,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="45.75" customHeight="1">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -6412,7 +6418,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="45.75" customHeight="1">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -6465,7 +6471,7 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="45.75" customHeight="1">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -6515,7 +6521,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="45.75" customHeight="1">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -6572,7 +6578,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="45.75" customHeight="1">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="45.75" customHeight="1">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="45.75" customHeight="1">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -6752,7 +6758,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="45.75" customHeight="1">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -6808,7 +6814,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="45.75" customHeight="1">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="45.75" customHeight="1">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -6919,7 +6925,7 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="45.75" customHeight="1">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="45.75" customHeight="1">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -7029,7 +7035,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="45.75" customHeight="1">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -7084,7 +7090,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="45.75" customHeight="1">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="45.75" customHeight="1">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -7193,7 +7199,7 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="45.75" customHeight="1">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -7248,7 +7254,7 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="45.75" customHeight="1">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -7303,7 +7309,7 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="45.75" customHeight="1">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -7358,7 +7364,7 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="45.75" customHeight="1">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="45.75" customHeight="1">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -7468,7 +7474,7 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="45.75" customHeight="1">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -7526,7 +7532,7 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="45.75" customHeight="1">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -7584,7 +7590,7 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="45.75" customHeight="1">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -7645,7 +7651,7 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="45.75" customHeight="1">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -7728,22 +7734,22 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="255.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="255.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
@@ -7775,7 +7781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7800,7 +7806,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7825,7 +7831,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7850,7 +7856,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7875,7 +7881,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7906,7 +7912,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7956,7 +7962,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7982,7 +7988,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8009,7 +8015,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8035,7 +8041,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8060,7 +8066,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8091,7 +8097,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8116,7 +8122,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8141,7 +8147,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8172,7 +8178,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8198,7 +8204,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8229,7 +8235,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8256,7 +8262,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -8282,7 +8288,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -8307,7 +8313,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -8333,7 +8339,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -8387,7 +8393,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -8414,7 +8420,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -8439,7 +8445,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -8464,7 +8470,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -8489,7 +8495,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -8551,7 +8557,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -8613,7 +8619,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -8646,7 +8652,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -8676,7 +8682,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -8736,7 +8742,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -8766,7 +8772,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -8797,7 +8803,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -8828,7 +8834,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -8858,7 +8864,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -8891,7 +8897,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -8921,7 +8927,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="1">
         <v>52</v>
       </c>
@@ -8954,7 +8960,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>53</v>
       </c>
@@ -8984,7 +8990,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -9014,7 +9020,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -9044,7 +9050,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -9074,7 +9080,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>59</v>
       </c>
@@ -9104,7 +9110,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -9134,7 +9140,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -9165,7 +9171,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -9196,7 +9202,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -9229,7 +9235,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -9262,7 +9268,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -9295,7 +9301,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -9328,7 +9334,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>73</v>
       </c>
@@ -9359,7 +9365,7 @@
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>74</v>
       </c>
@@ -9389,7 +9395,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>75</v>
       </c>
@@ -9420,7 +9426,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -9451,7 +9457,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>77</v>
       </c>
@@ -9482,7 +9488,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>80</v>
       </c>
@@ -9514,7 +9520,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>81</v>
       </c>
@@ -9547,7 +9553,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>82</v>
       </c>
@@ -9577,7 +9583,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -9610,7 +9616,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>84</v>
       </c>
@@ -9640,7 +9646,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>85</v>
       </c>
@@ -9670,7 +9676,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -9703,7 +9709,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -9735,7 +9741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -9767,7 +9773,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -9799,7 +9805,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>94</v>
       </c>
@@ -9832,7 +9838,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="15.75">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -9865,7 +9871,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -9898,7 +9904,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>101</v>
       </c>
@@ -9931,7 +9937,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -9964,7 +9970,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>103</v>
       </c>
@@ -9997,7 +10003,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>104</v>
       </c>
@@ -10027,7 +10033,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>107</v>
       </c>
@@ -10058,7 +10064,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="20.25" customHeight="1">
       <c r="A79" s="1">
         <v>108</v>
       </c>
@@ -10087,7 +10093,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -10120,7 +10126,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="20.25" customHeight="1">
       <c r="A81" s="1">
         <v>110</v>
       </c>
@@ -10153,7 +10159,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>111</v>
       </c>
@@ -10183,7 +10189,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="20.25" customHeight="1">
       <c r="A83" s="1">
         <v>112</v>
       </c>
@@ -10214,7 +10220,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>115</v>
       </c>
@@ -10260,13 +10266,13 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10274,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -10282,7 +10288,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>472</v>
       </c>
@@ -10290,7 +10296,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10298,7 +10304,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="105" customHeight="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10306,7 +10312,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10314,7 +10320,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="141" customHeight="1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10322,7 +10328,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="103.5" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -10330,7 +10336,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>553</v>
       </c>
@@ -10338,7 +10344,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>555</v>
       </c>
@@ -10346,7 +10352,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>557</v>
       </c>
@@ -10354,7 +10360,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>559</v>
       </c>
@@ -10375,13 +10381,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -10395,7 +10401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>561</v>
       </c>
@@ -10409,7 +10415,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>562</v>
       </c>
@@ -10432,22 +10438,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B31AD37-8183-744F-9AC6-9E533D1B51F5}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>563</v>
       </c>
@@ -10467,7 +10473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="B2" s="20" t="b">
         <v>1</v>
       </c>
@@ -10491,22 +10497,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10523,7 +10529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -10538,7 +10544,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
@@ -10553,7 +10559,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>344</v>
       </c>
@@ -10568,7 +10574,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>356</v>
       </c>
@@ -10583,7 +10589,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>437</v>
       </c>
@@ -10598,7 +10604,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -10613,7 +10619,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>193</v>
       </c>
@@ -10628,7 +10634,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>352</v>
       </c>
@@ -10643,7 +10649,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>358</v>
       </c>
@@ -10658,7 +10664,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>370</v>
       </c>
@@ -10673,7 +10679,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>349</v>
       </c>
@@ -10688,7 +10694,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>372</v>
       </c>
@@ -10703,7 +10709,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>363</v>
       </c>
@@ -10718,7 +10724,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>354</v>
       </c>
@@ -10733,7 +10739,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>493</v>
       </c>
@@ -10748,7 +10754,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>422</v>
       </c>
@@ -10763,7 +10769,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>495</v>
       </c>
@@ -10778,7 +10784,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>497</v>
       </c>
@@ -10793,7 +10799,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>499</v>
       </c>
@@ -10808,7 +10814,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>501</v>
       </c>
@@ -10823,7 +10829,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>503</v>
       </c>
@@ -10838,7 +10844,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>505</v>
       </c>
@@ -10853,7 +10859,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>507</v>
       </c>
@@ -10867,7 +10873,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>509</v>
       </c>
@@ -10881,7 +10887,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>527</v>
       </c>
@@ -10895,7 +10901,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>525</v>
       </c>
@@ -10909,7 +10915,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
         <v>530</v>
       </c>
@@ -10923,7 +10929,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>443</v>
       </c>
@@ -10937,7 +10943,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>511</v>
       </c>
@@ -10951,12 +10957,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="1" customFormat="1">
       <c r="A31" s="1" t="s">
-        <v>282</v>
+        <v>578</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>351</v>
+        <v>579</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -10965,87 +10971,101 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>445</v>
+        <v>361</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>446</v>
+        <v>362</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>447</v>
       </c>
     </row>
@@ -11067,23 +11087,23 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -11160,7 +11180,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="17.25" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -11180,7 +11200,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="17.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>238</v>
       </c>
@@ -11197,7 +11217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="17.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>252</v>
       </c>
@@ -11211,7 +11231,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="17.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>139</v>
       </c>
@@ -11225,7 +11245,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>256</v>
       </c>
@@ -11242,7 +11262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>182</v>
       </c>
@@ -11256,7 +11276,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
@@ -11273,7 +11293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -11290,7 +11310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>183</v>
       </c>
@@ -11304,7 +11324,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>163</v>
       </c>
@@ -11321,7 +11341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>257</v>
       </c>
@@ -11334,7 +11354,7 @@
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>365</v>
       </c>
@@ -11347,7 +11367,7 @@
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
     </row>
-    <row r="14" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>184</v>
       </c>
@@ -11370,7 +11390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>454</v>
       </c>
@@ -11393,7 +11413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>186</v>
       </c>
@@ -11410,7 +11430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>267</v>
       </c>
@@ -11420,7 +11440,7 @@
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
     </row>
-    <row r="18" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -11437,7 +11457,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>274</v>
       </c>
@@ -11447,7 +11467,7 @@
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
     </row>
-    <row r="20" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>276</v>
       </c>
@@ -11466,7 +11486,7 @@
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
     </row>
-    <row r="21" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>185</v>
       </c>
@@ -11483,7 +11503,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="1" customFormat="1" ht="120">
       <c r="A22" s="1" t="s">
         <v>447</v>
       </c>
@@ -11496,7 +11516,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:25" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" s="1" customFormat="1" ht="15">
       <c r="A23" s="1" t="s">
         <v>464</v>
       </c>
@@ -11507,18 +11527,18 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="17.25" customHeight="1">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="17.25" customHeight="1">
       <c r="A25"/>
     </row>
-    <row r="56" spans="22:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="22:25" ht="17.25" customHeight="1">
       <c r="V56" s="7"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
     </row>
-    <row r="59" spans="22:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="22:25" ht="17.25" customHeight="1">
       <c r="Y59" s="7"/>
     </row>
   </sheetData>
@@ -11538,15 +11558,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -11563,7 +11583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="90.75" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>378</v>
       </c>
@@ -11580,7 +11600,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>466</v>
       </c>
@@ -11597,7 +11617,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -11613,18 +11633,18 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="1"/>
-    <col min="24" max="24" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="1"/>
+    <col min="24" max="24" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -11701,7 +11721,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -11772,7 +11792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -11842,7 +11862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -11910,7 +11930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -11978,7 +11998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -12047,7 +12067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -12115,7 +12135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -12183,7 +12203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -12251,7 +12271,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -12332,9 +12352,9 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -12345,7 +12365,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>439</v>
       </c>
@@ -12354,7 +12374,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>440</v>
       </c>
@@ -12363,7 +12383,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>441</v>
       </c>
@@ -12372,7 +12392,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>442</v>
       </c>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/input/resources_spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B03DCB-04D6-6D44-BA51-40C19204A228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E9B25-90B5-A140-8D11-710EBBC44431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="-21140" windowWidth="38640" windowHeight="17540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="102400" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1995,6 +1995,169 @@
    * The client application **SHALL** support both elements and target resources.</t>
   </si>
   <si>
+    <t>* Systems **SHOULD** support `Observation.effectivePeriod` to accurately represent tests that are collected over a period of time (for example, a 24-Hour Urine Collection test).
+* An Observation without a value, **SHALL** include a reason why the data is absent unless there are component observations, or references to other Observations that are grouped within it
+    * Systems that never provide an observation without a value are not required to support `Observation.dataAbsentReason`
+*  An `Observation.component` without a value, **SHALL** include a reason why the data is absent.
+    * Systems that never provide an component observation without a component value are not required to support `Observation.component.dataAbsentReason`.</t>
+  </si>
+  <si>
+    <t>conf_RelatedPerson</t>
+  </si>
+  <si>
+    <t>conf_ServiceRequest</t>
+  </si>
+  <si>
+    <t>is_new</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>discharge-disposition</t>
+  </si>
+  <si>
+    <t>A server **SHALL** support a value precise to the *day*.</t>
+  </si>
+  <si>
+    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
+  </si>
+  <si>
+    <t>asserted-date</t>
+  </si>
+  <si>
+    <t>recorded-date</t>
+  </si>
+  <si>
+    <t>abatement-date</t>
+  </si>
+  <si>
+    <t>support searching for all encounter diagnosis for a patient for an encounter</t>
+  </si>
+  <si>
+    <t>DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>support searching a careteam by participant role</t>
+  </si>
+  <si>
+    <t>authored</t>
+  </si>
+  <si>
+    <t>support fetching a ServiceRequest</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest/1032702~GET [base]/ServiceRequest?_id=1032702</t>
+  </si>
+  <si>
+    <t>support fetching a RelatedPerson</t>
+  </si>
+  <si>
+    <t>GET [base]/RelatedPerson/shaw-niece~GET [base]/RelatedPerson?_id=shaw-niece</t>
+  </si>
+  <si>
+    <t>patient,location</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=1137192&amp;location=Location/hospital</t>
+  </si>
+  <si>
+    <t>patient,discharge-disposition</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=example1&amp;discharge-disposition=01</t>
+  </si>
+  <si>
+    <t>patient,category,encounter</t>
+  </si>
+  <si>
+    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis?encounter=1036</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Condition resources for the specified patient and category and encounter. When category = "encounter-diagnosis" will return the encounter diagnosis for the encounter.</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;onset-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>patient,asserted-date</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;asserted-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>patient,recorded-date</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;recorded-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>patient,abatement-date</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;abatement-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>support searching for all current care team members for a patient. DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/CareTeam?patient=1137192&amp;status=active~GET [base]/CareTeam?patient=1137192&amp;status=active&amp;_include=CareTeam:participant:RelatedPerson&amp;_include=CareTeam:participant:Patient&amp;_include=CareTeam:participant:Practitioner&amp;_include=CareTeam:participant:PractitionerRole</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CareTeam resources for the specified patient and status =`active` and may include CareTeam Patient, RelatedPerson and Practitioner and PractitionerRole participants.  
+To get Practitioner name and identifier using PractitionerRole:  
+1) Search for the careteam PractitionerRole: GET [base]/CareTeam?patient=[id]&amp;status=active&amp;_include=CareTeam:participant:PractitionerRole  
+2) using the FHIR _id from the PractitionerRole.practitioner element resource,  fetch the Practitioner resources using  GET [base]/Practitioner?_id=[id]</t>
+  </si>
+  <si>
+    <t>patient,role</t>
+  </si>
+  <si>
+    <t>support searching for all current care team member roles for a patient. DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/CareTeam?patient=1137192&amp;role=http://snomed.info/sct\|17561000</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CareTeam resources for the specified patient and participant role</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=1137192&amp;status=completed</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=1032702&amp;code=http://snomed.info/sct\|35637008</t>
+  </si>
+  <si>
+    <t>patient,category,authored</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2&amp;date=ge2010-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>patient,code,authored</t>
+  </si>
+  <si>
+    <t>support searching for reports by code and date DOES THIS DO ANYTHING!!!!</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=f201&amp;code=http://snomed.info/sct\|35637008&amp;date=ge2019-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>patient,description</t>
+  </si>
+  <si>
+    <t>support searching for all goals for a patient by date DOES THIS DO ANYTHING!!!</t>
+  </si>
+  <si>
+    <t>GET [base]/Goal?patient=1137192&amp;description=http://snomed.info/sct\|1078229009</t>
+  </si>
+  <si>
     <t>* The Encounter resource can represent a reason using either a code with `Encounter.reasonCode`, or a reference with `Encounter.reasonReference` to  Condition or other resource.
    * Although both are marked as must support, the server systems are not required to support both a code and a reference, but they **SHALL** support *at least one* of these elements.
    * The client application **SHALL** support both elements.
@@ -2002,177 +2165,14 @@
 * The intent of this profile is to support *where the encounter occurred*.  The location address can be represented by either by the Location referenced by `Encounter.location.location` or indirectly through the Organization referenced by `Encounter.serviceProvider`.
   * Although both are marked as must support, the server systems are not required to support both `Encounter.location.location` and `Encounter.serviceProvider`, but they **SHALL** support *at least one* of these elements.
   * The client application **SHALL** support both elements.
-  * if using `Encounter.locatison.location` it **SHOULD** conform to US Core Location.  However, as a result of implementation feedback, it **MAY**  reference the base FHIR Location resource.  See this guidance on Referencing US Core Profiles</t>
-  </si>
-  <si>
-    <t>* Systems **SHOULD** support `Observation.effectivePeriod` to accurately represent tests that are collected over a period of time (for example, a 24-Hour Urine Collection test).
-* An Observation without a value, **SHALL** include a reason why the data is absent unless there are component observations, or references to other Observations that are grouped within it
-    * Systems that never provide an observation without a value are not required to support `Observation.dataAbsentReason`
-*  An `Observation.component` without a value, **SHALL** include a reason why the data is absent.
-    * Systems that never provide an component observation without a component value are not required to support `Observation.component.dataAbsentReason`.</t>
-  </si>
-  <si>
-    <t>conf_RelatedPerson</t>
-  </si>
-  <si>
-    <t>conf_ServiceRequest</t>
-  </si>
-  <si>
-    <t>is_new</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>discharge-disposition</t>
-  </si>
-  <si>
-    <t>A server **SHALL** support a value precise to the *day*.</t>
-  </si>
-  <si>
-    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
-  </si>
-  <si>
-    <t>asserted-date</t>
-  </si>
-  <si>
-    <t>recorded-date</t>
-  </si>
-  <si>
-    <t>abatement-date</t>
-  </si>
-  <si>
-    <t>support searching for all encounter diagnosis for a patient for an encounter</t>
-  </si>
-  <si>
-    <t>DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>support searching a careteam by participant role</t>
-  </si>
-  <si>
-    <t>authored</t>
-  </si>
-  <si>
-    <t>support fetching a ServiceRequest</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest/1032702~GET [base]/ServiceRequest?_id=1032702</t>
-  </si>
-  <si>
-    <t>support fetching a RelatedPerson</t>
-  </si>
-  <si>
-    <t>GET [base]/RelatedPerson/shaw-niece~GET [base]/RelatedPerson?_id=shaw-niece</t>
-  </si>
-  <si>
-    <t>patient,location</t>
-  </si>
-  <si>
-    <t>GET [base]/Encounter?patient=1137192&amp;location=Location/hospital</t>
-  </si>
-  <si>
-    <t>patient,discharge-disposition</t>
-  </si>
-  <si>
-    <t>GET [base]/Encounter?patient=example1&amp;discharge-disposition=01</t>
-  </si>
-  <si>
-    <t>patient,category,encounter</t>
-  </si>
-  <si>
-    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis?encounter=1036</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all Condition resources for the specified patient and category and encounter. When category = "encounter-diagnosis" will return the encounter diagnosis for the encounter.</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;onset-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>patient,asserted-date</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;asserted-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>patient,recorded-date</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;recorded-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>patient,abatement-date</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;abatement-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>support searching for all current care team members for a patient. DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>GET [base]/CareTeam?patient=1137192&amp;status=active~GET [base]/CareTeam?patient=1137192&amp;status=active&amp;_include=CareTeam:participant:RelatedPerson&amp;_include=CareTeam:participant:Patient&amp;_include=CareTeam:participant:Practitioner&amp;_include=CareTeam:participant:PractitionerRole</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all CareTeam resources for the specified patient and status =`active` and may include CareTeam Patient, RelatedPerson and Practitioner and PractitionerRole participants.  
-To get Practitioner name and identifier using PractitionerRole:  
-1) Search for the careteam PractitionerRole: GET [base]/CareTeam?patient=[id]&amp;status=active&amp;_include=CareTeam:participant:PractitionerRole  
-2) using the FHIR _id from the PractitionerRole.practitioner element resource,  fetch the Practitioner resources using  GET [base]/Practitioner?_id=[id]</t>
-  </si>
-  <si>
-    <t>patient,role</t>
-  </si>
-  <si>
-    <t>support searching for all current care team member roles for a patient. DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>GET [base]/CareTeam?patient=1137192&amp;role=http://snomed.info/sct\|17561000</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all CareTeam resources for the specified patient and participant role</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=1137192&amp;status=completed</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=1032702&amp;code=http://snomed.info/sct\|35637008</t>
-  </si>
-  <si>
-    <t>patient,category,authored</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2&amp;date=ge2010-01-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>patient,code,authored</t>
-  </si>
-  <si>
-    <t>support searching for reports by code and date DOES THIS DO ANYTHING!!!!</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=f201&amp;code=http://snomed.info/sct\|35637008&amp;date=ge2019-01-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>patient,description</t>
-  </si>
-  <si>
-    <t>support searching for all goals for a patient by date DOES THIS DO ANYTHING!!!</t>
-  </si>
-  <si>
-    <t>GET [base]/Goal?patient=1137192&amp;description=http://snomed.info/sct\|1078229009</t>
+  * if using `Encounter.location.location` it **SHOULD** conform to US Core Location.  However, as a result of implementation feedback, it **MAY**  reference the base FHIR Location resource.  See this guidance on Referencing US Core Profiles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2254,12 +2254,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2850,7 +2844,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>30</v>
@@ -3806,7 +3800,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -3967,7 +3961,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -4126,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4344,7 +4338,7 @@
         <v>51</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>168</v>
@@ -4742,7 +4736,7 @@
         <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -4799,7 +4793,7 @@
         <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>28</v>
@@ -4856,7 +4850,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>28</v>
@@ -5001,7 +4995,7 @@
         <v>51</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Z42" s="5" t="str">
         <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
@@ -7276,7 +7270,7 @@
         <v>GET [base]/Practitioner/practitioner-1~GET [base]/Practitioner?_id=practitioner-1</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AB84" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B84)&amp;"-"&amp;SUBSTITUTE(C84,"_","")&amp;".html")</f>
@@ -7344,7 +7338,7 @@
         <v>244</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -7385,7 +7379,7 @@
         <v>51</v>
       </c>
       <c r="Y86" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Z86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?"&amp;C86&amp;"=http://snomed.info/sct\|17561000"</f>
@@ -8527,7 +8521,7 @@
         <v>576</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>28</v>
@@ -8619,10 +8613,10 @@
         <v>51</v>
       </c>
       <c r="Y108" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z108" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="Z108" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="AB108" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B108)&amp;"-"&amp;SUBSTITUTE(C108,"_","")&amp;".html")</f>
@@ -8721,10 +8715,10 @@
         <v>51</v>
       </c>
       <c r="Y110" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z110" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="Z110" s="5" t="s">
-        <v>607</v>
       </c>
       <c r="AA110" s="10"/>
       <c r="AB110" s="1" t="str">
@@ -8843,7 +8837,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>92</v>
@@ -9273,7 +9267,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>1</v>
@@ -9288,7 +9282,7 @@
         <v>301</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9364,7 +9358,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>1</v>
@@ -9379,7 +9373,7 @@
         <v>306</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9845,7 +9839,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>1</v>
@@ -9860,10 +9854,10 @@
         <v>145</v>
       </c>
       <c r="J37" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -9920,7 +9914,7 @@
         <v>148</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>151</v>
@@ -9938,7 +9932,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>1</v>
@@ -9953,7 +9947,7 @@
         <v>148</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>151</v>
@@ -9971,7 +9965,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>1</v>
@@ -9986,7 +9980,7 @@
         <v>148</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>151</v>
@@ -10004,7 +9998,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>1</v>
@@ -10019,7 +10013,7 @@
         <v>148</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>151</v>
@@ -11116,13 +11110,13 @@
         <v>307</v>
       </c>
       <c r="I77" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="K77" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -11548,7 +11542,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>1</v>
@@ -11560,13 +11554,13 @@
         <v>101</v>
       </c>
       <c r="I91" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="J91" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="J91" s="5" t="s">
+      <c r="K91" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -11595,7 +11589,7 @@
         <v>299</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K92" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources for the specified "&amp;SUBSTITUTE(D92,","," and ")</f>
@@ -11628,7 +11622,7 @@
         <v>194</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K93" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient and  a category code"</f>
@@ -11661,7 +11655,7 @@
         <v>195</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K94" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -11679,7 +11673,7 @@
         <v>574</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -11694,7 +11688,7 @@
         <v>197</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K95" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient and date and a category code"</f>
@@ -11712,7 +11706,7 @@
         <v>574</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>1</v>
@@ -11724,10 +11718,10 @@
         <v>214</v>
       </c>
       <c r="I96" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="J96" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>636</v>
       </c>
       <c r="K96" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B96&amp;" resources for the specified patient and date and service code(s).  SHOULD support search by multiple report codes."</f>
@@ -11746,7 +11740,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>1</v>
@@ -11758,10 +11752,10 @@
         <v>101</v>
       </c>
       <c r="I97" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J97" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="K97" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B97&amp;" resources for the specified "&amp;SUBSTITUTE(D97,","," and ")</f>
@@ -12960,7 +12954,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>581</v>
@@ -13122,7 +13116,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>581</v>
@@ -13491,10 +13485,10 @@
         <v>437</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>457</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E9B25-90B5-A140-8D11-710EBBC44431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4445F5C2-90A2-7342-B7B8-B06EB7B07A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="102400" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="676">
   <si>
     <t>Element</t>
   </si>
@@ -691,9 +691,6 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>MedicationStatement</t>
-  </si>
-  <si>
     <t>GET [base]/DiagnosticReport?patient=1137192&amp;status=completed</t>
   </si>
   <si>
@@ -1159,9 +1156,6 @@
     <t>US Core CareTeam Profile</t>
   </si>
   <si>
-    <t>US Core MedicationStatement Profile</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</t>
   </si>
   <si>
@@ -1193,9 +1187,6 @@
   </si>
   <si>
     <t>US Core Condition Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</t>
@@ -1588,19 +1579,10 @@
     <t>http://hl7.org/fhir/us/core/</t>
   </si>
   <si>
-    <t>HL7 International - US Realm Steering Committee</t>
-  </si>
-  <si>
     <t>publishersystem</t>
   </si>
   <si>
     <t>publishervalue</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/usrealm/index.cfm</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
   </si>
   <si>
     <t>profile_conf</t>
@@ -1797,9 +1779,6 @@
   </si>
   <si>
     <t>suppress_may_sps</t>
-  </si>
-  <si>
-    <t>Documents/FHIR/US-Core-R4/input/</t>
   </si>
   <si>
     <t>format</t>
@@ -1909,9 +1888,6 @@
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sexual-orientation</t>
   </si>
   <si>
-    <t xml:space="preserve">	US Core Sexual Orientation Observation Profile</t>
-  </si>
-  <si>
     <t>5.0.0</t>
   </si>
   <si>
@@ -1921,9 +1897,6 @@
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-clinical-test</t>
   </si>
   <si>
-    <t>US Core Clinical Test Result Observation Profile</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson</t>
   </si>
   <si>
@@ -1933,12 +1906,6 @@
     <t>RelatedPerson</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-response</t>
-  </si>
-  <si>
-    <t>US Core Screening Response Observation Profile</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</t>
   </si>
   <si>
@@ -1948,16 +1915,7 @@
     <t>ServiceRequest</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-social-history-assessment</t>
-  </si>
-  <si>
-    <t>US Core Social History Assessment Observation Profile</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-imaging</t>
-  </si>
-  <si>
-    <t>US Core Diagnostic Imaging Result Observation Profile</t>
   </si>
   <si>
     <t>resolves</t>
@@ -2167,12 +2125,165 @@
   * The client application **SHALL** support both elements.
   * if using `Encounter.location.location` it **SHOULD** conform to US Core Location.  However, as a result of implementation feedback, it **MAY**  reference the base FHIR Location resource.  See this guidance on Referencing US Core Profiles</t>
   </si>
+  <si>
+    <t>Documents/FHIR/US-Core/input/</t>
+  </si>
+  <si>
+    <t>HL7 International - Cross-Group Projects</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/cgp</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-direct</t>
+  </si>
+  <si>
+    <t>US Core Direct email Extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-race</t>
+  </si>
+  <si>
+    <t>US Core Race Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex</t>
+  </si>
+  <si>
+    <t>US Core Birth Sex Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity</t>
+  </si>
+  <si>
+    <t>US Core Gender Identity Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity</t>
+  </si>
+  <si>
+    <t>US Core Ethnicity Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-extension-questionnaire-uri</t>
+  </si>
+  <si>
+    <t>US Core Extension Questionnaire URI</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sdoh-assessment</t>
+  </si>
+  <si>
+    <t>US Core Observation SDOH Assessment Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-social-history</t>
+  </si>
+  <si>
+    <t>US Core Observation Social History Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Sexual Orientation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-survey</t>
+  </si>
+  <si>
+    <t>US Core Observation Survey Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Imaging Result Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Clinical Test Result Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
+  </si>
+  <si>
+    <t>US Core QuestionnaireResponse Profile</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>US Core provides two ways to represent SDOH assessment screening results using: 
+1. Observation: [US Core Observation SDOH Assessment Profile] 
+1. QuestionnaireResponse: [US Core QuestionnaireResponse Profile]
+US Core Servers **SHALL** support [US Core Observation SDOH Assessment Profile] for SDOH Assessments and **MAY** support the [US Core QuestionnaireResponse Profile] for SDOH Assessments.</t>
+  </si>
+  <si>
+    <t>conf_QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse/AHC-HRSN-screening-example~GET [base]/QuestionnaireResponse/?_id=AHC-HRSN-screening-example</t>
+  </si>
+  <si>
+    <t>Allows retrieving QuestionnaireResponses that are complete (or incomplete)</t>
+  </si>
+  <si>
+    <t>_tag</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.meta._tag</t>
+  </si>
+  <si>
+    <t>Allows filtering for QuestionnaireResponse that have tag of “sdoh”</t>
+  </si>
+  <si>
+    <t>Allows filtering for QuestionnaireResponses by when they were created/last edited</t>
+  </si>
+  <si>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>Allows retrieving QuestionnaireResponses that have been completed against a specified form</t>
+  </si>
+  <si>
+    <t>combo description field ...DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=1137192&amp;status=completed</t>
+  </si>
+  <si>
+    <t>patient,_tag</t>
+  </si>
+  <si>
+    <t>_tag=sdoh</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=1137192&amp;_tag=sdoh</t>
+  </si>
+  <si>
+    <t>patient,authored</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;date=ge2021</t>
+  </si>
+  <si>
+    <t>patient,_tag,authored</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;date=ge2021&amp;_tag=sdoh</t>
+  </si>
+  <si>
+    <t>patient,questionnaire</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;questionnaire=http://hl7.org/fhir/us/sdoh-clinicalcare/Questionnaire/SDOHCC-QuestionnaireHungerVitalSign</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,6 +2379,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2310,11 +2435,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2345,9 +2471,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2700,7 +2830,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2719,34 +2849,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>538</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2754,12 +2884,12 @@
         <v>63</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>477</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>55</v>
@@ -2767,34 +2897,37 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{F0F03EA1-31BA-804B-9035-810D43F90501}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2844,7 +2977,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>30</v>
@@ -2868,28 +3001,28 @@
         <v>44</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>45</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>46</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>47</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>3</v>
@@ -2909,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>135</v>
@@ -2956,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
@@ -3003,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>74</v>
@@ -3066,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3113,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>57</v>
@@ -3195,7 +3328,7 @@
         <v>51</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>82</v>
@@ -3246,7 +3379,7 @@
         <v>51</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>84</v>
@@ -3274,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3323,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3381,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3431,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3479,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3560,10 +3693,10 @@
         <v>51</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>166</v>
@@ -3590,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3640,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3694,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3720,7 +3853,7 @@
         <v>51</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>155</v>
@@ -3751,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3800,7 +3933,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -3809,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3870,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3920,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3961,7 +4094,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -3970,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4049,7 +4182,7 @@
         <v>71</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AB23" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B23)&amp;"-"&amp;SUBSTITUTE(C23,"_","")&amp;".html")</f>
@@ -4073,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4120,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4166,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4258,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4284,7 +4417,7 @@
         <v>51</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>154</v>
@@ -4338,7 +4471,7 @@
         <v>51</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>168</v>
@@ -4691,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4736,7 +4869,7 @@
         <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -4745,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4793,7 +4926,7 @@
         <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>28</v>
@@ -4802,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4850,7 +4983,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>28</v>
@@ -4859,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4916,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4957,7 +5090,7 @@
         <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>28</v>
@@ -4966,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4995,7 +5128,7 @@
         <v>51</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="Z42" s="5" t="str">
         <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
@@ -5027,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5086,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5136,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5213,13 +5346,13 @@
         <v>51</v>
       </c>
       <c r="Y46" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z46" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA46" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="Z46" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="AB46" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5243,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5296,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5355,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5405,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5455,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5500,7 +5633,7 @@
         <v>173</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>28</v>
@@ -5509,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5525,7 +5658,7 @@
         <v>74</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>51</v>
@@ -5562,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5615,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G54" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
@@ -5674,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5724,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5777,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5822,7 +5955,7 @@
         <v>175</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>28</v>
@@ -5831,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5881,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5931,7 +6064,7 @@
         <v>175</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>28</v>
@@ -5940,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5994,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6038,7 +6171,7 @@
         <v>176</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>28</v>
@@ -6047,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6100,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6142,7 +6275,7 @@
         <v>176</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>28</v>
@@ -6151,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6193,7 +6326,7 @@
         <v>176</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>28</v>
@@ -6202,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6244,7 +6377,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>57</v>
@@ -6256,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6297,7 +6430,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>85</v>
@@ -6309,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6336,10 +6469,10 @@
       </c>
       <c r="X67" s="7"/>
       <c r="Y67" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z67" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AA67" s="10" t="str">
         <f>"Fetches a bundle of all "&amp;B67&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -6355,10 +6488,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>28</v>
@@ -6367,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6421,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6474,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6504,7 +6637,7 @@
         <v>support searching for all procedures for a patient</v>
       </c>
       <c r="Z70" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA70" s="10" t="str">
         <f>"Fetches a bundle of all "&amp;B70&amp; " resources for the specified patient"</f>
@@ -6532,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6586,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6639,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" ref="G73:G103" si="14">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B73)</f>
@@ -6692,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6742,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6795,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6849,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6896,7 +7029,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>135</v>
@@ -6908,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6946,7 +7079,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>24</v>
@@ -6958,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G79" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6996,7 +7129,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>74</v>
@@ -7008,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G80" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7050,7 +7183,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>85</v>
@@ -7062,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G81" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7109,7 +7242,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>57</v>
@@ -7121,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G82" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7162,7 +7295,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>85</v>
@@ -7174,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G83" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7200,7 +7333,7 @@
         <v>51</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="Y83" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B83)&amp;"s for a patient"</f>
@@ -7224,7 +7357,7 @@
         <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>50</v>
@@ -7270,7 +7403,7 @@
         <v>GET [base]/Practitioner/practitioner-1~GET [base]/Practitioner?_id=practitioner-1</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="AB84" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B84)&amp;"-"&amp;SUBSTITUTE(C84,"_","")&amp;".html")</f>
@@ -7282,7 +7415,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>57</v>
@@ -7294,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G85" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7335,10 +7468,10 @@
         <v>80</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -7347,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G86" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7379,7 +7512,7 @@
         <v>51</v>
       </c>
       <c r="Y86" s="5" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="Z86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?"&amp;C86&amp;"=http://snomed.info/sct\|17561000"</f>
@@ -7396,7 +7529,7 @@
         <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>85</v>
@@ -7408,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G87" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B87)</f>
@@ -7455,7 +7588,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -7467,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G88" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B88)</f>
@@ -7504,7 +7637,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>21</v>
@@ -7539,7 +7672,7 @@
         <v>51</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z89" s="5" t="str">
         <f>"GET [base]/"&amp;B89&amp;"?name=Health"</f>
@@ -7559,7 +7692,7 @@
         <v>84</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>81</v>
@@ -7594,7 +7727,7 @@
         <v>51</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z90" s="5" t="str">
         <f>"GET [base]/"&amp;B90&amp;"?address=Arbor"</f>
@@ -7614,10 +7747,10 @@
         <v>85</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>65</v>
@@ -7649,7 +7782,7 @@
         <v>51</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z91" s="5" t="str">
         <f>"GET [base]/"&amp;B91&amp;"?address-city=Ann Arbor"</f>
@@ -7669,10 +7802,10 @@
         <v>86</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>65</v>
@@ -7704,10 +7837,10 @@
         <v>51</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z92" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA92" s="10" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp; " resources for the state"</f>
@@ -7723,10 +7856,10 @@
         <v>87</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>65</v>
@@ -7758,7 +7891,7 @@
         <v>51</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z93" s="5" t="str">
         <f>"GET [base]/"&amp;B93&amp;"?address-postalcode=48104"</f>
@@ -7778,7 +7911,7 @@
         <v>88</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>21</v>
@@ -7813,7 +7946,7 @@
         <v>51</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z94" s="5" t="str">
         <f>"GET [base]/"&amp;B94&amp;"?name=Health"</f>
@@ -7833,7 +7966,7 @@
         <v>89</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>81</v>
@@ -7868,7 +8001,7 @@
         <v>51</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z95" s="5" t="str">
         <f>"GET [base]/"&amp;B95&amp;"?address=Arbor"</f>
@@ -7888,10 +8021,10 @@
         <v>90</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>65</v>
@@ -7923,7 +8056,7 @@
         <v>51</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z96" s="5" t="str">
         <f>"GET [base]/"&amp;B96&amp;"?address-city=Ann Arbor"</f>
@@ -7943,10 +8076,10 @@
         <v>91</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>65</v>
@@ -7978,7 +8111,7 @@
         <v>51</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z97" s="5" t="str">
         <f>"GET [base]/"&amp;B97&amp;"?address-state=MI"</f>
@@ -7998,10 +8131,10 @@
         <v>92</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>65</v>
@@ -8033,7 +8166,7 @@
         <v>51</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z98" s="5" t="str">
         <f>"GET [base]/"&amp;B98&amp;"?address-postalcode=48104"</f>
@@ -8053,7 +8186,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>21</v>
@@ -8088,7 +8221,7 @@
         <v>51</v>
       </c>
       <c r="Y99" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z99" s="5" t="str">
         <f>"GET [base]/"&amp;B99&amp;"?name=Smith"</f>
@@ -8108,7 +8241,7 @@
         <v>94</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>72</v>
@@ -8120,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G100" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8146,7 +8279,7 @@
         <v>51</v>
       </c>
       <c r="Y100" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z100" s="5" t="str">
         <f>"GET [base]/"&amp;B100&amp;"?dentifier=http://hl7.org/fhir/sid/us-npi\|97860456"</f>
@@ -8166,10 +8299,10 @@
         <v>95</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
@@ -8178,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G101" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8204,10 +8337,10 @@
         <v>51</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y101" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z101" s="5" t="str">
         <f>"GET [base]/"&amp;B101&amp;"?specialty=http://nucc.org/provider-taxonomy\|208D0000X"</f>
@@ -8227,10 +8360,10 @@
         <v>96</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -8239,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G102" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8265,13 +8398,13 @@
         <v>51</v>
       </c>
       <c r="U102" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="X102" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="X102" s="1" t="s">
+      <c r="Y102" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="Y102" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="Z102" s="5" t="str">
         <f>_xlfn.CONCAT("GET [base]/",B102,"?practitioner.identifier=http://hl7.org/fhir/sid/us-npi\|97860456&amp;_include=PractitionerRole:practitioner","&amp;_include=PractitionerRole?endpoint~GET [base]/PractitionerRole?practitioner.name=Henry&amp;_include=PractitionerRole:practitioner&amp;_include=PractitionerRole?endpoint")</f>
@@ -8291,7 +8424,7 @@
         <v>49</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>57</v>
@@ -8303,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G103" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8347,7 +8480,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>85</v>
@@ -8359,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G104" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B104)</f>
@@ -8409,7 +8542,7 @@
         <v>51</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>135</v>
@@ -8421,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f t="shared" ref="G105:G111" si="22">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B105)</f>
+        <f t="shared" ref="G105:G117" si="22">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B105)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -8462,7 +8595,7 @@
         <v>52</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>24</v>
@@ -8474,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G106" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8518,10 +8651,10 @@
         <v>53</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>28</v>
@@ -8530,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G107" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8575,7 +8708,7 @@
         <v>20</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>50</v>
@@ -8613,10 +8746,10 @@
         <v>51</v>
       </c>
       <c r="Y108" s="5" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="Z108" s="5" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="AB108" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B108)&amp;"-"&amp;SUBSTITUTE(C108,"_","")&amp;".html")</f>
@@ -8677,7 +8810,7 @@
         <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>50</v>
@@ -8715,10 +8848,10 @@
         <v>51</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="Z110" s="5" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="AA110" s="10"/>
       <c r="AB110" s="1" t="str">
@@ -8731,7 +8864,7 @@
         <v>79</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>85</v>
@@ -8743,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G111" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8786,6 +8919,324 @@
       <c r="AB111" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B111)&amp;"-"&amp;C111&amp;".html")</f>
         <v>SearchParameter-us-core-relatedperson-patient.html</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>80</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L112" s="1" t="str">
+        <f t="shared" ref="L112:L117" si="24">B112&amp;"."&amp;C112</f>
+        <v>QuestionnaireResponse._id</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y112" s="5" t="str">
+        <f>"support fetching a "&amp;B112</f>
+        <v>support fetching a QuestionnaireResponse</v>
+      </c>
+      <c r="Z112" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB112" s="1" t="str">
+        <f t="shared" ref="AB112:AB117" si="25">"SearchParameter-us-core-"&amp;LOWER((B112)&amp;"-"&amp;SUBSTITUTE(C112,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-questionnaireresponse-id.html</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>81</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G113" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L113" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>QuestionnaireResponse.patient</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y113" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B113)&amp;"s for a patient ...combo description field ...DOES THIS DO ANYTHING?"</f>
+        <v>support searching for all questionnaireresponses for a patient ...combo description field ...DOES THIS DO ANYTHING?</v>
+      </c>
+      <c r="Z113" s="5" t="str">
+        <f>"GET [base]/"&amp;B113&amp;"?patient=1032702"</f>
+        <v>GET [base]/QuestionnaireResponse?patient=1032702</v>
+      </c>
+      <c r="AA113" s="10" t="str">
+        <f>"Fetches a bundle of all "&amp;B113&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient</v>
+      </c>
+      <c r="AB113" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>SearchParameter-us-core-questionnaireresponse-patient.html</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>82</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G114" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L114" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>QuestionnaireResponse.status</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y114" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB114" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>SearchParameter-us-core-questionnaireresponse-status.html</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>83</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G115" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y115" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB115" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>SearchParameter-us-core-questionnaireresponse-tag.html</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>84</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G116" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L116" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>QuestionnaireResponse.authored</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P116" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y116" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB116" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>SearchParameter-us-core-questionnaireresponse-authored.html</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>85</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G117" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L117" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>QuestionnaireResponse.questionnaire</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y117" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB117" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>SearchParameter-us-core-questionnaireresponse-questionnaire.html</v>
       </c>
     </row>
   </sheetData>
@@ -8801,10 +9252,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8837,7 +9288,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>92</v>
@@ -8846,7 +9297,7 @@
         <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -8979,10 +9430,10 @@
         <v>101</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9164,10 +9615,10 @@
         <v>108</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9245,10 +9696,10 @@
         <v>101</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9267,7 +9718,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>1</v>
@@ -9279,10 +9730,10 @@
         <v>86</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9336,10 +9787,10 @@
         <v>101</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9358,7 +9809,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>1</v>
@@ -9370,10 +9821,10 @@
         <v>101</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9785,16 +10236,16 @@
         <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>150</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -9821,7 +10272,7 @@
         <v>145</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>141</v>
@@ -9839,7 +10290,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>1</v>
@@ -9854,10 +10305,10 @@
         <v>145</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -9884,7 +10335,7 @@
         <v>146</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>147</v>
@@ -9914,7 +10365,7 @@
         <v>148</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>151</v>
@@ -9932,7 +10383,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>1</v>
@@ -9947,7 +10398,7 @@
         <v>148</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>151</v>
@@ -9965,7 +10416,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>1</v>
@@ -9980,7 +10431,7 @@
         <v>148</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>151</v>
@@ -9998,7 +10449,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>1</v>
@@ -10013,7 +10464,7 @@
         <v>148</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>151</v>
@@ -10043,10 +10494,10 @@
         <v>157</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -10073,7 +10524,7 @@
         <v>162</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified "&amp;SUBSTITUTE(D44,","," and ")</f>
@@ -10101,7 +10552,7 @@
         <v>144</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>158</v>
@@ -10119,7 +10570,7 @@
         <v>174</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>111</v>
@@ -10131,10 +10582,10 @@
         <v>101</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K46" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified "&amp;SUBSTITUTE(D46,","," and ")</f>
@@ -10149,7 +10600,7 @@
         <v>174</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>140</v>
@@ -10161,13 +10612,13 @@
         <v>101</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  a category code = `LAB`"</f>
@@ -10182,7 +10633,7 @@
         <v>174</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>142</v>
@@ -10194,10 +10645,10 @@
         <v>101</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K48" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10212,25 +10663,25 @@
         <v>174</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="J49" s="8" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
@@ -10245,22 +10696,22 @@
         <v>174</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10275,7 +10726,7 @@
         <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>111</v>
@@ -10287,10 +10738,10 @@
         <v>101</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
@@ -10305,7 +10756,7 @@
         <v>174</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>140</v>
@@ -10317,10 +10768,10 @@
         <v>101</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K52" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B52&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -10335,7 +10786,7 @@
         <v>174</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>142</v>
@@ -10347,10 +10798,10 @@
         <v>101</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B53&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10365,22 +10816,22 @@
         <v>174</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K54" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B54&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -10395,22 +10846,22 @@
         <v>174</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="J55" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K55" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B55&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10429,7 +10880,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>65</v>
@@ -10438,10 +10889,10 @@
         <v>101</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K56" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
@@ -10460,7 +10911,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>65</v>
@@ -10469,10 +10920,10 @@
         <v>144</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K57" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B57&amp;" resources for the specified "&amp;SUBSTITUTE(D57,","," and ")</f>
@@ -10491,7 +10942,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>11</v>
@@ -10500,16 +10951,16 @@
         <v>101</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -10524,7 +10975,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>11</v>
@@ -10533,16 +10984,16 @@
         <v>101</v>
       </c>
       <c r="H59" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="K59" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -10557,7 +11008,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>65</v>
@@ -10566,16 +11017,16 @@
         <v>101</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -10590,25 +11041,25 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -10616,7 +11067,7 @@
         <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10632,10 +11083,10 @@
         <v>101</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified "&amp;SUBSTITUTE(D62,","," and ")</f>
@@ -10648,14 +11099,14 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>65</v>
@@ -10664,13 +11115,13 @@
         <v>144</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -10694,10 +11145,10 @@
         <v>101</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified "&amp;SUBSTITUTE(D64,","," and ")</f>
@@ -10725,10 +11176,10 @@
         <v>101</v>
       </c>
       <c r="I65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="K65" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified "&amp;SUBSTITUTE(D65,","," and ")</f>
@@ -10747,19 +11198,19 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K66" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
@@ -10774,10 +11225,10 @@
         <v>178</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>65</v>
@@ -10786,16 +11237,16 @@
         <v>101</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -10806,7 +11257,7 @@
         <v>178</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>140</v>
@@ -10818,13 +11269,13 @@
         <v>101</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K68" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B68&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -10839,7 +11290,7 @@
         <v>178</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>142</v>
@@ -10851,10 +11302,10 @@
         <v>101</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K69" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B69&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
@@ -10869,25 +11320,25 @@
         <v>178</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="K70" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -10902,22 +11353,22 @@
         <v>178</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K71" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B71&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10929,10 +11380,10 @@
         <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>111</v>
@@ -10944,10 +11395,10 @@
         <v>101</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K72" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified "&amp;SUBSTITUTE(D72,","," and ")</f>
@@ -10959,10 +11410,10 @@
         <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>140</v>
@@ -10974,13 +11425,13 @@
         <v>101</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I73" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J73" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="K73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")&amp;"=`assess-plan`"</f>
@@ -10992,31 +11443,31 @@
         <v>89</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -11024,13 +11475,13 @@
         <v>90</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>65</v>
@@ -11039,16 +11490,16 @@
         <v>101</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -11056,31 +11507,31 @@
         <v>91</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="136" x14ac:dyDescent="0.2">
@@ -11088,7 +11539,7 @@
         <v>94</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C77" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B77)</f>
@@ -11107,16 +11558,16 @@
         <v>101</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -11127,7 +11578,7 @@
         <v>178</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>142</v>
@@ -11139,13 +11590,13 @@
         <v>101</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K78" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified patient and observation code."</f>
@@ -11160,10 +11611,10 @@
         <v>178</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>65</v>
@@ -11172,13 +11623,13 @@
         <v>101</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K79" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ")</f>
@@ -11193,7 +11644,7 @@
         <v>178</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>140</v>
@@ -11205,13 +11656,13 @@
         <v>101</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K80" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B80&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -11226,7 +11677,7 @@
         <v>178</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>142</v>
@@ -11238,13 +11689,13 @@
         <v>101</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I81" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J81" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="K81" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B81&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
@@ -11259,25 +11710,25 @@
         <v>178</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K82" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -11292,22 +11743,22 @@
         <v>178</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="K83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -11335,10 +11786,10 @@
         <v>101</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K84" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp;" resources for the specified "&amp;SUBSTITUTE(D84,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -11350,14 +11801,14 @@
         <v>108</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>65</v>
@@ -11366,7 +11817,7 @@
         <v>144</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5" t="str">
@@ -11395,16 +11846,16 @@
         <v>101</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11419,25 +11870,25 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -11461,13 +11912,13 @@
         <v>101</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11482,19 +11933,19 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K89" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -11506,10 +11957,10 @@
         <v>115</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>113</v>
@@ -11521,13 +11972,13 @@
         <v>101</v>
       </c>
       <c r="I90" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="K90" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -11535,14 +11986,14 @@
         <v>94</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B91)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>1</v>
@@ -11554,13 +12005,13 @@
         <v>101</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -11568,10 +12019,10 @@
         <v>56</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>111</v>
@@ -11586,10 +12037,10 @@
         <v>101</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="K92" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources for the specified "&amp;SUBSTITUTE(D92,","," and ")</f>
@@ -11601,10 +12052,10 @@
         <v>57</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>140</v>
@@ -11619,10 +12070,10 @@
         <v>101</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="K93" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient and  a category code"</f>
@@ -11634,10 +12085,10 @@
         <v>58</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>142</v>
@@ -11652,10 +12103,10 @@
         <v>101</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="K94" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -11667,13 +12118,13 @@
         <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -11682,13 +12133,13 @@
         <v>11</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="K95" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient and date and a category code"</f>
@@ -11700,13 +12151,13 @@
         <v>60</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>1</v>
@@ -11715,13 +12166,13 @@
         <v>65</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="K96" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B96&amp;" resources for the specified patient and date and service code(s).  SHOULD support search by multiple report codes."</f>
@@ -11740,7 +12191,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>1</v>
@@ -11752,14 +12203,170 @@
         <v>101</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="K97" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B97&amp;" resources for the specified "&amp;SUBSTITUTE(D97,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and description</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>65</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="K98" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B98&amp;" resources for the specified "&amp;SUBSTITUTE(D98,","," and ")</f>
+        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>66</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="K99" s="1" t="str">
+        <f>"Fetches a bundle of all "&amp;B99&amp;" resources for the specified "&amp;SUBSTITUTE(D99,","," and  ") &amp; "= 'sdoh'"</f>
+        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient and  _tag= 'sdoh'</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>67</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="K100" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B100&amp;" resources for the specified patient and date"</f>
+        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient and date</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>68</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="K101" s="1" t="str">
+        <f>"Fetches a bundle of all "&amp;B101&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
+        <v>Fetches a bundle of all QuestionnaireResponse resources tagged as 'sdoh' for the specified patient and date</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>69</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="K102" s="1" t="str">
+        <f>"Fetches a bundle of all "&amp;B102&amp;" resources for the specified patient that have been completed against a specified form."</f>
+        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient that have been completed against a specified form.</v>
       </c>
     </row>
   </sheetData>
@@ -11799,15 +12406,15 @@
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -11815,7 +12422,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -11823,7 +12430,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -11831,7 +12438,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.2">
@@ -11839,7 +12446,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11847,36 +12454,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>65</v>
@@ -11906,7 +12513,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>55</v>
@@ -11917,13 +12524,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>65</v>
@@ -11931,13 +12538,13 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
@@ -11969,16 +12576,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>55</v>
@@ -11992,13 +12599,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -12011,10 +12618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="A8" sqref="A8:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12048,7 +12655,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -12060,40 +12667,40 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -12105,25 +12712,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -12134,251 +12741,267 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>185</v>
+      <c r="A8" s="21" t="s">
+        <v>423</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>495</v>
+      <c r="A24" s="21" t="s">
+        <v>408</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -12388,11 +13011,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>497</v>
+      <c r="A25" s="21" t="s">
+        <v>643</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>498</v>
+        <v>644</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -12402,11 +13025,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>513</v>
+      <c r="A26" s="21" t="s">
+        <v>493</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -12416,11 +13039,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>511</v>
+      <c r="A27" s="21" t="s">
+        <v>645</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>515</v>
+        <v>646</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -12430,11 +13053,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>516</v>
+      <c r="A28" s="21" t="s">
+        <v>491</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -12444,11 +13067,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>432</v>
+      <c r="A29" s="21" t="s">
+        <v>489</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -12456,13 +13079,15 @@
       <c r="E29" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>499</v>
+      <c r="A30" s="21" t="s">
+        <v>510</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -12470,13 +13095,15 @@
       <c r="E30" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>563</v>
+      <c r="A31" s="21" t="s">
+        <v>429</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>564</v>
+        <v>430</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -12486,11 +13113,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>271</v>
+      <c r="A32" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -12498,97 +13125,111 @@
       <c r="E32" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>348</v>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>556</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>349</v>
+        <v>647</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>178</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>483</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>364</v>
+        <v>484</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>336</v>
+        <v>178</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>485</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>337</v>
+        <v>486</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>356</v>
+        <v>178</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>481</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>357</v>
+        <v>482</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>350</v>
+        <v>178</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>648</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>351</v>
+        <v>649</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>434</v>
+        <v>178</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>479</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>567</v>
+        <v>178</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>566</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -12596,27 +13237,31 @@
       <c r="E39" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>569</v>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>559</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>572</v>
+        <v>178</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>507</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>573</v>
+        <v>508</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -12624,27 +13269,31 @@
       <c r="E41" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>574</v>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>505</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>577</v>
+        <v>178</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>487</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
@@ -12652,13 +13301,15 @@
       <c r="E43" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>579</v>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>477</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>580</v>
+        <v>478</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
@@ -12666,6 +13317,152 @@
       <c r="E44" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12676,13 +13473,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12716,67 +13513,67 @@
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="23" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -12790,13 +13587,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="T2" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>65</v>
@@ -12804,22 +13601,22 @@
     </row>
     <row r="3" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y3" s="15" t="s">
         <v>65</v>
@@ -12827,28 +13624,28 @@
     </row>
     <row r="4" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y4" s="15" t="s">
         <v>65</v>
@@ -12862,16 +13659,16 @@
         <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y5" s="15" t="s">
         <v>65</v>
@@ -12879,22 +13676,22 @@
     </row>
     <row r="6" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>65</v>
@@ -12908,16 +13705,16 @@
         <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y7" s="15" t="s">
         <v>65</v>
@@ -12931,16 +13728,16 @@
         <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y8" s="15" t="s">
         <v>65</v>
@@ -12954,16 +13751,16 @@
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y9" s="15" t="s">
         <v>65</v>
@@ -12977,13 +13774,13 @@
         <v>65</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y10" s="15" t="s">
         <v>65</v>
@@ -12997,16 +13794,16 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y11" s="15" t="s">
         <v>65</v>
@@ -13014,16 +13811,16 @@
     </row>
     <row r="12" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>65</v>
@@ -13033,16 +13830,16 @@
     </row>
     <row r="13" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>65</v>
@@ -13058,10 +13855,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>65</v>
@@ -13070,10 +13867,10 @@
         <v>65</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y14" s="15" t="s">
         <v>65</v>
@@ -13081,16 +13878,16 @@
     </row>
     <row r="15" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>65</v>
@@ -13099,10 +13896,10 @@
         <v>65</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y15" s="15" t="s">
         <v>65</v>
@@ -13116,16 +13913,16 @@
         <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y16" s="15" t="s">
         <v>65</v>
@@ -13133,13 +13930,13 @@
     </row>
     <row r="17" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>65</v>
@@ -13155,16 +13952,16 @@
         <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y18" s="15" t="s">
         <v>65</v>
@@ -13172,13 +13969,13 @@
     </row>
     <row r="19" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>65</v>
@@ -13188,25 +13985,25 @@
     </row>
     <row r="20" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
@@ -13219,16 +14016,16 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y21" s="15" t="s">
         <v>65</v>
@@ -13236,36 +14033,39 @@
     </row>
     <row r="22" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>571</v>
+        <v>654</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>655</v>
+      </c>
       <c r="T23" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X23" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y23" s="15" t="s">
         <v>65</v>
@@ -13273,39 +14073,59 @@
     </row>
     <row r="24" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X24" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y24" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>453</v>
+        <v>565</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-    </row>
-    <row r="61" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y61" s="7"/>
+      <c r="T25" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+    </row>
+    <row r="62" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y62" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
@@ -13351,10 +14171,10 @@
     </row>
     <row r="2" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>173</v>
@@ -13363,24 +14183,24 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -13393,10 +14213,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13408,93 +14228,96 @@
     <col min="8" max="8" width="28.1640625" customWidth="1"/>
     <col min="18" max="18" width="8.83203125" style="1"/>
     <col min="24" max="24" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="36.5" style="1" customWidth="1"/>
+    <col min="25" max="27" width="36.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" t="s">
         <v>384</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="W1" t="s">
-        <v>387</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -13514,7 +14337,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -13570,8 +14393,11 @@
       <c r="Z2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -13644,10 +14470,13 @@
         <v>11</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -13720,8 +14549,11 @@
       <c r="Z4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -13794,8 +14626,11 @@
       <c r="Z5" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -13869,8 +14704,11 @@
       <c r="Z6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -13943,8 +14781,11 @@
       <c r="Z7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -14017,8 +14858,11 @@
       <c r="Z8" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -14091,8 +14935,11 @@
       <c r="Z9" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -14163,6 +15010,9 @@
         <v>28</v>
       </c>
       <c r="Z10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14189,12 +15039,12 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -14203,7 +15053,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
@@ -14212,7 +15062,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
@@ -14221,7 +15071,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4445F5C2-90A2-7342-B7B8-B06EB7B07A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E8DBE-64DF-724C-9286-650C87347DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2924,10 +2924,10 @@
   <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Z60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomRight" activeCell="AA113" sqref="AA113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2944,7 +2944,7 @@
     <col min="11" max="11" width="8.83203125" style="1"/>
     <col min="12" max="12" width="31.1640625" style="1" customWidth="1"/>
     <col min="13" max="24" width="13.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="27.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="75.33203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
     <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="38.1640625" style="1" customWidth="1"/>
@@ -9015,8 +9015,8 @@
         <v>51</v>
       </c>
       <c r="Y113" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B113)&amp;"s for a patient ...combo description field ...DOES THIS DO ANYTHING?"</f>
-        <v>support searching for all questionnaireresponses for a patient ...combo description field ...DOES THIS DO ANYTHING?</v>
+        <f>"support searching for all "&amp;LOWER(B113)&amp;"s for a patient"</f>
+        <v>support searching for all questionnaireresponses for a patient</v>
       </c>
       <c r="Z113" s="5" t="str">
         <f>"GET [base]/"&amp;B113&amp;"?patient=1032702"</f>
@@ -9254,8 +9254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="I85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E8DBE-64DF-724C-9286-650C87347DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AA98B6-9E3F-6842-BD31-0632E8CB070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1838,27 +1838,417 @@
     <t>SHOULD,SHOULD</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/uv/bulkdata/ImplementationGuide/hl7.fhir.uv.bulkdata</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/smart-app-launch/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
+  </si>
+  <si>
+    <t>CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sexual-orientation</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/smart-app-launch/ImplementationGuide/hl7.fhir.uv.smart-app-launch</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-clinical-test</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson</t>
+  </si>
+  <si>
+    <t>US Core RelatedPerson Profile</t>
+  </si>
+  <si>
+    <t>RelatedPerson</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</t>
+  </si>
+  <si>
+    <t>US Core ServiceRequest Profile</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-imaging</t>
+  </si>
+  <si>
+    <t>resolves</t>
+  </si>
+  <si>
+    <t>In order to access care team member's names, identifiers, locations, and contact information, the CareTeam profile supports several types of care team participants. They are represented as references to other profiles and include the following four profiles which are marked as must support:
+  1. US Core Practitioner Profile
+  1. US Core PractitionerRole Profile
+  1. US Core Patient Profile
+  1. US Core RelatedPerson Profile
+  * Although *both* US Core Practitioner Profile and US Core PractitionerRole are must support, the server system is not required to support both types of references (and `_include` search parameters), but **SHALL** support *at least* one of them.
+  * The client application **SHALL** support all four profile references.
+  * Bacause the US Core PractitionerRole Profile supplies the provider's location and contact information and a reference to the Practitioner, server systems **SHOULD** reference it instead of the US Core Practitioner Profile. An example of how to access the practitioner name and identifier is shown in the quick start section below.
+  * Servers that supports only US Core Practitioner Profile **SHALL** provide implementation specific guidance how to access a provider's location and contact information using only the Practitioner resource.</t>
+  </si>
+  <si>
+    <t>SHOULD,SHOULD,SHOULD,SHOULD</t>
+  </si>
+  <si>
+    <t>CareTeam:participant:PractitionerRole,CareTeam:participant:Practitioner,CareTeam:participant:Patient,CareTeam:participant:RelatedPerson</t>
+  </si>
+  <si>
+    <t>* To search for an encounter diagnosis, query for Conditions that reference the Encounter of interest and have a category of `encounter-diagnosis`.
+    * When `Condition.category` is "encounter-diagnosis" the encounter, **SHOULD** be referenced in `Condition.encounter`.
+* See SDOH Guidance for more information when exchanging Social Determinants of Health (SDOH) Conditions/Health Concerns.
+* There is no single element in Condition that represents the date of diagnosis. It may be the assertedDate Extension, `Condition.onsetDate`, or `Condition.recordedDate`.
+    * Although all three are marked as must support, the server is not required to support all.
+	* A server **SHALL** support `Condition.recordedDate`.
+    * A server **SHALL** support at least one of [assertedDate Extension] and `Condition.onsetDate`. A server may support both, which means they support all 3 locations.
+    * The client application **SHALL** support all three elements.</t>
+  </si>
+  <si>
+    <t>Diagnostic imaging results in visual images requiring interpretation and clinical test results/reports may also reference images as part of the report. DiagnosticReport resource can link to both DICOM imaging studies and binary images directly by referencing ImagingStudy in `DocumentReference.imagingStudy`, or Media  in`DocumentReference.media`.
+   *   Although both are marked as must support, the server system is not required to support both, but **SHALL** support at least one of these elements.
+   * The client application **SHALL** support both elements and target resources.</t>
+  </si>
+  <si>
+    <t>* Systems **SHOULD** support `Observation.effectivePeriod` to accurately represent tests that are collected over a period of time (for example, a 24-Hour Urine Collection test).
+* An Observation without a value, **SHALL** include a reason why the data is absent unless there are component observations, or references to other Observations that are grouped within it
+    * Systems that never provide an observation without a value are not required to support `Observation.dataAbsentReason`
+*  An `Observation.component` without a value, **SHALL** include a reason why the data is absent.
+    * Systems that never provide an component observation without a component value are not required to support `Observation.component.dataAbsentReason`.</t>
+  </si>
+  <si>
+    <t>conf_RelatedPerson</t>
+  </si>
+  <si>
+    <t>conf_ServiceRequest</t>
+  </si>
+  <si>
+    <t>is_new</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>discharge-disposition</t>
+  </si>
+  <si>
+    <t>A server **SHALL** support a value precise to the *day*.</t>
+  </si>
+  <si>
+    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
+  </si>
+  <si>
+    <t>asserted-date</t>
+  </si>
+  <si>
+    <t>recorded-date</t>
+  </si>
+  <si>
+    <t>abatement-date</t>
+  </si>
+  <si>
+    <t>support searching for all encounter diagnosis for a patient for an encounter</t>
+  </si>
+  <si>
+    <t>DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>support searching a careteam by participant role</t>
+  </si>
+  <si>
+    <t>authored</t>
+  </si>
+  <si>
+    <t>support fetching a ServiceRequest</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest/1032702~GET [base]/ServiceRequest?_id=1032702</t>
+  </si>
+  <si>
+    <t>support fetching a RelatedPerson</t>
+  </si>
+  <si>
+    <t>GET [base]/RelatedPerson/shaw-niece~GET [base]/RelatedPerson?_id=shaw-niece</t>
+  </si>
+  <si>
+    <t>patient,location</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=1137192&amp;location=Location/hospital</t>
+  </si>
+  <si>
+    <t>patient,discharge-disposition</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=example1&amp;discharge-disposition=01</t>
+  </si>
+  <si>
+    <t>patient,category,encounter</t>
+  </si>
+  <si>
+    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis?encounter=1036</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Condition resources for the specified patient and category and encounter. When category = "encounter-diagnosis" will return the encounter diagnosis for the encounter.</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;onset-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>patient,asserted-date</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;asserted-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>patient,recorded-date</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;recorded-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>patient,abatement-date</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;abatement-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>support searching for all current care team members for a patient. DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/CareTeam?patient=1137192&amp;status=active~GET [base]/CareTeam?patient=1137192&amp;status=active&amp;_include=CareTeam:participant:RelatedPerson&amp;_include=CareTeam:participant:Patient&amp;_include=CareTeam:participant:Practitioner&amp;_include=CareTeam:participant:PractitionerRole</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CareTeam resources for the specified patient and status =`active` and may include CareTeam Patient, RelatedPerson and Practitioner and PractitionerRole participants.  
+To get Practitioner name and identifier using PractitionerRole:  
+1) Search for the careteam PractitionerRole: GET [base]/CareTeam?patient=[id]&amp;status=active&amp;_include=CareTeam:participant:PractitionerRole  
+2) using the FHIR _id from the PractitionerRole.practitioner element resource,  fetch the Practitioner resources using  GET [base]/Practitioner?_id=[id]</t>
+  </si>
+  <si>
+    <t>patient,role</t>
+  </si>
+  <si>
+    <t>support searching for all current care team member roles for a patient. DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/CareTeam?patient=1137192&amp;role=http://snomed.info/sct\|17561000</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CareTeam resources for the specified patient and participant role</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=1137192&amp;status=completed</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=1032702&amp;code=http://snomed.info/sct\|35637008</t>
+  </si>
+  <si>
+    <t>patient,category,authored</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2&amp;date=ge2010-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>patient,code,authored</t>
+  </si>
+  <si>
+    <t>support searching for reports by code and date DOES THIS DO ANYTHING!!!!</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=f201&amp;code=http://snomed.info/sct\|35637008&amp;date=ge2019-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>patient,description</t>
+  </si>
+  <si>
+    <t>support searching for all goals for a patient by date DOES THIS DO ANYTHING!!!</t>
+  </si>
+  <si>
+    <t>GET [base]/Goal?patient=1137192&amp;description=http://snomed.info/sct\|1078229009</t>
+  </si>
+  <si>
+    <t>* The Encounter resource can represent a reason using either a code with `Encounter.reasonCode`, or a reference with `Encounter.reasonReference` to  Condition or other resource.
+   * Although both are marked as must support, the server systems are not required to support both a code and a reference, but they **SHALL** support *at least one* of these elements.
+   * The client application **SHALL** support both elements.
+   * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
+* The intent of this profile is to support *where the encounter occurred*.  The location address can be represented by either by the Location referenced by `Encounter.location.location` or indirectly through the Organization referenced by `Encounter.serviceProvider`.
+  * Although both are marked as must support, the server systems are not required to support both `Encounter.location.location` and `Encounter.serviceProvider`, but they **SHALL** support *at least one* of these elements.
+  * The client application **SHALL** support both elements.
+  * if using `Encounter.location.location` it **SHOULD** conform to US Core Location.  However, as a result of implementation feedback, it **MAY**  reference the base FHIR Location resource.  See this guidance on Referencing US Core Profiles</t>
+  </si>
+  <si>
+    <t>Documents/FHIR/US-Core/input/</t>
+  </si>
+  <si>
+    <t>HL7 International - Cross-Group Projects</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/cgp</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-direct</t>
+  </si>
+  <si>
+    <t>US Core Direct email Extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-race</t>
+  </si>
+  <si>
+    <t>US Core Race Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex</t>
+  </si>
+  <si>
+    <t>US Core Birth Sex Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity</t>
+  </si>
+  <si>
+    <t>US Core Gender Identity Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity</t>
+  </si>
+  <si>
+    <t>US Core Ethnicity Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-extension-questionnaire-uri</t>
+  </si>
+  <si>
+    <t>US Core Extension Questionnaire URI</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sdoh-assessment</t>
+  </si>
+  <si>
+    <t>US Core Observation SDOH Assessment Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-social-history</t>
+  </si>
+  <si>
+    <t>US Core Observation Social History Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Sexual Orientation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-survey</t>
+  </si>
+  <si>
+    <t>US Core Observation Survey Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Imaging Result Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Clinical Test Result Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
+  </si>
+  <si>
+    <t>US Core QuestionnaireResponse Profile</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>US Core provides two ways to represent SDOH assessment screening results using: 
+1. Observation: [US Core Observation SDOH Assessment Profile] 
+1. QuestionnaireResponse: [US Core QuestionnaireResponse Profile]
+US Core Servers **SHALL** support [US Core Observation SDOH Assessment Profile] for SDOH Assessments and **MAY** support the [US Core QuestionnaireResponse Profile] for SDOH Assessments.</t>
+  </si>
+  <si>
+    <t>conf_QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse/AHC-HRSN-screening-example~GET [base]/QuestionnaireResponse/?_id=AHC-HRSN-screening-example</t>
+  </si>
+  <si>
+    <t>Allows retrieving QuestionnaireResponses that are complete (or incomplete)</t>
+  </si>
+  <si>
+    <t>_tag</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.meta._tag</t>
+  </si>
+  <si>
+    <t>Allows filtering for QuestionnaireResponse that have tag of “sdoh”</t>
+  </si>
+  <si>
+    <t>Allows filtering for QuestionnaireResponses by when they were created/last edited</t>
+  </si>
+  <si>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>Allows retrieving QuestionnaireResponses that have been completed against a specified form</t>
+  </si>
+  <si>
+    <t>combo description field ...DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=1137192&amp;status=completed</t>
+  </si>
+  <si>
+    <t>patient,_tag</t>
+  </si>
+  <si>
+    <t>_tag=sdoh</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=1137192&amp;_tag=sdoh</t>
+  </si>
+  <si>
+    <t>patient,authored</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;date=ge2021</t>
+  </si>
+  <si>
+    <t>patient,_tag,authored</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;date=ge2021&amp;_tag=sdoh</t>
+  </si>
+  <si>
+    <t>patient,questionnaire</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;questionnaire=http://hl7.org/fhir/us/sdoh-clinicalcare/Questionnaire/SDOHCC-QuestionnaireHungerVitalSign</t>
+  </si>
+  <si>
     <t>* Implantable medical devices that have UDI information **SHALL** represent the UDI code in `Device.udiCarrier.carrierHRF`.
    - All of the five UDI-PI elements that are present in the UDI code **SHALL** be represented in the corresponding US Core Implantable Device Profile element.
    UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer and/or model number information is available, they **SHOULD** be included to support historical reports of implantable medical devices as follows:
-    &lt;table&gt;
-    &lt;thead&gt;
-    &lt;tr class="header"&gt;
-    &lt;th&gt;data element&lt;/th&gt;
-    &lt;th&gt;US Core Implantable Device Profile element&lt;/th&gt;
-    &lt;/tr&gt;
-    &lt;/thead&gt;
-    &lt;tbody&gt;
-    &lt;tr class="odd"&gt;
-    &lt;td&gt;manufacturer&lt;/td&gt;
-    &lt;td&gt;Device.manufacturer&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr class="even"&gt;
-    &lt;td&gt;model&lt;/td&gt;
-    &lt;td&gt;Device.model&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;/tbody&gt;
-    &lt;/table&gt;
+   manufacturer -&gt; `Device.manufacturer`  
+   model -&gt; `Device.model`  
 * Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
 * In the Quick Start section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
     - UDI HRF string (`udi-carrier`)
@@ -1871,412 +2261,6 @@
     - expiration date
     - manufacture date
     - distinct identifier</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/bulkdata/ImplementationGuide/hl7.fhir.uv.bulkdata</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/smart-app-launch/index.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
-  </si>
-  <si>
-    <t>CapabilityStatement-us-core-client.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sexual-orientation</t>
-  </si>
-  <si>
-    <t>5.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/smart-app-launch/ImplementationGuide/hl7.fhir.uv.smart-app-launch</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-clinical-test</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson</t>
-  </si>
-  <si>
-    <t>US Core RelatedPerson Profile</t>
-  </si>
-  <si>
-    <t>RelatedPerson</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</t>
-  </si>
-  <si>
-    <t>US Core ServiceRequest Profile</t>
-  </si>
-  <si>
-    <t>ServiceRequest</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-imaging</t>
-  </si>
-  <si>
-    <t>resolves</t>
-  </si>
-  <si>
-    <t>In order to access care team member's names, identifiers, locations, and contact information, the CareTeam profile supports several types of care team participants. They are represented as references to other profiles and include the following four profiles which are marked as must support:
-  1. US Core Practitioner Profile
-  1. US Core PractitionerRole Profile
-  1. US Core Patient Profile
-  1. US Core RelatedPerson Profile
-  * Although *both* US Core Practitioner Profile and US Core PractitionerRole are must support, the server system is not required to support both types of references (and `_include` search parameters), but **SHALL** support *at least* one of them.
-  * The client application **SHALL** support all four profile references.
-  * Bacause the US Core PractitionerRole Profile supplies the provider's location and contact information and a reference to the Practitioner, server systems **SHOULD** reference it instead of the US Core Practitioner Profile. An example of how to access the practitioner name and identifier is shown in the quick start section below.
-  * Servers that supports only US Core Practitioner Profile **SHALL** provide implementation specific guidance how to access a provider's location and contact information using only the Practitioner resource.</t>
-  </si>
-  <si>
-    <t>SHOULD,SHOULD,SHOULD,SHOULD</t>
-  </si>
-  <si>
-    <t>CareTeam:participant:PractitionerRole,CareTeam:participant:Practitioner,CareTeam:participant:Patient,CareTeam:participant:RelatedPerson</t>
-  </si>
-  <si>
-    <t>* To search for an encounter diagnosis, query for Conditions that reference the Encounter of interest and have a category of `encounter-diagnosis`.
-    * When `Condition.category` is "encounter-diagnosis" the encounter, **SHOULD** be referenced in `Condition.encounter`.
-* See SDOH Guidance for more information when exchanging Social Determinants of Health (SDOH) Conditions/Health Concerns.
-* There is no single element in Condition that represents the date of diagnosis. It may be the assertedDate Extension, `Condition.onsetDate`, or `Condition.recordedDate`.
-    * Although all three are marked as must support, the server is not required to support all.
-	* A server **SHALL** support `Condition.recordedDate`.
-    * A server **SHALL** support at least one of [assertedDate Extension] and `Condition.onsetDate`. A server may support both, which means they support all 3 locations.
-    * The client application **SHALL** support all three elements.</t>
-  </si>
-  <si>
-    <t>Diagnostic imaging results in visual images requiring interpretation and clinical test results/reports may also reference images as part of the report. DiagnosticReport resource can link to both DICOM imaging studies and binary images directly by referencing ImagingStudy in `DocumentReference.imagingStudy`, or Media  in`DocumentReference.media`.
-   *   Although both are marked as must support, the server system is not required to support both, but **SHALL** support at least one of these elements.
-   * The client application **SHALL** support both elements and target resources.</t>
-  </si>
-  <si>
-    <t>* Systems **SHOULD** support `Observation.effectivePeriod` to accurately represent tests that are collected over a period of time (for example, a 24-Hour Urine Collection test).
-* An Observation without a value, **SHALL** include a reason why the data is absent unless there are component observations, or references to other Observations that are grouped within it
-    * Systems that never provide an observation without a value are not required to support `Observation.dataAbsentReason`
-*  An `Observation.component` without a value, **SHALL** include a reason why the data is absent.
-    * Systems that never provide an component observation without a component value are not required to support `Observation.component.dataAbsentReason`.</t>
-  </si>
-  <si>
-    <t>conf_RelatedPerson</t>
-  </si>
-  <si>
-    <t>conf_ServiceRequest</t>
-  </si>
-  <si>
-    <t>is_new</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>discharge-disposition</t>
-  </si>
-  <si>
-    <t>A server **SHALL** support a value precise to the *day*.</t>
-  </si>
-  <si>
-    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
-  </si>
-  <si>
-    <t>asserted-date</t>
-  </si>
-  <si>
-    <t>recorded-date</t>
-  </si>
-  <si>
-    <t>abatement-date</t>
-  </si>
-  <si>
-    <t>support searching for all encounter diagnosis for a patient for an encounter</t>
-  </si>
-  <si>
-    <t>DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>support searching a careteam by participant role</t>
-  </si>
-  <si>
-    <t>authored</t>
-  </si>
-  <si>
-    <t>support fetching a ServiceRequest</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest/1032702~GET [base]/ServiceRequest?_id=1032702</t>
-  </si>
-  <si>
-    <t>support fetching a RelatedPerson</t>
-  </si>
-  <si>
-    <t>GET [base]/RelatedPerson/shaw-niece~GET [base]/RelatedPerson?_id=shaw-niece</t>
-  </si>
-  <si>
-    <t>patient,location</t>
-  </si>
-  <si>
-    <t>GET [base]/Encounter?patient=1137192&amp;location=Location/hospital</t>
-  </si>
-  <si>
-    <t>patient,discharge-disposition</t>
-  </si>
-  <si>
-    <t>GET [base]/Encounter?patient=example1&amp;discharge-disposition=01</t>
-  </si>
-  <si>
-    <t>patient,category,encounter</t>
-  </si>
-  <si>
-    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis?encounter=1036</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all Condition resources for the specified patient and category and encounter. When category = "encounter-diagnosis" will return the encounter diagnosis for the encounter.</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;onset-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>patient,asserted-date</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;asserted-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>patient,recorded-date</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;recorded-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>patient,abatement-date</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;abatement-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>support searching for all current care team members for a patient. DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>GET [base]/CareTeam?patient=1137192&amp;status=active~GET [base]/CareTeam?patient=1137192&amp;status=active&amp;_include=CareTeam:participant:RelatedPerson&amp;_include=CareTeam:participant:Patient&amp;_include=CareTeam:participant:Practitioner&amp;_include=CareTeam:participant:PractitionerRole</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all CareTeam resources for the specified patient and status =`active` and may include CareTeam Patient, RelatedPerson and Practitioner and PractitionerRole participants.  
-To get Practitioner name and identifier using PractitionerRole:  
-1) Search for the careteam PractitionerRole: GET [base]/CareTeam?patient=[id]&amp;status=active&amp;_include=CareTeam:participant:PractitionerRole  
-2) using the FHIR _id from the PractitionerRole.practitioner element resource,  fetch the Practitioner resources using  GET [base]/Practitioner?_id=[id]</t>
-  </si>
-  <si>
-    <t>patient,role</t>
-  </si>
-  <si>
-    <t>support searching for all current care team member roles for a patient. DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>GET [base]/CareTeam?patient=1137192&amp;role=http://snomed.info/sct\|17561000</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all CareTeam resources for the specified patient and participant role</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=1137192&amp;status=completed</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=1032702&amp;code=http://snomed.info/sct\|35637008</t>
-  </si>
-  <si>
-    <t>patient,category,authored</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2&amp;date=ge2010-01-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>patient,code,authored</t>
-  </si>
-  <si>
-    <t>support searching for reports by code and date DOES THIS DO ANYTHING!!!!</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=f201&amp;code=http://snomed.info/sct\|35637008&amp;date=ge2019-01-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>patient,description</t>
-  </si>
-  <si>
-    <t>support searching for all goals for a patient by date DOES THIS DO ANYTHING!!!</t>
-  </si>
-  <si>
-    <t>GET [base]/Goal?patient=1137192&amp;description=http://snomed.info/sct\|1078229009</t>
-  </si>
-  <si>
-    <t>* The Encounter resource can represent a reason using either a code with `Encounter.reasonCode`, or a reference with `Encounter.reasonReference` to  Condition or other resource.
-   * Although both are marked as must support, the server systems are not required to support both a code and a reference, but they **SHALL** support *at least one* of these elements.
-   * The client application **SHALL** support both elements.
-   * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
-* The intent of this profile is to support *where the encounter occurred*.  The location address can be represented by either by the Location referenced by `Encounter.location.location` or indirectly through the Organization referenced by `Encounter.serviceProvider`.
-  * Although both are marked as must support, the server systems are not required to support both `Encounter.location.location` and `Encounter.serviceProvider`, but they **SHALL** support *at least one* of these elements.
-  * The client application **SHALL** support both elements.
-  * if using `Encounter.location.location` it **SHOULD** conform to US Core Location.  However, as a result of implementation feedback, it **MAY**  reference the base FHIR Location resource.  See this guidance on Referencing US Core Profiles</t>
-  </si>
-  <si>
-    <t>Documents/FHIR/US-Core/input/</t>
-  </si>
-  <si>
-    <t>HL7 International - Cross-Group Projects</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/cgp</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-direct</t>
-  </si>
-  <si>
-    <t>US Core Direct email Extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-race</t>
-  </si>
-  <si>
-    <t>US Core Race Extension</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex</t>
-  </si>
-  <si>
-    <t>US Core Birth Sex Extension</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity</t>
-  </si>
-  <si>
-    <t>US Core Gender Identity Extension</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity</t>
-  </si>
-  <si>
-    <t>US Core Ethnicity Extension</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-extension-questionnaire-uri</t>
-  </si>
-  <si>
-    <t>US Core Extension Questionnaire URI</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sdoh-assessment</t>
-  </si>
-  <si>
-    <t>US Core Observation SDOH Assessment Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-social-history</t>
-  </si>
-  <si>
-    <t>US Core Observation Social History Profile</t>
-  </si>
-  <si>
-    <t>US Core Observation Sexual Orientation Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-survey</t>
-  </si>
-  <si>
-    <t>US Core Observation Survey Profile</t>
-  </si>
-  <si>
-    <t>US Core Observation Imaging Result Profile</t>
-  </si>
-  <si>
-    <t>US Core Observation Clinical Test Result Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
-  </si>
-  <si>
-    <t>US Core QuestionnaireResponse Profile</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>US Core provides two ways to represent SDOH assessment screening results using: 
-1. Observation: [US Core Observation SDOH Assessment Profile] 
-1. QuestionnaireResponse: [US Core QuestionnaireResponse Profile]
-US Core Servers **SHALL** support [US Core Observation SDOH Assessment Profile] for SDOH Assessments and **MAY** support the [US Core QuestionnaireResponse Profile] for SDOH Assessments.</t>
-  </si>
-  <si>
-    <t>conf_QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse/AHC-HRSN-screening-example~GET [base]/QuestionnaireResponse/?_id=AHC-HRSN-screening-example</t>
-  </si>
-  <si>
-    <t>Allows retrieving QuestionnaireResponses that are complete (or incomplete)</t>
-  </si>
-  <si>
-    <t>_tag</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.meta._tag</t>
-  </si>
-  <si>
-    <t>Allows filtering for QuestionnaireResponse that have tag of “sdoh”</t>
-  </si>
-  <si>
-    <t>Allows filtering for QuestionnaireResponses by when they were created/last edited</t>
-  </si>
-  <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>Allows retrieving QuestionnaireResponses that have been completed against a specified form</t>
-  </si>
-  <si>
-    <t>combo description field ...DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse?patient=1137192&amp;status=completed</t>
-  </si>
-  <si>
-    <t>patient,_tag</t>
-  </si>
-  <si>
-    <t>_tag=sdoh</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse?patient=1137192&amp;_tag=sdoh</t>
-  </si>
-  <si>
-    <t>patient,authored</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;date=ge2021</t>
-  </si>
-  <si>
-    <t>patient,_tag,authored</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;date=ge2021&amp;_tag=sdoh</t>
-  </si>
-  <si>
-    <t>patient,questionnaire</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;questionnaire=http://hl7.org/fhir/us/sdoh-clinicalcare/Questionnaire/SDOHCC-QuestionnaireHungerVitalSign</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2836,7 @@
         <v>468</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2884,7 +2868,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2900,7 +2884,7 @@
         <v>475</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2977,7 +2961,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>30</v>
@@ -3933,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -4094,7 +4078,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -4253,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4471,7 +4455,7 @@
         <v>51</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>168</v>
@@ -4869,7 +4853,7 @@
         <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -4926,7 +4910,7 @@
         <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>28</v>
@@ -4983,7 +4967,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>28</v>
@@ -5128,7 +5112,7 @@
         <v>51</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Z42" s="5" t="str">
         <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
@@ -7333,7 +7317,7 @@
         <v>51</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Y83" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B83)&amp;"s for a patient"</f>
@@ -7403,7 +7387,7 @@
         <v>GET [base]/Practitioner/practitioner-1~GET [base]/Practitioner?_id=practitioner-1</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AB84" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B84)&amp;"-"&amp;SUBSTITUTE(C84,"_","")&amp;".html")</f>
@@ -7471,7 +7455,7 @@
         <v>243</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -7512,7 +7496,7 @@
         <v>51</v>
       </c>
       <c r="Y86" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Z86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?"&amp;C86&amp;"=http://snomed.info/sct\|17561000"</f>
@@ -8424,7 +8408,7 @@
         <v>49</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>57</v>
@@ -8480,7 +8464,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>85</v>
@@ -8542,7 +8526,7 @@
         <v>51</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>135</v>
@@ -8595,7 +8579,7 @@
         <v>52</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>24</v>
@@ -8651,10 +8635,10 @@
         <v>53</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>28</v>
@@ -8708,7 +8692,7 @@
         <v>20</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>50</v>
@@ -8746,10 +8730,10 @@
         <v>51</v>
       </c>
       <c r="Y108" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z108" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="Z108" s="5" t="s">
-        <v>590</v>
       </c>
       <c r="AB108" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B108)&amp;"-"&amp;SUBSTITUTE(C108,"_","")&amp;".html")</f>
@@ -8810,7 +8794,7 @@
         <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>50</v>
@@ -8848,10 +8832,10 @@
         <v>51</v>
       </c>
       <c r="Y110" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z110" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="Z110" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="AA110" s="10"/>
       <c r="AB110" s="1" t="str">
@@ -8864,7 +8848,7 @@
         <v>79</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>85</v>
@@ -8926,7 +8910,7 @@
         <v>80</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>50</v>
@@ -8965,7 +8949,7 @@
         <v>support fetching a QuestionnaireResponse</v>
       </c>
       <c r="Z112" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB112" s="1" t="str">
         <f t="shared" ref="AB112:AB117" si="25">"SearchParameter-us-core-"&amp;LOWER((B112)&amp;"-"&amp;SUBSTITUTE(C112,"_","")&amp;".html")</f>
@@ -8977,7 +8961,7 @@
         <v>81</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>85</v>
@@ -9036,7 +9020,7 @@
         <v>82</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>57</v>
@@ -9077,7 +9061,7 @@
         <v>51</v>
       </c>
       <c r="Y114" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AB114" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9089,10 +9073,10 @@
         <v>83</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>28</v>
@@ -9117,16 +9101,16 @@
         <v>52</v>
       </c>
       <c r="L115" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y115" s="22" t="s">
         <v>660</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y115" s="22" t="s">
-        <v>661</v>
       </c>
       <c r="AB115" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9138,10 +9122,10 @@
         <v>84</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>28</v>
@@ -9182,7 +9166,7 @@
         <v>88</v>
       </c>
       <c r="Y116" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AB116" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9194,10 +9178,10 @@
         <v>85</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>28</v>
@@ -9232,7 +9216,7 @@
         <v>51</v>
       </c>
       <c r="Y117" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AB117" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9254,7 +9238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="I85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
@@ -9288,7 +9272,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>92</v>
@@ -9718,7 +9702,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>1</v>
@@ -9733,7 +9717,7 @@
         <v>300</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9809,7 +9793,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>1</v>
@@ -9824,7 +9808,7 @@
         <v>305</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10290,7 +10274,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>1</v>
@@ -10305,10 +10289,10 @@
         <v>145</v>
       </c>
       <c r="J37" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>598</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -10365,7 +10349,7 @@
         <v>148</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>151</v>
@@ -10383,7 +10367,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>1</v>
@@ -10398,7 +10382,7 @@
         <v>148</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>151</v>
@@ -10416,7 +10400,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>1</v>
@@ -10431,7 +10415,7 @@
         <v>148</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>151</v>
@@ -10449,7 +10433,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>1</v>
@@ -10464,7 +10448,7 @@
         <v>148</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>151</v>
@@ -11561,13 +11545,13 @@
         <v>306</v>
       </c>
       <c r="I77" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="K77" s="10" t="s">
         <v>608</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -11993,7 +11977,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>1</v>
@@ -12005,13 +11989,13 @@
         <v>101</v>
       </c>
       <c r="I91" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="J91" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="J91" s="5" t="s">
+      <c r="K91" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -12019,10 +12003,10 @@
         <v>56</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>111</v>
@@ -12040,7 +12024,7 @@
         <v>298</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K92" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources for the specified "&amp;SUBSTITUTE(D92,","," and ")</f>
@@ -12052,10 +12036,10 @@
         <v>57</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>140</v>
@@ -12073,7 +12057,7 @@
         <v>193</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K93" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient and  a category code"</f>
@@ -12085,10 +12069,10 @@
         <v>58</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>142</v>
@@ -12106,7 +12090,7 @@
         <v>194</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K94" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -12118,13 +12102,13 @@
         <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -12139,7 +12123,7 @@
         <v>196</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K95" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient and date and a category code"</f>
@@ -12151,13 +12135,13 @@
         <v>60</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>1</v>
@@ -12169,10 +12153,10 @@
         <v>213</v>
       </c>
       <c r="I96" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="J96" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="K96" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B96&amp;" resources for the specified patient and date and service code(s).  SHOULD support search by multiple report codes."</f>
@@ -12191,7 +12175,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>1</v>
@@ -12203,10 +12187,10 @@
         <v>101</v>
       </c>
       <c r="I97" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="J97" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>624</v>
       </c>
       <c r="K97" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B97&amp;" resources for the specified "&amp;SUBSTITUTE(D97,","," and ")</f>
@@ -12218,10 +12202,10 @@
         <v>65</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>111</v>
@@ -12233,10 +12217,10 @@
         <v>101</v>
       </c>
       <c r="I98" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="J98" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>666</v>
       </c>
       <c r="K98" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B98&amp;" resources for the specified "&amp;SUBSTITUTE(D98,","," and ")</f>
@@ -12248,13 +12232,13 @@
         <v>66</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>65</v>
@@ -12263,13 +12247,13 @@
         <v>101</v>
       </c>
       <c r="H99" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="J99" s="5" t="s">
         <v>668</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>669</v>
       </c>
       <c r="K99" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B99&amp;" resources for the specified "&amp;SUBSTITUTE(D99,","," and  ") &amp; "= 'sdoh'"</f>
@@ -12281,13 +12265,13 @@
         <v>67</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>65</v>
@@ -12296,10 +12280,10 @@
         <v>144</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K100" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B100&amp;" resources for the specified patient and date"</f>
@@ -12311,13 +12295,13 @@
         <v>68</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>65</v>
@@ -12326,13 +12310,13 @@
         <v>213</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K101" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B101&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
@@ -12344,13 +12328,13 @@
         <v>69</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>65</v>
@@ -12359,10 +12343,10 @@
         <v>86</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K102" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B102&amp;" resources for the specified patient that have been completed against a specified form."</f>
@@ -12406,7 +12390,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -12527,10 +12511,10 @@
         <v>540</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>65</v>
@@ -12541,10 +12525,10 @@
         <v>541</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
@@ -12605,7 +12589,7 @@
         <v>545</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -12806,7 +12790,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>362</v>
@@ -12822,96 +12806,96 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -13012,10 +12996,10 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -13040,10 +13024,10 @@
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -13130,10 +13114,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -13194,10 +13178,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -13226,10 +13210,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -13242,10 +13226,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -13418,48 +13402,48 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -13475,11 +13459,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13587,7 +13571,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="T2" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>65</v>
@@ -13610,7 +13594,7 @@
         <v>496</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>65</v>
@@ -13630,19 +13614,19 @@
         <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>455</v>
@@ -13659,10 +13643,10 @@
         <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>65</v>
@@ -13682,10 +13666,10 @@
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>551</v>
+        <v>675</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>65</v>
@@ -13705,10 +13689,10 @@
         <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>65</v>
@@ -13731,7 +13715,7 @@
         <v>406</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
@@ -13751,10 +13735,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>65</v>
@@ -13774,7 +13758,7 @@
         <v>65</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>65</v>
@@ -13797,7 +13781,7 @@
         <v>497</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>65</v>
@@ -13820,7 +13804,7 @@
         <v>498</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>65</v>
@@ -13839,7 +13823,7 @@
         <v>499</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>65</v>
@@ -13858,7 +13842,7 @@
         <v>500</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>65</v>
@@ -13887,7 +13871,7 @@
         <v>501</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>65</v>
@@ -13913,10 +13897,10 @@
         <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>65</v>
@@ -13936,7 +13920,7 @@
         <v>65</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>65</v>
@@ -13955,7 +13939,7 @@
         <v>502</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>65</v>
@@ -13975,7 +13959,7 @@
         <v>65</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>65</v>
@@ -13994,7 +13978,7 @@
         <v>498</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>65</v>
@@ -14019,7 +14003,7 @@
         <v>503</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>65</v>
@@ -14042,7 +14026,7 @@
         <v>504</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>65</v>
@@ -14050,16 +14034,16 @@
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="T23" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>65</v>
@@ -14073,13 +14057,13 @@
     </row>
     <row r="24" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>65</v>
@@ -14093,13 +14077,13 @@
     </row>
     <row r="25" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>65</v>
@@ -14305,13 +14289,13 @@
         <v>434</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>454</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AA98B6-9E3F-6842-BD31-0632E8CB070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E4831E-60E4-9E4D-8E3C-1C08F5A7D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="678">
   <si>
     <t>Element</t>
   </si>
@@ -1181,12 +1181,6 @@
   </si>
   <si>
     <t>US Core MedicationRequest Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</t>
-  </si>
-  <si>
-    <t>US Core Condition Profile</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</t>
@@ -2262,12 +2256,24 @@
     - manufacture date
     - distinct identifier</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core//StructureDefinition/us-core-condition-encounter-diagnosis</t>
+  </si>
+  <si>
+    <t>US Core Condition Encounter Diagnosis Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core//StructureDefinition/us-core-condition-problems-health-concerns</t>
+  </si>
+  <si>
+    <t>US Core Condition Problems and Health Concerns Profile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2364,14 +2370,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
@@ -2419,10 +2417,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2455,13 +2452,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2813,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F68824-E615-4729-AAE0-A6F75FBDE06B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2833,34 +2829,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2868,12 +2864,12 @@
         <v>63</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>55</v>
@@ -2881,24 +2877,21 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>627</v>
+        <v>473</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{F0F03EA1-31BA-804B-9035-810D43F90501}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2961,7 +2954,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>30</v>
@@ -2985,19 +2978,19 @@
         <v>44</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>45</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>46</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>47</v>
@@ -3183,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3391,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3440,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3498,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3548,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3596,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3707,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3757,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3811,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3868,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3917,7 +3910,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -3926,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3987,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4037,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4078,7 +4071,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -4087,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4190,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4237,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4283,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4375,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4455,7 +4448,7 @@
         <v>51</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>168</v>
@@ -4808,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4853,7 +4846,7 @@
         <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -4862,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4910,7 +4903,7 @@
         <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>28</v>
@@ -4919,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4967,7 +4960,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>28</v>
@@ -4976,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5033,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5074,7 +5067,7 @@
         <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>28</v>
@@ -5083,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5112,7 +5105,7 @@
         <v>51</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Z42" s="5" t="str">
         <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
@@ -5144,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5203,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5253,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5360,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5413,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5472,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5522,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5572,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5626,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5679,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5732,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G54" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
@@ -5791,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5841,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5894,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5948,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5998,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6048,7 +6041,7 @@
         <v>175</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>28</v>
@@ -6057,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6111,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6155,7 +6148,7 @@
         <v>176</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>28</v>
@@ -6164,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6217,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6259,7 +6252,7 @@
         <v>176</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>28</v>
@@ -6268,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6319,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6361,7 +6354,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>57</v>
@@ -6373,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6414,7 +6407,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>85</v>
@@ -6426,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6472,7 +6465,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>223</v>
@@ -6484,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6538,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6591,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6649,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6703,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6756,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" ref="G73:G103" si="14">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B73)</f>
@@ -6809,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6859,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6912,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6966,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7025,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7075,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G79" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7125,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G80" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7179,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G81" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7238,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G82" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7291,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G83" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7317,7 +7310,7 @@
         <v>51</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Y83" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B83)&amp;"s for a patient"</f>
@@ -7387,7 +7380,7 @@
         <v>GET [base]/Practitioner/practitioner-1~GET [base]/Practitioner?_id=practitioner-1</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AB84" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B84)&amp;"-"&amp;SUBSTITUTE(C84,"_","")&amp;".html")</f>
@@ -7411,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G85" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7455,7 +7448,7 @@
         <v>243</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -7464,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G86" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7496,7 +7489,7 @@
         <v>51</v>
       </c>
       <c r="Y86" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?"&amp;C86&amp;"=http://snomed.info/sct\|17561000"</f>
@@ -7525,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G87" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B87)</f>
@@ -7584,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G88" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B88)</f>
@@ -8237,7 +8230,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G100" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8295,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G101" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8356,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G102" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8408,7 +8401,7 @@
         <v>49</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>57</v>
@@ -8420,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G103" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8464,7 +8457,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>85</v>
@@ -8476,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G104" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B104)</f>
@@ -8526,7 +8519,7 @@
         <v>51</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>135</v>
@@ -8538,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G105" s="1" t="str">
         <f t="shared" ref="G105:G117" si="22">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B105)</f>
@@ -8579,7 +8572,7 @@
         <v>52</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>24</v>
@@ -8591,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G106" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8635,10 +8628,10 @@
         <v>53</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>28</v>
@@ -8647,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G107" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8692,7 +8685,7 @@
         <v>20</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>50</v>
@@ -8730,10 +8723,10 @@
         <v>51</v>
       </c>
       <c r="Y108" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z108" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AB108" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B108)&amp;"-"&amp;SUBSTITUTE(C108,"_","")&amp;".html")</f>
@@ -8794,7 +8787,7 @@
         <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>50</v>
@@ -8832,10 +8825,10 @@
         <v>51</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Z110" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AA110" s="10"/>
       <c r="AB110" s="1" t="str">
@@ -8848,7 +8841,7 @@
         <v>79</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>85</v>
@@ -8860,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G111" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8910,7 +8903,7 @@
         <v>80</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>50</v>
@@ -8949,7 +8942,7 @@
         <v>support fetching a QuestionnaireResponse</v>
       </c>
       <c r="Z112" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AB112" s="1" t="str">
         <f t="shared" ref="AB112:AB117" si="25">"SearchParameter-us-core-"&amp;LOWER((B112)&amp;"-"&amp;SUBSTITUTE(C112,"_","")&amp;".html")</f>
@@ -8961,7 +8954,7 @@
         <v>81</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>85</v>
@@ -8973,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G113" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9020,7 +9013,7 @@
         <v>82</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>57</v>
@@ -9032,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G114" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9060,8 +9053,8 @@
       <c r="O114" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y114" s="22" t="s">
-        <v>657</v>
+      <c r="Y114" s="21" t="s">
+        <v>655</v>
       </c>
       <c r="AB114" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9073,10 +9066,10 @@
         <v>83</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>28</v>
@@ -9085,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G115" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9101,7 +9094,7 @@
         <v>52</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>51</v>
@@ -9109,8 +9102,8 @@
       <c r="O115" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y115" s="22" t="s">
-        <v>660</v>
+      <c r="Y115" s="21" t="s">
+        <v>658</v>
       </c>
       <c r="AB115" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9122,10 +9115,10 @@
         <v>84</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>28</v>
@@ -9134,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G116" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9165,8 +9158,8 @@
       <c r="S116" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Y116" s="22" t="s">
-        <v>661</v>
+      <c r="Y116" s="21" t="s">
+        <v>659</v>
       </c>
       <c r="AB116" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9178,10 +9171,10 @@
         <v>85</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>28</v>
@@ -9190,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G117" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9215,8 +9208,8 @@
       <c r="O117" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y117" s="22" t="s">
-        <v>663</v>
+      <c r="Y117" s="21" t="s">
+        <v>661</v>
       </c>
       <c r="AB117" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9238,7 +9231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView topLeftCell="I85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
@@ -9272,7 +9265,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>92</v>
@@ -9602,7 +9595,7 @@
         <v>299</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9702,7 +9695,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>1</v>
@@ -9717,7 +9710,7 @@
         <v>300</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9793,7 +9786,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>1</v>
@@ -9808,7 +9801,7 @@
         <v>305</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10220,7 +10213,7 @@
         <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>150</v>
@@ -10256,7 +10249,7 @@
         <v>145</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>141</v>
@@ -10274,7 +10267,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>1</v>
@@ -10289,10 +10282,10 @@
         <v>145</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -10349,7 +10342,7 @@
         <v>148</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>151</v>
@@ -10367,7 +10360,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>1</v>
@@ -10382,7 +10375,7 @@
         <v>148</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>151</v>
@@ -10400,7 +10393,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>1</v>
@@ -10415,7 +10408,7 @@
         <v>148</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>151</v>
@@ -10433,7 +10426,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>1</v>
@@ -10448,7 +10441,7 @@
         <v>148</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>151</v>
@@ -10481,7 +10474,7 @@
         <v>320</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -10508,7 +10501,7 @@
         <v>162</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified "&amp;SUBSTITUTE(D44,","," and ")</f>
@@ -10665,7 +10658,7 @@
         <v>190</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
@@ -10695,7 +10688,7 @@
         <v>221</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10815,7 +10808,7 @@
         <v>196</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K54" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B54&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -10845,7 +10838,7 @@
         <v>215</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K55" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B55&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10895,7 +10888,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>65</v>
@@ -10907,7 +10900,7 @@
         <v>202</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K57" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B57&amp;" resources for the specified "&amp;SUBSTITUTE(D57,","," and ")</f>
@@ -10926,7 +10919,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>11</v>
@@ -10935,16 +10928,16 @@
         <v>101</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="K58" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -10959,7 +10952,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>11</v>
@@ -10968,16 +10961,16 @@
         <v>101</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>180</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -10992,7 +10985,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>65</v>
@@ -11001,16 +10994,16 @@
         <v>101</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>180</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -11025,7 +11018,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>65</v>
@@ -11034,16 +11027,16 @@
         <v>213</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>225</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -11051,7 +11044,7 @@
         <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11070,7 +11063,7 @@
         <v>182</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified "&amp;SUBSTITUTE(D62,","," and ")</f>
@@ -11083,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11102,7 +11095,7 @@
         <v>226</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>228</v>
@@ -11194,7 +11187,7 @@
         <v>222</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K66" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
@@ -11209,7 +11202,7 @@
         <v>178</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>232</v>
@@ -11221,13 +11214,13 @@
         <v>101</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>275</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>316</v>
@@ -11241,7 +11234,7 @@
         <v>178</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>140</v>
@@ -11253,13 +11246,13 @@
         <v>101</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>216</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K68" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B68&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -11274,7 +11267,7 @@
         <v>178</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>142</v>
@@ -11304,7 +11297,7 @@
         <v>178</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>189</v>
@@ -11316,13 +11309,13 @@
         <v>213</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>220</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K70" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -11337,7 +11330,7 @@
         <v>178</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>214</v>
@@ -11352,7 +11345,7 @@
         <v>218</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K71" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B71&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -11367,7 +11360,7 @@
         <v>315</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>111</v>
@@ -11448,7 +11441,7 @@
         <v>236</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>240</v>
@@ -11512,7 +11505,7 @@
         <v>235</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>242</v>
@@ -11545,13 +11538,13 @@
         <v>306</v>
       </c>
       <c r="I77" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="K77" s="10" t="s">
         <v>606</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -11595,7 +11588,7 @@
         <v>178</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>232</v>
@@ -11607,13 +11600,13 @@
         <v>101</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>274</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K79" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ")</f>
@@ -11628,7 +11621,7 @@
         <v>178</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>140</v>
@@ -11640,13 +11633,13 @@
         <v>101</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>273</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K80" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B80&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -11661,7 +11654,7 @@
         <v>178</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>142</v>
@@ -11673,7 +11666,7 @@
         <v>101</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>276</v>
@@ -11694,7 +11687,7 @@
         <v>178</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>189</v>
@@ -11706,13 +11699,13 @@
         <v>213</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>278</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K82" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -11727,7 +11720,7 @@
         <v>178</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>214</v>
@@ -11742,7 +11735,7 @@
         <v>279</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -11869,7 +11862,7 @@
         <v>291</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>293</v>
@@ -11899,7 +11892,7 @@
         <v>295</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>292</v>
@@ -11929,7 +11922,7 @@
         <v>296</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K89" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -11944,7 +11937,7 @@
         <v>244</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>113</v>
@@ -11956,13 +11949,13 @@
         <v>101</v>
       </c>
       <c r="I90" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J90" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="J90" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="K90" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -11977,7 +11970,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>1</v>
@@ -11989,13 +11982,13 @@
         <v>101</v>
       </c>
       <c r="I91" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="K91" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -12003,10 +11996,10 @@
         <v>56</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>111</v>
@@ -12024,7 +12017,7 @@
         <v>298</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K92" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources for the specified "&amp;SUBSTITUTE(D92,","," and ")</f>
@@ -12036,10 +12029,10 @@
         <v>57</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>140</v>
@@ -12057,7 +12050,7 @@
         <v>193</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K93" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient and  a category code"</f>
@@ -12069,10 +12062,10 @@
         <v>58</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>142</v>
@@ -12090,7 +12083,7 @@
         <v>194</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K94" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -12102,13 +12095,13 @@
         <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -12123,7 +12116,7 @@
         <v>196</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K95" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient and date and a category code"</f>
@@ -12135,13 +12128,13 @@
         <v>60</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>1</v>
@@ -12153,10 +12146,10 @@
         <v>213</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K96" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B96&amp;" resources for the specified patient and date and service code(s).  SHOULD support search by multiple report codes."</f>
@@ -12175,7 +12168,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>1</v>
@@ -12187,10 +12180,10 @@
         <v>101</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K97" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B97&amp;" resources for the specified "&amp;SUBSTITUTE(D97,","," and ")</f>
@@ -12202,10 +12195,10 @@
         <v>65</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C98" s="21" t="s">
         <v>651</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>649</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>111</v>
@@ -12217,10 +12210,10 @@
         <v>101</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K98" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B98&amp;" resources for the specified "&amp;SUBSTITUTE(D98,","," and ")</f>
@@ -12232,13 +12225,13 @@
         <v>66</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C99" s="21" t="s">
         <v>651</v>
       </c>
+      <c r="C99" s="20" t="s">
+        <v>649</v>
+      </c>
       <c r="D99" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>65</v>
@@ -12247,13 +12240,13 @@
         <v>101</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K99" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B99&amp;" resources for the specified "&amp;SUBSTITUTE(D99,","," and  ") &amp; "= 'sdoh'"</f>
@@ -12265,13 +12258,13 @@
         <v>67</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C100" s="21" t="s">
         <v>651</v>
       </c>
+      <c r="C100" s="20" t="s">
+        <v>649</v>
+      </c>
       <c r="D100" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>65</v>
@@ -12280,10 +12273,10 @@
         <v>144</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K100" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B100&amp;" resources for the specified patient and date"</f>
@@ -12295,13 +12288,13 @@
         <v>68</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C101" s="21" t="s">
         <v>651</v>
       </c>
+      <c r="C101" s="20" t="s">
+        <v>649</v>
+      </c>
       <c r="D101" s="18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>65</v>
@@ -12310,13 +12303,13 @@
         <v>213</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K101" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B101&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
@@ -12328,13 +12321,13 @@
         <v>69</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C102" s="21" t="s">
         <v>651</v>
       </c>
+      <c r="C102" s="20" t="s">
+        <v>649</v>
+      </c>
       <c r="D102" s="18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>65</v>
@@ -12343,10 +12336,10 @@
         <v>86</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K102" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B102&amp;" resources for the specified patient that have been completed against a specified form."</f>
@@ -12367,7 +12360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -12390,15 +12383,15 @@
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12406,7 +12399,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -12414,7 +12407,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12422,7 +12415,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.2">
@@ -12430,7 +12423,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12438,36 +12431,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>65</v>
@@ -12497,7 +12490,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>55</v>
@@ -12508,13 +12501,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>65</v>
@@ -12522,13 +12515,13 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>551</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>553</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
@@ -12560,16 +12553,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>55</v>
@@ -12583,13 +12576,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -12604,8 +12597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G53"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12639,7 +12632,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -12654,7 +12647,7 @@
         <v>231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -12681,10 +12674,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>343</v>
+        <v>674</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>344</v>
+        <v>675</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -12696,56 +12689,56 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>423</v>
+        <v>676</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>422</v>
+        <v>677</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>421</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>184</v>
+      <c r="A9" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -12757,71 +12750,71 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>183</v>
+      <c r="A10" s="20" t="s">
+        <v>339</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>339</v>
+      <c r="A11" s="20" t="s">
+        <v>626</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>629</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>632</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -12831,13 +12824,13 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>634</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -12847,13 +12840,13 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>636</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -12863,13 +12856,13 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>638</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -12879,113 +12872,113 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>640</v>
+      <c r="A18" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>641</v>
+        <v>355</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>631</v>
+        <v>175</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>356</v>
+      <c r="A19" s="20" t="s">
+        <v>336</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>336</v>
+      <c r="A20" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>358</v>
+      <c r="A21" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>349</v>
+      <c r="A22" s="20" t="s">
+        <v>341</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>351</v>
+        <v>176</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>341</v>
+      <c r="A23" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>408</v>
+      <c r="A24" s="20" t="s">
+        <v>640</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>409</v>
+        <v>641</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -12995,11 +12988,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>642</v>
+      <c r="A25" s="20" t="s">
+        <v>491</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>643</v>
+        <v>492</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -13009,11 +13002,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>493</v>
+      <c r="A26" s="20" t="s">
+        <v>642</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>494</v>
+        <v>643</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -13023,11 +13016,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>644</v>
+      <c r="A27" s="20" t="s">
+        <v>489</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>645</v>
+        <v>490</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -13037,11 +13030,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>491</v>
+      <c r="A28" s="20" t="s">
+        <v>487</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -13051,11 +13044,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>489</v>
+      <c r="A29" s="20" t="s">
+        <v>508</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -13067,11 +13060,11 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>510</v>
+      <c r="A30" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>511</v>
+        <v>428</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -13083,11 +13076,11 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>429</v>
+      <c r="A31" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>430</v>
+        <v>338</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -13097,11 +13090,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>270</v>
+      <c r="A32" s="20" t="s">
+        <v>553</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>338</v>
+        <v>644</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -13113,11 +13106,11 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>555</v>
+      <c r="A33" s="20" t="s">
+        <v>481</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>646</v>
+        <v>482</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -13129,7 +13122,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>483</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -13145,11 +13138,11 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>485</v>
+      <c r="A35" s="20" t="s">
+        <v>479</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -13161,11 +13154,11 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>481</v>
+      <c r="A36" s="20" t="s">
+        <v>645</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>482</v>
+        <v>646</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -13177,11 +13170,11 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>647</v>
+      <c r="A37" s="20" t="s">
+        <v>477</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>648</v>
+        <v>478</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -13193,11 +13186,11 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
-        <v>479</v>
+      <c r="A38" s="20" t="s">
+        <v>563</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>480</v>
+        <v>647</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -13209,11 +13202,11 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>565</v>
+      <c r="A39" s="20" t="s">
+        <v>556</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -13225,11 +13218,11 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>558</v>
+      <c r="A40" s="20" t="s">
+        <v>505</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>650</v>
+        <v>506</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -13241,11 +13234,11 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -13257,11 +13250,11 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>505</v>
+      <c r="A42" s="20" t="s">
+        <v>485</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -13273,11 +13266,11 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>487</v>
+      <c r="A43" s="20" t="s">
+        <v>475</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
@@ -13289,162 +13282,151 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>477</v>
+      <c r="A44" s="20" t="s">
+        <v>343</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>478</v>
+        <v>344</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>345</v>
+      <c r="A45" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
-        <v>70</v>
+      <c r="A46" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>334</v>
+      <c r="A47" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
-        <v>353</v>
+      <c r="A48" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
-        <v>347</v>
+      <c r="A49" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>177</v>
+        <v>431</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
-        <v>431</v>
+      <c r="A50" s="20" t="s">
+        <v>649</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>432</v>
+        <v>650</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>433</v>
+        <v>651</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
-        <v>651</v>
+      <c r="A51" s="20" t="s">
+        <v>557</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>652</v>
+        <v>558</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>653</v>
+        <v>559</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
-        <v>559</v>
+      <c r="A52" s="20" t="s">
+        <v>560</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>564</v>
-      </c>
+      <c r="A53" s="20"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
@@ -13459,11 +13441,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13497,67 +13479,67 @@
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="23" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13571,13 +13553,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="T2" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>65</v>
@@ -13591,16 +13573,16 @@
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y3" s="15" t="s">
         <v>65</v>
@@ -13614,22 +13596,22 @@
         <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>569</v>
-      </c>
       <c r="X4" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y4" s="15" t="s">
         <v>65</v>
@@ -13643,16 +13625,16 @@
         <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y5" s="15" t="s">
         <v>65</v>
@@ -13666,16 +13648,16 @@
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>65</v>
@@ -13689,16 +13671,16 @@
         <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y7" s="15" t="s">
         <v>65</v>
@@ -13712,16 +13694,16 @@
         <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y8" s="15" t="s">
         <v>65</v>
@@ -13735,16 +13717,16 @@
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y9" s="15" t="s">
         <v>65</v>
@@ -13758,13 +13740,13 @@
         <v>65</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y10" s="15" t="s">
         <v>65</v>
@@ -13778,16 +13760,16 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y11" s="15" t="s">
         <v>65</v>
@@ -13801,10 +13783,10 @@
         <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>65</v>
@@ -13814,16 +13796,16 @@
     </row>
     <row r="13" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>65</v>
@@ -13839,10 +13821,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>65</v>
@@ -13854,7 +13836,7 @@
         <v>203</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y14" s="15" t="s">
         <v>65</v>
@@ -13862,16 +13844,16 @@
     </row>
     <row r="15" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>65</v>
@@ -13880,10 +13862,10 @@
         <v>65</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y15" s="15" t="s">
         <v>65</v>
@@ -13897,16 +13879,16 @@
         <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y16" s="15" t="s">
         <v>65</v>
@@ -13920,7 +13902,7 @@
         <v>65</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>65</v>
@@ -13936,16 +13918,16 @@
         <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y18" s="15" t="s">
         <v>65</v>
@@ -13959,7 +13941,7 @@
         <v>65</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>65</v>
@@ -13975,16 +13957,16 @@
         <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>268</v>
@@ -14000,16 +13982,16 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y21" s="15" t="s">
         <v>65</v>
@@ -14017,16 +13999,16 @@
     </row>
     <row r="22" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>65</v>
@@ -14034,22 +14016,22 @@
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X23" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y23" s="15" t="s">
         <v>65</v>
@@ -14057,19 +14039,19 @@
     </row>
     <row r="24" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X24" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y24" s="15" t="s">
         <v>65</v>
@@ -14077,19 +14059,19 @@
     </row>
     <row r="25" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="U25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X25" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y25" s="15" t="s">
         <v>65</v>
@@ -14097,7 +14079,7 @@
     </row>
     <row r="26" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>65</v>
@@ -14155,10 +14137,10 @@
     </row>
     <row r="2" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>173</v>
@@ -14167,24 +14149,24 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -14220,85 +14202,85 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" t="s">
         <v>382</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="W1" t="s">
-        <v>384</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -14321,7 +14303,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -15023,12 +15005,12 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -15037,7 +15019,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
@@ -15046,7 +15028,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
@@ -15055,7 +15037,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E4831E-60E4-9E4D-8E3C-1C08F5A7D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BC6221-69AD-564C-A259-2D2984DBE554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1360,18 +1360,10 @@
     <t>client</t>
   </si>
   <si>
-    <t xml:space="preserve">The US Core Client **SHALL**:
-1. Support fetching and querying of one or more US Core profile(s), using the supported RESTful interactions and search parameters declared in the US Core Server CapabilityStatement.
-</t>
-  </si>
-  <si>
     <t>us-core-client</t>
   </si>
   <si>
     <t>The DocumentReference.type binding SHALL support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set</t>
-  </si>
-  <si>
-    <t>1. See the [General Security Considerations] section for requirements and recommendations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
@@ -2267,6 +2259,14 @@
   </si>
   <si>
     <t>US Core Condition Problems and Health Concerns Profile</t>
+  </si>
+  <si>
+    <t>The US Core Client **SHALL**:
+1. Support fetching and querying of one or more US Core profile(s), using the supported RESTful interactions and search parameters declared in the US Core Server CapabilityStatement.
+1. Follow the requirements documented in the [General Requirements](general-requirements.html) and [Must Support](must-support.html) pages</t>
+  </si>
+  <si>
+    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.</t>
   </si>
 </sst>
 </file>
@@ -2829,34 +2829,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2864,12 +2864,12 @@
         <v>63</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>55</v>
@@ -2877,15 +2877,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>30</v>
@@ -2978,19 +2978,19 @@
         <v>44</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>45</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>46</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>47</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3433,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3910,7 +3910,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4071,7 +4071,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4448,7 +4448,7 @@
         <v>51</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>168</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4846,7 +4846,7 @@
         <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4903,7 +4903,7 @@
         <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>28</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4960,7 +4960,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>28</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5067,7 +5067,7 @@
         <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>28</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5105,7 +5105,7 @@
         <v>51</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Z42" s="5" t="str">
         <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G54" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5991,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6041,7 +6041,7 @@
         <v>175</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>28</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6148,7 +6148,7 @@
         <v>176</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>28</v>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6252,7 +6252,7 @@
         <v>176</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>28</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6354,7 +6354,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>57</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6407,7 +6407,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>85</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6465,7 +6465,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>223</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" ref="G73:G103" si="14">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B73)</f>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G79" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G80" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G81" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G82" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G83" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7310,7 +7310,7 @@
         <v>51</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="Y83" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B83)&amp;"s for a patient"</f>
@@ -7380,7 +7380,7 @@
         <v>GET [base]/Practitioner/practitioner-1~GET [base]/Practitioner?_id=practitioner-1</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AB84" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B84)&amp;"-"&amp;SUBSTITUTE(C84,"_","")&amp;".html")</f>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G85" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7448,7 +7448,7 @@
         <v>243</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G86" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7489,7 +7489,7 @@
         <v>51</v>
       </c>
       <c r="Y86" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="Z86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?"&amp;C86&amp;"=http://snomed.info/sct\|17561000"</f>
@@ -7518,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G87" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B87)</f>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G88" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B88)</f>
@@ -8230,7 +8230,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G100" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8288,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G101" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G102" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8401,7 +8401,7 @@
         <v>49</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>57</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G103" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8457,7 +8457,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>85</v>
@@ -8469,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G104" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B104)</f>
@@ -8519,7 +8519,7 @@
         <v>51</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>135</v>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G105" s="1" t="str">
         <f t="shared" ref="G105:G117" si="22">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B105)</f>
@@ -8572,7 +8572,7 @@
         <v>52</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>24</v>
@@ -8584,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G106" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8628,10 +8628,10 @@
         <v>53</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>28</v>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G107" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8685,7 +8685,7 @@
         <v>20</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>50</v>
@@ -8723,10 +8723,10 @@
         <v>51</v>
       </c>
       <c r="Y108" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z108" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AB108" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B108)&amp;"-"&amp;SUBSTITUTE(C108,"_","")&amp;".html")</f>
@@ -8787,7 +8787,7 @@
         <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>50</v>
@@ -8825,10 +8825,10 @@
         <v>51</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z110" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AA110" s="10"/>
       <c r="AB110" s="1" t="str">
@@ -8841,7 +8841,7 @@
         <v>79</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>85</v>
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G111" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8903,7 +8903,7 @@
         <v>80</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>50</v>
@@ -8942,7 +8942,7 @@
         <v>support fetching a QuestionnaireResponse</v>
       </c>
       <c r="Z112" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AB112" s="1" t="str">
         <f t="shared" ref="AB112:AB117" si="25">"SearchParameter-us-core-"&amp;LOWER((B112)&amp;"-"&amp;SUBSTITUTE(C112,"_","")&amp;".html")</f>
@@ -8954,7 +8954,7 @@
         <v>81</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>85</v>
@@ -8966,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G113" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9013,7 +9013,7 @@
         <v>82</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>57</v>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G114" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9054,7 +9054,7 @@
         <v>51</v>
       </c>
       <c r="Y114" s="21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AB114" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9066,10 +9066,10 @@
         <v>83</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>28</v>
@@ -9078,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G115" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9094,7 +9094,7 @@
         <v>52</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>51</v>
@@ -9103,7 +9103,7 @@
         <v>51</v>
       </c>
       <c r="Y115" s="21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AB115" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9115,10 +9115,10 @@
         <v>84</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>28</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G116" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9159,7 +9159,7 @@
         <v>88</v>
       </c>
       <c r="Y116" s="21" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AB116" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9171,10 +9171,10 @@
         <v>85</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>28</v>
@@ -9183,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G117" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9209,7 +9209,7 @@
         <v>51</v>
       </c>
       <c r="Y117" s="21" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AB117" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9231,7 +9231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="I85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
@@ -9265,7 +9265,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>92</v>
@@ -9595,7 +9595,7 @@
         <v>299</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9695,7 +9695,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>1</v>
@@ -9710,7 +9710,7 @@
         <v>300</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9786,7 +9786,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>305</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10213,7 +10213,7 @@
         <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>150</v>
@@ -10249,7 +10249,7 @@
         <v>145</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>141</v>
@@ -10267,7 +10267,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>1</v>
@@ -10282,10 +10282,10 @@
         <v>145</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -10342,7 +10342,7 @@
         <v>148</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>151</v>
@@ -10360,7 +10360,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>1</v>
@@ -10375,7 +10375,7 @@
         <v>148</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>151</v>
@@ -10393,7 +10393,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>1</v>
@@ -10408,7 +10408,7 @@
         <v>148</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>151</v>
@@ -10426,7 +10426,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>1</v>
@@ -10441,7 +10441,7 @@
         <v>148</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>151</v>
@@ -10474,7 +10474,7 @@
         <v>320</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -10501,7 +10501,7 @@
         <v>162</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified "&amp;SUBSTITUTE(D44,","," and ")</f>
@@ -10658,7 +10658,7 @@
         <v>190</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
@@ -10688,7 +10688,7 @@
         <v>221</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10808,7 +10808,7 @@
         <v>196</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K54" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B54&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -10838,7 +10838,7 @@
         <v>215</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K55" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B55&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10888,7 +10888,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>65</v>
@@ -10900,7 +10900,7 @@
         <v>202</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K57" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B57&amp;" resources for the specified "&amp;SUBSTITUTE(D57,","," and ")</f>
@@ -10919,7 +10919,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>11</v>
@@ -10928,16 +10928,16 @@
         <v>101</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="K58" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -10952,7 +10952,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>11</v>
@@ -10961,16 +10961,16 @@
         <v>101</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>180</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -10985,7 +10985,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>65</v>
@@ -10994,16 +10994,16 @@
         <v>101</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>180</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -11018,7 +11018,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>65</v>
@@ -11027,16 +11027,16 @@
         <v>213</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>225</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -11044,7 +11044,7 @@
         <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11063,7 +11063,7 @@
         <v>182</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified "&amp;SUBSTITUTE(D62,","," and ")</f>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11095,7 +11095,7 @@
         <v>226</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>228</v>
@@ -11187,7 +11187,7 @@
         <v>222</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K66" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
@@ -11202,7 +11202,7 @@
         <v>178</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>232</v>
@@ -11214,13 +11214,13 @@
         <v>101</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>275</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>316</v>
@@ -11234,7 +11234,7 @@
         <v>178</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>140</v>
@@ -11246,13 +11246,13 @@
         <v>101</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>216</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K68" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B68&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -11267,7 +11267,7 @@
         <v>178</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>142</v>
@@ -11297,7 +11297,7 @@
         <v>178</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>189</v>
@@ -11309,13 +11309,13 @@
         <v>213</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>220</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K70" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -11330,7 +11330,7 @@
         <v>178</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>214</v>
@@ -11345,7 +11345,7 @@
         <v>218</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K71" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B71&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -11360,7 +11360,7 @@
         <v>315</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>111</v>
@@ -11441,7 +11441,7 @@
         <v>236</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>240</v>
@@ -11505,7 +11505,7 @@
         <v>235</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>242</v>
@@ -11538,13 +11538,13 @@
         <v>306</v>
       </c>
       <c r="I77" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="K77" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -11588,7 +11588,7 @@
         <v>178</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>232</v>
@@ -11600,13 +11600,13 @@
         <v>101</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>274</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K79" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ")</f>
@@ -11621,7 +11621,7 @@
         <v>178</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>140</v>
@@ -11633,13 +11633,13 @@
         <v>101</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>273</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K80" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B80&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -11654,7 +11654,7 @@
         <v>178</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>142</v>
@@ -11666,7 +11666,7 @@
         <v>101</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>276</v>
@@ -11687,7 +11687,7 @@
         <v>178</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>189</v>
@@ -11699,13 +11699,13 @@
         <v>213</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>278</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K82" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -11720,7 +11720,7 @@
         <v>178</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>214</v>
@@ -11735,7 +11735,7 @@
         <v>279</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -11862,7 +11862,7 @@
         <v>291</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>293</v>
@@ -11922,7 +11922,7 @@
         <v>296</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K89" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -11937,7 +11937,7 @@
         <v>244</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>113</v>
@@ -11970,7 +11970,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>1</v>
@@ -11982,13 +11982,13 @@
         <v>101</v>
       </c>
       <c r="I91" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="K91" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -11996,10 +11996,10 @@
         <v>56</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>111</v>
@@ -12017,7 +12017,7 @@
         <v>298</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K92" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources for the specified "&amp;SUBSTITUTE(D92,","," and ")</f>
@@ -12029,10 +12029,10 @@
         <v>57</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>140</v>
@@ -12050,7 +12050,7 @@
         <v>193</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K93" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient and  a category code"</f>
@@ -12062,10 +12062,10 @@
         <v>58</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>142</v>
@@ -12083,7 +12083,7 @@
         <v>194</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K94" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -12095,13 +12095,13 @@
         <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -12116,7 +12116,7 @@
         <v>196</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K95" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient and date and a category code"</f>
@@ -12128,13 +12128,13 @@
         <v>60</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>1</v>
@@ -12146,10 +12146,10 @@
         <v>213</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K96" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B96&amp;" resources for the specified patient and date and service code(s).  SHOULD support search by multiple report codes."</f>
@@ -12168,7 +12168,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>1</v>
@@ -12180,10 +12180,10 @@
         <v>101</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K97" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B97&amp;" resources for the specified "&amp;SUBSTITUTE(D97,","," and ")</f>
@@ -12195,10 +12195,10 @@
         <v>65</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>111</v>
@@ -12210,10 +12210,10 @@
         <v>101</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K98" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B98&amp;" resources for the specified "&amp;SUBSTITUTE(D98,","," and ")</f>
@@ -12225,13 +12225,13 @@
         <v>66</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>65</v>
@@ -12240,13 +12240,13 @@
         <v>101</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K99" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B99&amp;" resources for the specified "&amp;SUBSTITUTE(D99,","," and  ") &amp; "= 'sdoh'"</f>
@@ -12258,13 +12258,13 @@
         <v>67</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>65</v>
@@ -12273,10 +12273,10 @@
         <v>144</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K100" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B100&amp;" resources for the specified patient and date"</f>
@@ -12288,13 +12288,13 @@
         <v>68</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>65</v>
@@ -12303,13 +12303,13 @@
         <v>213</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K101" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B101&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
@@ -12321,13 +12321,13 @@
         <v>69</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>65</v>
@@ -12336,10 +12336,10 @@
         <v>86</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K102" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B102&amp;" resources for the specified patient that have been completed against a specified form."</f>
@@ -12360,8 +12360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12383,15 +12383,15 @@
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12399,7 +12399,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -12407,7 +12407,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12418,12 +12418,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="241" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>402</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12431,36 +12431,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>405</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>65</v>
@@ -12490,7 +12490,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>55</v>
@@ -12501,13 +12501,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>65</v>
@@ -12515,13 +12515,13 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>549</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>551</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
@@ -12553,16 +12553,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>55</v>
@@ -12576,13 +12576,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -12674,10 +12674,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -12689,10 +12689,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -12704,10 +12704,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>360</v>
@@ -12783,96 +12783,96 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -12959,10 +12959,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -12975,10 +12975,10 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -12989,10 +12989,10 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -13003,10 +13003,10 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -13017,10 +13017,10 @@
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -13031,10 +13031,10 @@
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -13045,10 +13045,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -13061,10 +13061,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -13091,10 +13091,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -13107,10 +13107,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -13123,10 +13123,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -13139,10 +13139,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -13155,10 +13155,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -13171,10 +13171,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -13187,10 +13187,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -13203,10 +13203,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -13219,10 +13219,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -13235,10 +13235,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -13251,10 +13251,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -13267,10 +13267,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
@@ -13363,64 +13363,64 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -13479,7 +13479,7 @@
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -13530,16 +13530,16 @@
         <v>400</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="23" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13553,13 +13553,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="T2" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>65</v>
@@ -13573,16 +13573,16 @@
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y3" s="15" t="s">
         <v>65</v>
@@ -13596,22 +13596,22 @@
         <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="X4" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y4" s="15" t="s">
         <v>65</v>
@@ -13625,16 +13625,16 @@
         <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y5" s="15" t="s">
         <v>65</v>
@@ -13648,16 +13648,16 @@
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>65</v>
@@ -13671,16 +13671,16 @@
         <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y7" s="15" t="s">
         <v>65</v>
@@ -13694,16 +13694,16 @@
         <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y8" s="15" t="s">
         <v>65</v>
@@ -13717,16 +13717,16 @@
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y9" s="15" t="s">
         <v>65</v>
@@ -13740,13 +13740,13 @@
         <v>65</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y10" s="15" t="s">
         <v>65</v>
@@ -13760,16 +13760,16 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y11" s="15" t="s">
         <v>65</v>
@@ -13783,10 +13783,10 @@
         <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>65</v>
@@ -13802,10 +13802,10 @@
         <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>65</v>
@@ -13821,10 +13821,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>65</v>
@@ -13836,7 +13836,7 @@
         <v>203</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y14" s="15" t="s">
         <v>65</v>
@@ -13844,16 +13844,16 @@
     </row>
     <row r="15" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>65</v>
@@ -13865,7 +13865,7 @@
         <v>390</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y15" s="15" t="s">
         <v>65</v>
@@ -13879,16 +13879,16 @@
         <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y16" s="15" t="s">
         <v>65</v>
@@ -13902,7 +13902,7 @@
         <v>65</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>65</v>
@@ -13918,16 +13918,16 @@
         <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y18" s="15" t="s">
         <v>65</v>
@@ -13941,7 +13941,7 @@
         <v>65</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>65</v>
@@ -13957,16 +13957,16 @@
         <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>268</v>
@@ -13982,16 +13982,16 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y21" s="15" t="s">
         <v>65</v>
@@ -13999,16 +13999,16 @@
     </row>
     <row r="22" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>65</v>
@@ -14016,22 +14016,22 @@
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X23" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y23" s="15" t="s">
         <v>65</v>
@@ -14039,19 +14039,19 @@
     </row>
     <row r="24" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X24" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y24" s="15" t="s">
         <v>65</v>
@@ -14059,19 +14059,19 @@
     </row>
     <row r="25" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="U25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X25" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y25" s="15" t="s">
         <v>65</v>
@@ -14079,7 +14079,7 @@
     </row>
     <row r="26" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>65</v>
@@ -14149,24 +14149,24 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -14217,7 +14217,7 @@
         <v>367</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>368</v>
@@ -14250,7 +14250,7 @@
         <v>377</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>378</v>
@@ -14268,19 +14268,19 @@
         <v>382</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -14303,7 +14303,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -15005,12 +15005,12 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -15019,7 +15019,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
@@ -15028,7 +15028,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
@@ -15037,7 +15037,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BC6221-69AD-564C-A259-2D2984DBE554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA72FFD-880B-0A4C-903B-86783C9CDF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -2901,10 +2901,10 @@
   <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Z60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA113" sqref="AA113"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3928,9 +3928,6 @@
       <c r="H19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J19" s="1" t="s">
         <v>51</v>
       </c>
@@ -4089,9 +4086,6 @@
       <c r="H22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J22" s="1" t="s">
         <v>51</v>
       </c>
@@ -4864,9 +4858,6 @@
       <c r="H38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J38" s="1" t="s">
         <v>51</v>
       </c>
@@ -4921,9 +4912,6 @@
       <c r="H39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I39" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J39" s="1" t="s">
         <v>51</v>
       </c>
@@ -4977,9 +4965,6 @@
       </c>
       <c r="H40" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I40" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>51</v>
@@ -5084,9 +5069,6 @@
       </c>
       <c r="H42" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I42" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>51</v>
@@ -7352,9 +7334,6 @@
       <c r="H84" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I84" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J84" s="1" t="s">
         <v>51</v>
       </c>
@@ -7466,9 +7445,6 @@
       <c r="H86" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I86" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J86" s="1" t="s">
         <v>51</v>
       </c>
@@ -8421,9 +8397,6 @@
       </c>
       <c r="H103" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I103" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>51</v>
@@ -8478,9 +8451,6 @@
       <c r="H104" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I104" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J104" s="1" t="s">
         <v>51</v>
       </c>
@@ -8539,9 +8509,6 @@
       </c>
       <c r="H105" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I105" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>51</v>
@@ -8593,9 +8560,6 @@
       <c r="H106" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I106" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J106" s="1" t="s">
         <v>51</v>
       </c>
@@ -8649,9 +8613,6 @@
       <c r="H107" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I107" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J107" s="1" t="s">
         <v>51</v>
       </c>
@@ -8703,9 +8664,6 @@
       <c r="H108" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I108" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J108" s="1" t="s">
         <v>51</v>
       </c>
@@ -8757,9 +8715,6 @@
       <c r="H109" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I109" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J109" s="1" t="s">
         <v>51</v>
       </c>
@@ -8805,9 +8760,6 @@
       <c r="H110" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I110" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J110" s="1" t="s">
         <v>51</v>
       </c>
@@ -8861,9 +8813,6 @@
       </c>
       <c r="H111" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I111" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>51</v>
@@ -9231,8 +9180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView topLeftCell="I85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9697,9 +9646,6 @@
       <c r="D17" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E17" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F17" s="1" t="s">
         <v>65</v>
       </c>
@@ -9787,9 +9733,6 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="E20" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>65</v>
@@ -10269,9 +10212,6 @@
       <c r="D37" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E37" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F37" s="1" t="s">
         <v>65</v>
       </c>
@@ -10362,9 +10302,6 @@
       <c r="D40" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E40" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F40" s="1" t="s">
         <v>65</v>
       </c>
@@ -10395,9 +10332,6 @@
       <c r="D41" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E41" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F41" s="1" t="s">
         <v>65</v>
       </c>
@@ -10427,9 +10361,6 @@
       </c>
       <c r="D42" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="E42" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>65</v>
@@ -11525,9 +11456,6 @@
       <c r="D77" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E77" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F77" s="1" t="s">
         <v>11</v>
       </c>
@@ -11972,9 +11900,6 @@
       <c r="D91" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E91" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F91" s="1" t="s">
         <v>65</v>
       </c>
@@ -12004,9 +11929,6 @@
       <c r="D92" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E92" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F92" s="1" t="s">
         <v>65</v>
       </c>
@@ -12037,9 +11959,6 @@
       <c r="D93" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E93" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F93" s="1" t="s">
         <v>11</v>
       </c>
@@ -12070,9 +11989,6 @@
       <c r="D94" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E94" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F94" s="1" t="s">
         <v>11</v>
       </c>
@@ -12103,9 +12019,6 @@
       <c r="D95" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E95" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F95" s="1" t="s">
         <v>11</v>
       </c>
@@ -12136,9 +12049,6 @@
       <c r="D96" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E96" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="F96" s="1" t="s">
         <v>65</v>
       </c>
@@ -12169,9 +12079,6 @@
       </c>
       <c r="D97" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="E97" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>11</v>
@@ -12360,7 +12267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA72FFD-880B-0A4C-903B-86783C9CDF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE58424-A49E-D444-B376-6E7F5F1083EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1363,9 +1363,6 @@
     <t>us-core-client</t>
   </si>
   <si>
-    <t>The DocumentReference.type binding SHALL support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
   </si>
   <si>
@@ -1635,9 +1632,6 @@
     - US Core Goal **SHOULD** be present in CarePlan.goal
     - US Core Condition **SHOULD** be present in CarePlan.addresses
     - Assement and Plan **MAY** be included as narrative text</t>
-  </si>
-  <si>
-    <t>* Based upon the ONC U.S. Core Data for Interoperability (USCDI) v1 requirements, CVX vaccine codes are required and the NDC vaccine codes **SHOULD** be supported as translations to them.</t>
   </si>
   <si>
     <t>* The US Core Location  and PractitionerRole Profiles are not explicitly referenced in any US Core Profile. However they **SHOULD** be used as the default profile if referenced by another US Core profile.</t>
@@ -1662,26 +1656,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">* For ONC's USCDI requirements, each Patient must support the following additional elements. These elements are included in the formal definition of the profile. The patient examples include all of these elements.
-1. contact detail (e.g. a telephone number or an email address)
-1. a communication language
-1. a race
-1. an ethnicity
-1. a birth sex*
-1. previous name
-   - Previous name is represented by providing an end date in the `Patient.name.period` element for a previous name.
-1. suffix
-   - Suffix is represented using the `Patient.name.suffix` element.
-</t>
-  </si>
-  <si>
-    <t>*  A procedure including an implantable device **SHOULD** use `Procedure.focalDevice` with a reference to the [US Core Implantable Device Profile].</t>
-  </si>
-  <si>
-    <t>* If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.
-* Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
   </si>
   <si>
@@ -1870,6 +1844,341 @@
   </si>
   <si>
     <t>resolves</t>
+  </si>
+  <si>
+    <t>SHOULD,SHOULD,SHOULD,SHOULD</t>
+  </si>
+  <si>
+    <t>CareTeam:participant:PractitionerRole,CareTeam:participant:Practitioner,CareTeam:participant:Patient,CareTeam:participant:RelatedPerson</t>
+  </si>
+  <si>
+    <t>conf_RelatedPerson</t>
+  </si>
+  <si>
+    <t>conf_ServiceRequest</t>
+  </si>
+  <si>
+    <t>is_new</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>discharge-disposition</t>
+  </si>
+  <si>
+    <t>A server **SHALL** support a value precise to the *day*.</t>
+  </si>
+  <si>
+    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
+  </si>
+  <si>
+    <t>asserted-date</t>
+  </si>
+  <si>
+    <t>recorded-date</t>
+  </si>
+  <si>
+    <t>abatement-date</t>
+  </si>
+  <si>
+    <t>support searching for all encounter diagnosis for a patient for an encounter</t>
+  </si>
+  <si>
+    <t>DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>support searching a careteam by participant role</t>
+  </si>
+  <si>
+    <t>authored</t>
+  </si>
+  <si>
+    <t>support fetching a ServiceRequest</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest/1032702~GET [base]/ServiceRequest?_id=1032702</t>
+  </si>
+  <si>
+    <t>support fetching a RelatedPerson</t>
+  </si>
+  <si>
+    <t>GET [base]/RelatedPerson/shaw-niece~GET [base]/RelatedPerson?_id=shaw-niece</t>
+  </si>
+  <si>
+    <t>patient,location</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=1137192&amp;location=Location/hospital</t>
+  </si>
+  <si>
+    <t>patient,discharge-disposition</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=example1&amp;discharge-disposition=01</t>
+  </si>
+  <si>
+    <t>patient,category,encounter</t>
+  </si>
+  <si>
+    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis?encounter=1036</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Condition resources for the specified patient and category and encounter. When category = "encounter-diagnosis" will return the encounter diagnosis for the encounter.</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;onset-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>patient,asserted-date</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;asserted-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>patient,recorded-date</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;recorded-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>patient,abatement-date</t>
+  </si>
+  <si>
+    <t>GET [base]Condition?patient=555580&amp;abatement-date=ge2018-01-14</t>
+  </si>
+  <si>
+    <t>support searching for all current care team members for a patient. DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/CareTeam?patient=1137192&amp;status=active~GET [base]/CareTeam?patient=1137192&amp;status=active&amp;_include=CareTeam:participant:RelatedPerson&amp;_include=CareTeam:participant:Patient&amp;_include=CareTeam:participant:Practitioner&amp;_include=CareTeam:participant:PractitionerRole</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CareTeam resources for the specified patient and status =`active` and may include CareTeam Patient, RelatedPerson and Practitioner and PractitionerRole participants.  
+To get Practitioner name and identifier using PractitionerRole:  
+1) Search for the careteam PractitionerRole: GET [base]/CareTeam?patient=[id]&amp;status=active&amp;_include=CareTeam:participant:PractitionerRole  
+2) using the FHIR _id from the PractitionerRole.practitioner element resource,  fetch the Practitioner resources using  GET [base]/Practitioner?_id=[id]</t>
+  </si>
+  <si>
+    <t>patient,role</t>
+  </si>
+  <si>
+    <t>support searching for all current care team member roles for a patient. DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/CareTeam?patient=1137192&amp;role=http://snomed.info/sct\|17561000</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CareTeam resources for the specified patient and participant role</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=1137192&amp;status=completed</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=1032702&amp;code=http://snomed.info/sct\|35637008</t>
+  </si>
+  <si>
+    <t>patient,category,authored</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2&amp;date=ge2010-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>patient,code,authored</t>
+  </si>
+  <si>
+    <t>support searching for reports by code and date DOES THIS DO ANYTHING!!!!</t>
+  </si>
+  <si>
+    <t>GET [base]/ServiceRequest?patient=f201&amp;code=http://snomed.info/sct\|35637008&amp;date=ge2019-01-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>patient,description</t>
+  </si>
+  <si>
+    <t>support searching for all goals for a patient by date DOES THIS DO ANYTHING!!!</t>
+  </si>
+  <si>
+    <t>GET [base]/Goal?patient=1137192&amp;description=http://snomed.info/sct\|1078229009</t>
+  </si>
+  <si>
+    <t>Documents/FHIR/US-Core/input/</t>
+  </si>
+  <si>
+    <t>HL7 International - Cross-Group Projects</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/cgp</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-direct</t>
+  </si>
+  <si>
+    <t>US Core Direct email Extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-race</t>
+  </si>
+  <si>
+    <t>US Core Race Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex</t>
+  </si>
+  <si>
+    <t>US Core Birth Sex Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity</t>
+  </si>
+  <si>
+    <t>US Core Gender Identity Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity</t>
+  </si>
+  <si>
+    <t>US Core Ethnicity Extension</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-extension-questionnaire-uri</t>
+  </si>
+  <si>
+    <t>US Core Extension Questionnaire URI</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sdoh-assessment</t>
+  </si>
+  <si>
+    <t>US Core Observation SDOH Assessment Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-social-history</t>
+  </si>
+  <si>
+    <t>US Core Observation Social History Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Sexual Orientation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-survey</t>
+  </si>
+  <si>
+    <t>US Core Observation Survey Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Imaging Result Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Clinical Test Result Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
+  </si>
+  <si>
+    <t>US Core QuestionnaireResponse Profile</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>US Core provides two ways to represent SDOH assessment screening results using: 
+1. Observation: [US Core Observation SDOH Assessment Profile] 
+1. QuestionnaireResponse: [US Core QuestionnaireResponse Profile]
+US Core Servers **SHALL** support [US Core Observation SDOH Assessment Profile] for SDOH Assessments and **MAY** support the [US Core QuestionnaireResponse Profile] for SDOH Assessments.</t>
+  </si>
+  <si>
+    <t>conf_QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse/AHC-HRSN-screening-example~GET [base]/QuestionnaireResponse/?_id=AHC-HRSN-screening-example</t>
+  </si>
+  <si>
+    <t>Allows retrieving QuestionnaireResponses that are complete (or incomplete)</t>
+  </si>
+  <si>
+    <t>_tag</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.meta._tag</t>
+  </si>
+  <si>
+    <t>Allows filtering for QuestionnaireResponse that have tag of “sdoh”</t>
+  </si>
+  <si>
+    <t>Allows filtering for QuestionnaireResponses by when they were created/last edited</t>
+  </si>
+  <si>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>Allows retrieving QuestionnaireResponses that have been completed against a specified form</t>
+  </si>
+  <si>
+    <t>combo description field ...DOES THIS DO ANYTHING?</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=1137192&amp;status=completed</t>
+  </si>
+  <si>
+    <t>patient,_tag</t>
+  </si>
+  <si>
+    <t>_tag=sdoh</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=1137192&amp;_tag=sdoh</t>
+  </si>
+  <si>
+    <t>patient,authored</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;date=ge2021</t>
+  </si>
+  <si>
+    <t>patient,_tag,authored</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;date=ge2021&amp;_tag=sdoh</t>
+  </si>
+  <si>
+    <t>patient,questionnaire</t>
+  </si>
+  <si>
+    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;questionnaire=http://hl7.org/fhir/us/sdoh-clinicalcare/Questionnaire/SDOHCC-QuestionnaireHungerVitalSign</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core//StructureDefinition/us-core-condition-encounter-diagnosis</t>
+  </si>
+  <si>
+    <t>US Core Condition Encounter Diagnosis Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core//StructureDefinition/us-core-condition-problems-health-concerns</t>
+  </si>
+  <si>
+    <t>US Core Condition Problems and Health Concerns Profile</t>
+  </si>
+  <si>
+    <t>The US Core Client **SHALL**:
+1. Support fetching and querying of one or more US Core profile(s), using the supported RESTful interactions and search parameters declared in the US Core Server CapabilityStatement.
+1. Follow the requirements documented in the [General Requirements](general-requirements.html) and [Must Support](must-support.html) pages</t>
+  </si>
+  <si>
+    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.</t>
   </si>
   <si>
     <t>In order to access care team member's names, identifiers, locations, and contact information, the CareTeam profile supports several types of care team participants. They are represented as references to other profiles and include the following four profiles which are marked as must support:
@@ -1879,19 +2188,14 @@
   1. US Core RelatedPerson Profile
   * Although *both* US Core Practitioner Profile and US Core PractitionerRole are must support, the server system is not required to support both types of references (and `_include` search parameters), but **SHALL** support *at least* one of them.
   * The client application **SHALL** support all four profile references.
-  * Bacause the US Core PractitionerRole Profile supplies the provider's location and contact information and a reference to the Practitioner, server systems **SHOULD** reference it instead of the US Core Practitioner Profile. An example of how to access the practitioner name and identifier is shown in the quick start section below.
-  * Servers that supports only US Core Practitioner Profile **SHALL** provide implementation specific guidance how to access a provider's location and contact information using only the Practitioner resource.</t>
-  </si>
-  <si>
-    <t>SHOULD,SHOULD,SHOULD,SHOULD</t>
-  </si>
-  <si>
-    <t>CareTeam:participant:PractitionerRole,CareTeam:participant:Practitioner,CareTeam:participant:Patient,CareTeam:participant:RelatedPerson</t>
-  </si>
-  <si>
-    <t>* To search for an encounter diagnosis, query for Conditions that reference the Encounter of interest and have a category of `encounter-diagnosis`.
+  * Bacause the *US Core PractitionerRole Profile* supplies the provider's location and contact information and a reference to the Practitioner, server systems **SHOULD** reference it instead of the *US Core Practitioner Profile*.
+  * Servers that supports only *US Core Practitioner Profile* **SHALL** provide implementation specific guidance how to access a provider's location and contact information using only the Practitioner resource.</t>
+  </si>
+  <si>
+    <t>* For Encounter Diagnosis use the *US Core Condition Encounter Diagnosis Profile*.
     * When `Condition.category` is "encounter-diagnosis" the encounter, **SHOULD** be referenced in `Condition.encounter`.
-* See SDOH Guidance for more information when exchanging Social Determinants of Health (SDOH) Conditions/Health Concerns.
+* For Problems and Health Concerns use the *US Core Condition Problems and Health Concerns Profile*.
+    * When `Condition.category` is a "problems-list-item", the `Condition.clinicalStatus **SHOULD NOT** be unknown.
 * There is no single element in Condition that represents the date of diagnosis. It may be the assertedDate Extension, `Condition.onsetDate`, or `Condition.recordedDate`.
     * Although all three are marked as must support, the server is not required to support all.
 	* A server **SHALL** support `Condition.recordedDate`.
@@ -1899,374 +2203,109 @@
     * The client application **SHALL** support all three elements.</t>
   </si>
   <si>
-    <t>Diagnostic imaging results in visual images requiring interpretation and clinical test results/reports may also reference images as part of the report. DiagnosticReport resource can link to both DICOM imaging studies and binary images directly by referencing ImagingStudy in `DocumentReference.imagingStudy`, or Media  in`DocumentReference.media`.
-   *   Although both are marked as must support, the server system is not required to support both, but **SHALL** support at least one of these elements.
-   * The client application **SHALL** support both elements and target resources.</t>
-  </si>
-  <si>
-    <t>* Systems **SHOULD** support `Observation.effectivePeriod` to accurately represent tests that are collected over a period of time (for example, a 24-Hour Urine Collection test).
-* An Observation without a value, **SHALL** include a reason why the data is absent unless there are component observations, or references to other Observations that are grouped within it
-    * Systems that never provide an observation without a value are not required to support `Observation.dataAbsentReason`
-*  An `Observation.component` without a value, **SHALL** include a reason why the data is absent.
-    * Systems that never provide an component observation without a component value are not required to support `Observation.component.dataAbsentReason`.</t>
-  </si>
-  <si>
-    <t>conf_RelatedPerson</t>
-  </si>
-  <si>
-    <t>conf_ServiceRequest</t>
-  </si>
-  <si>
-    <t>is_new</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>discharge-disposition</t>
-  </si>
-  <si>
-    <t>A server **SHALL** support a value precise to the *day*.</t>
-  </si>
-  <si>
-    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, give, prefix, suffix, suffix, and/or text</t>
-  </si>
-  <si>
-    <t>asserted-date</t>
-  </si>
-  <si>
-    <t>recorded-date</t>
-  </si>
-  <si>
-    <t>abatement-date</t>
-  </si>
-  <si>
-    <t>support searching for all encounter diagnosis for a patient for an encounter</t>
-  </si>
-  <si>
-    <t>DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>support searching a careteam by participant role</t>
-  </si>
-  <si>
-    <t>authored</t>
-  </si>
-  <si>
-    <t>support fetching a ServiceRequest</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest/1032702~GET [base]/ServiceRequest?_id=1032702</t>
-  </si>
-  <si>
-    <t>support fetching a RelatedPerson</t>
-  </si>
-  <si>
-    <t>GET [base]/RelatedPerson/shaw-niece~GET [base]/RelatedPerson?_id=shaw-niece</t>
-  </si>
-  <si>
-    <t>patient,location</t>
-  </si>
-  <si>
-    <t>GET [base]/Encounter?patient=1137192&amp;location=Location/hospital</t>
-  </si>
-  <si>
-    <t>patient,discharge-disposition</t>
-  </si>
-  <si>
-    <t>GET [base]/Encounter?patient=example1&amp;discharge-disposition=01</t>
-  </si>
-  <si>
-    <t>patient,category,encounter</t>
-  </si>
-  <si>
-    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis?encounter=1036</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all Condition resources for the specified patient and category and encounter. When category = "encounter-diagnosis" will return the encounter diagnosis for the encounter.</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;onset-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>patient,asserted-date</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;asserted-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>patient,recorded-date</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;recorded-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>patient,abatement-date</t>
-  </si>
-  <si>
-    <t>GET [base]Condition?patient=555580&amp;abatement-date=ge2018-01-14</t>
-  </si>
-  <si>
-    <t>support searching for all current care team members for a patient. DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>GET [base]/CareTeam?patient=1137192&amp;status=active~GET [base]/CareTeam?patient=1137192&amp;status=active&amp;_include=CareTeam:participant:RelatedPerson&amp;_include=CareTeam:participant:Patient&amp;_include=CareTeam:participant:Practitioner&amp;_include=CareTeam:participant:PractitionerRole</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all CareTeam resources for the specified patient and status =`active` and may include CareTeam Patient, RelatedPerson and Practitioner and PractitionerRole participants.  
-To get Practitioner name and identifier using PractitionerRole:  
-1) Search for the careteam PractitionerRole: GET [base]/CareTeam?patient=[id]&amp;status=active&amp;_include=CareTeam:participant:PractitionerRole  
-2) using the FHIR _id from the PractitionerRole.practitioner element resource,  fetch the Practitioner resources using  GET [base]/Practitioner?_id=[id]</t>
-  </si>
-  <si>
-    <t>patient,role</t>
-  </si>
-  <si>
-    <t>support searching for all current care team member roles for a patient. DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>GET [base]/CareTeam?patient=1137192&amp;role=http://snomed.info/sct\|17561000</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all CareTeam resources for the specified patient and participant role</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=1137192&amp;status=completed</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=1032702&amp;code=http://snomed.info/sct\|35637008</t>
-  </si>
-  <si>
-    <t>patient,category,authored</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=f201&amp;category=http://loinc.org\|LG41762-2&amp;date=ge2010-01-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>patient,code,authored</t>
-  </si>
-  <si>
-    <t>support searching for reports by code and date DOES THIS DO ANYTHING!!!!</t>
-  </si>
-  <si>
-    <t>GET [base]/ServiceRequest?patient=f201&amp;code=http://snomed.info/sct\|35637008&amp;date=ge2019-01-14T00:00:00Z</t>
-  </si>
-  <si>
-    <t>patient,description</t>
-  </si>
-  <si>
-    <t>support searching for all goals for a patient by date DOES THIS DO ANYTHING!!!</t>
-  </si>
-  <si>
-    <t>GET [base]/Goal?patient=1137192&amp;description=http://snomed.info/sct\|1078229009</t>
-  </si>
-  <si>
-    <t>* The Encounter resource can represent a reason using either a code with `Encounter.reasonCode`, or a reference with `Encounter.reasonReference` to  Condition or other resource.
-   * Although both are marked as must support, the server systems are not required to support both a code and a reference, but they **SHALL** support *at least one* of these elements.
-   * The client application **SHALL** support both elements.
-   * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
-* The intent of this profile is to support *where the encounter occurred*.  The location address can be represented by either by the Location referenced by `Encounter.location.location` or indirectly through the Organization referenced by `Encounter.serviceProvider`.
-  * Although both are marked as must support, the server systems are not required to support both `Encounter.location.location` and `Encounter.serviceProvider`, but they **SHALL** support *at least one* of these elements.
-  * The client application **SHALL** support both elements.
-  * if using `Encounter.location.location` it **SHOULD** conform to US Core Location.  However, as a result of implementation feedback, it **MAY**  reference the base FHIR Location resource.  See this guidance on Referencing US Core Profiles</t>
-  </si>
-  <si>
-    <t>Documents/FHIR/US-Core/input/</t>
-  </si>
-  <si>
-    <t>HL7 International - Cross-Group Projects</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/cgp</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-direct</t>
-  </si>
-  <si>
-    <t>US Core Direct email Extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-race</t>
-  </si>
-  <si>
-    <t>US Core Race Extension</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex</t>
-  </si>
-  <si>
-    <t>US Core Birth Sex Extension</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity</t>
-  </si>
-  <si>
-    <t>US Core Gender Identity Extension</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity</t>
-  </si>
-  <si>
-    <t>US Core Ethnicity Extension</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-extension-questionnaire-uri</t>
-  </si>
-  <si>
-    <t>US Core Extension Questionnaire URI</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sdoh-assessment</t>
-  </si>
-  <si>
-    <t>US Core Observation SDOH Assessment Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-social-history</t>
-  </si>
-  <si>
-    <t>US Core Observation Social History Profile</t>
-  </si>
-  <si>
-    <t>US Core Observation Sexual Orientation Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-survey</t>
-  </si>
-  <si>
-    <t>US Core Observation Survey Profile</t>
-  </si>
-  <si>
-    <t>US Core Observation Imaging Result Profile</t>
-  </si>
-  <si>
-    <t>US Core Observation Clinical Test Result Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
-  </si>
-  <si>
-    <t>US Core QuestionnaireResponse Profile</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>US Core provides two ways to represent SDOH assessment screening results using: 
-1. Observation: [US Core Observation SDOH Assessment Profile] 
-1. QuestionnaireResponse: [US Core QuestionnaireResponse Profile]
-US Core Servers **SHALL** support [US Core Observation SDOH Assessment Profile] for SDOH Assessments and **MAY** support the [US Core QuestionnaireResponse Profile] for SDOH Assessments.</t>
-  </si>
-  <si>
-    <t>conf_QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse/AHC-HRSN-screening-example~GET [base]/QuestionnaireResponse/?_id=AHC-HRSN-screening-example</t>
-  </si>
-  <si>
-    <t>Allows retrieving QuestionnaireResponses that are complete (or incomplete)</t>
-  </si>
-  <si>
-    <t>_tag</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.meta._tag</t>
-  </si>
-  <si>
-    <t>Allows filtering for QuestionnaireResponse that have tag of “sdoh”</t>
-  </si>
-  <si>
-    <t>Allows filtering for QuestionnaireResponses by when they were created/last edited</t>
-  </si>
-  <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>Allows retrieving QuestionnaireResponses that have been completed against a specified form</t>
-  </si>
-  <si>
-    <t>combo description field ...DOES THIS DO ANYTHING?</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse?patient=1137192&amp;status=completed</t>
-  </si>
-  <si>
-    <t>patient,_tag</t>
-  </si>
-  <si>
-    <t>_tag=sdoh</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse?patient=1137192&amp;_tag=sdoh</t>
-  </si>
-  <si>
-    <t>patient,authored</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;date=ge2021</t>
-  </si>
-  <si>
-    <t>patient,_tag,authored</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;date=ge2021&amp;_tag=sdoh</t>
-  </si>
-  <si>
-    <t>patient,questionnaire</t>
-  </si>
-  <si>
-    <t>GET [base]/QuestionnaireResponse?patient=113192&amp;questionnaire=http://hl7.org/fhir/us/sdoh-clinicalcare/Questionnaire/SDOHCC-QuestionnaireHungerVitalSign</t>
-  </si>
-  <si>
     <t>* Implantable medical devices that have UDI information **SHALL** represent the UDI code in `Device.udiCarrier.carrierHRF`.
    - All of the five UDI-PI elements that are present in the UDI code **SHALL** be represented in the corresponding US Core Implantable Device Profile element.
    UDI may not be present in all scenarios such as historical implantable devices, patient reported implant information, payer reported devices, or improperly documented implants. If UDI is not present and the manufacturer and/or model number information is available, they **SHOULD** be included to support historical reports of implantable medical devices as follows:
    manufacturer -&gt; `Device.manufacturer`  
    model -&gt; `Device.model`  
-* Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.  
-* In the Quick Start section below, searching for all devices is described. Records of implanted devices **MAY** be queried against UDI data including:
-    - UDI HRF string (`udi-carrier`)
-    - UDI Device Identifier (`udi-di`)
-    - Manufacturer (`manufacturer`)
-    - Model number (`model`)
-  Implementers **MAY** also adopt custom SearchParameters for searching by:
-    - lot numbers
-    - serial number
-    - expiration date
-    - manufacture date
-    - distinct identifier</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core//StructureDefinition/us-core-condition-encounter-diagnosis</t>
-  </si>
-  <si>
-    <t>US Core Condition Encounter Diagnosis Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core//StructureDefinition/us-core-condition-problems-health-concerns</t>
-  </si>
-  <si>
-    <t>US Core Condition Problems and Health Concerns Profile</t>
-  </si>
-  <si>
-    <t>The US Core Client **SHALL**:
-1. Support fetching and querying of one or more US Core profile(s), using the supported RESTful interactions and search parameters declared in the US Core Server CapabilityStatement.
-1. Follow the requirements documented in the [General Requirements](general-requirements.html) and [Must Support](must-support.html) pages</t>
-  </si>
-  <si>
-    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.</t>
+* Servers **SHOULD** support query by Device.type to allow clients to request the patient's devices by a specific type. Note: The Device.type is too granular to differentiate implantable vs. non-implantable devices.</t>
+  </si>
+  <si>
+    <t>* The `DocumentReference.type` binding **SHALL** support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set
+* The DocumentReference resources can represent the referenced content using either an address where the document can be retrieved using `DocumentReference.attachment.url` or the content as inline base64 encoded data using `DocumentReference.attachment.data`.
+    *  Although both are marked as must support, the server system is not required to support both an address and inline base64 encoded data, but **SHALL** support at least one of these elements.
+    *  The client application **SHALL** support both elements.
+    *  The `content.url` may refer to a FHIR Binary Resource (i.e. [base]/Binary/[id]), FHIR Document Bundle (i.e [base]/Bundle/[id] or other endpoint.
+        * If the endpoint is outside of the FHIR base URL, it **SHOULD NOT** require additional authorization to access.
+* The organization responsible for the DocumentReference **SHALL** be present either in `DocumentReference.custodian` or accessible in the Provenance resource targeting the DocumentReference using `Provenance.agent.who` or `Provenance.agent.onBehalfOf`.</t>
+  </si>
+  <si>
+    <t>* The Encounter resource can represent a reason using either a code with `Encounter.reasonCode`, or a reference with `Encounter.reasonReference` to  Condition or other resource.
+   * Although both are marked as must support, the server systems are not required to support both a code and a reference, but they **SHALL** support *at least one* of these elements.
+   * The client application **SHALL** support both elements.
+   * if `Encounter.reasonReference` references an Observation, it **SHOULD** conform to a US Core Observation if applicable. (for example, a laboratory result should conform to the US Core Laboratory Result Observation Profile)
+* The location address can be represented by either by the Location referenced by `Encounter.location.location` or indirectly through the Organization referenced by `Encounter.serviceProvider`.
+   * Although both are marked as must support, the server systems are not required to support both `Encounter.location.location` and `Encounter.serviceProvider`, but they **SHALL** support *at least one* of these elements.
+   * The client application **SHALL** support both elements.
+   * if using `Encounter.location.location` it **SHOULD** conform to US Core Location.</t>
+  </si>
+  <si>
+    <t>* Based upon the ONC U.S. Core Data for Interoperability (USCDI) requirements, CVX vaccine codes are required and the NDC vaccine codes **SHOULD** be supported as translations to them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Systems **SHOULD** support `Observation.effectivePeriod` to accurately represent tests that are collected over a period of time (for example, a 24-Hour Urine Collection test).
+* An Observation without a value, **SHALL** include a reason why the data is absent unless there are component observations, or references to other Observations that are grouped within it
+    * Systems that never provide an observation without a value are not required to support `Observation.dataAbsentReason`
+*  An `Observation.component` without a value, **SHALL** include a reason why the data is absent.
+    * Systems that never provide an component observation without a component value are not required to support `Observation.component.dataAbsentReason`.
+* Systems **SHOULD** support `Observation.effectivePeriod` to accurately represent procedure tests that are collected over a period of time.
+</t>
+  </si>
+  <si>
+    <t>* Systems **SHALL** support National Provider Identifier (NPI) for organizations and **SHOULD** support Clinical Laboratory Improvement Amendments (CLIA) identifiers for `Organization.Identifier`.</t>
+  </si>
+  <si>
+    <t>* For ONC's USCDI requirements, each Patient must support the following additional elements. These elements are included in the formal definition of the profile. The patient examples include all of these elements.
+  1. contact detail (e.g. a telephone number or an email address)
+  1. a communication language
+  1. a race
+  1. an ethnicity
+  1. a birth sex*
+  1. previous name
+     - Previous name is represented by providing an end date in the `Patient.name.period` element for a previous name.
+  1. suffix
+     - Suffix is represented using the `Patient.name.suffix` element.
+* The Patient's Social Security Numbers **SHOULD NOT** be used as a patient identifier in `Patient.identifier.value`.</t>
+  </si>
+  <si>
+    <t>* Procedure codes can be taken from SNOMED-CT, CPT, HCPCS II, ICD-10-PCS, CDT. LOINC.
+  * Only LOINC concepts that reflect actual procedures **SHOULD** be used
+* A procedure including an implantable device **SHOULD** use `Procedure.focalDevice` with a reference to the *US Core Implantable Device Profile*.</t>
+  </si>
+  <si>
+    <t>* The US Core Provenance resource **SHALL** be supported for these US Core
+resources:
+  * US Core CarePlan Profile
+  * US Core DiagnosticReport Profile for Laboratory Results Reporting
+  * US Core Encounter Profile
+  * US Core Observation Sexual Orientation Profile
+  * US Core Head Circumference Profile
+  * US Core ServiceRequest Profile
+  * US Core Vital Signs Profile
+  * US Core DiagnosticReport Profile for Report and Note Exchange
+  * US Core Implantable Device Profile
+  * US Core Observation Imaging Result Profile
+  * US Core CareTeam Profile
+  * US Core Pulse Oximetry Profile
+  * US Core BMI Profile
+  * US Core Blood Pressure Profile
+  * US Core Body Weight Profile
+  * US Core RelatedPerson Profile
+  * US Core Pediatric BMI for Age Observation Profile
+  * US Core MedicationRequest Profile
+  * US Core Condition Encounter Diagnosis Profile
+  * US Core Pediatric Head Occipital-frontal Circumference Percentile Profile
+  * US Core Procedure Profile
+  * US Core Laboratory Result Observation Profile
+  * US Core Body Height Profile
+  * US Core Observation SDOH Assessment Profile
+  * US Core Observation Survey Profile
+  * US Core Body Temperature Profile
+  * US Core Condition Problems and Health Concerns Profile
+  * US Core Pediatric Weight for Height Observation Profile
+  * US Core Goal Profile
+  * US Core AllergyIntolerance Profile
+  * US Core Immunization Profile
+  * US Core Observation Social History Profile
+  * US Core Heart Rate Profile
+  * US Core Smoking Status Observation Profile
+  * US Core Patient Profile
+  * US Core QuestionnaireResponse Profile
+  * US Core Respiratory Rate Profile
+  * US Core Observation Clinical Test Result Profile
+  * US Core DocumentReference Profile
+* If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.
+* Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
   </si>
 </sst>
 </file>
@@ -2829,34 +2868,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2864,12 +2903,12 @@
         <v>63</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>55</v>
@@ -2877,15 +2916,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2954,7 +2993,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>30</v>
@@ -2978,19 +3017,19 @@
         <v>44</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>45</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>46</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>47</v>
@@ -3176,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3384,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3433,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3491,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3541,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3589,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3700,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3750,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3804,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3861,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3910,7 +3949,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -3919,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3977,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4027,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4068,7 +4107,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -4077,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4177,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4224,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4270,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4362,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4442,7 +4481,7 @@
         <v>51</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>168</v>
@@ -4795,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4840,7 +4879,7 @@
         <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -4849,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4894,7 +4933,7 @@
         <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>28</v>
@@ -4903,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4948,7 +4987,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>28</v>
@@ -4957,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5011,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5052,7 +5091,7 @@
         <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>28</v>
@@ -5061,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5087,7 +5126,7 @@
         <v>51</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="Z42" s="5" t="str">
         <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
@@ -5119,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5178,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5228,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5335,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5388,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5447,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5497,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5547,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5601,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5654,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5707,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G54" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
@@ -5766,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5816,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5869,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5923,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5973,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6023,7 +6062,7 @@
         <v>175</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>28</v>
@@ -6032,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6086,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6130,7 +6169,7 @@
         <v>176</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>28</v>
@@ -6139,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6192,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6234,7 +6273,7 @@
         <v>176</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>28</v>
@@ -6243,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6294,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6336,7 +6375,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>57</v>
@@ -6348,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6389,7 +6428,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>85</v>
@@ -6401,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6447,7 +6486,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>223</v>
@@ -6459,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6513,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6566,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6624,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6678,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6731,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" ref="G73:G103" si="14">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B73)</f>
@@ -6784,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6834,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6887,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="14"/>
@@ -6941,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7000,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7050,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G79" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7100,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G80" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7154,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G81" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7213,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G82" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7266,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G83" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7292,7 +7331,7 @@
         <v>51</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="Y83" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B83)&amp;"s for a patient"</f>
@@ -7359,7 +7398,7 @@
         <v>GET [base]/Practitioner/practitioner-1~GET [base]/Practitioner?_id=practitioner-1</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="AB84" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B84)&amp;"-"&amp;SUBSTITUTE(C84,"_","")&amp;".html")</f>
@@ -7383,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G85" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7427,7 +7466,7 @@
         <v>243</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -7436,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G86" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7465,7 +7504,7 @@
         <v>51</v>
       </c>
       <c r="Y86" s="5" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="Z86" s="5" t="str">
         <f>"GET [base]/"&amp;B86&amp;"?"&amp;C86&amp;"=http://snomed.info/sct\|17561000"</f>
@@ -7494,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G87" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B87)</f>
@@ -7553,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G88" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B88)</f>
@@ -8206,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G100" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8264,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G101" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8325,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G102" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8377,7 +8416,7 @@
         <v>49</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>57</v>
@@ -8389,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G103" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8430,7 +8469,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>85</v>
@@ -8442,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G104" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B104)</f>
@@ -8489,7 +8528,7 @@
         <v>51</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>135</v>
@@ -8501,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G105" s="1" t="str">
         <f t="shared" ref="G105:G117" si="22">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B105)</f>
@@ -8539,7 +8578,7 @@
         <v>52</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>24</v>
@@ -8551,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G106" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8592,10 +8631,10 @@
         <v>53</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>28</v>
@@ -8604,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G107" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8646,7 +8685,7 @@
         <v>20</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>50</v>
@@ -8681,10 +8720,10 @@
         <v>51</v>
       </c>
       <c r="Y108" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="Z108" s="5" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="AB108" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B108)&amp;"-"&amp;SUBSTITUTE(C108,"_","")&amp;".html")</f>
@@ -8742,7 +8781,7 @@
         <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>50</v>
@@ -8777,10 +8816,10 @@
         <v>51</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="Z110" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="AA110" s="10"/>
       <c r="AB110" s="1" t="str">
@@ -8793,7 +8832,7 @@
         <v>79</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>85</v>
@@ -8805,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G111" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8852,7 +8891,7 @@
         <v>80</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>50</v>
@@ -8891,7 +8930,7 @@
         <v>support fetching a QuestionnaireResponse</v>
       </c>
       <c r="Z112" s="5" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="AB112" s="1" t="str">
         <f t="shared" ref="AB112:AB117" si="25">"SearchParameter-us-core-"&amp;LOWER((B112)&amp;"-"&amp;SUBSTITUTE(C112,"_","")&amp;".html")</f>
@@ -8903,7 +8942,7 @@
         <v>81</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>85</v>
@@ -8915,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G113" s="1" t="str">
         <f t="shared" si="22"/>
@@ -8962,7 +9001,7 @@
         <v>82</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>57</v>
@@ -8974,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G114" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9003,7 +9042,7 @@
         <v>51</v>
       </c>
       <c r="Y114" s="21" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="AB114" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9015,10 +9054,10 @@
         <v>83</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>28</v>
@@ -9027,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G115" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9043,7 +9082,7 @@
         <v>52</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>51</v>
@@ -9052,7 +9091,7 @@
         <v>51</v>
       </c>
       <c r="Y115" s="21" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="AB115" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9064,10 +9103,10 @@
         <v>84</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>28</v>
@@ -9076,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G116" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9108,7 +9147,7 @@
         <v>88</v>
       </c>
       <c r="Y116" s="21" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="AB116" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9120,10 +9159,10 @@
         <v>85</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>28</v>
@@ -9132,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G117" s="1" t="str">
         <f t="shared" si="22"/>
@@ -9158,7 +9197,7 @@
         <v>51</v>
       </c>
       <c r="Y117" s="21" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="AB117" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9180,7 +9219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
@@ -9214,7 +9253,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>92</v>
@@ -9544,7 +9583,7 @@
         <v>299</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9644,7 +9683,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>65</v>
@@ -9656,7 +9695,7 @@
         <v>300</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9732,7 +9771,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>65</v>
@@ -9744,7 +9783,7 @@
         <v>305</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10156,7 +10195,7 @@
         <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>150</v>
@@ -10192,7 +10231,7 @@
         <v>145</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>141</v>
@@ -10210,7 +10249,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>65</v>
@@ -10222,10 +10261,10 @@
         <v>145</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -10282,7 +10321,7 @@
         <v>148</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>151</v>
@@ -10300,7 +10339,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>65</v>
@@ -10312,7 +10351,7 @@
         <v>148</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>151</v>
@@ -10330,7 +10369,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>65</v>
@@ -10342,7 +10381,7 @@
         <v>148</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>151</v>
@@ -10360,7 +10399,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>65</v>
@@ -10372,7 +10411,7 @@
         <v>148</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>151</v>
@@ -10405,7 +10444,7 @@
         <v>320</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -10432,7 +10471,7 @@
         <v>162</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified "&amp;SUBSTITUTE(D44,","," and ")</f>
@@ -10589,7 +10628,7 @@
         <v>190</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
@@ -10619,7 +10658,7 @@
         <v>221</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10739,7 +10778,7 @@
         <v>196</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K54" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B54&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
@@ -10769,7 +10808,7 @@
         <v>215</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K55" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B55&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10819,7 +10858,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>65</v>
@@ -10831,7 +10870,7 @@
         <v>202</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K57" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B57&amp;" resources for the specified "&amp;SUBSTITUTE(D57,","," and ")</f>
@@ -10850,7 +10889,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>11</v>
@@ -10859,16 +10898,16 @@
         <v>101</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="J58" s="5" t="s">
+      <c r="K58" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -10883,7 +10922,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>11</v>
@@ -10892,16 +10931,16 @@
         <v>101</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>180</v>
       </c>
       <c r="J59" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -10916,7 +10955,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>65</v>
@@ -10925,16 +10964,16 @@
         <v>101</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>180</v>
       </c>
       <c r="J60" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="K60" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -10949,7 +10988,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>65</v>
@@ -10958,16 +10997,16 @@
         <v>213</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>225</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -10975,7 +11014,7 @@
         <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10994,7 +11033,7 @@
         <v>182</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified "&amp;SUBSTITUTE(D62,","," and ")</f>
@@ -11007,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11026,7 +11065,7 @@
         <v>226</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>228</v>
@@ -11118,7 +11157,7 @@
         <v>222</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K66" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
@@ -11133,7 +11172,7 @@
         <v>178</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>232</v>
@@ -11145,13 +11184,13 @@
         <v>101</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>275</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>316</v>
@@ -11165,7 +11204,7 @@
         <v>178</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>140</v>
@@ -11177,13 +11216,13 @@
         <v>101</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>216</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K68" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B68&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -11198,7 +11237,7 @@
         <v>178</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>142</v>
@@ -11228,7 +11267,7 @@
         <v>178</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>189</v>
@@ -11240,13 +11279,13 @@
         <v>213</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>220</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K70" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -11261,7 +11300,7 @@
         <v>178</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>214</v>
@@ -11276,7 +11315,7 @@
         <v>218</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K71" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B71&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -11291,7 +11330,7 @@
         <v>315</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>111</v>
@@ -11372,7 +11411,7 @@
         <v>236</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>240</v>
@@ -11436,7 +11475,7 @@
         <v>235</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>242</v>
@@ -11466,13 +11505,13 @@
         <v>306</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -11516,7 +11555,7 @@
         <v>178</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>232</v>
@@ -11528,13 +11567,13 @@
         <v>101</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>274</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K79" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ")</f>
@@ -11549,7 +11588,7 @@
         <v>178</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>140</v>
@@ -11561,13 +11600,13 @@
         <v>101</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>273</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K80" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B80&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -11582,7 +11621,7 @@
         <v>178</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>142</v>
@@ -11594,7 +11633,7 @@
         <v>101</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>276</v>
@@ -11615,7 +11654,7 @@
         <v>178</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>189</v>
@@ -11627,13 +11666,13 @@
         <v>213</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>278</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K82" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -11648,7 +11687,7 @@
         <v>178</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>214</v>
@@ -11663,7 +11702,7 @@
         <v>279</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
@@ -11790,7 +11829,7 @@
         <v>291</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>293</v>
@@ -11850,7 +11889,7 @@
         <v>296</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K89" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -11865,7 +11904,7 @@
         <v>244</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>113</v>
@@ -11898,7 +11937,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>65</v>
@@ -11907,13 +11946,13 @@
         <v>101</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -11921,10 +11960,10 @@
         <v>56</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>111</v>
@@ -11939,7 +11978,7 @@
         <v>298</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="K92" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources for the specified "&amp;SUBSTITUTE(D92,","," and ")</f>
@@ -11951,10 +11990,10 @@
         <v>57</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>140</v>
@@ -11969,7 +12008,7 @@
         <v>193</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="K93" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient and  a category code"</f>
@@ -11981,10 +12020,10 @@
         <v>58</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>142</v>
@@ -11999,7 +12038,7 @@
         <v>194</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="K94" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -12011,13 +12050,13 @@
         <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>11</v>
@@ -12029,7 +12068,7 @@
         <v>196</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="K95" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient and date and a category code"</f>
@@ -12041,13 +12080,13 @@
         <v>60</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>65</v>
@@ -12056,10 +12095,10 @@
         <v>213</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="K96" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B96&amp;" resources for the specified patient and date and service code(s).  SHOULD support search by multiple report codes."</f>
@@ -12078,7 +12117,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>11</v>
@@ -12087,10 +12126,10 @@
         <v>101</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="K97" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B97&amp;" resources for the specified "&amp;SUBSTITUTE(D97,","," and ")</f>
@@ -12102,10 +12141,10 @@
         <v>65</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>111</v>
@@ -12117,10 +12156,10 @@
         <v>101</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="K98" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B98&amp;" resources for the specified "&amp;SUBSTITUTE(D98,","," and ")</f>
@@ -12132,13 +12171,13 @@
         <v>66</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>65</v>
@@ -12147,13 +12186,13 @@
         <v>101</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="K99" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B99&amp;" resources for the specified "&amp;SUBSTITUTE(D99,","," and  ") &amp; "= 'sdoh'"</f>
@@ -12165,13 +12204,13 @@
         <v>67</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>65</v>
@@ -12180,10 +12219,10 @@
         <v>144</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="K100" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B100&amp;" resources for the specified patient and date"</f>
@@ -12195,13 +12234,13 @@
         <v>68</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>65</v>
@@ -12210,13 +12249,13 @@
         <v>213</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="K101" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B101&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
@@ -12228,13 +12267,13 @@
         <v>69</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>65</v>
@@ -12243,10 +12282,10 @@
         <v>86</v>
       </c>
       <c r="I102" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J102" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="K102" s="1" t="str">
         <f>"Fetches a bundle of all "&amp;B102&amp;" resources for the specified patient that have been completed against a specified form."</f>
@@ -12268,7 +12307,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12290,15 +12329,15 @@
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12314,7 +12353,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12330,7 +12369,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12338,36 +12377,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>65</v>
@@ -12397,7 +12436,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>55</v>
@@ -12408,13 +12447,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>65</v>
@@ -12422,13 +12461,13 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
@@ -12460,16 +12499,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>55</v>
@@ -12483,13 +12522,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -12581,10 +12620,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -12596,10 +12635,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -12611,10 +12650,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -12674,7 +12713,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>360</v>
@@ -12690,96 +12729,96 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -12866,10 +12905,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -12882,10 +12921,10 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -12896,10 +12935,10 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -12910,10 +12949,10 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -12924,10 +12963,10 @@
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -12938,10 +12977,10 @@
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -12952,10 +12991,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -12968,10 +13007,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -12998,10 +13037,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -13014,10 +13053,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -13030,10 +13069,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -13046,10 +13085,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -13062,10 +13101,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -13078,10 +13117,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -13094,10 +13133,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -13110,10 +13149,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -13126,10 +13165,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -13142,10 +13181,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -13158,10 +13197,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -13174,10 +13213,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
@@ -13270,64 +13309,64 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -13348,11 +13387,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13372,7 +13411,7 @@
     <col min="26" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -13386,7 +13425,7 @@
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -13437,19 +13476,19 @@
         <v>400</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="23" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -13460,19 +13499,19 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="T2" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="163" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>229</v>
       </c>
@@ -13480,22 +13519,22 @@
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y3" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="279" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>243</v>
       </c>
@@ -13503,28 +13542,28 @@
         <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>563</v>
+        <v>667</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y4" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>133</v>
       </c>
@@ -13532,22 +13571,22 @@
         <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>566</v>
+        <v>668</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y5" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>244</v>
       </c>
@@ -13555,68 +13594,66 @@
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>567</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="T7" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>403</v>
+      <c r="C8" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y8" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -13624,22 +13661,22 @@
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y9" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -13647,19 +13684,19 @@
         <v>65</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y10" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -13667,22 +13704,22 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>493</v>
+        <v>672</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y11" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>245</v>
       </c>
@@ -13690,10 +13727,10 @@
         <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>65</v>
@@ -13701,7 +13738,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
     </row>
-    <row r="13" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>349</v>
       </c>
@@ -13709,10 +13746,10 @@
         <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>65</v>
@@ -13720,7 +13757,7 @@
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
@@ -13728,10 +13765,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>65</v>
@@ -13743,24 +13780,24 @@
         <v>203</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y14" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>65</v>
@@ -13772,13 +13809,13 @@
         <v>390</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y15" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>178</v>
       </c>
@@ -13786,30 +13823,33 @@
         <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>568</v>
+        <v>673</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y16" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>674</v>
+      </c>
       <c r="T17" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>65</v>
@@ -13817,7 +13857,7 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
     </row>
-    <row r="18" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -13825,22 +13865,22 @@
         <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>498</v>
+        <v>675</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y18" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>262</v>
       </c>
@@ -13848,7 +13888,7 @@
         <v>65</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>65</v>
@@ -13856,7 +13896,7 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
     </row>
-    <row r="20" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>264</v>
       </c>
@@ -13864,16 +13904,16 @@
         <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>268</v>
@@ -13881,7 +13921,7 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
     </row>
-    <row r="21" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>177</v>
       </c>
@@ -13889,33 +13929,33 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>499</v>
+        <v>676</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y21" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>500</v>
+        <v>677</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>65</v>
@@ -13923,81 +13963,81 @@
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X23" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y23" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="U24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X24" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y24" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X25" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y25" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="22:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
     </row>
-    <row r="62" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="22:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y62" s="7"/>
     </row>
   </sheetData>
@@ -14056,24 +14096,24 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -14124,7 +14164,7 @@
         <v>367</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>368</v>
@@ -14157,7 +14197,7 @@
         <v>377</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>378</v>
@@ -14175,19 +14215,19 @@
         <v>382</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -14210,7 +14250,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -14912,12 +14952,12 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -14926,7 +14966,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
@@ -14935,7 +14975,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
@@ -14944,7 +14984,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE58424-A49E-D444-B376-6E7F5F1083EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FBD953-0309-1043-954F-247D85F70394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -2161,13 +2161,7 @@
     <t>GET [base]/QuestionnaireResponse?patient=113192&amp;questionnaire=http://hl7.org/fhir/us/sdoh-clinicalcare/Questionnaire/SDOHCC-QuestionnaireHungerVitalSign</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core//StructureDefinition/us-core-condition-encounter-diagnosis</t>
-  </si>
-  <si>
     <t>US Core Condition Encounter Diagnosis Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core//StructureDefinition/us-core-condition-problems-health-concerns</t>
   </si>
   <si>
     <t>US Core Condition Problems and Health Concerns Profile</t>
@@ -2306,6 +2300,12 @@
   * US Core DocumentReference Profile
 * If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.
 * Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-encounter-diagnosis</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns</t>
   </si>
 </sst>
 </file>
@@ -12369,7 +12369,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12377,7 +12377,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -12543,8 +12543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12620,10 +12620,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -12635,10 +12635,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -13387,11 +13387,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13542,7 +13542,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>557</v>
@@ -13571,7 +13571,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>557</v>
@@ -13594,7 +13594,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>557</v>
@@ -13638,7 +13638,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>557</v>
@@ -13661,7 +13661,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>557</v>
@@ -13704,7 +13704,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>557</v>
@@ -13823,7 +13823,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>557</v>
@@ -13846,7 +13846,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>557</v>
@@ -13865,7 +13865,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>557</v>
@@ -13929,7 +13929,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>557</v>
@@ -13952,7 +13952,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>557</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9458C636-72DD-394D-A39B-6F2E9A938F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C494EE-163D-9F43-ABB9-E84FC788AEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -2014,9 +2014,6 @@
     <t>http://www.hl7.org/Special/committees/cgp</t>
   </si>
   <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
-  </si>
-  <si>
     <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-direct</t>
   </si>
   <si>
@@ -2307,12 +2304,15 @@
 * If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.
 * Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2414,13 +2414,33 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2456,11 +2476,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2492,9 +2514,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8885,7 +8911,7 @@
         <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C112" t="s">
         <v>50</v>
@@ -8924,7 +8950,7 @@
         <v>support fetching a QuestionnaireResponse</v>
       </c>
       <c r="Z112" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AB112" t="str">
         <f t="shared" ref="AB112:AB117" si="25">"SearchParameter-us-core-"&amp;LOWER((B112)&amp;"-"&amp;SUBSTITUTE(C112,"_","")&amp;".html")</f>
@@ -8936,7 +8962,7 @@
         <v>81</v>
       </c>
       <c r="B113" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C113" t="s">
         <v>85</v>
@@ -8995,7 +9021,7 @@
         <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C114" t="s">
         <v>57</v>
@@ -9036,7 +9062,7 @@
         <v>51</v>
       </c>
       <c r="Y114" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AB114" t="str">
         <f t="shared" si="25"/>
@@ -9048,10 +9074,10 @@
         <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C115" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D115" t="s">
         <v>28</v>
@@ -9076,16 +9102,16 @@
         <v>52</v>
       </c>
       <c r="L115" t="s">
+        <v>643</v>
+      </c>
+      <c r="M115" t="s">
+        <v>51</v>
+      </c>
+      <c r="O115" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y115" s="20" t="s">
         <v>644</v>
-      </c>
-      <c r="M115" t="s">
-        <v>51</v>
-      </c>
-      <c r="O115" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y115" s="20" t="s">
-        <v>645</v>
       </c>
       <c r="AB115" t="str">
         <f t="shared" si="25"/>
@@ -9097,7 +9123,7 @@
         <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C116" t="s">
         <v>573</v>
@@ -9141,7 +9167,7 @@
         <v>88</v>
       </c>
       <c r="Y116" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AB116" t="str">
         <f t="shared" si="25"/>
@@ -9153,10 +9179,10 @@
         <v>85</v>
       </c>
       <c r="B117" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C117" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D117" t="s">
         <v>28</v>
@@ -9191,7 +9217,7 @@
         <v>51</v>
       </c>
       <c r="Y117" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AB117" t="str">
         <f t="shared" si="25"/>
@@ -12133,10 +12159,10 @@
         <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D98" t="s">
         <v>111</v>
@@ -12148,10 +12174,10 @@
         <v>101</v>
       </c>
       <c r="I98" t="s">
+        <v>648</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="K98" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B98&amp;" resources for the specified "&amp;SUBSTITUTE(D98,","," and ")</f>
@@ -12163,13 +12189,13 @@
         <v>66</v>
       </c>
       <c r="B99" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D99" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F99" t="s">
         <v>65</v>
@@ -12178,13 +12204,13 @@
         <v>101</v>
       </c>
       <c r="H99" t="s">
+        <v>651</v>
+      </c>
+      <c r="I99" t="s">
+        <v>648</v>
+      </c>
+      <c r="J99" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="I99" t="s">
-        <v>649</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="K99" t="str">
         <f>"Fetches a bundle of all "&amp;B99&amp;" resources for the specified "&amp;SUBSTITUTE(D99,","," and  ") &amp; "= 'sdoh'"</f>
@@ -12196,13 +12222,13 @@
         <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D100" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F100" t="s">
         <v>65</v>
@@ -12211,10 +12237,10 @@
         <v>144</v>
       </c>
       <c r="I100" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K100" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B100&amp;" resources for the specified patient and date"</f>
@@ -12226,13 +12252,13 @@
         <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F101" t="s">
         <v>65</v>
@@ -12241,13 +12267,13 @@
         <v>213</v>
       </c>
       <c r="H101" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I101" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K101" t="str">
         <f>"Fetches a bundle of all "&amp;B101&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
@@ -12259,13 +12285,13 @@
         <v>69</v>
       </c>
       <c r="B102" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F102" t="s">
         <v>65</v>
@@ -12274,10 +12300,10 @@
         <v>86</v>
       </c>
       <c r="I102" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K102" t="str">
         <f>"Fetches a bundle of all "&amp;B102&amp;" resources for the specified patient that have been completed against a specified form."</f>
@@ -12361,7 +12387,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12369,7 +12395,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12534,7 +12560,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12607,10 +12633,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -12621,10 +12647,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -12690,8 +12716,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>613</v>
+      <c r="A11" s="22" t="s">
+        <v>677</v>
       </c>
       <c r="B11" t="s">
         <v>360</v>
@@ -12703,88 +12729,88 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="B12" t="s">
         <v>614</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>615</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="B13" t="s">
         <v>617</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="B14" t="s">
         <v>619</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="B15" t="s">
         <v>621</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="B16" t="s">
         <v>623</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="B17" t="s">
         <v>625</v>
       </c>
-      <c r="B17" t="s">
-        <v>626</v>
-      </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -12873,10 +12899,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="B24" t="s">
         <v>627</v>
-      </c>
-      <c r="B24" t="s">
-        <v>628</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -12901,10 +12927,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="B26" t="s">
         <v>629</v>
-      </c>
-      <c r="B26" t="s">
-        <v>630</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -12988,7 +13014,7 @@
         <v>545</v>
       </c>
       <c r="B32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -13041,10 +13067,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="B36" t="s">
         <v>632</v>
-      </c>
-      <c r="B36" t="s">
-        <v>633</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -13072,7 +13098,7 @@
         <v>555</v>
       </c>
       <c r="B38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -13086,7 +13112,7 @@
         <v>548</v>
       </c>
       <c r="B39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -13114,7 +13140,7 @@
         <v>496</v>
       </c>
       <c r="B41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -13237,16 +13263,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="B50" t="s">
         <v>636</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
         <v>637</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -13281,9 +13307,12 @@
       <c r="A53" s="19"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{B6FCA6B1-777C-8E4D-A3C8-5CA8CC95525A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -13445,7 +13474,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="T4" t="s">
         <v>556</v>
@@ -13474,7 +13503,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T5" t="s">
         <v>556</v>
@@ -13497,7 +13526,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="T6" t="s">
         <v>556</v>
@@ -13541,7 +13570,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="T8" t="s">
         <v>556</v>
@@ -13564,7 +13593,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T9" t="s">
         <v>556</v>
@@ -13607,7 +13636,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T11" t="s">
         <v>556</v>
@@ -13726,7 +13755,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T16" t="s">
         <v>556</v>
@@ -13749,7 +13778,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T17" t="s">
         <v>556</v>
@@ -13768,7 +13797,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="T18" t="s">
         <v>556</v>
@@ -13832,7 +13861,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T21" t="s">
         <v>556</v>
@@ -13855,7 +13884,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="T22" t="s">
         <v>556</v>
@@ -13866,13 +13895,13 @@
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>637</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="T23" t="s">
         <v>556</v>
@@ -14120,7 +14149,7 @@
         <v>429</v>
       </c>
       <c r="Y1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Z1" t="s">
         <v>559</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C494EE-163D-9F43-ABB9-E84FC788AEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B4D3C-AAD7-9A4C-8327-019C5B3B5F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -2260,52 +2260,30 @@
     <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
   </si>
   <si>
-    <t>* The US Core Provenance resource **SHALL** be supported for these US Core
-resources:
-  * US Core CarePlan Profile
-  * US Core DiagnosticReport Profile for Laboratory Results Reporting
-  * US Core Encounter Profile
-  * US Core Observation Sexual Orientation Profile
-  * US Core Head Circumference Profile
-  * US Core ServiceRequest Profile
-  * US Core Vital Signs Profile
-  * US Core DiagnosticReport Profile for Report and Note Exchange
-  * US Core Implantable Device Profile
-  * US Core Observation Imaging Result Profile
-  * US Core CareTeam Profile
-  * US Core Pulse Oximetry Profile
-  * US Core BMI Profile
-  * US Core Blood Pressure Profile
-  * US Core Body Weight Profile
-  * US Core RelatedPerson Profile
-  * US Core Pediatric BMI for Age Observation Profile
-  * US Core MedicationRequest Profile
-  * US Core Condition Encounter Diagnosis Profile
-  * US Core Pediatric Head Occipital Frontal Circumference Percentile Profile
-  * US Core Procedure Profile
-  * US Core Laboratory Result Observation Profile
-  * US Core Body Height Profile
-  * US Core Observation SDOH Assessment Profile
-  * US Core Observation Survey Profile
-  * US Core Body Temperature Profile
-  * US Core Condition Problems and Health Concerns Profile
-  * US Core Pediatric Weight for Height Observation Profile
-  * US Core Goal Profile
-  * US Core AllergyIntolerance Profile
-  * US Core Immunization Profile
-  * US Core Observation Social History Profile
-  * US Core Heart Rate Profile
-  * US Core Smoking Status Observation Profile
-  * US Core Patient Profile
-  * US Core QuestionnaireResponse Profile
-  * US Core Respiratory Rate Profile
-  * US Core Observation Clinical Test Result Profile
-  * US Core DocumentReference Profile
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
+  </si>
+  <si>
+    <t>* The US Core Provenance resource **SHALL** be supported for these US Core resources:
+    * AllergyIntolerance
+    * CarePlan
+    * CareTeam
+    * Condition
+    * Coverage
+    * Device
+    * DiagnosticReport
+    * DocumentReference
+    * Encounter
+    * Goal
+    * Immunization
+    * MedicationDispense
+    * MedicationRequest
+    * Observation
+    * Patient
+    * Procedure
+    * RelatedPerson
+    * ServiceRequest
 * If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.
 * Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
   </si>
 </sst>
 </file>
@@ -12559,7 +12537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -12717,7 +12695,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B11" t="s">
         <v>360</v>
@@ -13320,11 +13298,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13884,7 +13862,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="T22" t="s">
         <v>556</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765EE5B-0B0E-5942-8B22-35EA2477251F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FE1348-146A-3C44-96D3-FB6464D7B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="690">
   <si>
     <t>Element</t>
   </si>
@@ -2317,6 +2317,9 @@
     *  The `content.url` may refer to a FHIR Binary Resource (i.e. [base]/Binary/[id]), FHIR Document Bundle (i.e [base]/Bundle/[id] or another endpoint.
         * If the endpoint is outside the FHIR base URL, it **SHOULD NOT** require additional authorization to access.
 * Every DocumentReference must have a responsible Organization. The organization responsible for the DocumentReference **SHALL** be present either in `DocumentReference.custodian` or accessible in the Provenance resource targeting the DocumentReference using `Provenance.agent.who` or `Provenance.agent.onBehalfOf`.</t>
+  </si>
+  <si>
+    <t>Servers that support only US Core Practitioner Profile **SHALL** provide implementation specific guidance how to access a provider’s location and contact information using only the Practitioner resource.</t>
   </si>
 </sst>
 </file>
@@ -13674,10 +13677,10 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14171,6 +14174,9 @@
       </c>
       <c r="B19" t="s">
         <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="T19" t="s">
         <v>537</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FE1348-146A-3C44-96D3-FB6464D7B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5890291E-8B7F-E04D-BC86-4FC4F978DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="691">
   <si>
     <t>Element</t>
   </si>
@@ -1741,9 +1741,6 @@
     <t>http://hl7.org/fhir/uv/bulkdata/ImplementationGuide/hl7.fhir.uv.bulkdata</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/smart-app-launch/index.html</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/uv/bulkdata/index.html</t>
   </si>
   <si>
@@ -2012,9 +2009,6 @@
   </si>
   <si>
     <t>US Core Observation Clinical Test Result Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
   </si>
   <si>
     <t>US Core QuestionnaireResponse Profile</t>
@@ -2320,6 +2314,15 @@
   </si>
   <si>
     <t>Servers that support only US Core Practitioner Profile **SHALL** provide implementation specific guidance how to access a provider’s location and contact information using only the Practitioner resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/smart-app-launch/history.html</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
+  </si>
+  <si>
+    <t>!QuestionnaireResponse</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2499,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2528,8 +2531,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2537,7 +2541,68 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2909,7 +2974,7 @@
         <v>448</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2941,7 +3006,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2957,7 +3022,7 @@
         <v>455</v>
       </c>
       <c r="B8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2977,11 +3042,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0B6320-EBCC-D945-ADE1-C0DCBBAED044}">
   <dimension ref="A1:AB126"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F133" sqref="F133"/>
+      <selection pane="bottomRight" activeCell="B116" sqref="B116:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3027,7 +3092,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>30</v>
@@ -3983,7 +4048,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -4141,7 +4206,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -4291,7 +4356,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -4350,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G26" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B26)</f>
@@ -4568,7 +4633,7 @@
         <v>51</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Z30" t="s">
         <v>168</v>
@@ -4590,7 +4655,7 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -4615,19 +4680,19 @@
         <v>52</v>
       </c>
       <c r="L31" t="s">
+        <v>656</v>
+      </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z31" t="s">
         <v>658</v>
-      </c>
-      <c r="M31" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>660</v>
       </c>
       <c r="AA31" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B31&amp;" resources matching the name"</f>
@@ -5022,7 +5087,7 @@
         <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
@@ -5076,7 +5141,7 @@
         <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -5130,7 +5195,7 @@
         <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -5269,7 +5334,7 @@
         <v>51</v>
       </c>
       <c r="Y44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Z44" s="4" t="str">
         <f>"GET [base]/"&amp;B44&amp;"?patient=1137192"</f>
@@ -7476,7 +7541,7 @@
         <v>51</v>
       </c>
       <c r="X85" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y85" t="str">
         <f>"support searching for all "&amp;LOWER(B85)&amp;"s for a patient"</f>
@@ -7609,7 +7674,7 @@
         <v>241</v>
       </c>
       <c r="C88" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D88" t="s">
         <v>65</v>
@@ -7647,7 +7712,7 @@
         <v>51</v>
       </c>
       <c r="Y88" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Z88" s="4" t="str">
         <f>"GET [base]/"&amp;B88&amp;"?"&amp;C88&amp;"=http://snomed.info/sct\|17561000"</f>
@@ -8611,7 +8676,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C106" t="s">
         <v>57</v>
@@ -8664,7 +8729,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C107" t="s">
         <v>85</v>
@@ -8723,7 +8788,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C108" t="s">
         <v>135</v>
@@ -8773,7 +8838,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
@@ -8826,10 +8891,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C110" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D110" t="s">
         <v>28</v>
@@ -8880,7 +8945,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C111" t="s">
         <v>50</v>
@@ -8915,10 +8980,10 @@
         <v>51</v>
       </c>
       <c r="Y111" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z111" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="Z111" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="AB111" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B111)&amp;"-"&amp;SUBSTITUTE(C111,"_","")&amp;".html")</f>
@@ -8976,7 +9041,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C113" t="s">
         <v>50</v>
@@ -9011,10 +9076,10 @@
         <v>51</v>
       </c>
       <c r="Y113" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z113" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="Z113" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="AA113" s="8"/>
       <c r="AB113" t="str">
@@ -9027,7 +9092,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C114" t="s">
         <v>85</v>
@@ -9086,7 +9151,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C115" t="s">
         <v>21</v>
@@ -9124,7 +9189,7 @@
         <v>51</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Z115" s="4" t="str">
         <f>"GET [base]/"&amp;B115&amp;"?"&amp;C115&amp;"=Mary Shaw"</f>
@@ -9144,7 +9209,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="C116" t="s">
         <v>50</v>
@@ -9157,7 +9222,7 @@
       </c>
       <c r="G116" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B116)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="H116" t="s">
         <v>51</v>
@@ -9170,7 +9235,7 @@
       </c>
       <c r="L116" t="str">
         <f>B116&amp;"."&amp;C116</f>
-        <v>QuestionnaireResponse._id</v>
+        <v>!QuestionnaireResponse._id</v>
       </c>
       <c r="M116" t="s">
         <v>51</v>
@@ -9180,14 +9245,14 @@
       </c>
       <c r="Y116" s="4" t="str">
         <f>"support fetching a "&amp;B116</f>
-        <v>support fetching a QuestionnaireResponse</v>
+        <v>support fetching a !QuestionnaireResponse</v>
       </c>
       <c r="Z116" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AB116" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B116)&amp;"-"&amp;SUBSTITUTE(C116,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-questionnaireresponse-id.html</v>
+        <v>SearchParameter-us-core-!questionnaireresponse-id.html</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -9195,7 +9260,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="C117" t="s">
         <v>85</v>
@@ -9211,7 +9276,7 @@
       </c>
       <c r="G117" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B117)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="H117" t="s">
         <v>51</v>
@@ -9224,7 +9289,7 @@
       </c>
       <c r="L117" t="str">
         <f>B117&amp;"."&amp;C117</f>
-        <v>QuestionnaireResponse.patient</v>
+        <v>!QuestionnaireResponse.patient</v>
       </c>
       <c r="M117" t="s">
         <v>51</v>
@@ -9234,19 +9299,19 @@
       </c>
       <c r="Y117" t="str">
         <f>"support searching for all "&amp;LOWER(B117)&amp;"s for a patient"</f>
-        <v>support searching for all questionnaireresponses for a patient</v>
+        <v>support searching for all !questionnaireresponses for a patient</v>
       </c>
       <c r="Z117" s="4" t="str">
         <f>"GET [base]/"&amp;B117&amp;"?patient=1032702"</f>
-        <v>GET [base]/QuestionnaireResponse?patient=1032702</v>
+        <v>GET [base]/!QuestionnaireResponse?patient=1032702</v>
       </c>
       <c r="AA117" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B117&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient</v>
+        <v>Fetches a bundle of all !QuestionnaireResponse resources for the specified patient</v>
       </c>
       <c r="AB117" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B117)&amp;"-"&amp;SUBSTITUTE(C117,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-questionnaireresponse-patient.html</v>
+        <v>SearchParameter-us-core-!questionnaireresponse-patient.html</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -9254,7 +9319,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="C118" t="s">
         <v>57</v>
@@ -9270,7 +9335,7 @@
       </c>
       <c r="G118" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B118)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="H118" t="s">
         <v>51</v>
@@ -9283,7 +9348,7 @@
       </c>
       <c r="L118" t="str">
         <f>B118&amp;"."&amp;C118</f>
-        <v>QuestionnaireResponse.status</v>
+        <v>!QuestionnaireResponse.status</v>
       </c>
       <c r="M118" t="s">
         <v>51</v>
@@ -9295,11 +9360,11 @@
         <v>51</v>
       </c>
       <c r="Y118" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AB118" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B118)&amp;"-"&amp;SUBSTITUTE(C118,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-questionnaireresponse-status.html</v>
+        <v>SearchParameter-us-core-!questionnaireresponse-status.html</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -9307,10 +9372,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="C119" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D119" t="s">
         <v>28</v>
@@ -9323,7 +9388,7 @@
       </c>
       <c r="G119" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B119)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="H119" t="s">
         <v>51</v>
@@ -9335,7 +9400,7 @@
         <v>52</v>
       </c>
       <c r="L119" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M119" t="s">
         <v>51</v>
@@ -9344,11 +9409,11 @@
         <v>51</v>
       </c>
       <c r="Y119" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AB119" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B119)&amp;"-"&amp;SUBSTITUTE(C119,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-questionnaireresponse-tag.html</v>
+        <v>SearchParameter-us-core-!questionnaireresponse-tag.html</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -9356,10 +9421,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="C120" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
@@ -9372,7 +9437,7 @@
       </c>
       <c r="G120" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B120)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="H120" t="s">
         <v>51</v>
@@ -9385,7 +9450,7 @@
       </c>
       <c r="L120" t="str">
         <f>B120&amp;"."&amp;C120</f>
-        <v>QuestionnaireResponse.authored</v>
+        <v>!QuestionnaireResponse.authored</v>
       </c>
       <c r="M120" t="s">
         <v>51</v>
@@ -9400,11 +9465,11 @@
         <v>88</v>
       </c>
       <c r="Y120" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AB120" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B120)&amp;"-"&amp;SUBSTITUTE(C120,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-questionnaireresponse-authored.html</v>
+        <v>SearchParameter-us-core-!questionnaireresponse-authored.html</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -9412,10 +9477,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="C121" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D121" t="s">
         <v>28</v>
@@ -9428,7 +9493,7 @@
       </c>
       <c r="G121" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B121)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="H121" t="s">
         <v>51</v>
@@ -9441,7 +9506,7 @@
       </c>
       <c r="L121" t="str">
         <f>B121&amp;"."&amp;C121</f>
-        <v>QuestionnaireResponse.questionnaire</v>
+        <v>!QuestionnaireResponse.questionnaire</v>
       </c>
       <c r="M121" t="s">
         <v>51</v>
@@ -9450,11 +9515,11 @@
         <v>51</v>
       </c>
       <c r="Y121" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AB121" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B121)&amp;"-"&amp;SUBSTITUTE(C121,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-questionnaireresponse-questionnaire.html</v>
+        <v>SearchParameter-us-core-!questionnaireresponse-questionnaire.html</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -9462,7 +9527,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C122" t="s">
         <v>85</v>
@@ -9503,7 +9568,7 @@
         <v>51</v>
       </c>
       <c r="Y122" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Z122" s="4" t="str">
         <f>"GET [base]/"&amp;B122&amp;"?patient=1137192"</f>
@@ -9523,7 +9588,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C123" t="s">
         <v>57</v>
@@ -9579,7 +9644,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -9635,7 +9700,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C125" t="s">
         <v>85</v>
@@ -9676,10 +9741,10 @@
         <v>51</v>
       </c>
       <c r="X125" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Z125" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AA125" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B125&amp; " resources for the specified patient."</f>
@@ -9695,10 +9760,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C126" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
@@ -9749,6 +9814,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AB126" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -9794,7 +9864,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>92</v>
@@ -10224,7 +10294,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F17" t="s">
         <v>65</v>
@@ -10236,7 +10306,7 @@
         <v>290</v>
       </c>
       <c r="J17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10312,7 +10382,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F20" t="s">
         <v>65</v>
@@ -10324,7 +10394,7 @@
         <v>295</v>
       </c>
       <c r="J20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10634,7 +10704,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D32" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F32" t="s">
         <v>65</v>
@@ -10643,10 +10713,10 @@
         <v>129</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10776,7 +10846,7 @@
         <v>313</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -10824,7 +10894,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F38" t="s">
         <v>65</v>
@@ -10836,10 +10906,10 @@
         <v>145</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -10896,7 +10966,7 @@
         <v>148</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>151</v>
@@ -10914,7 +10984,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F41" t="s">
         <v>65</v>
@@ -10926,7 +10996,7 @@
         <v>148</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>151</v>
@@ -10944,7 +11014,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F42" t="s">
         <v>65</v>
@@ -10956,7 +11026,7 @@
         <v>148</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>151</v>
@@ -10974,7 +11044,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F43" t="s">
         <v>65</v>
@@ -10986,7 +11056,7 @@
         <v>148</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>151</v>
@@ -11092,7 +11162,7 @@
         <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -11122,7 +11192,7 @@
         <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D48" t="s">
         <v>140</v>
@@ -11155,7 +11225,7 @@
         <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D49" t="s">
         <v>142</v>
@@ -11185,7 +11255,7 @@
         <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D50" t="s">
         <v>189</v>
@@ -11218,7 +11288,7 @@
         <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D51" t="s">
         <v>213</v>
@@ -11596,7 +11666,7 @@
         <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D63" t="s">
         <v>230</v>
@@ -11628,7 +11698,7 @@
         <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D64" t="s">
         <v>140</v>
@@ -11661,7 +11731,7 @@
         <v>178</v>
       </c>
       <c r="C65" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D65" t="s">
         <v>142</v>
@@ -11691,7 +11761,7 @@
         <v>178</v>
       </c>
       <c r="C66" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D66" t="s">
         <v>189</v>
@@ -11724,7 +11794,7 @@
         <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D67" t="s">
         <v>213</v>
@@ -11754,7 +11824,7 @@
         <v>305</v>
       </c>
       <c r="C68" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D68" t="s">
         <v>111</v>
@@ -11929,13 +11999,13 @@
         <v>296</v>
       </c>
       <c r="I73" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="K73" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -12133,7 +12203,7 @@
         <v>242</v>
       </c>
       <c r="C80" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D80" t="s">
         <v>113</v>
@@ -12162,7 +12232,7 @@
         <v>242</v>
       </c>
       <c r="C81" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D81" t="s">
         <v>111</v>
@@ -12177,13 +12247,13 @@
         <v>101</v>
       </c>
       <c r="I81" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -12198,7 +12268,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D82" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F82" t="s">
         <v>65</v>
@@ -12207,13 +12277,13 @@
         <v>101</v>
       </c>
       <c r="I82" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -12221,7 +12291,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" ref="C83:C96" si="4">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B83)</f>
@@ -12240,7 +12310,7 @@
         <v>288</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K83" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ")</f>
@@ -12252,7 +12322,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="4"/>
@@ -12271,7 +12341,7 @@
         <v>193</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K84" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp;" resources for the specified patient and  a category code"</f>
@@ -12283,7 +12353,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="4"/>
@@ -12302,7 +12372,7 @@
         <v>194</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K85" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B85&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -12314,14 +12384,14 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</v>
       </c>
       <c r="D86" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -12333,7 +12403,7 @@
         <v>196</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K86" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B86&amp;" resources for the specified patient and date and a category code"</f>
@@ -12345,14 +12415,14 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</v>
       </c>
       <c r="D87" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F87" t="s">
         <v>65</v>
@@ -12361,10 +12431,10 @@
         <v>212</v>
       </c>
       <c r="I87" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="K87" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B87&amp;" resources for the specified patient and date and service code(s).  SHOULD support search by multiple report codes."</f>
@@ -12383,7 +12453,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D88" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F88" t="s">
         <v>65</v>
@@ -12392,10 +12462,10 @@
         <v>101</v>
       </c>
       <c r="I88" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="J88" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="K88" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B88&amp;" resources for the specified "&amp;SUBSTITUTE(D88,","," and ")</f>
@@ -12407,7 +12477,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
@@ -12423,10 +12493,10 @@
         <v>101</v>
       </c>
       <c r="I89" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K89" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ")</f>
@@ -12438,14 +12508,14 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D90" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F90" t="s">
         <v>65</v>
@@ -12454,13 +12524,13 @@
         <v>101</v>
       </c>
       <c r="H90" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I90" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K90" t="str">
         <f>"Fetches a bundle of all "&amp;B90&amp;" resources for the specified "&amp;SUBSTITUTE(D90,","," and  ") &amp; "= 'sdoh'"</f>
@@ -12472,14 +12542,14 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D91" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F91" t="s">
         <v>65</v>
@@ -12488,10 +12558,10 @@
         <v>144</v>
       </c>
       <c r="I91" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K91" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B91&amp;" resources for the specified patient and date"</f>
@@ -12503,14 +12573,14 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F92" t="s">
         <v>65</v>
@@ -12519,13 +12589,13 @@
         <v>212</v>
       </c>
       <c r="H92" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I92" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K92" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
@@ -12537,14 +12607,14 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F93" t="s">
         <v>65</v>
@@ -12553,10 +12623,10 @@
         <v>86</v>
       </c>
       <c r="I93" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K93" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient that have been completed against a specified form."</f>
@@ -12568,7 +12638,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="4"/>
@@ -12588,10 +12658,10 @@
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K94" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed))."</f>
@@ -12603,7 +12673,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
@@ -12623,10 +12693,10 @@
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K95" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed) and type of dispense (e.g., partially dispensed)."</f>
@@ -12638,14 +12708,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationdispense</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>51</v>
@@ -12658,10 +12728,10 @@
       </c>
       <c r="H96" s="16"/>
       <c r="I96" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K96" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient for a given dispense and date or range"</f>
@@ -12703,7 +12773,7 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12743,7 +12813,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12751,7 +12821,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12796,7 +12866,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12824,30 +12894,33 @@
         <v>512</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>524</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DEF66039-9B20-2C43-9CB5-B3AF8A8243E1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12900,7 +12973,7 @@
         <v>516</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -12915,8 +12988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12989,10 +13062,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -13003,10 +13076,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -13072,8 +13145,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>653</v>
+      <c r="A11" s="23" t="s">
+        <v>651</v>
       </c>
       <c r="B11" t="s">
         <v>348</v>
@@ -13087,86 +13160,86 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="B12" t="s">
         <v>591</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>592</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="B13" t="s">
         <v>594</v>
       </c>
-      <c r="B13" t="s">
-        <v>595</v>
-      </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="B14" t="s">
         <v>596</v>
       </c>
-      <c r="B14" t="s">
-        <v>597</v>
-      </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="B15" t="s">
         <v>598</v>
       </c>
-      <c r="B15" t="s">
-        <v>599</v>
-      </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="B16" t="s">
         <v>600</v>
       </c>
-      <c r="B16" t="s">
-        <v>601</v>
-      </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="B17" t="s">
         <v>602</v>
       </c>
-      <c r="B17" t="s">
-        <v>603</v>
-      </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -13255,10 +13328,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="B24" t="s">
         <v>604</v>
-      </c>
-      <c r="B24" t="s">
-        <v>605</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -13283,10 +13356,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="B26" t="s">
         <v>606</v>
-      </c>
-      <c r="B26" t="s">
-        <v>607</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -13367,10 +13440,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -13423,10 +13496,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="B36" t="s">
         <v>609</v>
-      </c>
-      <c r="B36" t="s">
-        <v>610</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -13451,10 +13524,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -13465,10 +13538,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B39" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -13496,7 +13569,7 @@
         <v>481</v>
       </c>
       <c r="B41" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -13619,56 +13692,61 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B50" t="s">
+        <v>612</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
         <v>613</v>
-      </c>
-      <c r="B50" t="s">
-        <v>614</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="B51" t="s">
         <v>530</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
         <v>531</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="B52" t="s">
         <v>533</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
         <v>534</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" xr:uid="{B6FCA6B1-777C-8E4D-A3C8-5CA8CC95525A}"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"!"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13676,11 +13754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13787,7 +13865,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="T2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U2" t="s">
         <v>65</v>
@@ -13810,7 +13888,7 @@
         <v>476</v>
       </c>
       <c r="T3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U3" t="s">
         <v>65</v>
@@ -13830,19 +13908,19 @@
         <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="T4" t="s">
+        <v>536</v>
+      </c>
+      <c r="U4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" t="s">
         <v>537</v>
       </c>
-      <c r="U4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>538</v>
-      </c>
-      <c r="W4" t="s">
-        <v>539</v>
       </c>
       <c r="X4" s="13" t="s">
         <v>435</v>
@@ -13859,10 +13937,10 @@
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="T5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U5" t="s">
         <v>65</v>
@@ -13882,10 +13960,10 @@
         <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="T6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U6" t="s">
         <v>65</v>
@@ -13906,7 +13984,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="T7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U7" t="s">
         <v>65</v>
@@ -13926,10 +14004,10 @@
         <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="T8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U8" t="s">
         <v>65</v>
@@ -13949,10 +14027,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="T9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U9" t="s">
         <v>65</v>
@@ -13972,7 +14050,7 @@
         <v>65</v>
       </c>
       <c r="T10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U10" t="s">
         <v>65</v>
@@ -13992,10 +14070,10 @@
         <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="T11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U11" t="s">
         <v>65</v>
@@ -14018,7 +14096,7 @@
         <v>477</v>
       </c>
       <c r="T12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U12" t="s">
         <v>65</v>
@@ -14037,7 +14115,7 @@
         <v>478</v>
       </c>
       <c r="T13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U13" t="s">
         <v>65</v>
@@ -14056,7 +14134,7 @@
         <v>479</v>
       </c>
       <c r="T14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U14" t="s">
         <v>65</v>
@@ -14085,7 +14163,7 @@
         <v>480</v>
       </c>
       <c r="T15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U15" t="s">
         <v>65</v>
@@ -14111,10 +14189,10 @@
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="T16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U16" t="s">
         <v>65</v>
@@ -14134,10 +14212,10 @@
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="T17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U17" t="s">
         <v>65</v>
@@ -14153,10 +14231,10 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="T18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U18" t="s">
         <v>65</v>
@@ -14176,10 +14254,10 @@
         <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="T19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U19" t="s">
         <v>65</v>
@@ -14198,7 +14276,7 @@
         <v>477</v>
       </c>
       <c r="T20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U20" t="s">
         <v>65</v>
@@ -14220,10 +14298,10 @@
         <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="T21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U21" t="s">
         <v>65</v>
@@ -14243,10 +14321,10 @@
         <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U22" t="s">
         <v>65</v>
@@ -14254,16 +14332,16 @@
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="T23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U23" t="s">
         <v>65</v>
@@ -14277,13 +14355,13 @@
     </row>
     <row r="24" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
       </c>
       <c r="T24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U24" t="s">
         <v>65</v>
@@ -14297,13 +14375,13 @@
     </row>
     <row r="25" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
       <c r="T25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U25" t="s">
         <v>65</v>
@@ -14335,6 +14413,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
     <sortCondition ref="A2:A21"/>
   </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
@@ -14508,13 +14591,13 @@
         <v>417</v>
       </c>
       <c r="Y1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Z1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA1" t="s">
         <v>540</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>541</v>
       </c>
       <c r="AB1" t="s">
         <v>434</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5890291E-8B7F-E04D-BC86-4FC4F978DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53396AB-3A5F-B54F-8186-5E2ED90D431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="690">
   <si>
     <t>Element</t>
   </si>
@@ -1778,9 +1778,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-imaging</t>
-  </si>
-  <si>
-    <t>resolves</t>
   </si>
   <si>
     <t>SHOULD,SHOULD,SHOULD,SHOULD</t>
@@ -2974,7 +2971,7 @@
         <v>448</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3006,7 +3003,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3022,7 +3019,7 @@
         <v>455</v>
       </c>
       <c r="B8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3042,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0B6320-EBCC-D945-ADE1-C0DCBBAED044}">
   <dimension ref="A1:AB126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3092,7 +3089,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>30</v>
@@ -4048,7 +4045,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -4206,7 +4203,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -4356,7 +4353,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -4415,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G26" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B26)</f>
@@ -4633,7 +4630,7 @@
         <v>51</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Z30" t="s">
         <v>168</v>
@@ -4655,7 +4652,7 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -4680,19 +4677,19 @@
         <v>52</v>
       </c>
       <c r="L31" t="s">
+        <v>655</v>
+      </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y31" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="M31" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y31" s="4" t="s">
+      <c r="Z31" t="s">
         <v>657</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>658</v>
       </c>
       <c r="AA31" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B31&amp;" resources matching the name"</f>
@@ -5087,7 +5084,7 @@
         <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
@@ -5141,7 +5138,7 @@
         <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -5195,7 +5192,7 @@
         <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -5334,7 +5331,7 @@
         <v>51</v>
       </c>
       <c r="Y44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Z44" s="4" t="str">
         <f>"GET [base]/"&amp;B44&amp;"?patient=1137192"</f>
@@ -7541,7 +7538,7 @@
         <v>51</v>
       </c>
       <c r="X85" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Y85" t="str">
         <f>"support searching for all "&amp;LOWER(B85)&amp;"s for a patient"</f>
@@ -7674,7 +7671,7 @@
         <v>241</v>
       </c>
       <c r="C88" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D88" t="s">
         <v>65</v>
@@ -7712,7 +7709,7 @@
         <v>51</v>
       </c>
       <c r="Y88" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Z88" s="4" t="str">
         <f>"GET [base]/"&amp;B88&amp;"?"&amp;C88&amp;"=http://snomed.info/sct\|17561000"</f>
@@ -8894,7 +8891,7 @@
         <v>534</v>
       </c>
       <c r="C110" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D110" t="s">
         <v>28</v>
@@ -8980,10 +8977,10 @@
         <v>51</v>
       </c>
       <c r="Y111" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z111" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="Z111" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="AB111" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B111)&amp;"-"&amp;SUBSTITUTE(C111,"_","")&amp;".html")</f>
@@ -9076,10 +9073,10 @@
         <v>51</v>
       </c>
       <c r="Y113" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z113" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="Z113" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="AA113" s="8"/>
       <c r="AB113" t="str">
@@ -9189,7 +9186,7 @@
         <v>51</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Z115" s="4" t="str">
         <f>"GET [base]/"&amp;B115&amp;"?"&amp;C115&amp;"=Mary Shaw"</f>
@@ -9209,7 +9206,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C116" t="s">
         <v>50</v>
@@ -9248,7 +9245,7 @@
         <v>support fetching a !QuestionnaireResponse</v>
       </c>
       <c r="Z116" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AB116" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B116)&amp;"-"&amp;SUBSTITUTE(C116,"_","")&amp;".html")</f>
@@ -9260,7 +9257,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C117" t="s">
         <v>85</v>
@@ -9319,7 +9316,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C118" t="s">
         <v>57</v>
@@ -9360,7 +9357,7 @@
         <v>51</v>
       </c>
       <c r="Y118" s="19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AB118" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B118)&amp;"-"&amp;SUBSTITUTE(C118,"_","")&amp;".html")</f>
@@ -9372,10 +9369,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C119" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D119" t="s">
         <v>28</v>
@@ -9400,16 +9397,16 @@
         <v>52</v>
       </c>
       <c r="L119" t="s">
+        <v>618</v>
+      </c>
+      <c r="M119" t="s">
+        <v>51</v>
+      </c>
+      <c r="O119" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y119" s="19" t="s">
         <v>619</v>
-      </c>
-      <c r="M119" t="s">
-        <v>51</v>
-      </c>
-      <c r="O119" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y119" s="19" t="s">
-        <v>620</v>
       </c>
       <c r="AB119" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B119)&amp;"-"&amp;SUBSTITUTE(C119,"_","")&amp;".html")</f>
@@ -9421,10 +9418,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C120" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
@@ -9465,7 +9462,7 @@
         <v>88</v>
       </c>
       <c r="Y120" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AB120" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B120)&amp;"-"&amp;SUBSTITUTE(C120,"_","")&amp;".html")</f>
@@ -9477,10 +9474,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C121" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D121" t="s">
         <v>28</v>
@@ -9515,7 +9512,7 @@
         <v>51</v>
       </c>
       <c r="Y121" s="19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AB121" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B121)&amp;"-"&amp;SUBSTITUTE(C121,"_","")&amp;".html")</f>
@@ -9527,7 +9524,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C122" t="s">
         <v>85</v>
@@ -9568,7 +9565,7 @@
         <v>51</v>
       </c>
       <c r="Y122" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Z122" s="4" t="str">
         <f>"GET [base]/"&amp;B122&amp;"?patient=1137192"</f>
@@ -9588,7 +9585,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C123" t="s">
         <v>57</v>
@@ -9644,7 +9641,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -9700,7 +9697,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C125" t="s">
         <v>85</v>
@@ -9741,10 +9738,10 @@
         <v>51</v>
       </c>
       <c r="X125" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z125" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="Z125" s="8" t="s">
-        <v>663</v>
       </c>
       <c r="AA125" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B125&amp; " resources for the specified patient."</f>
@@ -9760,10 +9757,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>663</v>
+      </c>
+      <c r="C126" t="s">
         <v>664</v>
-      </c>
-      <c r="C126" t="s">
-        <v>665</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
@@ -9864,7 +9861,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>92</v>
@@ -10294,7 +10291,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F17" t="s">
         <v>65</v>
@@ -10306,7 +10303,7 @@
         <v>290</v>
       </c>
       <c r="J17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10382,7 +10379,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F20" t="s">
         <v>65</v>
@@ -10394,7 +10391,7 @@
         <v>295</v>
       </c>
       <c r="J20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10704,7 +10701,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F32" t="s">
         <v>65</v>
@@ -10713,10 +10710,10 @@
         <v>129</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10846,7 +10843,7 @@
         <v>313</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -10894,7 +10891,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F38" t="s">
         <v>65</v>
@@ -10906,10 +10903,10 @@
         <v>145</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -10966,7 +10963,7 @@
         <v>148</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>151</v>
@@ -10984,7 +10981,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F41" t="s">
         <v>65</v>
@@ -10996,7 +10993,7 @@
         <v>148</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>151</v>
@@ -11014,7 +11011,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F42" t="s">
         <v>65</v>
@@ -11026,7 +11023,7 @@
         <v>148</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>151</v>
@@ -11044,7 +11041,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F43" t="s">
         <v>65</v>
@@ -11056,7 +11053,7 @@
         <v>148</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>151</v>
@@ -11162,7 +11159,7 @@
         <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -11192,7 +11189,7 @@
         <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D48" t="s">
         <v>140</v>
@@ -11225,7 +11222,7 @@
         <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D49" t="s">
         <v>142</v>
@@ -11255,7 +11252,7 @@
         <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D50" t="s">
         <v>189</v>
@@ -11288,7 +11285,7 @@
         <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D51" t="s">
         <v>213</v>
@@ -11666,7 +11663,7 @@
         <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D63" t="s">
         <v>230</v>
@@ -11698,7 +11695,7 @@
         <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D64" t="s">
         <v>140</v>
@@ -11731,7 +11728,7 @@
         <v>178</v>
       </c>
       <c r="C65" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D65" t="s">
         <v>142</v>
@@ -11761,7 +11758,7 @@
         <v>178</v>
       </c>
       <c r="C66" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D66" t="s">
         <v>189</v>
@@ -11794,7 +11791,7 @@
         <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D67" t="s">
         <v>213</v>
@@ -11824,7 +11821,7 @@
         <v>305</v>
       </c>
       <c r="C68" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D68" t="s">
         <v>111</v>
@@ -11999,13 +11996,13 @@
         <v>296</v>
       </c>
       <c r="I73" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="K73" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -12203,7 +12200,7 @@
         <v>242</v>
       </c>
       <c r="C80" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D80" t="s">
         <v>113</v>
@@ -12232,7 +12229,7 @@
         <v>242</v>
       </c>
       <c r="C81" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D81" t="s">
         <v>111</v>
@@ -12247,13 +12244,13 @@
         <v>101</v>
       </c>
       <c r="I81" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="K81" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -12268,7 +12265,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D82" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F82" t="s">
         <v>65</v>
@@ -12277,13 +12274,13 @@
         <v>101</v>
       </c>
       <c r="I82" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -12310,7 +12307,7 @@
         <v>288</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K83" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ")</f>
@@ -12341,7 +12338,7 @@
         <v>193</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K84" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp;" resources for the specified patient and  a category code"</f>
@@ -12372,7 +12369,7 @@
         <v>194</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K85" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B85&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
@@ -12391,7 +12388,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</v>
       </c>
       <c r="D86" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -12403,7 +12400,7 @@
         <v>196</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K86" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B86&amp;" resources for the specified patient and date and a category code"</f>
@@ -12422,7 +12419,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</v>
       </c>
       <c r="D87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F87" t="s">
         <v>65</v>
@@ -12431,10 +12428,10 @@
         <v>212</v>
       </c>
       <c r="I87" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="K87" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B87&amp;" resources for the specified patient and date and service code(s).  SHOULD support search by multiple report codes."</f>
@@ -12453,7 +12450,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D88" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F88" t="s">
         <v>65</v>
@@ -12462,10 +12459,10 @@
         <v>101</v>
       </c>
       <c r="I88" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="J88" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="K88" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B88&amp;" resources for the specified "&amp;SUBSTITUTE(D88,","," and ")</f>
@@ -12477,7 +12474,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
@@ -12493,10 +12490,10 @@
         <v>101</v>
       </c>
       <c r="I89" t="s">
+        <v>623</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>625</v>
       </c>
       <c r="K89" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ")</f>
@@ -12508,14 +12505,14 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D90" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F90" t="s">
         <v>65</v>
@@ -12524,13 +12521,13 @@
         <v>101</v>
       </c>
       <c r="H90" t="s">
+        <v>626</v>
+      </c>
+      <c r="I90" t="s">
+        <v>623</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="I90" t="s">
-        <v>624</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>628</v>
       </c>
       <c r="K90" t="str">
         <f>"Fetches a bundle of all "&amp;B90&amp;" resources for the specified "&amp;SUBSTITUTE(D90,","," and  ") &amp; "= 'sdoh'"</f>
@@ -12542,14 +12539,14 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D91" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F91" t="s">
         <v>65</v>
@@ -12558,10 +12555,10 @@
         <v>144</v>
       </c>
       <c r="I91" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K91" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B91&amp;" resources for the specified patient and date"</f>
@@ -12573,14 +12570,14 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F92" t="s">
         <v>65</v>
@@ -12589,13 +12586,13 @@
         <v>212</v>
       </c>
       <c r="H92" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I92" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K92" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
@@ -12607,14 +12604,14 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F93" t="s">
         <v>65</v>
@@ -12623,10 +12620,10 @@
         <v>86</v>
       </c>
       <c r="I93" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K93" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient that have been completed against a specified form."</f>
@@ -12638,7 +12635,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="4"/>
@@ -12658,10 +12655,10 @@
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="J94" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>675</v>
       </c>
       <c r="K94" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed))."</f>
@@ -12673,7 +12670,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
@@ -12693,10 +12690,10 @@
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="K95" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed) and type of dispense (e.g., partially dispensed)."</f>
@@ -12708,14 +12705,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationdispense</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>51</v>
@@ -12728,10 +12725,10 @@
       </c>
       <c r="H96" s="16"/>
       <c r="I96" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>680</v>
       </c>
       <c r="K96" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient for a given dispense and date or range"</f>
@@ -12813,7 +12810,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12821,7 +12818,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12897,7 +12894,7 @@
         <v>527</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -12905,7 +12902,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>522</v>
@@ -13062,10 +13059,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -13076,10 +13073,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -13146,7 +13143,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B11" t="s">
         <v>348</v>
@@ -13160,86 +13157,86 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="B12" t="s">
         <v>590</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>591</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="B13" t="s">
         <v>593</v>
       </c>
-      <c r="B13" t="s">
-        <v>594</v>
-      </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="B14" t="s">
         <v>595</v>
       </c>
-      <c r="B14" t="s">
-        <v>596</v>
-      </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="B15" t="s">
         <v>597</v>
       </c>
-      <c r="B15" t="s">
-        <v>598</v>
-      </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="B16" t="s">
         <v>599</v>
       </c>
-      <c r="B16" t="s">
-        <v>600</v>
-      </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="B17" t="s">
         <v>601</v>
       </c>
-      <c r="B17" t="s">
-        <v>602</v>
-      </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -13328,10 +13325,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="B24" t="s">
         <v>603</v>
-      </c>
-      <c r="B24" t="s">
-        <v>604</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -13356,10 +13353,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="B26" t="s">
         <v>605</v>
-      </c>
-      <c r="B26" t="s">
-        <v>606</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -13443,7 +13440,7 @@
         <v>525</v>
       </c>
       <c r="B32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -13496,10 +13493,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="B36" t="s">
         <v>608</v>
-      </c>
-      <c r="B36" t="s">
-        <v>609</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -13527,7 +13524,7 @@
         <v>535</v>
       </c>
       <c r="B38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -13541,7 +13538,7 @@
         <v>528</v>
       </c>
       <c r="B39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -13569,7 +13566,7 @@
         <v>481</v>
       </c>
       <c r="B41" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -13692,16 +13689,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B50" t="s">
+        <v>611</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
         <v>612</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -13754,11 +13751,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13777,7 +13774,7 @@
     <col min="22" max="25" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -13854,7 +13851,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="23" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -13864,12 +13861,6 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="T2" t="s">
-        <v>536</v>
-      </c>
-      <c r="U2" t="s">
-        <v>65</v>
-      </c>
       <c r="X2" s="13" t="s">
         <v>435</v>
       </c>
@@ -13877,7 +13868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="163" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -13887,12 +13878,6 @@
       <c r="C3" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="T3" t="s">
-        <v>536</v>
-      </c>
-      <c r="U3" t="s">
-        <v>65</v>
-      </c>
       <c r="X3" s="13" t="s">
         <v>435</v>
       </c>
@@ -13900,7 +13885,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -13908,19 +13893,13 @@
         <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="T4" t="s">
+        <v>638</v>
+      </c>
+      <c r="V4" t="s">
         <v>536</v>
       </c>
-      <c r="U4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>537</v>
-      </c>
-      <c r="W4" t="s">
-        <v>538</v>
       </c>
       <c r="X4" s="13" t="s">
         <v>435</v>
@@ -13929,7 +13908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -13937,13 +13916,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="T5" t="s">
-        <v>536</v>
-      </c>
-      <c r="U5" t="s">
-        <v>65</v>
+        <v>639</v>
       </c>
       <c r="X5" s="13" t="s">
         <v>435</v>
@@ -13952,7 +13925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -13960,13 +13933,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="T6" t="s">
-        <v>536</v>
-      </c>
-      <c r="U6" t="s">
-        <v>65</v>
+        <v>640</v>
       </c>
       <c r="X6" s="13" t="s">
         <v>435</v>
@@ -13975,7 +13942,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>174</v>
       </c>
@@ -13983,12 +13950,6 @@
         <v>65</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="T7" t="s">
-        <v>536</v>
-      </c>
-      <c r="U7" t="s">
-        <v>65</v>
-      </c>
       <c r="X7" s="13" t="s">
         <v>435</v>
       </c>
@@ -13996,7 +13957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -14004,13 +13965,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="T8" t="s">
-        <v>536</v>
-      </c>
-      <c r="U8" t="s">
-        <v>65</v>
+        <v>685</v>
       </c>
       <c r="X8" s="13" t="s">
         <v>435</v>
@@ -14019,7 +13974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -14027,13 +13982,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="T9" t="s">
-        <v>536</v>
-      </c>
-      <c r="U9" t="s">
-        <v>65</v>
+        <v>641</v>
       </c>
       <c r="X9" s="13" t="s">
         <v>435</v>
@@ -14042,19 +13991,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>175</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="T10" t="s">
-        <v>536</v>
-      </c>
-      <c r="U10" t="s">
-        <v>65</v>
-      </c>
       <c r="X10" s="13" t="s">
         <v>435</v>
       </c>
@@ -14062,7 +14005,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -14070,13 +14013,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="T11" t="s">
-        <v>536</v>
-      </c>
-      <c r="U11" t="s">
-        <v>65</v>
+        <v>642</v>
       </c>
       <c r="X11" s="13" t="s">
         <v>435</v>
@@ -14085,7 +14022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>243</v>
       </c>
@@ -14095,16 +14032,10 @@
       <c r="C12" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="T12" t="s">
-        <v>536</v>
-      </c>
-      <c r="U12" t="s">
-        <v>65</v>
-      </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>337</v>
       </c>
@@ -14114,16 +14045,10 @@
       <c r="C13" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="T13" t="s">
-        <v>536</v>
-      </c>
-      <c r="U13" t="s">
-        <v>65</v>
-      </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -14133,12 +14058,6 @@
       <c r="C14" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="T14" t="s">
-        <v>536</v>
-      </c>
-      <c r="U14" t="s">
-        <v>65</v>
-      </c>
       <c r="V14" t="s">
         <v>65</v>
       </c>
@@ -14152,7 +14071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>423</v>
       </c>
@@ -14162,12 +14081,6 @@
       <c r="C15" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="T15" t="s">
-        <v>536</v>
-      </c>
-      <c r="U15" t="s">
-        <v>65</v>
-      </c>
       <c r="V15" t="s">
         <v>65</v>
       </c>
@@ -14181,7 +14094,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -14189,13 +14102,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="T16" t="s">
-        <v>536</v>
-      </c>
-      <c r="U16" t="s">
-        <v>65</v>
+        <v>643</v>
       </c>
       <c r="X16" s="13" t="s">
         <v>435</v>
@@ -14204,7 +14111,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>253</v>
       </c>
@@ -14212,18 +14119,12 @@
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="T17" t="s">
-        <v>536</v>
-      </c>
-      <c r="U17" t="s">
-        <v>65</v>
+        <v>644</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -14231,13 +14132,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="T18" t="s">
-        <v>536</v>
-      </c>
-      <c r="U18" t="s">
-        <v>65</v>
+        <v>645</v>
       </c>
       <c r="X18" s="13" t="s">
         <v>435</v>
@@ -14246,7 +14141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -14254,18 +14149,12 @@
         <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="T19" t="s">
-        <v>536</v>
-      </c>
-      <c r="U19" t="s">
-        <v>65</v>
+        <v>686</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
     </row>
-    <row r="20" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -14275,12 +14164,6 @@
       <c r="C20" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="T20" t="s">
-        <v>536</v>
-      </c>
-      <c r="U20" t="s">
-        <v>65</v>
-      </c>
       <c r="V20" t="s">
         <v>521</v>
       </c>
@@ -14290,7 +14173,7 @@
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -14298,13 +14181,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="T21" t="s">
-        <v>536</v>
-      </c>
-      <c r="U21" t="s">
-        <v>65</v>
+        <v>646</v>
       </c>
       <c r="X21" s="13" t="s">
         <v>435</v>
@@ -14313,7 +14190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>416</v>
       </c>
@@ -14321,30 +14198,18 @@
         <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="T22" t="s">
-        <v>536</v>
-      </c>
-      <c r="U22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="T23" t="s">
-        <v>536</v>
-      </c>
-      <c r="U23" t="s">
-        <v>65</v>
+        <v>613</v>
       </c>
       <c r="X23" s="13" t="s">
         <v>435</v>
@@ -14353,19 +14218,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>531</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="T24" t="s">
-        <v>536</v>
-      </c>
-      <c r="U24" t="s">
-        <v>65</v>
-      </c>
       <c r="X24" s="13" t="s">
         <v>435</v>
       </c>
@@ -14373,19 +14232,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>534</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="T25" t="s">
-        <v>536</v>
-      </c>
-      <c r="U25" t="s">
-        <v>65</v>
-      </c>
       <c r="X25" s="13" t="s">
         <v>435</v>
       </c>
@@ -14393,7 +14246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -14401,12 +14254,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="22:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
     </row>
-    <row r="62" spans="22:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y62" s="6"/>
     </row>
   </sheetData>
@@ -14591,13 +14444,13 @@
         <v>417</v>
       </c>
       <c r="Y1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Z1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AA1" t="s">
         <v>539</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>540</v>
       </c>
       <c r="AB1" t="s">
         <v>434</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161F50B2-0AAB-5845-952B-2DD1FED5293F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAABF732-CEAF-DE46-8AD1-6EBD8667A141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
     <sheet name="meta" sheetId="1" r:id="rId2"/>
     <sheet name="igs" sheetId="10" r:id="rId3"/>
     <sheet name="capstatements" sheetId="13" r:id="rId4"/>
-    <sheet name="profiles" sheetId="2" r:id="rId5"/>
+    <sheet name="profiles" sheetId="23" r:id="rId5"/>
     <sheet name="resources" sheetId="4" r:id="rId6"/>
     <sheet name="ops" sheetId="5" r:id="rId7"/>
     <sheet name="interactions" sheetId="6" r:id="rId8"/>
     <sheet name="rest_interactions" sheetId="11" r:id="rId9"/>
     <sheet name="sps" sheetId="20" r:id="rId10"/>
-    <sheet name="sp_combos" sheetId="21" r:id="rId11"/>
+    <sheet name="sp_combos" sheetId="22" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$A$1:$K$96</definedName>
@@ -44,40 +44,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>User</author>
-  </authors>
-  <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{6820CBB5-E079-4C49-8DAA-4A5FA09B0DD0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F80C4D5F-754A-BE44-8144-8F9387CD5898}</author>
@@ -113,15 +79,15 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4B683F90-C00C-A74C-9F16-520D513D279B}</author>
-    <author>tc={AD36599E-6850-6647-94F5-BC3E349388EE}</author>
-    <author>tc={1FB031C4-5603-CB46-9901-9885749EFFB1}</author>
+    <author>tc={D123EF51-46F1-1341-AF16-81EA94978931}</author>
+    <author>tc={A157258E-CBF6-C345-9459-64FF9319F2BC}</author>
+    <author>tc={D311E409-D311-0C43-BC63-D68872BACEF4}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4B683F90-C00C-A74C-9F16-520D513D279B}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D123EF51-46F1-1341-AF16-81EA94978931}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -131,7 +97,7 @@
     make this a comma separate list of profiles</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{AD36599E-6850-6647-94F5-BC3E349388EE}">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{A157258E-CBF6-C345-9459-64FF9319F2BC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -139,7 +105,7 @@
     does this do anything if not delete row</t>
       </text>
     </comment>
-    <comment ref="I40" authorId="2" shapeId="0" xr:uid="{1FB031C4-5603-CB46-9901-9885749EFFB1}">
+    <comment ref="I40" authorId="2" shapeId="0" xr:uid="{D311E409-D311-0C43-BC63-D68872BACEF4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="703">
   <si>
     <t>Element</t>
   </si>
@@ -1753,9 +1719,6 @@
     <t>http://hl7.org/fhir/smart-app-launch/ImplementationGuide/hl7.fhir.uv.smart-app-launch</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-clinical-test</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson</t>
   </si>
   <si>
@@ -1772,9 +1735,6 @@
   </si>
   <si>
     <t>ServiceRequest</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-imaging</t>
   </si>
   <si>
     <t>SHOULD,SHOULD,SHOULD,SHOULD</t>
@@ -1978,13 +1938,7 @@
     <t>US Core Extension Questionnaire URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sdoh-assessment</t>
-  </si>
-  <si>
     <t>US Core Observation SDOH Assessment Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-social-history</t>
   </si>
   <si>
     <t>US Core Observation Social History Profile</t>
@@ -2321,12 +2275,63 @@
   <si>
     <t>Allows retrieving !QuestionnaireResponses that have been completed against a specified form</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-coverage</t>
+  </si>
+  <si>
+    <t>US Core Coverage Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationdispense</t>
+  </si>
+  <si>
+    <t>US Core MedicationDispense Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-pregnancystatus</t>
+  </si>
+  <si>
+    <t>US Core Observation Pregnancy Status Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-pregnancyintent</t>
+  </si>
+  <si>
+    <t>US Core Observation Pregnancy Intent Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-occupation</t>
+  </si>
+  <si>
+    <t>US Core Observation Occupation Profile</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sdoh-assessment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-simple-observation</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-imaging</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-clinical-result</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-specimen</t>
+  </si>
+  <si>
+    <t>US Core Specimen Profile</t>
+  </si>
+  <si>
+    <t>Specimen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2404,19 +2409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
@@ -2436,12 +2428,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2493,10 +2479,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2526,10 +2512,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2537,7 +2524,17 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2908,16 +2905,16 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2021-11-10T17:47:31.83" personId="{14A52E69-4757-9B48-BCB0-430F0B406E9E}" id="{4B683F90-C00C-A74C-9F16-520D513D279B}">
+  <threadedComment ref="C1" dT="2021-11-10T17:47:31.83" personId="{14A52E69-4757-9B48-BCB0-430F0B406E9E}" id="{D123EF51-46F1-1341-AF16-81EA94978931}">
     <text>add column for include file</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2021-11-10T17:48:52.85" personId="{14A52E69-4757-9B48-BCB0-430F0B406E9E}" id="{2E8672F5-A2AB-DE4A-8FAD-F9E65AAA452C}" parentId="{4B683F90-C00C-A74C-9F16-520D513D279B}">
+  <threadedComment ref="C1" dT="2021-11-10T17:48:52.85" personId="{14A52E69-4757-9B48-BCB0-430F0B406E9E}" id="{CE8B7051-AD03-244E-85A2-5F2F1087AA1F}" parentId="{D123EF51-46F1-1341-AF16-81EA94978931}">
     <text>make this a comma separate list of profiles</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2021-11-08T19:54:50.37" personId="{14A52E69-4757-9B48-BCB0-430F0B406E9E}" id="{AD36599E-6850-6647-94F5-BC3E349388EE}">
+  <threadedComment ref="I1" dT="2021-11-08T19:54:50.37" personId="{14A52E69-4757-9B48-BCB0-430F0B406E9E}" id="{A157258E-CBF6-C345-9459-64FF9319F2BC}">
     <text>does this do anything if not delete row</text>
   </threadedComment>
-  <threadedComment ref="I40" dT="2021-11-06T02:44:23.26" personId="{14A52E69-4757-9B48-BCB0-430F0B406E9E}" id="{1FB031C4-5603-CB46-9901-9885749EFFB1}">
+  <threadedComment ref="I40" dT="2021-11-06T02:44:23.26" personId="{14A52E69-4757-9B48-BCB0-430F0B406E9E}" id="{D311E409-D311-0C43-BC63-D68872BACEF4}">
     <text>is column being used???</text>
   </threadedComment>
 </ThreadedComments>
@@ -2950,7 +2947,7 @@
         <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2982,7 +2979,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2998,7 +2995,7 @@
         <v>454</v>
       </c>
       <c r="B8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3069,7 +3066,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>30</v>
@@ -4025,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -4183,7 +4180,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -4333,7 +4330,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -4392,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -4610,7 +4607,7 @@
         <v>51</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="Z30" t="s">
         <v>167</v>
@@ -4632,7 +4629,7 @@
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -4657,7 +4654,7 @@
         <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="M31" t="s">
         <v>51</v>
@@ -4666,10 +4663,10 @@
         <v>51</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="Z31" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AA31" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B31&amp;" resources matching the name"</f>
@@ -4685,7 +4682,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -4710,7 +4707,7 @@
         <v>52</v>
       </c>
       <c r="L32" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
@@ -4728,7 +4725,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
@@ -4772,7 +4769,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
@@ -4819,7 +4816,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -4863,7 +4860,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -4919,7 +4916,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C37" t="s">
         <v>54</v>
@@ -4963,7 +4960,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
@@ -5064,7 +5061,7 @@
         <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
@@ -5118,7 +5115,7 @@
         <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -5172,7 +5169,7 @@
         <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -5311,7 +5308,7 @@
         <v>51</v>
       </c>
       <c r="Y44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Z44" s="4" t="str">
         <f>"GET [base]/"&amp;B44&amp;"?patient=1137192"</f>
@@ -7518,7 +7515,7 @@
         <v>51</v>
       </c>
       <c r="X85" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Y85" t="str">
         <f>"support searching for all "&amp;LOWER(B85)&amp;"s for a patient"</f>
@@ -7651,7 +7648,7 @@
         <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D88" t="s">
         <v>64</v>
@@ -7689,7 +7686,7 @@
         <v>51</v>
       </c>
       <c r="Y88" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Z88" s="4" t="str">
         <f>"GET [base]/"&amp;B88&amp;"?"&amp;C88&amp;"=http://snomed.info/sct\|17561000"</f>
@@ -8656,7 +8653,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C106" t="s">
         <v>56</v>
@@ -8709,7 +8706,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C107" t="s">
         <v>84</v>
@@ -8768,7 +8765,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C108" t="s">
         <v>134</v>
@@ -8818,7 +8815,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
@@ -8871,10 +8868,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C110" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D110" t="s">
         <v>28</v>
@@ -8925,7 +8922,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C111" t="s">
         <v>50</v>
@@ -8960,10 +8957,10 @@
         <v>51</v>
       </c>
       <c r="Y111" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Z111" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AB111" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B111)&amp;"-"&amp;SUBSTITUTE(C111,"_","")&amp;".html")</f>
@@ -9021,7 +9018,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C113" t="s">
         <v>50</v>
@@ -9056,10 +9053,10 @@
         <v>51</v>
       </c>
       <c r="Y113" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Z113" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AA113" s="8"/>
       <c r="AB113" t="str">
@@ -9072,7 +9069,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C114" t="s">
         <v>84</v>
@@ -9131,7 +9128,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C115" t="s">
         <v>21</v>
@@ -9169,7 +9166,7 @@
         <v>51</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="Z115" s="4" t="str">
         <f>"GET [base]/"&amp;B115&amp;"?"&amp;C115&amp;"=Mary Shaw"</f>
@@ -9189,7 +9186,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C116" t="s">
         <v>50</v>
@@ -9228,7 +9225,7 @@
         <v>support fetching a !QuestionnaireResponse</v>
       </c>
       <c r="Z116" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="AB116" t="str">
         <f t="shared" si="9"/>
@@ -9240,7 +9237,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C117" t="s">
         <v>84</v>
@@ -9299,7 +9296,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C118" t="s">
         <v>56</v>
@@ -9340,7 +9337,7 @@
         <v>51</v>
       </c>
       <c r="Y118" s="19" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AB118" t="str">
         <f t="shared" si="9"/>
@@ -9352,10 +9349,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C119" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D119" t="s">
         <v>28</v>
@@ -9380,7 +9377,7 @@
         <v>52</v>
       </c>
       <c r="L119" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="M119" t="s">
         <v>51</v>
@@ -9389,7 +9386,7 @@
         <v>51</v>
       </c>
       <c r="Y119" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AB119" t="str">
         <f t="shared" si="9"/>
@@ -9401,10 +9398,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C120" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
@@ -9445,7 +9442,7 @@
         <v>87</v>
       </c>
       <c r="Y120" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="AB120" t="str">
         <f t="shared" si="9"/>
@@ -9457,10 +9454,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C121" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D121" t="s">
         <v>28</v>
@@ -9495,7 +9492,7 @@
         <v>51</v>
       </c>
       <c r="Y121" s="19" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="AB121" t="str">
         <f t="shared" si="9"/>
@@ -9507,7 +9504,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C122" t="s">
         <v>84</v>
@@ -9548,7 +9545,7 @@
         <v>51</v>
       </c>
       <c r="Y122" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="Z122" s="4" t="str">
         <f>"GET [base]/"&amp;B122&amp;"?patient=1137192"</f>
@@ -9568,7 +9565,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C123" t="s">
         <v>56</v>
@@ -9624,7 +9621,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -9680,7 +9677,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C125" t="s">
         <v>84</v>
@@ -9721,10 +9718,10 @@
         <v>51</v>
       </c>
       <c r="X125" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="Z125" s="8" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="AA125" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B125&amp; " resources for the specified patient."</f>
@@ -9740,10 +9737,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C126" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
@@ -9801,7 +9798,7 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9812,12 +9809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF727CF-CEC3-F547-97AE-8C150084E4C3}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7AC33C-2643-EE4B-9487-6CC99572F031}">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView topLeftCell="A56" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9848,7 +9844,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>91</v>
@@ -9869,7 +9865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9894,7 +9890,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9919,7 +9915,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9944,7 +9940,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9969,7 +9965,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10000,7 +9996,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10025,7 +10021,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10050,7 +10046,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10076,7 +10072,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10103,7 +10099,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10129,7 +10125,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10154,7 +10150,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10185,7 +10181,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10210,7 +10206,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10235,7 +10231,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10266,7 +10262,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10278,7 +10274,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F17" t="s">
         <v>64</v>
@@ -10290,14 +10286,14 @@
         <v>289</v>
       </c>
       <c r="J17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and location</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10323,7 +10319,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10354,7 +10350,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10366,7 +10362,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F20" t="s">
         <v>64</v>
@@ -10378,14 +10374,14 @@
         <v>294</v>
       </c>
       <c r="J20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and discharge-disposition</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10412,7 +10408,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10438,7 +10434,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10463,7 +10459,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10489,7 +10485,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10516,7 +10512,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10543,7 +10539,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10570,7 +10566,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10595,7 +10591,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10620,7 +10616,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10645,7 +10641,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10676,7 +10672,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10688,7 +10684,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D32" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F32" t="s">
         <v>64</v>
@@ -10697,17 +10693,17 @@
         <v>128</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified death-date and family</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10738,7 +10734,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10769,7 +10765,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10800,7 +10796,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10830,10 +10826,10 @@
         <v>312</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10866,7 +10862,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10878,7 +10874,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F38" t="s">
         <v>64</v>
@@ -10890,13 +10886,13 @@
         <v>144</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10926,7 +10922,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10950,13 +10946,13 @@
         <v>147</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10968,7 +10964,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F41" t="s">
         <v>64</v>
@@ -10980,13 +10976,13 @@
         <v>147</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10998,7 +10994,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F42" t="s">
         <v>64</v>
@@ -11010,13 +11006,13 @@
         <v>147</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11028,7 +11024,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D43" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F43" t="s">
         <v>64</v>
@@ -11040,13 +11036,13 @@
         <v>147</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11076,7 +11072,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11107,7 +11103,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11138,7 +11134,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11146,7 +11142,7 @@
         <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D47" t="s">
         <v>110</v>
@@ -11168,7 +11164,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11176,7 +11172,7 @@
         <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D48" t="s">
         <v>139</v>
@@ -11201,7 +11197,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11209,7 +11205,7 @@
         <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D49" t="s">
         <v>141</v>
@@ -11231,7 +11227,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11239,7 +11235,7 @@
         <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D50" t="s">
         <v>188</v>
@@ -11264,7 +11260,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11272,7 +11268,7 @@
         <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D51" t="s">
         <v>212</v>
@@ -11294,7 +11290,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11325,7 +11321,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11356,7 +11352,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11389,7 +11385,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11422,7 +11418,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11455,7 +11451,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11488,7 +11484,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11519,7 +11515,7 @@
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11549,7 +11545,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11580,7 +11576,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11611,7 +11607,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11642,7 +11638,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11650,7 +11646,7 @@
         <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D63" t="s">
         <v>229</v>
@@ -11674,7 +11670,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11682,7 +11678,7 @@
         <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D64" t="s">
         <v>139</v>
@@ -11707,7 +11703,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11715,7 +11711,7 @@
         <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D65" t="s">
         <v>141</v>
@@ -11737,7 +11733,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11745,7 +11741,7 @@
         <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D66" t="s">
         <v>188</v>
@@ -11770,7 +11766,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11778,7 +11774,7 @@
         <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D67" t="s">
         <v>212</v>
@@ -11800,7 +11796,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11808,7 +11804,7 @@
         <v>304</v>
       </c>
       <c r="C68" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D68" t="s">
         <v>110</v>
@@ -11830,7 +11826,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11863,7 +11859,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11895,7 +11891,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11927,7 +11923,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11959,7 +11955,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="137" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11983,16 +11979,16 @@
         <v>295</v>
       </c>
       <c r="I73" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="K73" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="J73" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12023,7 +12019,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12052,7 +12048,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12085,7 +12081,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12118,7 +12114,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="16" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12148,7 +12144,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12179,7 +12175,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12187,7 +12183,7 @@
         <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D80" t="s">
         <v>112</v>
@@ -12216,7 +12212,7 @@
         <v>241</v>
       </c>
       <c r="C81" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D81" t="s">
         <v>110</v>
@@ -12231,16 +12227,16 @@
         <v>100</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12252,7 +12248,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D82" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F82" t="s">
         <v>64</v>
@@ -12261,21 +12257,21 @@
         <v>100</v>
       </c>
       <c r="I82" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" ref="C83:C96" si="4">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B83)</f>
@@ -12294,19 +12290,19 @@
         <v>287</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K83" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ")</f>
         <v>Fetches a bundle of all ServiceRequest resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="4"/>
@@ -12325,19 +12321,19 @@
         <v>192</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K84" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp;" resources for the specified patient and  a category code"</f>
         <v>Fetches a bundle of all ServiceRequest resources for the specified patient and  a category code</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="4"/>
@@ -12356,26 +12352,26 @@
         <v>193</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K85" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B85&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all ServiceRequest resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</v>
       </c>
       <c r="D86" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -12387,26 +12383,26 @@
         <v>195</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K86" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B86&amp;" resources for the specified patient and date and a category code"</f>
         <v>Fetches a bundle of all ServiceRequest resources for the specified patient and date and a category code</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</v>
       </c>
       <c r="D87" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F87" t="s">
         <v>64</v>
@@ -12415,17 +12411,17 @@
         <v>211</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K87" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B87&amp;" resources for the specified patient and date and service code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all ServiceRequest resources for the specified patient and date and service code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12437,7 +12433,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D88" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F88" t="s">
         <v>64</v>
@@ -12446,26 +12442,26 @@
         <v>100</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K88" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B88&amp;" resources for the specified "&amp;SUBSTITUTE(D88,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and description</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="D89" t="s">
         <v>110</v>
@@ -12477,29 +12473,29 @@
         <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K89" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ")</f>
-        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !QuestionnaireResponse resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="D90" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F90" t="s">
         <v>64</v>
@@ -12508,32 +12504,32 @@
         <v>100</v>
       </c>
       <c r="H90" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I90" t="s">
+        <v>612</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="K90" t="str">
         <f>"Fetches a bundle of all "&amp;B90&amp;" resources for the specified "&amp;SUBSTITUTE(D90,","," and  ") &amp; "= 'sdoh'"</f>
-        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient and  _tag= 'sdoh'</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !QuestionnaireResponse resources for the specified patient and  _tag= 'sdoh'</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="D91" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F91" t="s">
         <v>64</v>
@@ -12542,29 +12538,29 @@
         <v>143</v>
       </c>
       <c r="I91" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="K91" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B91&amp;" resources for the specified patient and date"</f>
-        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient and date</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !QuestionnaireResponse resources for the specified patient and date</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F92" t="s">
         <v>64</v>
@@ -12573,32 +12569,32 @@
         <v>211</v>
       </c>
       <c r="H92" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I92" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="K92" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
-        <v>Fetches a bundle of all QuestionnaireResponse resources tagged as 'sdoh' for the specified patient and date</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !QuestionnaireResponse resources tagged as 'sdoh' for the specified patient and date</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F93" t="s">
         <v>64</v>
@@ -12607,22 +12603,22 @@
         <v>85</v>
       </c>
       <c r="I93" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="K93" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient that have been completed against a specified form."</f>
-        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient that have been completed against a specified form.</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="151" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Fetches a bundle of all !QuestionnaireResponse resources for the specified patient that have been completed against a specified form.</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="151" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="4"/>
@@ -12642,22 +12638,22 @@
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="K94" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed))."</f>
         <v>Fetches a bundle of all MedicationDispense resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed)).</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
@@ -12677,29 +12673,29 @@
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K95" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed) and type of dispense (e.g., partially dispensed)."</f>
         <v>Fetches a bundle of all MedicationDispense resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed) and type of dispense (e.g., partially dispensed).</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationdispense</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>51</v>
@@ -12712,10 +12708,10 @@
       </c>
       <c r="H96" s="16"/>
       <c r="I96" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="K96" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient for a given dispense and date or range"</f>
@@ -12723,13 +12719,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K96" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Device"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K96" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -12803,7 +12798,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12811,7 +12806,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12887,7 +12882,7 @@
         <v>526</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
@@ -12895,7 +12890,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>521</v>
@@ -12975,18 +12970,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5583FAA5-D04D-8A4F-B7E2-586644D7B670}">
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
@@ -13009,7 +13004,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B2" t="s">
@@ -13023,7 +13018,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="18" t="s">
         <v>228</v>
       </c>
       <c r="B3" t="s">
@@ -13037,7 +13032,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="18" t="s">
         <v>319</v>
       </c>
       <c r="B4" t="s">
@@ -13051,11 +13046,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>640</v>
+      <c r="A5" s="18" t="s">
+        <v>636</v>
       </c>
       <c r="B5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -13065,11 +13060,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>641</v>
+      <c r="A6" s="18" t="s">
+        <v>637</v>
       </c>
       <c r="B6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -13080,38 +13075,38 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>405</v>
+        <v>686</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>687</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>183</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -13122,220 +13117,220 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>327</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>643</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>639</v>
+      </c>
+      <c r="B12" t="s">
         <v>347</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="B12" t="s">
-        <v>589</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B13" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B14" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B15" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B16" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B17" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="B18" t="s">
+        <v>598</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>341</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>342</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>323</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>324</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" t="s">
-        <v>344</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>336</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B22" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>601</v>
+      <c r="A24" t="s">
+        <v>688</v>
       </c>
       <c r="B24" t="s">
-        <v>602</v>
+        <v>689</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="B25" t="s">
-        <v>473</v>
+        <v>391</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -13345,11 +13340,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>603</v>
+      <c r="A26" t="s">
+        <v>690</v>
       </c>
       <c r="B26" t="s">
-        <v>604</v>
+        <v>691</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -13359,11 +13354,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>470</v>
+      <c r="A27" t="s">
+        <v>692</v>
       </c>
       <c r="B27" t="s">
-        <v>471</v>
+        <v>693</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -13373,11 +13368,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>468</v>
+      <c r="A28" t="s">
+        <v>694</v>
       </c>
       <c r="B28" t="s">
-        <v>469</v>
+        <v>695</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -13388,10 +13383,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>484</v>
+        <v>696</v>
       </c>
       <c r="B29" t="s">
-        <v>485</v>
+        <v>599</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -13402,10 +13397,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="B30" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -13415,11 +13410,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>267</v>
+      <c r="A31" s="23" t="s">
+        <v>697</v>
       </c>
       <c r="B31" t="s">
-        <v>325</v>
+        <v>600</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -13430,10 +13425,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
       <c r="B32" t="s">
-        <v>605</v>
+        <v>471</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -13444,10 +13439,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -13458,10 +13453,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -13472,10 +13467,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="B35" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -13486,10 +13481,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>606</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s">
-        <v>607</v>
+        <v>325</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -13500,10 +13495,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="B37" t="s">
-        <v>459</v>
+        <v>601</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -13514,10 +13509,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>534</v>
+        <v>462</v>
       </c>
       <c r="B38" t="s">
-        <v>608</v>
+        <v>463</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -13528,10 +13523,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>527</v>
+        <v>464</v>
       </c>
       <c r="B39" t="s">
-        <v>609</v>
+        <v>465</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -13542,10 +13537,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B40" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -13556,10 +13551,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>480</v>
+        <v>602</v>
       </c>
       <c r="B41" t="s">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -13570,10 +13565,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B42" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -13584,10 +13579,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>456</v>
+        <v>698</v>
       </c>
       <c r="B43" t="s">
-        <v>457</v>
+        <v>604</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -13597,146 +13592,228 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
-        <v>330</v>
+      <c r="A44" s="23" t="s">
+        <v>699</v>
       </c>
       <c r="B44" t="s">
-        <v>331</v>
+        <v>605</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>69</v>
+        <v>482</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>483</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>321</v>
+        <v>480</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>638</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>259</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>338</v>
+        <v>466</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>467</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>332</v>
+        <v>456</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>413</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
-        <v>414</v>
+        <v>331</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>415</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>680</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>610</v>
+        <v>346</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>611</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>528</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s">
-        <v>529</v>
+        <v>322</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>530</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" t="s">
+        <v>339</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B53" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B54" t="s">
+        <v>414</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="B55" t="s">
+        <v>606</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="B56" t="s">
+        <v>528</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="B57" t="s">
         <v>531</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
         <v>532</v>
       </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="B58" t="s">
+        <v>701</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>702</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"!"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13886,13 +13963,13 @@
         <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="V4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="X4" s="13" t="s">
         <v>434</v>
@@ -13909,7 +13986,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="X5" s="13" t="s">
         <v>434</v>
@@ -13926,7 +14003,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="X6" s="13" t="s">
         <v>434</v>
@@ -13958,7 +14035,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="X8" s="13" t="s">
         <v>434</v>
@@ -13975,7 +14052,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="X9" s="13" t="s">
         <v>434</v>
@@ -14006,7 +14083,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="X11" s="13" t="s">
         <v>434</v>
@@ -14095,7 +14172,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="X16" s="13" t="s">
         <v>434</v>
@@ -14112,7 +14189,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -14125,7 +14202,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="X18" s="13" t="s">
         <v>434</v>
@@ -14142,7 +14219,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -14174,7 +14251,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="X21" s="13" t="s">
         <v>434</v>
@@ -14191,18 +14268,18 @@
         <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="X23" s="13" t="s">
         <v>434</v>
@@ -14213,7 +14290,7 @@
     </row>
     <row r="24" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
@@ -14227,7 +14304,7 @@
     </row>
     <row r="25" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -14260,7 +14337,7 @@
     <sortCondition ref="A2:A21"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14437,13 +14514,13 @@
         <v>416</v>
       </c>
       <c r="Y1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Z1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AA1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AB1" t="s">
         <v>433</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAABF732-CEAF-DE46-8AD1-6EBD8667A141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F22FF-1514-D54D-A2D3-EA98214427D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52900" yWindow="600" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
     <sheet name="meta" sheetId="1" r:id="rId2"/>
     <sheet name="igs" sheetId="10" r:id="rId3"/>
     <sheet name="capstatements" sheetId="13" r:id="rId4"/>
-    <sheet name="profiles" sheetId="23" r:id="rId5"/>
+    <sheet name="profiles" sheetId="25" r:id="rId5"/>
     <sheet name="resources" sheetId="4" r:id="rId6"/>
     <sheet name="ops" sheetId="5" r:id="rId7"/>
     <sheet name="interactions" sheetId="6" r:id="rId8"/>
@@ -1941,22 +1941,10 @@
     <t>US Core Observation SDOH Assessment Profile</t>
   </si>
   <si>
-    <t>US Core Observation Social History Profile</t>
-  </si>
-  <si>
     <t>US Core Observation Sexual Orientation Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-survey</t>
-  </si>
-  <si>
-    <t>US Core Observation Survey Profile</t>
-  </si>
-  <si>
     <t>US Core Observation Imaging Result Profile</t>
-  </si>
-  <si>
-    <t>US Core Observation Clinical Test Result Profile</t>
   </si>
   <si>
     <t>US Core QuestionnaireResponse Profile</t>
@@ -2325,6 +2313,18 @@
   </si>
   <si>
     <t>Specimen</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment</t>
+  </si>
+  <si>
+    <t>US Core Simple Observation Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Screening Assessment Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Clinical Result Profile</t>
   </si>
 </sst>
 </file>
@@ -2482,7 +2482,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2516,7 +2516,6 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4330,7 +4329,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -4607,7 +4606,7 @@
         <v>51</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="Z30" t="s">
         <v>167</v>
@@ -4629,7 +4628,7 @@
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -4654,7 +4653,7 @@
         <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="M31" t="s">
         <v>51</v>
@@ -4663,10 +4662,10 @@
         <v>51</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="Z31" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AA31" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B31&amp;" resources matching the name"</f>
@@ -4682,7 +4681,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -4707,7 +4706,7 @@
         <v>52</v>
       </c>
       <c r="L32" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
@@ -4725,7 +4724,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
@@ -4769,7 +4768,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
@@ -4816,7 +4815,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -4860,7 +4859,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -4916,7 +4915,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C37" t="s">
         <v>54</v>
@@ -4960,7 +4959,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
@@ -9166,7 +9165,7 @@
         <v>51</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="Z115" s="4" t="str">
         <f>"GET [base]/"&amp;B115&amp;"?"&amp;C115&amp;"=Mary Shaw"</f>
@@ -9186,7 +9185,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C116" t="s">
         <v>50</v>
@@ -9225,7 +9224,7 @@
         <v>support fetching a !QuestionnaireResponse</v>
       </c>
       <c r="Z116" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AB116" t="str">
         <f t="shared" si="9"/>
@@ -9237,7 +9236,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C117" t="s">
         <v>84</v>
@@ -9296,7 +9295,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C118" t="s">
         <v>56</v>
@@ -9337,7 +9336,7 @@
         <v>51</v>
       </c>
       <c r="Y118" s="19" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="AB118" t="str">
         <f t="shared" si="9"/>
@@ -9349,10 +9348,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C119" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D119" t="s">
         <v>28</v>
@@ -9377,7 +9376,7 @@
         <v>52</v>
       </c>
       <c r="L119" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="M119" t="s">
         <v>51</v>
@@ -9386,7 +9385,7 @@
         <v>51</v>
       </c>
       <c r="Y119" s="19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="AB119" t="str">
         <f t="shared" si="9"/>
@@ -9398,7 +9397,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C120" t="s">
         <v>547</v>
@@ -9442,7 +9441,7 @@
         <v>87</v>
       </c>
       <c r="Y120" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="AB120" t="str">
         <f t="shared" si="9"/>
@@ -9454,10 +9453,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C121" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D121" t="s">
         <v>28</v>
@@ -9492,7 +9491,7 @@
         <v>51</v>
       </c>
       <c r="Y121" s="19" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AB121" t="str">
         <f t="shared" si="9"/>
@@ -9504,7 +9503,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C122" t="s">
         <v>84</v>
@@ -9545,7 +9544,7 @@
         <v>51</v>
       </c>
       <c r="Y122" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="Z122" s="4" t="str">
         <f>"GET [base]/"&amp;B122&amp;"?patient=1137192"</f>
@@ -9565,7 +9564,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C123" t="s">
         <v>56</v>
@@ -9621,7 +9620,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -9677,7 +9676,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C125" t="s">
         <v>84</v>
@@ -9718,10 +9717,10 @@
         <v>51</v>
       </c>
       <c r="X125" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="Z125" s="8" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AA125" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B125&amp; " resources for the specified patient."</f>
@@ -9737,10 +9736,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C126" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
@@ -10684,7 +10683,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D32" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F32" t="s">
         <v>64</v>
@@ -10693,10 +10692,10 @@
         <v>128</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10826,7 +10825,7 @@
         <v>312</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -10886,7 +10885,7 @@
         <v>144</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>557</v>
@@ -11142,7 +11141,7 @@
         <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D47" t="s">
         <v>110</v>
@@ -11172,7 +11171,7 @@
         <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D48" t="s">
         <v>139</v>
@@ -11205,7 +11204,7 @@
         <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D49" t="s">
         <v>141</v>
@@ -11235,7 +11234,7 @@
         <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D50" t="s">
         <v>188</v>
@@ -11268,7 +11267,7 @@
         <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D51" t="s">
         <v>212</v>
@@ -11646,7 +11645,7 @@
         <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D63" t="s">
         <v>229</v>
@@ -11678,7 +11677,7 @@
         <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D64" t="s">
         <v>139</v>
@@ -11711,7 +11710,7 @@
         <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D65" t="s">
         <v>141</v>
@@ -11741,7 +11740,7 @@
         <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D66" t="s">
         <v>188</v>
@@ -11774,7 +11773,7 @@
         <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D67" t="s">
         <v>212</v>
@@ -11804,7 +11803,7 @@
         <v>304</v>
       </c>
       <c r="C68" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D68" t="s">
         <v>110</v>
@@ -12183,7 +12182,7 @@
         <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D80" t="s">
         <v>112</v>
@@ -12212,7 +12211,7 @@
         <v>241</v>
       </c>
       <c r="C81" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D81" t="s">
         <v>110</v>
@@ -12227,13 +12226,13 @@
         <v>100</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -12457,7 +12456,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
@@ -12473,10 +12472,10 @@
         <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K89" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ")</f>
@@ -12488,14 +12487,14 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="D90" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F90" t="s">
         <v>64</v>
@@ -12504,13 +12503,13 @@
         <v>100</v>
       </c>
       <c r="H90" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I90" t="s">
+        <v>608</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>616</v>
       </c>
       <c r="K90" t="str">
         <f>"Fetches a bundle of all "&amp;B90&amp;" resources for the specified "&amp;SUBSTITUTE(D90,","," and  ") &amp; "= 'sdoh'"</f>
@@ -12522,14 +12521,14 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="D91" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F91" t="s">
         <v>64</v>
@@ -12538,10 +12537,10 @@
         <v>143</v>
       </c>
       <c r="I91" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K91" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B91&amp;" resources for the specified patient and date"</f>
@@ -12553,14 +12552,14 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F92" t="s">
         <v>64</v>
@@ -12569,13 +12568,13 @@
         <v>211</v>
       </c>
       <c r="H92" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I92" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="K92" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
@@ -12587,14 +12586,14 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F93" t="s">
         <v>64</v>
@@ -12603,10 +12602,10 @@
         <v>85</v>
       </c>
       <c r="I93" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="K93" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient that have been completed against a specified form."</f>
@@ -12618,7 +12617,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="4"/>
@@ -12638,10 +12637,10 @@
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K94" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed))."</f>
@@ -12653,7 +12652,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
@@ -12673,10 +12672,10 @@
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K95" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed) and type of dispense (e.g., partially dispensed)."</f>
@@ -12688,14 +12687,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationdispense</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>51</v>
@@ -12708,10 +12707,10 @@
       </c>
       <c r="H96" s="16"/>
       <c r="I96" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K96" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient for a given dispense and date or range"</f>
@@ -12798,7 +12797,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12806,7 +12805,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12882,7 +12881,7 @@
         <v>526</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
@@ -12890,7 +12889,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>521</v>
@@ -12970,11 +12969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5583FAA5-D04D-8A4F-B7E2-586644D7B670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF3E0BA-3FCD-D647-BD07-B7C9B2EC4519}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13047,10 +13046,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -13061,10 +13060,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -13075,16 +13074,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -13145,7 +13144,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B12" t="s">
         <v>347</v>
@@ -13313,16 +13312,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B24" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -13341,10 +13340,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B26" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -13355,10 +13354,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B27" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -13369,10 +13368,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B28" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -13383,7 +13382,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B29" t="s">
         <v>599</v>
@@ -13410,11 +13409,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>697</v>
+      <c r="A31" t="s">
+        <v>693</v>
       </c>
       <c r="B31" t="s">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -13498,7 +13497,7 @@
         <v>524</v>
       </c>
       <c r="B37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -13550,11 +13549,11 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>602</v>
+      <c r="A41" t="s">
+        <v>699</v>
       </c>
       <c r="B41" t="s">
-        <v>603</v>
+        <v>701</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -13579,10 +13578,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B43" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -13592,11 +13591,11 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>699</v>
+      <c r="A44" t="s">
+        <v>695</v>
       </c>
       <c r="B44" t="s">
-        <v>605</v>
+        <v>702</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -13624,7 +13623,7 @@
         <v>480</v>
       </c>
       <c r="B46" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -13747,16 +13746,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B55" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -13789,16 +13788,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B58" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -13963,7 +13962,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="V4" t="s">
         <v>533</v>
@@ -13986,7 +13985,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="X5" s="13" t="s">
         <v>434</v>
@@ -14003,7 +14002,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="X6" s="13" t="s">
         <v>434</v>
@@ -14035,7 +14034,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="X8" s="13" t="s">
         <v>434</v>
@@ -14052,7 +14051,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="X9" s="13" t="s">
         <v>434</v>
@@ -14083,7 +14082,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="X11" s="13" t="s">
         <v>434</v>
@@ -14172,7 +14171,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="X16" s="13" t="s">
         <v>434</v>
@@ -14189,7 +14188,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -14202,7 +14201,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="X18" s="13" t="s">
         <v>434</v>
@@ -14219,7 +14218,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -14251,7 +14250,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="X21" s="13" t="s">
         <v>434</v>
@@ -14268,18 +14267,18 @@
         <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="X23" s="13" t="s">
         <v>434</v>
@@ -14514,7 +14513,7 @@
         <v>416</v>
       </c>
       <c r="Y1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="Z1" t="s">
         <v>535</v>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F22FF-1514-D54D-A2D3-EA98214427D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45C26DE-D8D2-6046-BB09-9D5C880F2069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52900" yWindow="600" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="1880" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -37,6 +37,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45C26DE-D8D2-6046-BB09-9D5C880F2069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3962CE87-7D7D-B849-A51F-A5EBC4FC1FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="1880" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51640" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="706">
   <si>
     <t>Element</t>
   </si>
@@ -1935,9 +1935,6 @@
     <t>US Core Ethnicity Extension</t>
   </si>
   <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-extension-questionnaire-uri</t>
-  </si>
-  <si>
     <t>US Core Extension Questionnaire URI</t>
   </si>
   <si>
@@ -1954,12 +1951,6 @@
   </si>
   <si>
     <t>QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>US Core provides two ways to represent SDOH assessment screening results using: 
-1. Observation: [US Core Observation SDOH Assessment Profile] 
-1. QuestionnaireResponse: [US Core QuestionnaireResponse Profile]
-US Core Servers **SHALL** support [US Core Observation SDOH Assessment Profile] for SDOH Assessments and **MAY** support the [US Core QuestionnaireResponse Profile] for SDOH Assessments.</t>
   </si>
   <si>
     <t>conf_QuestionnaireResponse</t>
@@ -2237,12 +2228,6 @@
     <t>http://hl7.org/fhir/smart-app-launch/history.html</t>
   </si>
   <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
-  </si>
-  <si>
-    <t>!QuestionnaireResponse</t>
-  </si>
-  <si>
     <t>!!Questionnaire</t>
   </si>
   <si>
@@ -2328,6 +2313,30 @@
   </si>
   <si>
     <t>US Core Observation Clinical Result Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-extension-questionnaire-uri</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>conf_Questionnaire</t>
+  </si>
+  <si>
+    <t>SDC Base Questionnaire Profile</t>
+  </si>
+  <si>
+    <t>US Core defines two ways to represent the questions and responses to screening and assessment instruments:
+- Observation: [US Core Observation Screening Assessment Profile]
+- Questionnaire/QuestionnaireResponse: [SDC Base Questionnaire]/[US Core QuestionnaireResponse Profile]
+US Core Servers **SHALL** [US Core Observation Screening Assessment Profile] and **SHOULD** support the  [SDC Base Questionnaire Profile]/[US Core QuestionnaireResponse Profile]</t>
   </si>
 </sst>
 </file>
@@ -2485,7 +2494,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2519,6 +2528,8 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2526,7 +2537,27 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3015,14 +3046,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B00118F-F6B9-6642-9BD4-D95AE82A4925}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB126"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G130" sqref="G130"/>
+      <selection pane="bottomRight" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3128,7 +3158,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="19" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3175,7 +3205,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3222,7 +3252,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3273,7 +3303,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3332,7 +3362,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3379,7 +3409,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3430,7 +3460,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3481,7 +3511,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3530,7 +3560,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3588,7 +3618,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3638,7 +3668,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3686,7 +3716,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3744,7 +3774,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3797,7 +3827,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3847,7 +3877,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3901,7 +3931,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3958,7 +3988,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4016,7 +4046,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4074,7 +4104,7 @@
         <v>SearchParameter-us-core-encounter-location.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4124,7 +4154,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4174,7 +4204,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4224,7 +4254,7 @@
         <v>SearchParameter-us-core-encounter-discharge-disposition.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4277,7 +4307,7 @@
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4324,7 +4354,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4332,7 +4362,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -4374,7 +4404,7 @@
         <v>SearchParameter-us-core-patient-death-date.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4420,7 +4450,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4468,7 +4498,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4512,7 +4542,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4569,7 +4599,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4609,7 +4639,7 @@
         <v>51</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Z30" t="s">
         <v>167</v>
@@ -4623,7 +4653,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4631,7 +4661,7 @@
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -4656,19 +4686,19 @@
         <v>52</v>
       </c>
       <c r="L31" t="s">
+        <v>638</v>
+      </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z31" t="s">
         <v>640</v>
-      </c>
-      <c r="M31" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>642</v>
       </c>
       <c r="AA31" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B31&amp;" resources matching the name"</f>
@@ -4679,12 +4709,12 @@
         <v>SearchParameter-us-core-!patient-tribal-affiliation.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -4709,7 +4739,7 @@
         <v>52</v>
       </c>
       <c r="L32" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
@@ -4722,12 +4752,12 @@
         <v>SearchParameter-us-core-!!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
@@ -4766,12 +4796,12 @@
         <v>SearchParameter-us-core-!!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
@@ -4813,12 +4843,12 @@
         <v>SearchParameter-us-core-!!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -4857,12 +4887,12 @@
         <v>SearchParameter-us-core-!!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -4913,12 +4943,12 @@
         <v>SearchParameter-us-core-!!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C37" t="s">
         <v>54</v>
@@ -4957,12 +4987,12 @@
         <v>SearchParameter-us-core-!!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
@@ -5001,7 +5031,7 @@
         <v>SearchParameter-us-core-!!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5055,7 +5085,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5109,7 +5139,7 @@
         <v>SearchParameter-us-core-condition-asserted-date.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5163,7 +5193,7 @@
         <v>SearchParameter-us-core-condition-recorded-date.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5217,7 +5247,7 @@
         <v>SearchParameter-us-core-condition-abatement-date.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5267,7 +5297,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5325,7 +5355,7 @@
         <v>SearchParameter-us-core-condition-encounter.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5384,7 +5414,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5434,7 +5464,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5488,7 +5518,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5541,7 +5571,7 @@
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5594,7 +5624,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5653,7 +5683,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5703,7 +5733,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5753,7 +5783,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5807,7 +5837,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5860,7 +5890,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5913,7 +5943,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5972,7 +6002,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6022,7 +6052,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6075,7 +6105,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6129,7 +6159,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6179,7 +6209,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6238,7 +6268,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6292,7 +6322,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6345,7 +6375,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6398,7 +6428,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6451,7 +6481,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6502,7 +6532,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6556,7 +6586,7 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6609,7 +6639,7 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6667,7 +6697,7 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6721,7 +6751,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6774,7 +6804,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6832,7 +6862,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6886,7 +6916,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6939,7 +6969,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6992,7 +7022,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7042,7 +7072,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7095,7 +7125,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7149,7 +7179,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7208,7 +7238,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7258,7 +7288,7 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7308,7 +7338,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7362,7 +7392,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7421,7 +7451,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7474,7 +7504,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7536,7 +7566,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7589,7 +7619,7 @@
         <v>SearchParameter-us-core-practitioner-id.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7642,7 +7672,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7700,7 +7730,7 @@
         <v>SearchParameter-us-core-careteam-role.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7863,7 +7893,7 @@
         <v>SearchParameter-us-core-device-status.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7918,7 +7948,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7973,7 +8003,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8028,7 +8058,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8082,7 +8112,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8137,7 +8167,7 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8192,7 +8222,7 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8247,7 +8277,7 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8302,7 +8332,7 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8357,7 +8387,7 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8412,7 +8442,7 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8467,7 +8497,7 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8525,7 +8555,7 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8586,7 +8616,7 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8650,7 +8680,7 @@
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8703,7 +8733,7 @@
         <v>SearchParameter-us-core-servicerequest-status.html</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8762,7 +8792,7 @@
         <v>SearchParameter-us-core-servicerequest-patient.html</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8812,7 +8842,7 @@
         <v>SearchParameter-us-core-servicerequest-category.html</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8865,7 +8895,7 @@
         <v>SearchParameter-us-core-servicerequest-code.html</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8919,7 +8949,7 @@
         <v>SearchParameter-us-core-servicerequest-authored.html</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8969,7 +8999,7 @@
         <v>SearchParameter-us-core-servicerequest-id.html</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9015,7 +9045,7 @@
         <v>SearchParameter-us-core-goal-description.html</v>
       </c>
     </row>
-    <row r="113" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9066,7 +9096,7 @@
         <v>SearchParameter-us-core-relatedperson-id.html</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9125,7 +9155,7 @@
         <v>SearchParameter-us-core-relatedperson-patient.html</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9168,7 +9198,7 @@
         <v>51</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Z115" s="4" t="str">
         <f>"GET [base]/"&amp;B115&amp;"?"&amp;C115&amp;"=Mary Shaw"</f>
@@ -9183,12 +9213,12 @@
         <v>SearchParameter-us-core-relatedperson-name.html</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C116" t="s">
         <v>50</v>
@@ -9201,7 +9231,7 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="H116" t="s">
         <v>51</v>
@@ -9214,7 +9244,7 @@
       </c>
       <c r="L116" t="str">
         <f t="shared" si="6"/>
-        <v>!QuestionnaireResponse._id</v>
+        <v>QuestionnaireResponse._id</v>
       </c>
       <c r="M116" t="s">
         <v>51</v>
@@ -9224,22 +9254,22 @@
       </c>
       <c r="Y116" s="4" t="str">
         <f>"support fetching a "&amp;B116</f>
-        <v>support fetching a !QuestionnaireResponse</v>
+        <v>support fetching a QuestionnaireResponse</v>
       </c>
       <c r="Z116" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="AB116" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-us-core-!questionnaireresponse-id.html</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-questionnaireresponse-id.html</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C117" t="s">
         <v>84</v>
@@ -9255,7 +9285,7 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="H117" t="s">
         <v>51</v>
@@ -9268,7 +9298,7 @@
       </c>
       <c r="L117" t="str">
         <f t="shared" si="6"/>
-        <v>!QuestionnaireResponse.patient</v>
+        <v>QuestionnaireResponse.patient</v>
       </c>
       <c r="M117" t="s">
         <v>51</v>
@@ -9278,27 +9308,27 @@
       </c>
       <c r="Y117" t="str">
         <f>"support searching for all "&amp;LOWER(B117)&amp;"s for a patient"</f>
-        <v>support searching for all !questionnaireresponses for a patient</v>
+        <v>support searching for all questionnaireresponses for a patient</v>
       </c>
       <c r="Z117" s="4" t="str">
         <f>"GET [base]/"&amp;B117&amp;"?patient=1032702"</f>
-        <v>GET [base]/!QuestionnaireResponse?patient=1032702</v>
+        <v>GET [base]/QuestionnaireResponse?patient=1032702</v>
       </c>
       <c r="AA117" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B117&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all !QuestionnaireResponse resources for the specified patient</v>
+        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient</v>
       </c>
       <c r="AB117" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-us-core-!questionnaireresponse-patient.html</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-questionnaireresponse-patient.html</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C118" t="s">
         <v>56</v>
@@ -9314,7 +9344,7 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="H118" t="s">
         <v>51</v>
@@ -9327,7 +9357,7 @@
       </c>
       <c r="L118" t="str">
         <f t="shared" si="6"/>
-        <v>!QuestionnaireResponse.status</v>
+        <v>QuestionnaireResponse.status</v>
       </c>
       <c r="M118" t="s">
         <v>51</v>
@@ -9339,22 +9369,22 @@
         <v>51</v>
       </c>
       <c r="Y118" s="19" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AB118" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-us-core-!questionnaireresponse-status.html</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-questionnaireresponse-status.html</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C119" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D119" t="s">
         <v>28</v>
@@ -9367,7 +9397,7 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="H119" t="s">
         <v>51</v>
@@ -9379,7 +9409,7 @@
         <v>52</v>
       </c>
       <c r="L119" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="M119" t="s">
         <v>51</v>
@@ -9388,19 +9418,19 @@
         <v>51</v>
       </c>
       <c r="Y119" s="19" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="AB119" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-us-core-!questionnaireresponse-tag.html</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-questionnaireresponse-tag.html</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C120" t="s">
         <v>547</v>
@@ -9416,7 +9446,7 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="H120" t="s">
         <v>51</v>
@@ -9429,7 +9459,7 @@
       </c>
       <c r="L120" t="str">
         <f t="shared" ref="L120:L126" si="10">B120&amp;"."&amp;C120</f>
-        <v>!QuestionnaireResponse.authored</v>
+        <v>QuestionnaireResponse.authored</v>
       </c>
       <c r="M120" t="s">
         <v>51</v>
@@ -9444,22 +9474,22 @@
         <v>87</v>
       </c>
       <c r="Y120" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AB120" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-us-core-!questionnaireresponse-authored.html</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-questionnaireresponse-authored.html</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C121" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D121" t="s">
         <v>28</v>
@@ -9472,7 +9502,7 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="H121" t="s">
         <v>51</v>
@@ -9485,7 +9515,7 @@
       </c>
       <c r="L121" t="str">
         <f t="shared" si="10"/>
-        <v>!QuestionnaireResponse.questionnaire</v>
+        <v>QuestionnaireResponse.questionnaire</v>
       </c>
       <c r="M121" t="s">
         <v>51</v>
@@ -9494,19 +9524,19 @@
         <v>51</v>
       </c>
       <c r="Y121" s="19" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="AB121" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-us-core-!questionnaireresponse-questionnaire.html</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>SearchParameter-us-core-questionnaireresponse-questionnaire.html</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C122" t="s">
         <v>84</v>
@@ -9547,7 +9577,7 @@
         <v>51</v>
       </c>
       <c r="Y122" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Z122" s="4" t="str">
         <f>"GET [base]/"&amp;B122&amp;"?patient=1137192"</f>
@@ -9562,12 +9592,12 @@
         <v>SearchParameter-us-core-coverage-patient.html</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C123" t="s">
         <v>56</v>
@@ -9618,12 +9648,12 @@
         <v>SearchParameter-us-core-medicationdispense-status.html</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -9674,12 +9704,12 @@
         <v>SearchParameter-us-core-medicationdispense-type.html</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C125" t="s">
         <v>84</v>
@@ -9720,10 +9750,10 @@
         <v>51</v>
       </c>
       <c r="X125" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Z125" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AA125" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B125&amp; " resources for the specified patient."</f>
@@ -9734,15 +9764,15 @@
         <v>SearchParameter-us-core-medicationdispense-patient.html</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C126" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
@@ -9792,15 +9822,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB126" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Device"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB126" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9814,8 +9838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7AC33C-2643-EE4B-9487-6CC99572F031}">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A64" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10686,7 +10710,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D32" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F32" t="s">
         <v>64</v>
@@ -10695,10 +10719,10 @@
         <v>128</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10828,7 +10852,7 @@
         <v>312</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -10888,7 +10912,7 @@
         <v>144</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>557</v>
@@ -11144,7 +11168,7 @@
         <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D47" t="s">
         <v>110</v>
@@ -11174,7 +11198,7 @@
         <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D48" t="s">
         <v>139</v>
@@ -11207,7 +11231,7 @@
         <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D49" t="s">
         <v>141</v>
@@ -11237,7 +11261,7 @@
         <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D50" t="s">
         <v>188</v>
@@ -11270,7 +11294,7 @@
         <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D51" t="s">
         <v>212</v>
@@ -11648,7 +11672,7 @@
         <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D63" t="s">
         <v>229</v>
@@ -11680,7 +11704,7 @@
         <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D64" t="s">
         <v>139</v>
@@ -11713,7 +11737,7 @@
         <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D65" t="s">
         <v>141</v>
@@ -11743,7 +11767,7 @@
         <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D66" t="s">
         <v>188</v>
@@ -11776,7 +11800,7 @@
         <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D67" t="s">
         <v>212</v>
@@ -11806,7 +11830,7 @@
         <v>304</v>
       </c>
       <c r="C68" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D68" t="s">
         <v>110</v>
@@ -12185,7 +12209,7 @@
         <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D80" t="s">
         <v>112</v>
@@ -12214,7 +12238,7 @@
         <v>241</v>
       </c>
       <c r="C81" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D81" t="s">
         <v>110</v>
@@ -12229,13 +12253,13 @@
         <v>100</v>
       </c>
       <c r="I81" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -12459,11 +12483,11 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D89" t="s">
         <v>110</v>
@@ -12475,14 +12499,14 @@
         <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K89" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ")</f>
-        <v>Fetches a bundle of all !QuestionnaireResponse resources for the specified patient and status</v>
+        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient and status</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -12490,14 +12514,14 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D90" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F90" t="s">
         <v>64</v>
@@ -12506,17 +12530,17 @@
         <v>100</v>
       </c>
       <c r="H90" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I90" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K90" t="str">
         <f>"Fetches a bundle of all "&amp;B90&amp;" resources for the specified "&amp;SUBSTITUTE(D90,","," and  ") &amp; "= 'sdoh'"</f>
-        <v>Fetches a bundle of all !QuestionnaireResponse resources for the specified patient and  _tag= 'sdoh'</v>
+        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient and  _tag= 'sdoh'</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -12524,14 +12548,14 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D91" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F91" t="s">
         <v>64</v>
@@ -12540,14 +12564,14 @@
         <v>143</v>
       </c>
       <c r="I91" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K91" s="4" t="str">
         <f>"Fetches a bundle of all "&amp;B91&amp;" resources for the specified patient and date"</f>
-        <v>Fetches a bundle of all !QuestionnaireResponse resources for the specified patient and date</v>
+        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient and date</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -12555,14 +12579,14 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F92" t="s">
         <v>64</v>
@@ -12571,17 +12595,17 @@
         <v>211</v>
       </c>
       <c r="H92" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I92" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K92" t="str">
         <f>"Fetches a bundle of all "&amp;B92&amp;" resources tagged as 'sdoh' for the specified patient and date"</f>
-        <v>Fetches a bundle of all !QuestionnaireResponse resources tagged as 'sdoh' for the specified patient and date</v>
+        <v>Fetches a bundle of all QuestionnaireResponse resources tagged as 'sdoh' for the specified patient and date</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -12589,14 +12613,14 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaireresponse</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F93" t="s">
         <v>64</v>
@@ -12605,14 +12629,14 @@
         <v>85</v>
       </c>
       <c r="I93" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K93" t="str">
         <f>"Fetches a bundle of all "&amp;B93&amp;" resources for the specified patient that have been completed against a specified form."</f>
-        <v>Fetches a bundle of all !QuestionnaireResponse resources for the specified patient that have been completed against a specified form.</v>
+        <v>Fetches a bundle of all QuestionnaireResponse resources for the specified patient that have been completed against a specified form.</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="151" customHeight="1" x14ac:dyDescent="0.2">
@@ -12620,10 +12644,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="4"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B94)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationdispense</v>
       </c>
       <c r="D94" s="16" t="s">
@@ -12640,10 +12664,10 @@
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K94" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed))."</f>
@@ -12655,7 +12679,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
@@ -12675,10 +12699,10 @@
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K95" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed) and type of dispense (e.g., partially dispensed)."</f>
@@ -12690,14 +12714,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationdispense</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>51</v>
@@ -12710,10 +12734,10 @@
       </c>
       <c r="H96" s="16"/>
       <c r="I96" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K96" t="str">
         <f>"Fetches a bundle of all "&amp;B95&amp;" resources for the specified patient for a given dispense and date or range"</f>
@@ -12723,7 +12747,7 @@
   </sheetData>
   <autoFilter ref="A1:K96" xr:uid="{331E0B16-168F-459B-8951-3DF614BF0371}"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12800,7 +12824,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12808,7 +12832,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12884,7 +12908,7 @@
         <v>526</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
@@ -12892,7 +12916,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>521</v>
@@ -12973,10 +12997,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF3E0BA-3FCD-D647-BD07-B7C9B2EC4519}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13049,10 +13073,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -13063,10 +13087,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -13077,16 +13101,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -13147,7 +13171,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B12" t="s">
         <v>347</v>
@@ -13229,12 +13253,12 @@
         <v>588</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="B18" t="s">
         <v>597</v>
-      </c>
-      <c r="B18" t="s">
-        <v>598</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -13315,16 +13339,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B24" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -13343,10 +13367,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B26" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -13357,10 +13381,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B27" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -13371,10 +13395,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B28" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -13385,10 +13409,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -13413,10 +13437,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B31" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -13500,7 +13524,7 @@
         <v>524</v>
       </c>
       <c r="B37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -13553,10 +13577,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B41" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -13581,10 +13605,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B43" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -13595,10 +13619,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B44" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -13626,7 +13650,7 @@
         <v>480</v>
       </c>
       <c r="B46" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -13748,86 +13772,108 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
-        <v>672</v>
+      <c r="A55" s="23" t="s">
+        <v>699</v>
       </c>
       <c r="B55" t="s">
+        <v>704</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="B56" t="s">
+        <v>601</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
         <v>602</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="B56" t="s">
-        <v>528</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B57" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>696</v>
+        <v>530</v>
       </c>
       <c r="B58" t="s">
-        <v>697</v>
+        <v>531</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>698</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="B59" t="s">
+        <v>693</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",A55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" xr:uid="{EB703517-1E0F-514C-9C3F-F3364468974B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13965,7 +14011,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="V4" t="s">
         <v>533</v>
@@ -13988,7 +14034,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="X5" s="13" t="s">
         <v>434</v>
@@ -14005,7 +14051,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="X6" s="13" t="s">
         <v>434</v>
@@ -14037,7 +14083,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="X8" s="13" t="s">
         <v>434</v>
@@ -14054,7 +14100,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="X9" s="13" t="s">
         <v>434</v>
@@ -14085,7 +14131,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="X11" s="13" t="s">
         <v>434</v>
@@ -14174,7 +14220,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="X16" s="13" t="s">
         <v>434</v>
@@ -14191,7 +14237,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -14204,7 +14250,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X18" s="13" t="s">
         <v>434</v>
@@ -14221,7 +14267,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -14253,7 +14299,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="X21" s="13" t="s">
         <v>434</v>
@@ -14270,32 +14316,31 @@
         <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>64</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
     </row>
     <row r="24" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="X24" s="13" t="s">
         <v>434</v>
@@ -14306,7 +14351,7 @@
     </row>
     <row r="25" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -14318,28 +14363,42 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>532</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>429</v>
       </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-    </row>
-    <row r="62" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y62" s="6"/>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+    </row>
+    <row r="63" spans="22:25" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y63" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
     <sortCondition ref="A2:A21"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14425,10 +14484,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14439,10 +14498,10 @@
     <col min="7" max="7" width="35.33203125" customWidth="1"/>
     <col min="8" max="8" width="28.1640625" customWidth="1"/>
     <col min="24" max="24" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="36.5" customWidth="1"/>
+    <col min="25" max="28" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -14516,19 +14575,22 @@
         <v>416</v>
       </c>
       <c r="Y1" t="s">
-        <v>605</v>
+        <v>703</v>
       </c>
       <c r="Z1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA1" t="s">
         <v>535</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>536</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -14607,8 +14669,11 @@
       <c r="AA2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -14678,7 +14743,7 @@
         <v>28</v>
       </c>
       <c r="Y3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="s">
         <v>11</v>
@@ -14686,8 +14751,11 @@
       <c r="AA3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -14755,7 +14823,7 @@
         <v>11</v>
       </c>
       <c r="Y4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="Z4" t="s">
         <v>11</v>
@@ -14763,8 +14831,11 @@
       <c r="AA4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -14840,8 +14911,11 @@
       <c r="AA5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -14917,8 +14991,11 @@
       <c r="AA6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -14994,8 +15071,11 @@
       <c r="AA7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -15071,8 +15151,11 @@
       <c r="AA8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -15140,7 +15223,7 @@
         <v>64</v>
       </c>
       <c r="Y9" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="s">
         <v>64</v>
@@ -15148,8 +15231,11 @@
       <c r="AA9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -15223,6 +15309,9 @@
         <v>28</v>
       </c>
       <c r="AA10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -15236,7 +15325,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources_spreadsheets/uscore-client.xlsx
+++ b/input/resources_spreadsheets/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core/input/resources_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3962CE87-7D7D-B849-A51F-A5EBC4FC1FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE67CF2-39DB-AE41-A9A7-4F224196D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51640" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -2094,6 +2094,228 @@
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
   </si>
   <si>
+    <t>death-date</t>
+  </si>
+  <si>
+    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, given, prefix, suffix, and/or text</t>
+  </si>
+  <si>
+    <t>tribal-affiliation</t>
+  </si>
+  <si>
+    <t>Patient.extension.where(url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation').extension.value.code</t>
+  </si>
+  <si>
+    <t>support searching for a patient by tribal affiliation code</t>
+  </si>
+  <si>
+    <t>GET [base]/Patient?tribal-affiliiation=Shaw</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>support searching for all coverages for a patient</t>
+  </si>
+  <si>
+    <t>MedicationDispense</t>
+  </si>
+  <si>
+    <t>MedicationDispense:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationDispense?patient=14676~GET [base]/MedicationStatement?patient=14676&amp;_include=MedicationDispense:medication</t>
+  </si>
+  <si>
+    <t>!MedicationDispense</t>
+  </si>
+  <si>
+    <t>whenHandedOver</t>
+  </si>
+  <si>
+    <t>death-date,family</t>
+  </si>
+  <si>
+    <t>support searching for a patient by date of death and family name</t>
+  </si>
+  <si>
+    <t>GET [base]/Patient?family=Shaw&amp;death-date=2022-07-22</t>
+  </si>
+  <si>
+    <t>Implementation Notes: Fetches a bundle of all Condition resources for the specified patient and all "active" statuses (active,relapse,remission). This will *exclude* diagnoses and health concerns without a clinicalStatus specified.</t>
+  </si>
+  <si>
+    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis&amp;encounter=1036</t>
+  </si>
+  <si>
+    <t>support searching for all devices with a given status for a patient (for example all active devices)</t>
+  </si>
+  <si>
+    <t>GET [base]/Device?patient=1316024&amp;status=active</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Device resources for the specified patient and status</t>
+  </si>
+  <si>
+    <t>support searching for prescriptions for a patient based on their dispensed status</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationDispense?patient=1137192&amp;status=completed~GET [base]/MedicationDispense?patient=1137192&amp;status=completed&amp;_include=MedicationDispense:medication</t>
+  </si>
+  <si>
+    <t>support searching for prescriptions for a patient based on their dispensed status and dispense type.</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationDispense?patient=1137192&amp;status=&amp;type=~GET [base]/MedicationDispense?patient=1137192&amp;status=&amp;type=FFP&amp;_include=MedicationDispense:medication</t>
+  </si>
+  <si>
+    <t>patient,whenhandedover</t>
+  </si>
+  <si>
+    <t>support searching for prescriptions for a patient based on when it was dispensed to the patient.</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>!Bulk Data Access IG</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</t>
+  </si>
+  <si>
+    <t>* The `DocumentReference.type` binding **SHALL** support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set
+* The DocumentReference resources can represent the referenced content using either an address where the document can be retrieved using `DocumentReference.attachment.url` or the content as inline base64 encoded data using `DocumentReference.attachment.data`.
+    *  Although both are marked as must support, the server system is not required to support an address, and inline base64 encoded data, but **SHALL** support at least one of these elements.
+    *  The client application **SHALL** support both elements.
+    *  The `content.url` may refer to a FHIR Binary Resource (i.e. [base]/Binary/[id]), FHIR Document Bundle (i.e [base]/Bundle/[id] or another endpoint.
+        * If the endpoint is outside the FHIR base URL, it **SHOULD NOT** require additional authorization to access.
+* Every DocumentReference must have a responsible Organization. The organization responsible for the DocumentReference **SHALL** be present either in `DocumentReference.custodian` or accessible in the Provenance resource targeting the DocumentReference using `Provenance.agent.who` or `Provenance.agent.onBehalfOf`.</t>
+  </si>
+  <si>
+    <t>Servers that support only US Core Practitioner Profile **SHALL** provide implementation specific guidance how to access a provider’s location and contact information using only the Practitioner resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/smart-app-launch/history.html</t>
+  </si>
+  <si>
+    <t>!!Questionnaire</t>
+  </si>
+  <si>
+    <t>!Questionnaire.id</t>
+  </si>
+  <si>
+    <t>GET [base]/!QuestionnaireResponse/AHC-HRSN-screening-example~GET [base]/!QuestionnaireResponse/?_id=AHC-HRSN-screening-example</t>
+  </si>
+  <si>
+    <t>Allows retrieving !QuestionnaireResponses that are complete (or incomplete)</t>
+  </si>
+  <si>
+    <t>!QuestionnaireResponse.meta._tag</t>
+  </si>
+  <si>
+    <t>Allows filtering for !QuestionnaireResponse that have tag of “sdoh”</t>
+  </si>
+  <si>
+    <t>Allows filtering for !QuestionnaireResponses by when they were created/last edited</t>
+  </si>
+  <si>
+    <t>Allows retrieving !QuestionnaireResponses that have been completed against a specified form</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-coverage</t>
+  </si>
+  <si>
+    <t>US Core Coverage Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationdispense</t>
+  </si>
+  <si>
+    <t>US Core MedicationDispense Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-pregnancystatus</t>
+  </si>
+  <si>
+    <t>US Core Observation Pregnancy Status Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-pregnancyintent</t>
+  </si>
+  <si>
+    <t>US Core Observation Pregnancy Intent Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-occupation</t>
+  </si>
+  <si>
+    <t>US Core Observation Occupation Profile</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sdoh-assessment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-simple-observation</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-imaging</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-clinical-result</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-specimen</t>
+  </si>
+  <si>
+    <t>US Core Specimen Profile</t>
+  </si>
+  <si>
+    <t>Specimen</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment</t>
+  </si>
+  <si>
+    <t>US Core Simple Observation Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Screening Assessment Profile</t>
+  </si>
+  <si>
+    <t>US Core Observation Clinical Result Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-extension-questionnaire-uri</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>conf_Questionnaire</t>
+  </si>
+  <si>
+    <t>SDC Base Questionnaire Profile</t>
+  </si>
+  <si>
+    <t>US Core defines two ways to represent the questions and responses to screening and assessment instruments:
+- Observation: [US Core Observation Screening Assessment Profile]
+- Questionnaire/QuestionnaireResponse: [SDC Base Questionnaire]/[US Core QuestionnaireResponse Profile]
+US Core Servers **SHALL** [US Core Observation Screening Assessment Profile] and **SHOULD** support the  [SDC Base Questionnaire Profile]/[US Core QuestionnaireResponse Profile]</t>
+  </si>
+  <si>
     <t>* The US Core Provenance resource **SHALL** be supported for these US Core resources:
     * AllergyIntolerance
     * CarePlan
@@ -2111,232 +2333,11 @@
     * Observation
     * Patient
     * Procedure
+    * QuestionnaireResponse
     * RelatedPerson
     * ServiceRequest
 * If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.
 * Systems that need to know the activity has occurred **SHOULD** populate the activity.</t>
-  </si>
-  <si>
-    <t>death-date</t>
-  </si>
-  <si>
-    <t>support searching for a patient by a server defined search that matches any of the string fields in the HumanName, including family, given, prefix, suffix, and/or text</t>
-  </si>
-  <si>
-    <t>tribal-affiliation</t>
-  </si>
-  <si>
-    <t>Patient.extension.where(url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation').extension.value.code</t>
-  </si>
-  <si>
-    <t>support searching for a patient by tribal affiliation code</t>
-  </si>
-  <si>
-    <t>GET [base]/Patient?tribal-affiliiation=Shaw</t>
-  </si>
-  <si>
-    <t>Coverage</t>
-  </si>
-  <si>
-    <t>support searching for all coverages for a patient</t>
-  </si>
-  <si>
-    <t>MedicationDispense</t>
-  </si>
-  <si>
-    <t>MedicationDispense:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationDispense?patient=14676~GET [base]/MedicationStatement?patient=14676&amp;_include=MedicationDispense:medication</t>
-  </si>
-  <si>
-    <t>!MedicationDispense</t>
-  </si>
-  <si>
-    <t>whenHandedOver</t>
-  </si>
-  <si>
-    <t>death-date,family</t>
-  </si>
-  <si>
-    <t>support searching for a patient by date of death and family name</t>
-  </si>
-  <si>
-    <t>GET [base]/Patient?family=Shaw&amp;death-date=2022-07-22</t>
-  </si>
-  <si>
-    <t>Implementation Notes: Fetches a bundle of all Condition resources for the specified patient and all "active" statuses (active,relapse,remission). This will *exclude* diagnoses and health concerns without a clinicalStatus specified.</t>
-  </si>
-  <si>
-    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis&amp;encounter=1036</t>
-  </si>
-  <si>
-    <t>support searching for all devices with a given status for a patient (for example all active devices)</t>
-  </si>
-  <si>
-    <t>GET [base]/Device?patient=1316024&amp;status=active</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all Device resources for the specified patient and status</t>
-  </si>
-  <si>
-    <t>support searching for prescriptions for a patient based on their dispensed status</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationDispense?patient=1137192&amp;status=completed~GET [base]/MedicationDispense?patient=1137192&amp;status=completed&amp;_include=MedicationDispense:medication</t>
-  </si>
-  <si>
-    <t>support searching for prescriptions for a patient based on their dispensed status and dispense type.</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationDispense?patient=1137192&amp;status=&amp;type=~GET [base]/MedicationDispense?patient=1137192&amp;status=&amp;type=FFP&amp;_include=MedicationDispense:medication</t>
-  </si>
-  <si>
-    <t>patient,whenhandedover</t>
-  </si>
-  <si>
-    <t>support searching for prescriptions for a patient based on when it was dispensed to the patient.</t>
-  </si>
-  <si>
-    <t>foo</t>
-  </si>
-  <si>
-    <t>!Bulk Data Access IG</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</t>
-  </si>
-  <si>
-    <t>* The `DocumentReference.type` binding **SHALL** support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set
-* The DocumentReference resources can represent the referenced content using either an address where the document can be retrieved using `DocumentReference.attachment.url` or the content as inline base64 encoded data using `DocumentReference.attachment.data`.
-    *  Although both are marked as must support, the server system is not required to support an address, and inline base64 encoded data, but **SHALL** support at least one of these elements.
-    *  The client application **SHALL** support both elements.
-    *  The `content.url` may refer to a FHIR Binary Resource (i.e. [base]/Binary/[id]), FHIR Document Bundle (i.e [base]/Bundle/[id] or another endpoint.
-        * If the endpoint is outside the FHIR base URL, it **SHOULD NOT** require additional authorization to access.
-* Every DocumentReference must have a responsible Organization. The organization responsible for the DocumentReference **SHALL** be present either in `DocumentReference.custodian` or accessible in the Provenance resource targeting the DocumentReference using `Provenance.agent.who` or `Provenance.agent.onBehalfOf`.</t>
-  </si>
-  <si>
-    <t>Servers that support only US Core Practitioner Profile **SHALL** provide implementation specific guidance how to access a provider’s location and contact information using only the Practitioner resource.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/smart-app-launch/history.html</t>
-  </si>
-  <si>
-    <t>!!Questionnaire</t>
-  </si>
-  <si>
-    <t>!Questionnaire.id</t>
-  </si>
-  <si>
-    <t>GET [base]/!QuestionnaireResponse/AHC-HRSN-screening-example~GET [base]/!QuestionnaireResponse/?_id=AHC-HRSN-screening-example</t>
-  </si>
-  <si>
-    <t>Allows retrieving !QuestionnaireResponses that are complete (or incomplete)</t>
-  </si>
-  <si>
-    <t>!QuestionnaireResponse.meta._tag</t>
-  </si>
-  <si>
-    <t>Allows filtering for !QuestionnaireResponse that have tag of “sdoh”</t>
-  </si>
-  <si>
-    <t>Allows filtering for !QuestionnaireResponses by when they were created/last edited</t>
-  </si>
-  <si>
-    <t>Allows retrieving !QuestionnaireResponses that have been completed against a specified form</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-coverage</t>
-  </si>
-  <si>
-    <t>US Core Coverage Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationdispense</t>
-  </si>
-  <si>
-    <t>US Core MedicationDispense Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-pregnancystatus</t>
-  </si>
-  <si>
-    <t>US Core Observation Pregnancy Status Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-pregnancyintent</t>
-  </si>
-  <si>
-    <t>US Core Observation Pregnancy Intent Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-occupation</t>
-  </si>
-  <si>
-    <t>US Core Observation Occupation Profile</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-sdoh-assessment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-simple-observation</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-imaging</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-clinical-result</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-specimen</t>
-  </si>
-  <si>
-    <t>US Core Specimen Profile</t>
-  </si>
-  <si>
-    <t>Specimen</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment</t>
-  </si>
-  <si>
-    <t>US Core Simple Observation Profile</t>
-  </si>
-  <si>
-    <t>US Core Observation Screening Assessment Profile</t>
-  </si>
-  <si>
-    <t>US Core Observation Clinical Result Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-extension-questionnaire-uri</t>
-  </si>
-  <si>
-    <t>Questionnaire</t>
-  </si>
-  <si>
-    <t>conf_Questionnaire</t>
-  </si>
-  <si>
-    <t>SDC Base Questionnaire Profile</t>
-  </si>
-  <si>
-    <t>US Core defines two ways to represent the questions and responses to screening and assessment instruments:
-- Observation: [US Core Observation Screening Assessment Profile]
-- Questionnaire/QuestionnaireResponse: [SDC Base Questionnaire]/[US Core QuestionnaireResponse Profile]
-US Core Servers **SHALL** [US Core Observation Screening Assessment Profile] and **SHOULD** support the  [SDC Base Questionnaire Profile]/[US Core QuestionnaireResponse Profile]</t>
   </si>
 </sst>
 </file>
@@ -2537,17 +2538,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4362,7 +4353,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -4639,7 +4630,7 @@
         <v>51</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Z30" t="s">
         <v>167</v>
@@ -4661,7 +4652,7 @@
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -4686,19 +4677,19 @@
         <v>52</v>
       </c>
       <c r="L31" t="s">
+        <v>637</v>
+      </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y31" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="M31" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y31" s="4" t="s">
+      <c r="Z31" t="s">
         <v>639</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>640</v>
       </c>
       <c r="AA31" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B31&amp;" resources matching the name"</f>
@@ -4714,7 +4705,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -4739,7 +4730,7 @@
         <v>52</v>
       </c>
       <c r="L32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
@@ -4757,7 +4748,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
@@ -4801,7 +4792,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
@@ -4848,7 +4839,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -4892,7 +4883,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -4948,7 +4939,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C37" t="s">
         <v>54</v>
@@ -4992,7 +4983,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
@@ -9198,7 +9189,7 @@
         <v>51</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Z115" s="4" t="str">
         <f>"GET [base]/"&amp;B115&amp;"?"&amp;C115&amp;"=Mary Shaw"</f>
@@ -9257,7 +9248,7 @@
         <v>support fetching a QuestionnaireResponse</v>
       </c>
       <c r="Z116" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AB116" t="str">
         <f t="shared" si="9"/>
@@ -9369,7 +9360,7 @@
         <v>51</v>
       </c>
       <c r="Y118" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AB118" t="str">
         <f t="shared" si="9"/>
@@ -9409,16 +9400,16 @@
         <v>52</v>
       </c>
       <c r="L119" t="s">
+        <v>673</v>
+      </c>
+      <c r="M119" t="s">
+        <v>51</v>
+      </c>
+      <c r="O119" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y119" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="M119" t="s">
-        <v>51</v>
-      </c>
-      <c r="O119" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y119" s="19" t="s">
-        <v>675</v>
       </c>
       <c r="AB119" t="str">
         <f t="shared" si="9"/>
@@ -9474,7 +9465,7 @@
         <v>87</v>
       </c>
       <c r="Y120" s="19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AB120" t="str">
         <f t="shared" si="9"/>
@@ -9524,7 +9515,7 @@
         <v>51</v>
       </c>
       <c r="Y121" s="19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AB121" t="str">
         <f t="shared" si="9"/>
@@ -9536,7 +9527,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C122" t="s">
         <v>84</v>
@@ -9577,7 +9568,7 @@
         <v>51</v>
       </c>
       <c r="Y122" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Z122" s="4" t="str">
         <f>"GET [base]/"&amp;B122&amp;"?patient=1137192"</f>
@@ -9597,7 +9588,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C123" t="s">
         <v>56</v>
@@ -9653,7 +9644,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -9709,7 +9700,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C125" t="s">
         <v>84</v>
@@ -9750,10 +9741,10 @@
         <v>51</v>
       </c>
       <c r="X125" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z125" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="Z125" s="8" t="s">
-        <v>645</v>
       </c>
       <c r="AA125" s="8" t="str">
         <f>"Fetches a bundle of all "&amp;B125&amp; " resources for the specified patient."</f>
@@ -9769,10 +9760,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>645</v>
+      </c>
+      <c r="C126" t="s">
         <v>646</v>
-      </c>
-      <c r="C126" t="s">
-        <v>647</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
@@ -10710,7 +10701,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F32" t="s">
         <v>64</v>
@@ -10719,10 +10710,10 @@
         <v>128</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10852,7 +10843,7 @@
         <v>312</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -10912,7 +10903,7 @@
         <v>144</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>557</v>
@@ -11168,7 +11159,7 @@
         <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D47" t="s">
         <v>110</v>
@@ -11198,7 +11189,7 @@
         <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D48" t="s">
         <v>139</v>
@@ -11231,7 +11222,7 @@
         <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D49" t="s">
         <v>141</v>
@@ -11261,7 +11252,7 @@
         <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D50" t="s">
         <v>188</v>
@@ -11294,7 +11285,7 @@
         <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D51" t="s">
         <v>212</v>
@@ -11672,7 +11663,7 @@
         <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D63" t="s">
         <v>229</v>
@@ -11704,7 +11695,7 @@
         <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D64" t="s">
         <v>139</v>
@@ -11737,7 +11728,7 @@
         <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D65" t="s">
         <v>141</v>
@@ -11767,7 +11758,7 @@
         <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D66" t="s">
         <v>188</v>
@@ -11800,7 +11791,7 @@
         <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D67" t="s">
         <v>212</v>
@@ -11830,7 +11821,7 @@
         <v>304</v>
       </c>
       <c r="C68" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D68" t="s">
         <v>110</v>
@@ -12209,7 +12200,7 @@
         <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D80" t="s">
         <v>112</v>
@@ -12238,7 +12229,7 @@
         <v>241</v>
       </c>
       <c r="C81" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D81" t="s">
         <v>110</v>
@@ -12253,13 +12244,13 @@
         <v>100</v>
       </c>
       <c r="I81" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="K81" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -12644,7 +12635,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C94" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B94)</f>
@@ -12664,10 +12655,10 @@
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="J94" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>657</v>
       </c>
       <c r="K94" t="str">
         <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient that have a given dispense status (e.g., dispensed, not dispensed))."</f>
@@ -12679,7 +12670,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
@@ -12699,10 +12690,10 @@
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="J95" s="4" t="s"